--- a/gd/任务系统/任务线设计___附带条件需求.xlsx
+++ b/gd/任务系统/任务线设计___附带条件需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28485" yWindow="75" windowWidth="28590" windowHeight="12300"/>
+    <workbookView xWindow="-165" yWindow="300" windowWidth="28590" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="主线剧情任务" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="624">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2698,6 +2698,18 @@
   </si>
   <si>
     <t>10钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴装备位置满足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置参数(用,表示并逻辑判断)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3334,14 +3346,15 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3469,9 +3482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3480,6 +3490,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3562,7 +3575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3904,7 +3916,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3915,8 +3927,8 @@
     <col min="7" max="7" width="40.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="5"/>
-    <col min="12" max="12" width="15.125" style="159" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="159"/>
+    <col min="12" max="12" width="15.125" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="83"/>
     <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -3949,22 +3961,22 @@
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="159" t="s">
+      <c r="L1" s="83" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="7"/>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
-      <c r="L2" s="159" t="s">
+      <c r="L2" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="159" t="s">
+      <c r="M2" s="83" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
@@ -3978,7 +3990,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="77"/>
       <c r="C3" s="75" t="s">
         <v>357</v>
@@ -3994,15 +4006,15 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="159">
+      <c r="L3" s="83">
         <v>130</v>
       </c>
-      <c r="M3" s="159">
-        <v>10</v>
+      <c r="M3" s="83">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="77"/>
       <c r="C4" s="75" t="s">
         <v>358</v>
@@ -4018,15 +4030,15 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="159">
+      <c r="L4" s="83">
         <v>280</v>
       </c>
-      <c r="M4" s="159">
-        <v>10</v>
+      <c r="M4" s="83">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="85">
+      <c r="A5" s="84">
         <v>1</v>
       </c>
       <c r="B5" s="75" t="s">
@@ -4049,15 +4061,15 @@
         <v>27</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="L5" s="159">
+      <c r="L5" s="83">
         <v>350</v>
       </c>
-      <c r="M5" s="159">
-        <v>10</v>
+      <c r="M5" s="83">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="75" t="s">
         <v>2</v>
       </c>
@@ -4078,18 +4090,18 @@
         <v>362</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="L6" s="159">
+      <c r="L6" s="83">
         <v>400</v>
       </c>
-      <c r="M6" s="159">
-        <v>13</v>
+      <c r="M6" s="83">
+        <v>9</v>
       </c>
       <c r="N6" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="75" t="s">
         <v>3</v>
       </c>
@@ -4109,13 +4121,16 @@
       <c r="H7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L7" s="159">
+      <c r="L7" s="83">
         <v>550</v>
       </c>
+      <c r="M7" s="83">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="84"/>
+      <c r="B8" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4134,13 +4149,16 @@
       <c r="H8" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L8" s="159">
+      <c r="L8" s="83">
         <v>700</v>
       </c>
+      <c r="M8" s="83">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="1" t="s">
         <v>380</v>
       </c>
@@ -4157,8 +4175,11 @@
       <c r="H9" t="s">
         <v>376</v>
       </c>
-      <c r="L9" s="159">
+      <c r="L9" s="83">
         <v>850</v>
+      </c>
+      <c r="M9" s="83">
+        <v>18</v>
       </c>
       <c r="P9" t="s">
         <v>408</v>
@@ -4168,8 +4189,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4188,8 +4209,11 @@
       <c r="H10" t="s">
         <v>376</v>
       </c>
-      <c r="L10" s="159">
+      <c r="L10" s="83">
         <v>1000</v>
+      </c>
+      <c r="M10" s="83">
+        <v>25</v>
       </c>
       <c r="P10" t="s">
         <v>409</v>
@@ -4205,8 +4229,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11">
         <v>10009</v>
       </c>
@@ -4223,8 +4247,11 @@
       <c r="H11" t="s">
         <v>423</v>
       </c>
-      <c r="L11" s="159">
+      <c r="L11" s="83">
         <v>1150</v>
+      </c>
+      <c r="M11" s="83">
+        <v>35</v>
       </c>
       <c r="P11" t="s">
         <v>410</v>
@@ -4237,7 +4264,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4245,7 +4272,7 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="85"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4255,8 +4282,8 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="85" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4277,8 +4304,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" s="85"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="1" t="s">
         <v>397</v>
       </c>
@@ -4297,8 +4324,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="1" t="s">
         <v>398</v>
       </c>
@@ -4317,8 +4344,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="85"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="1" t="s">
         <v>404</v>
       </c>
@@ -4343,10 +4370,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="85">
+      <c r="A18" s="84">
         <v>2</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="85" t="s">
         <v>10</v>
       </c>
       <c r="C18">
@@ -4366,8 +4393,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="85"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="1" t="s">
         <v>417</v>
       </c>
@@ -4386,13 +4413,13 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="85"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="85"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="79">
@@ -4412,8 +4439,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="85"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
       <c r="C22">
         <v>10017</v>
       </c>
@@ -4431,7 +4458,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="85"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -4453,8 +4480,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="85"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="85" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="75" t="s">
@@ -4475,8 +4502,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="85"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="75" t="s">
         <v>518</v>
       </c>
@@ -4493,7 +4520,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4504,7 +4531,7 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
@@ -4532,8 +4559,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="83" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85" t="s">
         <v>16</v>
       </c>
       <c r="C28">
@@ -4553,8 +4580,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="85"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="85"/>
       <c r="C29">
         <v>10023</v>
       </c>
@@ -4571,7 +4598,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="1" t="s">
         <v>17</v>
       </c>
@@ -4593,7 +4620,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="85">
+      <c r="A31" s="84">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4606,7 +4633,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
@@ -4617,8 +4644,8 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="85"/>
-      <c r="B33" s="84" t="s">
+      <c r="A33" s="84"/>
+      <c r="B33" s="86" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4645,8 +4672,8 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
-      <c r="B34" s="84"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="1" t="s">
         <v>570</v>
       </c>
@@ -4665,8 +4692,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="85"/>
-      <c r="B35" s="84" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="86" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4687,8 +4714,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -4696,7 +4723,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="85"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="1" t="s">
         <v>22</v>
       </c>
@@ -4707,7 +4734,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="85"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
@@ -4718,7 +4745,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="85"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
@@ -4729,7 +4756,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="85"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
@@ -4876,15 +4903,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="87" t="s">
         <v>388</v>
       </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
       <c r="R1" t="s">
         <v>456</v>
       </c>
@@ -4913,20 +4940,20 @@
       <c r="H2" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="87"/>
       <c r="K2" t="s">
         <v>500</v>
       </c>
       <c r="M2" t="s">
         <v>411</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="87" t="s">
         <v>412</v>
       </c>
-      <c r="O2" s="86"/>
+      <c r="O2" s="87"/>
       <c r="R2" t="s">
         <v>427</v>
       </c>
@@ -5648,10 +5675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:I18"/>
+  <dimension ref="B6:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J11" sqref="J11:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5659,7 +5686,7 @@
     <col min="2" max="2" width="44.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
@@ -5677,8 +5704,12 @@
       <c r="H6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <f>D6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
@@ -5694,8 +5725,12 @@
       <c r="H7" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <f>SUM($D$6:D7)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>487</v>
       </c>
@@ -5711,8 +5746,12 @@
       <c r="H8" s="11">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <f>SUM($D$6:D8)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
@@ -5730,8 +5769,12 @@
       <c r="H9" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <f>SUM($D$6:D9)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
@@ -5749,8 +5792,12 @@
       <c r="H10" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <f>SUM($D$6:D10)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
@@ -5768,8 +5815,12 @@
       <c r="H11" s="11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <f>SUM($D$6:D11)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
         <v>605</v>
       </c>
@@ -5785,8 +5836,12 @@
       <c r="H12" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <f>SUM($D$6:D12)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
         <v>494</v>
       </c>
@@ -5802,8 +5857,12 @@
       <c r="H13" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <f>SUM($D$6:D13)</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>495</v>
       </c>
@@ -5821,8 +5880,12 @@
       <c r="H14" s="11">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <f>SUM($D$6:D14)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>606</v>
       </c>
@@ -5841,8 +5904,12 @@
       <c r="I15" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <f>SUM($D$6:D15)</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>488</v>
       </c>
@@ -5859,6 +5926,10 @@
       <c r="G16" s="9"/>
       <c r="H16" s="11">
         <v>30</v>
+      </c>
+      <c r="J16">
+        <f>SUM($D$6:D16)</f>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
@@ -5935,13 +6006,13 @@
       <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
       <c r="L1" s="13" t="s">
         <v>48</v>
       </c>
@@ -6004,31 +6075,31 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="G2" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6051,17 +6122,17 @@
       <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="136"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="157"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6084,29 +6155,29 @@
       <c r="AE3" s="16"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="103" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="103" t="s">
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="119" t="s">
         <v>80</v>
       </c>
       <c r="N4" s="13"/>
@@ -6129,19 +6200,19 @@
       <c r="AE4" s="16"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="136"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="12"/>
@@ -6162,19 +6233,19 @@
       <c r="AE5" s="16"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="136"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
       <c r="N6" s="13" t="s">
         <v>81</v>
       </c>
@@ -6197,30 +6268,30 @@
       <c r="AE6" s="16"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="136"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="103" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="103" t="s">
+      <c r="F7" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="158" t="s">
+      <c r="G7" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
@@ -6238,22 +6309,22 @@
       <c r="AE7" s="16"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="136"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
@@ -6271,29 +6342,29 @@
       <c r="AE8" s="16"/>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="135">
+      <c r="A9" s="136">
         <v>1</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="88">
         <v>1</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="99">
         <v>1</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="148" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="17" t="s">
@@ -6321,19 +6392,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="136"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="147"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18" t="s">
@@ -6341,7 +6412,7 @@
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="103">
+      <c r="Q10" s="104">
         <v>1</v>
       </c>
       <c r="R10" s="12">
@@ -6361,19 +6432,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="136"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="147"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="125" t="s">
+      <c r="G11" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
       <c r="L11" s="19" t="s">
         <v>93</v>
       </c>
@@ -6382,7 +6453,7 @@
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="104"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="12">
         <f>SUM($Q$9:Q11)</f>
         <v>3</v>
@@ -6402,19 +6473,19 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="136"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="147"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
       <c r="L12" s="18" t="s">
         <v>97</v>
       </c>
@@ -6446,9 +6517,9 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="136"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="21" t="s">
         <v>100</v>
       </c>
@@ -6458,13 +6529,13 @@
       <c r="F13" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="13" t="s">
         <v>103</v>
       </c>
@@ -6498,10 +6569,10 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="145" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="146" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="12">
@@ -6510,13 +6581,13 @@
       <c r="F14" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="125" t="s">
+      <c r="G14" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -6531,7 +6602,7 @@
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
-      <c r="U14" s="140" t="s">
+      <c r="U14" s="141" t="s">
         <v>109</v>
       </c>
       <c r="V14" s="23"/>
@@ -6544,23 +6615,23 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="136"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="146"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="12">
         <v>3</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
       <c r="L15" s="17" t="s">
         <v>112</v>
       </c>
@@ -6581,7 +6652,7 @@
       <c r="T15" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="U15" s="140"/>
+      <c r="U15" s="141"/>
       <c r="V15" s="23"/>
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
@@ -6612,21 +6683,21 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="136"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="141" t="s">
+      <c r="G16" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
       <c r="L16" s="32" t="s">
         <v>117</v>
       </c>
@@ -6665,21 +6736,21 @@
       <c r="AE16" s="31"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="136"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="21" t="s">
         <v>121</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="142" t="s">
+      <c r="G17" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
       <c r="L17" s="37" t="s">
         <v>123</v>
       </c>
@@ -6704,9 +6775,9 @@
       <c r="AE17" s="31"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="137"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="98">
+      <c r="A18" s="138"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="99">
         <v>2</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -6716,13 +6787,13 @@
       <c r="F18" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="38" t="s">
@@ -6755,11 +6826,11 @@
       <c r="AE18" s="31"/>
     </row>
     <row r="19" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="87">
+      <c r="A19" s="88">
         <v>2</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="21" t="s">
         <v>100</v>
       </c>
@@ -6767,13 +6838,13 @@
         <v>87</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
       <c r="L19" s="12"/>
       <c r="M19" s="42"/>
       <c r="N19" s="19" t="s">
@@ -6806,23 +6877,23 @@
       <c r="AE19" s="31"/>
     </row>
     <row r="20" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="145" t="s">
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="146" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="125" t="s">
+      <c r="G20" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="128"/>
       <c r="L20" s="12"/>
       <c r="M20" s="25" t="s">
         <v>130</v>
@@ -6842,7 +6913,7 @@
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="91"/>
+      <c r="U20" s="92"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -6858,21 +6929,21 @@
       <c r="AE20" s="31"/>
     </row>
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="146"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="12">
         <v>3</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
       <c r="L21" s="37" t="s">
         <v>133</v>
       </c>
@@ -6891,7 +6962,7 @@
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="91"/>
+      <c r="U21" s="92"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -6920,9 +6991,9 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="21" t="s">
         <v>82</v>
       </c>
@@ -6930,13 +7001,13 @@
         <v>87</v>
       </c>
       <c r="F22" s="12"/>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
@@ -6973,9 +7044,9 @@
       <c r="AE22" s="31"/>
     </row>
     <row r="23" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="98">
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="99">
         <v>3</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -6983,13 +7054,13 @@
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
@@ -7020,9 +7091,9 @@
       <c r="AE23" s="31"/>
     </row>
     <row r="24" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="99"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="21" t="s">
         <v>75</v>
       </c>
@@ -7030,13 +7101,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="12"/>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
       <c r="L24" s="13"/>
       <c r="M24" s="17" t="s">
         <v>139</v>
@@ -7076,23 +7147,23 @@
       <c r="AE24" s="31"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="135">
+      <c r="A25" s="136">
         <v>3</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="102"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="92" t="s">
+      <c r="G25" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
       <c r="L25" s="19" t="s">
         <v>144</v>
       </c>
@@ -7130,9 +7201,9 @@
       <c r="AE25" s="31"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="136"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="98">
+      <c r="A26" s="137"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="99">
         <v>4</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -7142,13 +7213,13 @@
       <c r="F26" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="91" t="s">
+      <c r="G26" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
       <c r="L26" s="18" t="s">
         <v>149</v>
       </c>
@@ -7196,21 +7267,21 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="136"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -7241,21 +7312,21 @@
       <c r="AE27" s="31"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="136"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="99"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="21" t="s">
         <v>152</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
       <c r="L28" s="13" t="s">
         <v>154</v>
       </c>
@@ -7293,21 +7364,21 @@
       <c r="AE28" s="31"/>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="136"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="98" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="99" t="s">
         <v>115</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="91" t="s">
+      <c r="G29" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
@@ -7337,19 +7408,19 @@
       <c r="AE29" s="31"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="92" t="s">
+      <c r="G30" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
       <c r="L30" s="19" t="s">
         <v>161</v>
       </c>
@@ -7392,9 +7463,9 @@
       <c r="AE30" s="31"/>
     </row>
     <row r="31" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="136"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="98">
+      <c r="A31" s="137"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="99">
         <v>5</v>
       </c>
       <c r="D31" s="21" t="s">
@@ -7404,13 +7475,13 @@
       <c r="F31" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
       <c r="L31" s="13" t="s">
         <v>168</v>
       </c>
@@ -7447,23 +7518,23 @@
       <c r="AE31" s="31"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="136"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="99"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="21" t="s">
         <v>152</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
       <c r="L32" s="19" t="s">
         <v>173</v>
       </c>
@@ -7501,21 +7572,21 @@
       <c r="AE32" s="31"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="136"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="98" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="99" t="s">
         <v>115</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="91" t="s">
+      <c r="F33" s="90"/>
+      <c r="G33" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
       <c r="L33" s="13" t="s">
         <v>175</v>
       </c>
@@ -7548,12 +7619,12 @@
       <c r="AE33" s="31"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="137"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="89"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="129" t="s">
         <v>176</v>
       </c>
@@ -7583,21 +7654,21 @@
       <c r="AE34" s="31"/>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="98">
+      <c r="A35" s="99">
         <v>4</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="92" t="s">
+      <c r="F35" s="90"/>
+      <c r="G35" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
       <c r="L35" s="19" t="s">
         <v>178</v>
       </c>
@@ -7627,23 +7698,23 @@
       <c r="AE35" s="31"/>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="134">
+      <c r="A36" s="103"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="135">
         <v>6</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="92" t="s">
+      <c r="F36" s="90"/>
+      <c r="G36" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="95"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
@@ -7685,23 +7756,23 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="135">
+      <c r="A37" s="136">
         <v>5</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="134"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="135"/>
       <c r="D37" s="47" t="s">
         <v>152</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="91" t="s">
+      <c r="F37" s="90"/>
+      <c r="G37" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
       <c r="L37" s="13"/>
       <c r="M37" s="17" t="s">
         <v>169</v>
@@ -7734,21 +7805,21 @@
       <c r="AE37" s="31"/>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="136"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="134"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="91" t="s">
+      <c r="F38" s="90"/>
+      <c r="G38" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13" t="s">
         <v>181</v>
@@ -7783,23 +7854,23 @@
       <c r="AE38" s="31"/>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="136"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="134">
+      <c r="A39" s="137"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="135">
         <v>7</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E39" s="12"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="91" t="s">
+      <c r="F39" s="90"/>
+      <c r="G39" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
@@ -7836,21 +7907,21 @@
       <c r="AE39" s="31"/>
     </row>
     <row r="40" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="136"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="134"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="135"/>
       <c r="D40" s="47" t="s">
         <v>152</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="92" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="95"/>
       <c r="L40" s="18"/>
       <c r="M40" s="17" t="s">
         <v>184</v>
@@ -7880,21 +7951,21 @@
       <c r="AE40" s="31"/>
     </row>
     <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="136"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="134"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="48" t="s">
         <v>115</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="92" t="s">
+      <c r="F41" s="90"/>
+      <c r="G41" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="95"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
@@ -7929,9 +8000,9 @@
       <c r="AE41" s="31"/>
     </row>
     <row r="42" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="136"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="134">
+      <c r="A42" s="137"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="135">
         <v>8</v>
       </c>
       <c r="D42" s="21" t="s">
@@ -7939,13 +8010,13 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="91" t="s">
+      <c r="G42" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
       <c r="L42" s="13" t="s">
         <v>187</v>
       </c>
@@ -7981,21 +8052,21 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="137"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="138" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="139" t="s">
         <v>152</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="91" t="s">
+      <c r="G43" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
       <c r="L43" s="13" t="s">
         <v>189</v>
       </c>
@@ -8038,21 +8109,21 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="98">
+      <c r="A44" s="99">
         <v>6</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="139"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="92" t="s">
+      <c r="G44" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="95"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
@@ -8074,21 +8145,21 @@
       <c r="AE44" s="31"/>
     </row>
     <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="102"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="134"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -8136,13 +8207,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="87">
+      <c r="A46" s="88">
         <v>7</v>
       </c>
-      <c r="B46" s="87">
+      <c r="B46" s="88">
         <v>2</v>
       </c>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="132" t="s">
         <v>197</v>
       </c>
       <c r="D46" s="47" t="s">
@@ -8150,13 +8221,13 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="91" t="s">
+      <c r="G46" s="92" t="s">
         <v>199</v>
       </c>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
@@ -8192,21 +8263,21 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="128"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="47" t="s">
         <v>147</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="92" t="s">
+      <c r="G47" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="95"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -8240,21 +8311,21 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="128"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="132"/>
       <c r="D48" s="47" t="s">
         <v>152</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="92" t="s">
+      <c r="G48" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="95"/>
       <c r="L48" s="18" t="s">
         <v>203</v>
       </c>
@@ -8294,21 +8365,21 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="128"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="132"/>
       <c r="D49" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="92" t="s">
+      <c r="G49" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="95"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
       <c r="N49" s="18"/>
@@ -8352,21 +8423,21 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="128"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="132"/>
       <c r="D50" s="50" t="s">
         <v>147</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="125" t="s">
+      <c r="G50" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="95"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
       <c r="N50" s="18"/>
@@ -8406,11 +8477,11 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="87">
+      <c r="A51" s="88">
         <v>8</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="128" t="s">
+      <c r="B51" s="88"/>
+      <c r="C51" s="132" t="s">
         <v>209</v>
       </c>
       <c r="D51" s="21" t="s">
@@ -8418,13 +8489,13 @@
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="92" t="s">
+      <c r="G51" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="95"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18"/>
       <c r="N51" s="18"/>
@@ -8454,21 +8525,21 @@
       <c r="AD51" s="36"/>
     </row>
     <row r="52" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="87"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="128"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="132"/>
       <c r="D52" s="21" t="s">
         <v>71</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="91" t="s">
+      <c r="G52" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
@@ -8498,21 +8569,21 @@
       <c r="AD52" s="36"/>
     </row>
     <row r="53" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="87"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="128"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="132"/>
       <c r="D53" s="21" t="s">
         <v>152</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="91" t="s">
+      <c r="G53" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
       <c r="L53" s="13"/>
       <c r="M53" s="19" t="s">
         <v>204</v>
@@ -8544,21 +8615,21 @@
       <c r="AD53" s="36"/>
     </row>
     <row r="54" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="87"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="128"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="132"/>
       <c r="D54" s="21" t="s">
         <v>213</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="91" t="s">
+      <c r="G54" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
@@ -8590,21 +8661,21 @@
       <c r="AD54" s="36"/>
     </row>
     <row r="55" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="87"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="128"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="132"/>
       <c r="D55" s="21" t="s">
         <v>216</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="91" t="s">
+      <c r="G55" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
@@ -8634,19 +8705,19 @@
       <c r="AD55" s="36"/>
     </row>
     <row r="56" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="128"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="132"/>
       <c r="D56" s="21"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
-      <c r="G56" s="125" t="s">
+      <c r="G56" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="95"/>
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
       <c r="N56" s="18"/>
@@ -8678,25 +8749,25 @@
       <c r="AD56" s="41"/>
     </row>
     <row r="57" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="87">
+      <c r="A57" s="88">
         <v>9</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="128" t="s">
+      <c r="B57" s="88"/>
+      <c r="C57" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="88" t="s">
         <v>220</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="91" t="s">
+      <c r="G57" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -8726,19 +8797,19 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="87"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="88"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="91" t="s">
+      <c r="G58" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="91"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
@@ -8762,19 +8833,19 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="87"/>
+      <c r="A59" s="88"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="88"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="92" t="s">
+      <c r="G59" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="93"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="95"/>
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
@@ -8798,21 +8869,21 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="128"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="132"/>
       <c r="D60" s="51" t="s">
         <v>226</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="92" t="s">
+      <c r="G60" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="94"/>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="95"/>
       <c r="L60" s="18"/>
       <c r="M60" s="18"/>
       <c r="N60" s="18"/>
@@ -8838,21 +8909,21 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="98" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="99" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="91" t="s">
+      <c r="G61" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="92"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
@@ -8878,19 +8949,19 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="99"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="91" t="s">
+      <c r="G62" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
       <c r="L62" s="13"/>
       <c r="M62" s="19" t="s">
         <v>230</v>
@@ -8918,19 +8989,19 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="87"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="99"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="91" t="s">
+      <c r="G63" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="H63" s="91"/>
-      <c r="I63" s="91"/>
-      <c r="J63" s="91"/>
-      <c r="K63" s="91"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
@@ -8959,10 +9030,10 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="87"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="99"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="129" t="s">
@@ -8995,19 +9066,19 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="87"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="99"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="100"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="91" t="s">
+      <c r="G65" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
@@ -9035,19 +9106,19 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="102"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="103"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="91" t="s">
+      <c r="G66" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
@@ -9073,23 +9144,23 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="87"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="128" t="s">
+      <c r="A67" s="88"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="D67" s="116" t="s">
+      <c r="D67" s="117" t="s">
         <v>237</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="91" t="s">
+      <c r="G67" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
@@ -9115,21 +9186,21 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="98">
+      <c r="A68" s="99">
         <v>10</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="132"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="133"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="91" t="s">
+      <c r="G68" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="92"/>
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
       <c r="N68" s="18"/>
@@ -9155,19 +9226,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="99"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="117"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="118"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="92" t="s">
+      <c r="G69" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="H69" s="93"/>
-      <c r="I69" s="93"/>
-      <c r="J69" s="93"/>
-      <c r="K69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="95"/>
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
       <c r="N69" s="18"/>
@@ -9193,21 +9264,21 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="99"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="133" t="s">
+      <c r="A70" s="100"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="134" t="s">
         <v>241</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="92" t="s">
+      <c r="G70" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="H70" s="93"/>
-      <c r="I70" s="93"/>
-      <c r="J70" s="93"/>
-      <c r="K70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="95"/>
       <c r="L70" s="18"/>
       <c r="M70" s="19" t="s">
         <v>243</v>
@@ -9235,19 +9306,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="99"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="133"/>
+      <c r="A71" s="100"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="134"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="92" t="s">
+      <c r="G71" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="93"/>
-      <c r="K71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="95"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
@@ -9275,19 +9346,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="99"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="133"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="134"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="92" t="s">
+      <c r="G72" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="95"/>
       <c r="L72" s="18"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
@@ -9315,27 +9386,27 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="99">
+      <c r="A73" s="100">
         <v>11</v>
       </c>
-      <c r="B73" s="87"/>
-      <c r="C73" s="121" t="s">
+      <c r="B73" s="88"/>
+      <c r="C73" s="122" t="s">
         <v>247</v>
       </c>
-      <c r="D73" s="111" t="s">
+      <c r="D73" s="112" t="s">
         <v>248</v>
       </c>
       <c r="E73" s="12"/>
-      <c r="F73" s="87" t="s">
+      <c r="F73" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="G73" s="92" t="s">
+      <c r="G73" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="95"/>
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
@@ -9364,19 +9435,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="99"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="112"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="123"/>
+      <c r="D74" s="113"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="125" t="s">
+      <c r="F74" s="88"/>
+      <c r="G74" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="127"/>
+      <c r="H74" s="127"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="128"/>
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
       <c r="N74" s="19"/>
@@ -9402,19 +9473,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="99"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="113"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="114"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="91" t="s">
+      <c r="F75" s="88"/>
+      <c r="G75" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="91"/>
-      <c r="K75" s="91"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="92"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
@@ -9440,23 +9511,23 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="99"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="111" t="s">
+      <c r="A76" s="100"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="112" t="s">
         <v>254</v>
       </c>
       <c r="E76" s="12"/>
-      <c r="F76" s="88" t="s">
+      <c r="F76" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="G76" s="91" t="s">
+      <c r="G76" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="91"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="92"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
@@ -9480,19 +9551,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="99"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="112"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="91" t="s">
+      <c r="F77" s="90"/>
+      <c r="G77" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="91"/>
-      <c r="K77" s="91"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="92"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
@@ -9520,19 +9591,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="99"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="113"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="114"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="91" t="s">
+      <c r="F78" s="91"/>
+      <c r="G78" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
@@ -9558,23 +9629,23 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="99">
+      <c r="A79" s="100">
         <v>12</v>
       </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="122"/>
-      <c r="D79" s="111" t="s">
+      <c r="B79" s="88"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="112" t="s">
         <v>260</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="53"/>
-      <c r="G79" s="92" t="s">
+      <c r="G79" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="H79" s="93"/>
-      <c r="I79" s="93"/>
-      <c r="J79" s="93"/>
-      <c r="K79" s="94"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="94"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="95"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
@@ -9596,17 +9667,17 @@
       <c r="Y79" s="12"/>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="99"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="113"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="124"/>
+      <c r="D80" s="114"/>
       <c r="E80" s="12"/>
       <c r="F80" s="53"/>
-      <c r="G80" s="92"/>
-      <c r="H80" s="93"/>
-      <c r="I80" s="93"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="94"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="95"/>
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
       <c r="N80" s="18"/>
@@ -9628,23 +9699,23 @@
       <c r="Y80" s="12"/>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="99"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="121" t="s">
+      <c r="A81" s="100"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="122" t="s">
         <v>262</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
-      <c r="F81" s="101" t="s">
+      <c r="F81" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="G81" s="92" t="s">
+      <c r="G81" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="H81" s="93"/>
-      <c r="I81" s="93"/>
-      <c r="J81" s="93"/>
-      <c r="K81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="95"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
       <c r="N81" s="18"/>
@@ -9673,19 +9744,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="99"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="122"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="123"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="124" t="s">
+      <c r="F82" s="102"/>
+      <c r="G82" s="125" t="s">
         <v>267</v>
       </c>
-      <c r="H82" s="124"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="124"/>
-      <c r="K82" s="124"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="125"/>
       <c r="L82" s="38"/>
       <c r="M82" s="38"/>
       <c r="N82" s="38"/>
@@ -9709,23 +9780,23 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="99">
+      <c r="A83" s="100">
         <v>13</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="122"/>
-      <c r="D83" s="111" t="s">
+      <c r="B83" s="88"/>
+      <c r="C83" s="123"/>
+      <c r="D83" s="112" t="s">
         <v>268</v>
       </c>
       <c r="E83" s="12"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="124" t="s">
+      <c r="F83" s="102"/>
+      <c r="G83" s="125" t="s">
         <v>269</v>
       </c>
-      <c r="H83" s="124"/>
-      <c r="I83" s="124"/>
-      <c r="J83" s="124"/>
-      <c r="K83" s="124"/>
+      <c r="H83" s="125"/>
+      <c r="I83" s="125"/>
+      <c r="J83" s="125"/>
+      <c r="K83" s="125"/>
       <c r="L83" s="38"/>
       <c r="M83" s="38"/>
       <c r="N83" s="38"/>
@@ -9749,19 +9820,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="99"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="122"/>
-      <c r="D84" s="113"/>
+      <c r="A84" s="100"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="12"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="124" t="s">
+      <c r="F84" s="102"/>
+      <c r="G84" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="H84" s="124"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="124"/>
-      <c r="K84" s="124"/>
+      <c r="H84" s="125"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="125"/>
+      <c r="K84" s="125"/>
       <c r="L84" s="38"/>
       <c r="M84" s="38"/>
       <c r="N84" s="38"/>
@@ -9785,19 +9856,19 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="99"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="123"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="124"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="91" t="s">
+      <c r="F85" s="102"/>
+      <c r="G85" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="92"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -9828,23 +9899,23 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="99"/>
+      <c r="A86" s="100"/>
       <c r="B86" s="12"/>
       <c r="C86" s="54" t="s">
         <v>275</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
-      <c r="F86" s="118" t="s">
+      <c r="F86" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="G86" s="91" t="s">
+      <c r="G86" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="92"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
@@ -9870,21 +9941,21 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="99"/>
+      <c r="A87" s="100"/>
       <c r="B87" s="12"/>
       <c r="C87" s="54" t="s">
         <v>278</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
-      <c r="F87" s="119"/>
-      <c r="G87" s="91" t="s">
+      <c r="F87" s="120"/>
+      <c r="G87" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="92"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
@@ -9910,7 +9981,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="99">
+      <c r="A88" s="100">
         <v>14</v>
       </c>
       <c r="B88" s="12"/>
@@ -9919,14 +9990,14 @@
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
-      <c r="F88" s="119"/>
-      <c r="G88" s="91" t="s">
+      <c r="F88" s="120"/>
+      <c r="G88" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
+      <c r="H88" s="92"/>
+      <c r="I88" s="92"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="92"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
@@ -9954,19 +10025,19 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="99"/>
+      <c r="A89" s="100"/>
       <c r="B89" s="12"/>
       <c r="C89" s="1"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="120"/>
-      <c r="G89" s="91" t="s">
+      <c r="F89" s="121"/>
+      <c r="G89" s="92" t="s">
         <v>282</v>
       </c>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="92"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
@@ -9990,19 +10061,19 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="99"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="12"/>
       <c r="C90" s="54"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="92" t="s">
+      <c r="G90" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="H90" s="93"/>
-      <c r="I90" s="93"/>
-      <c r="J90" s="93"/>
-      <c r="K90" s="94"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="95"/>
       <c r="L90" s="18"/>
       <c r="M90" s="18"/>
       <c r="N90" s="18"/>
@@ -10026,19 +10097,19 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="99"/>
+      <c r="A91" s="100"/>
       <c r="B91" s="12"/>
       <c r="C91" s="54"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="91" t="s">
+      <c r="G91" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
-      <c r="J91" s="91"/>
-      <c r="K91" s="91"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
@@ -10062,19 +10133,19 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="102"/>
+      <c r="A92" s="103"/>
       <c r="B92" s="12"/>
       <c r="C92" s="55"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="91" t="s">
+      <c r="G92" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
-      <c r="J92" s="91"/>
-      <c r="K92" s="91"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
@@ -10100,23 +10171,23 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="98">
+      <c r="A93" s="99">
         <v>15</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="55"/>
-      <c r="D93" s="116" t="s">
+      <c r="D93" s="117" t="s">
         <v>287</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="91" t="s">
+      <c r="G93" s="92" t="s">
         <v>288</v>
       </c>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-      <c r="J93" s="91"/>
-      <c r="K93" s="91"/>
+      <c r="H93" s="92"/>
+      <c r="I93" s="92"/>
+      <c r="J93" s="92"/>
+      <c r="K93" s="92"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
@@ -10142,19 +10213,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="99"/>
+      <c r="A94" s="100"/>
       <c r="B94" s="12"/>
       <c r="C94" s="55"/>
-      <c r="D94" s="117"/>
+      <c r="D94" s="118"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="92" t="s">
+      <c r="G94" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="J94" s="93"/>
-      <c r="K94" s="94"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="94"/>
+      <c r="J94" s="94"/>
+      <c r="K94" s="95"/>
       <c r="L94" s="18"/>
       <c r="M94" s="18"/>
       <c r="N94" s="18"/>
@@ -10179,19 +10250,19 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="99"/>
+      <c r="A95" s="100"/>
       <c r="B95" s="12"/>
       <c r="C95" s="55"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="91" t="s">
+      <c r="G95" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
-      <c r="J95" s="91"/>
-      <c r="K95" s="91"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
+      <c r="J95" s="92"/>
+      <c r="K95" s="92"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
@@ -10215,18 +10286,18 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="99"/>
+      <c r="A96" s="100"/>
       <c r="B96" s="12"/>
       <c r="D96" s="56"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="91" t="s">
+      <c r="G96" s="92" t="s">
         <v>292</v>
       </c>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="91"/>
-      <c r="K96" s="91"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
+      <c r="J96" s="92"/>
+      <c r="K96" s="92"/>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
@@ -10250,7 +10321,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="99"/>
+      <c r="A97" s="100"/>
       <c r="B97" s="12"/>
       <c r="C97" s="55" t="s">
         <v>293</v>
@@ -10258,13 +10329,13 @@
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="91" t="s">
+      <c r="G97" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="H97" s="91"/>
-      <c r="I97" s="91"/>
-      <c r="J97" s="91"/>
-      <c r="K97" s="91"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
@@ -10290,20 +10361,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="99"/>
+      <c r="A98" s="100"/>
       <c r="B98" s="12"/>
       <c r="C98" s="57" t="s">
         <v>295</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="91" t="s">
+      <c r="G98" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="H98" s="91"/>
-      <c r="I98" s="91"/>
-      <c r="J98" s="91"/>
-      <c r="K98" s="91"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="92"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
@@ -10325,7 +10396,7 @@
       <c r="Y98" s="12"/>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="102"/>
+      <c r="A99" s="103"/>
       <c r="B99" s="12"/>
       <c r="C99" s="55" t="s">
         <v>16</v>
@@ -10333,13 +10404,13 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="91" t="s">
+      <c r="G99" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="H99" s="91"/>
-      <c r="I99" s="91"/>
-      <c r="J99" s="91"/>
-      <c r="K99" s="91"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="92"/>
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
@@ -10369,25 +10440,25 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="87">
+      <c r="A100" s="88">
         <v>16</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="111" t="s">
+      <c r="D100" s="112" t="s">
         <v>300</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="100" t="s">
+      <c r="G100" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="H100" s="91"/>
-      <c r="I100" s="91"/>
-      <c r="J100" s="91"/>
-      <c r="K100" s="91"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
@@ -10413,19 +10484,19 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="87"/>
+      <c r="A101" s="88"/>
       <c r="B101" s="12"/>
       <c r="C101" s="55"/>
-      <c r="D101" s="112"/>
+      <c r="D101" s="113"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="91" t="s">
+      <c r="G101" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91"/>
-      <c r="J101" s="91"/>
-      <c r="K101" s="91"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
+      <c r="J101" s="92"/>
+      <c r="K101" s="92"/>
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
@@ -10449,19 +10520,19 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="87"/>
+      <c r="A102" s="88"/>
       <c r="B102" s="12"/>
       <c r="C102" s="55"/>
-      <c r="D102" s="113"/>
+      <c r="D102" s="114"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="91" t="s">
+      <c r="G102" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="H102" s="91"/>
-      <c r="I102" s="91"/>
-      <c r="J102" s="91"/>
-      <c r="K102" s="91"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="92"/>
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
@@ -10485,7 +10556,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="87"/>
+      <c r="A103" s="88"/>
       <c r="B103" s="12"/>
       <c r="C103" s="55"/>
       <c r="D103" s="58" t="s">
@@ -10493,13 +10564,13 @@
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="91" t="s">
+      <c r="G103" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="H103" s="91"/>
-      <c r="I103" s="91"/>
-      <c r="J103" s="91"/>
-      <c r="K103" s="91"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
@@ -10523,7 +10594,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="87"/>
+      <c r="A104" s="88"/>
       <c r="B104" s="12"/>
       <c r="C104" s="55"/>
       <c r="D104" s="59" t="s">
@@ -10531,13 +10602,13 @@
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="91" t="s">
+      <c r="G104" s="92" t="s">
         <v>307</v>
       </c>
-      <c r="H104" s="91"/>
-      <c r="I104" s="91"/>
-      <c r="J104" s="91"/>
-      <c r="K104" s="91"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
@@ -10561,17 +10632,17 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="87"/>
+      <c r="A105" s="88"/>
       <c r="B105" s="60"/>
       <c r="C105" s="61"/>
       <c r="D105" s="60"/>
       <c r="E105" s="60"/>
       <c r="F105" s="60"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="91"/>
-      <c r="J105" s="91"/>
-      <c r="K105" s="91"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
       <c r="L105" s="62"/>
       <c r="M105" s="62"/>
       <c r="N105" s="62"/>
@@ -10595,7 +10666,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="98">
+      <c r="A106" s="99">
         <v>17</v>
       </c>
       <c r="B106" s="12"/>
@@ -10605,13 +10676,13 @@
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
-      <c r="G106" s="114" t="s">
+      <c r="G106" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="H106" s="115"/>
-      <c r="I106" s="115"/>
-      <c r="J106" s="115"/>
-      <c r="K106" s="115"/>
+      <c r="H106" s="116"/>
+      <c r="I106" s="116"/>
+      <c r="J106" s="116"/>
+      <c r="K106" s="116"/>
       <c r="L106" s="63"/>
       <c r="M106" s="63"/>
       <c r="N106" s="63"/>
@@ -10637,19 +10708,19 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="99"/>
+      <c r="A107" s="100"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
-      <c r="G107" s="91" t="s">
+      <c r="G107" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="H107" s="91"/>
-      <c r="I107" s="91"/>
-      <c r="J107" s="91"/>
-      <c r="K107" s="91"/>
+      <c r="H107" s="92"/>
+      <c r="I107" s="92"/>
+      <c r="J107" s="92"/>
+      <c r="K107" s="92"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
@@ -10673,19 +10744,19 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="102"/>
+      <c r="A108" s="103"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
-      <c r="G108" s="91" t="s">
+      <c r="G108" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="H108" s="91"/>
-      <c r="I108" s="91"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="91"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="92"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
@@ -10711,7 +10782,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="87">
+      <c r="A109" s="88">
         <v>18</v>
       </c>
       <c r="B109" s="12"/>
@@ -10719,13 +10790,13 @@
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
-      <c r="G109" s="91" t="s">
+      <c r="G109" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="H109" s="91"/>
-      <c r="I109" s="91"/>
-      <c r="J109" s="91"/>
-      <c r="K109" s="91"/>
+      <c r="H109" s="92"/>
+      <c r="I109" s="92"/>
+      <c r="J109" s="92"/>
+      <c r="K109" s="92"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
@@ -10748,19 +10819,19 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="87"/>
+      <c r="A110" s="88"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="64"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="91" t="s">
+      <c r="G110" s="92" t="s">
         <v>314</v>
       </c>
-      <c r="H110" s="91"/>
-      <c r="I110" s="91"/>
-      <c r="J110" s="91"/>
-      <c r="K110" s="91"/>
+      <c r="H110" s="92"/>
+      <c r="I110" s="92"/>
+      <c r="J110" s="92"/>
+      <c r="K110" s="92"/>
       <c r="L110" s="13"/>
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
@@ -10786,7 +10857,7 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="87"/>
+      <c r="A111" s="88"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12" t="s">
         <v>315</v>
@@ -10794,13 +10865,13 @@
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="91" t="s">
+      <c r="G111" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="H111" s="91"/>
-      <c r="I111" s="91"/>
-      <c r="J111" s="91"/>
-      <c r="K111" s="91"/>
+      <c r="H111" s="92"/>
+      <c r="I111" s="92"/>
+      <c r="J111" s="92"/>
+      <c r="K111" s="92"/>
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
@@ -10824,19 +10895,19 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="87"/>
+      <c r="A112" s="88"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
-      <c r="G112" s="92" t="s">
+      <c r="G112" s="93" t="s">
         <v>317</v>
       </c>
-      <c r="H112" s="93"/>
-      <c r="I112" s="93"/>
-      <c r="J112" s="93"/>
-      <c r="K112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="95"/>
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
@@ -10860,18 +10931,18 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="87"/>
+      <c r="A113" s="88"/>
       <c r="B113" s="12"/>
       <c r="D113" s="65" t="s">
         <v>318</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="93"/>
-      <c r="I113" s="93"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="94"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="95"/>
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
@@ -10903,23 +10974,23 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="98">
+      <c r="A114" s="99">
         <v>19</v>
       </c>
-      <c r="B114" s="103"/>
-      <c r="C114" s="105" t="s">
+      <c r="B114" s="104"/>
+      <c r="C114" s="106" t="s">
         <v>321</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
-      <c r="G114" s="91" t="s">
+      <c r="G114" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="H114" s="91"/>
-      <c r="I114" s="91"/>
-      <c r="J114" s="91"/>
-      <c r="K114" s="91"/>
+      <c r="H114" s="92"/>
+      <c r="I114" s="92"/>
+      <c r="J114" s="92"/>
+      <c r="K114" s="92"/>
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
       <c r="N114" s="18"/>
@@ -10942,19 +11013,19 @@
       <c r="Y114" s="12"/>
     </row>
     <row r="115" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="99"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="106"/>
+      <c r="A115" s="100"/>
+      <c r="B115" s="105"/>
+      <c r="C115" s="107"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
-      <c r="G115" s="100" t="s">
+      <c r="G115" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H115" s="91"/>
-      <c r="I115" s="91"/>
-      <c r="J115" s="91"/>
-      <c r="K115" s="91"/>
+      <c r="H115" s="92"/>
+      <c r="I115" s="92"/>
+      <c r="J115" s="92"/>
+      <c r="K115" s="92"/>
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
@@ -10976,19 +11047,19 @@
       <c r="Y115" s="12"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="99"/>
-      <c r="B116" s="101" t="s">
+      <c r="A116" s="100"/>
+      <c r="B116" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="C116" s="106"/>
+      <c r="C116" s="107"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="91"/>
-      <c r="J116" s="91"/>
-      <c r="K116" s="91"/>
+      <c r="G116" s="92"/>
+      <c r="H116" s="92"/>
+      <c r="I116" s="92"/>
+      <c r="J116" s="92"/>
+      <c r="K116" s="92"/>
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
@@ -11012,21 +11083,21 @@
       </c>
     </row>
     <row r="117" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="99"/>
-      <c r="B117" s="101"/>
-      <c r="C117" s="106"/>
+      <c r="A117" s="100"/>
+      <c r="B117" s="102"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="67" t="s">
         <v>325</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
-      <c r="G117" s="107" t="s">
+      <c r="G117" s="108" t="s">
         <v>326</v>
       </c>
-      <c r="H117" s="108"/>
-      <c r="I117" s="108"/>
-      <c r="J117" s="108"/>
-      <c r="K117" s="109"/>
+      <c r="H117" s="109"/>
+      <c r="I117" s="109"/>
+      <c r="J117" s="109"/>
+      <c r="K117" s="110"/>
       <c r="L117" s="68"/>
       <c r="M117" s="68"/>
       <c r="N117" s="68"/>
@@ -11052,19 +11123,19 @@
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="99"/>
-      <c r="B118" s="101"/>
-      <c r="C118" s="106"/>
+      <c r="A118" s="100"/>
+      <c r="B118" s="102"/>
+      <c r="C118" s="107"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
-      <c r="G118" s="110" t="s">
+      <c r="G118" s="111" t="s">
         <v>327</v>
       </c>
-      <c r="H118" s="91"/>
-      <c r="I118" s="91"/>
-      <c r="J118" s="91"/>
-      <c r="K118" s="91"/>
+      <c r="H118" s="92"/>
+      <c r="I118" s="92"/>
+      <c r="J118" s="92"/>
+      <c r="K118" s="92"/>
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
@@ -11094,21 +11165,21 @@
       </c>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="99"/>
-      <c r="B119" s="101"/>
-      <c r="C119" s="106"/>
+      <c r="A119" s="100"/>
+      <c r="B119" s="102"/>
+      <c r="C119" s="107"/>
       <c r="D119" s="67" t="s">
         <v>330</v>
       </c>
       <c r="E119" s="60"/>
       <c r="F119" s="12"/>
-      <c r="G119" s="92" t="s">
+      <c r="G119" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="H119" s="93"/>
-      <c r="I119" s="93"/>
-      <c r="J119" s="93"/>
-      <c r="K119" s="94"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="94"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="95"/>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
@@ -11132,17 +11203,17 @@
       </c>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="102"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="106"/>
+      <c r="A120" s="103"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="107"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="60"/>
-      <c r="G120" s="92"/>
-      <c r="H120" s="93"/>
-      <c r="I120" s="93"/>
-      <c r="J120" s="93"/>
-      <c r="K120" s="94"/>
+      <c r="G120" s="93"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="94"/>
+      <c r="J120" s="94"/>
+      <c r="K120" s="95"/>
       <c r="L120" s="69"/>
       <c r="M120" s="69"/>
       <c r="N120" s="69"/>
@@ -11168,24 +11239,24 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="87">
+      <c r="A121" s="88">
         <v>20</v>
       </c>
-      <c r="B121" s="88" t="s">
+      <c r="B121" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="C121" s="89" t="s">
+      <c r="C121" s="90" t="s">
         <v>333</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
-      <c r="G121" s="91" t="s">
+      <c r="G121" s="92" t="s">
         <v>334</v>
       </c>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
-      <c r="K121" s="91"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
+      <c r="K121" s="92"/>
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
@@ -11208,21 +11279,21 @@
       <c r="Z121" s="12"/>
     </row>
     <row r="122" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="87"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="89"/>
+      <c r="A122" s="88"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="67" t="s">
         <v>260</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="92" t="s">
+      <c r="G122" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="H122" s="93"/>
-      <c r="I122" s="93"/>
-      <c r="J122" s="93"/>
-      <c r="K122" s="94"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="94"/>
+      <c r="J122" s="94"/>
+      <c r="K122" s="95"/>
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
       <c r="N122" s="18"/>
@@ -11246,19 +11317,19 @@
       <c r="Z122" s="12"/>
     </row>
     <row r="123" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="87"/>
-      <c r="B123" s="90"/>
-      <c r="C123" s="89"/>
+      <c r="A123" s="88"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
-      <c r="G123" s="95" t="s">
+      <c r="G123" s="96" t="s">
         <v>337</v>
       </c>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
-      <c r="K123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="97"/>
+      <c r="J123" s="97"/>
+      <c r="K123" s="98"/>
       <c r="L123" s="71"/>
       <c r="M123" s="71"/>
       <c r="N123" s="71"/>
@@ -11282,22 +11353,22 @@
       <c r="Z123" s="12"/>
     </row>
     <row r="124" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="98">
+      <c r="A124" s="99">
         <v>21</v>
       </c>
-      <c r="B124" s="100" t="s">
+      <c r="B124" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="C124" s="89"/>
+      <c r="C124" s="90"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
-      <c r="G124" s="91" t="s">
+      <c r="G124" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="H124" s="91"/>
-      <c r="I124" s="91"/>
-      <c r="J124" s="91"/>
-      <c r="K124" s="91"/>
+      <c r="H124" s="92"/>
+      <c r="I124" s="92"/>
+      <c r="J124" s="92"/>
+      <c r="K124" s="92"/>
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
@@ -11318,21 +11389,21 @@
       <c r="Z124" s="12"/>
     </row>
     <row r="125" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="99"/>
-      <c r="B125" s="100"/>
-      <c r="C125" s="89"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="101"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="65" t="s">
         <v>340</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
-      <c r="G125" s="92" t="s">
+      <c r="G125" s="93" t="s">
         <v>341</v>
       </c>
-      <c r="H125" s="93"/>
-      <c r="I125" s="93"/>
-      <c r="J125" s="93"/>
-      <c r="K125" s="94"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="94"/>
+      <c r="J125" s="94"/>
+      <c r="K125" s="95"/>
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
@@ -11355,19 +11426,19 @@
       <c r="Z125" s="12"/>
     </row>
     <row r="126" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="99"/>
-      <c r="B126" s="100"/>
-      <c r="C126" s="90"/>
+      <c r="A126" s="100"/>
+      <c r="B126" s="101"/>
+      <c r="C126" s="91"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
-      <c r="G126" s="91" t="s">
+      <c r="G126" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="H126" s="91"/>
-      <c r="I126" s="91"/>
-      <c r="J126" s="91"/>
-      <c r="K126" s="91"/>
+      <c r="H126" s="92"/>
+      <c r="I126" s="92"/>
+      <c r="J126" s="92"/>
+      <c r="K126" s="92"/>
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
@@ -11388,13 +11459,13 @@
       <c r="Z126" s="12"/>
     </row>
     <row r="127" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="87">
+      <c r="A127" s="88">
         <v>22</v>
       </c>
-      <c r="B127" s="96" t="s">
+      <c r="B127" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="C127" s="101" t="s">
+      <c r="C127" s="102" t="s">
         <v>344</v>
       </c>
       <c r="D127" s="72" t="s">
@@ -11402,13 +11473,13 @@
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
-      <c r="G127" s="91" t="s">
+      <c r="G127" s="92" t="s">
         <v>346</v>
       </c>
-      <c r="H127" s="91"/>
-      <c r="I127" s="91"/>
-      <c r="J127" s="91"/>
-      <c r="K127" s="91"/>
+      <c r="H127" s="92"/>
+      <c r="I127" s="92"/>
+      <c r="J127" s="92"/>
+      <c r="K127" s="92"/>
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
@@ -11431,19 +11502,19 @@
       <c r="Z127" s="12"/>
     </row>
     <row r="128" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="87"/>
-      <c r="B128" s="96"/>
-      <c r="C128" s="101"/>
+      <c r="A128" s="88"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="72"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
-      <c r="G128" s="100" t="s">
+      <c r="G128" s="101" t="s">
         <v>347</v>
       </c>
-      <c r="H128" s="91"/>
-      <c r="I128" s="91"/>
-      <c r="J128" s="91"/>
-      <c r="K128" s="91"/>
+      <c r="H128" s="92"/>
+      <c r="I128" s="92"/>
+      <c r="J128" s="92"/>
+      <c r="K128" s="92"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
@@ -11464,18 +11535,18 @@
       <c r="Z128" s="12"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129" s="87"/>
-      <c r="B129" s="88" t="s">
+      <c r="A129" s="88"/>
+      <c r="B129" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="C129" s="101"/>
-      <c r="G129" s="91" t="s">
+      <c r="C129" s="102"/>
+      <c r="G129" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="H129" s="91"/>
-      <c r="I129" s="91"/>
-      <c r="J129" s="91"/>
-      <c r="K129" s="91"/>
+      <c r="H129" s="92"/>
+      <c r="I129" s="92"/>
+      <c r="J129" s="92"/>
+      <c r="K129" s="92"/>
       <c r="L129" s="73"/>
       <c r="M129" s="73"/>
       <c r="N129" s="73"/>
@@ -11485,110 +11556,110 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130" s="87"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="101"/>
+      <c r="A130" s="88"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="102"/>
       <c r="R130" s="12">
         <f>SUM($Q$9:Q130)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131" s="87"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="101"/>
+      <c r="A131" s="88"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="102"/>
       <c r="R131" s="12">
         <f>SUM($Q$9:Q131)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A132" s="87"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="101"/>
+      <c r="A132" s="88"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="102"/>
       <c r="R132" s="12">
         <f>SUM($Q$9:Q132)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A133" s="87"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="101"/>
+      <c r="A133" s="88"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="102"/>
       <c r="R133" s="12">
         <f>SUM($Q$9:Q133)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A134" s="87"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="101"/>
+      <c r="A134" s="88"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="102"/>
       <c r="R134" s="12">
         <f>SUM($Q$9:Q134)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A135" s="87">
+      <c r="A135" s="88">
         <v>23</v>
       </c>
-      <c r="B135" s="89"/>
-      <c r="C135" s="101"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="102"/>
       <c r="R135" s="12">
         <f>SUM($Q$9:Q135)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A136" s="87"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="101"/>
+      <c r="A136" s="88"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="102"/>
       <c r="R136" s="12">
         <f>SUM($Q$9:Q136)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A137" s="87"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="101"/>
+      <c r="A137" s="88"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="102"/>
       <c r="R137" s="12">
         <f>SUM($Q$9:Q137)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A138" s="87"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="101"/>
+      <c r="A138" s="88"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="102"/>
       <c r="R138" s="12">
         <f>SUM($Q$9:Q138)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A139" s="87"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="101"/>
+      <c r="A139" s="88"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="102"/>
       <c r="R139" s="12">
         <f>SUM($Q$9:Q139)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A140" s="87"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="101"/>
+      <c r="A140" s="88"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="102"/>
       <c r="R140" s="12">
         <f>SUM($Q$9:Q140)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A141" s="87"/>
-      <c r="B141" s="90"/>
-      <c r="C141" s="101"/>
+      <c r="A141" s="88"/>
+      <c r="B141" s="91"/>
+      <c r="C141" s="102"/>
       <c r="R141" s="26">
         <f>SUM($Q$9:Q141)</f>
         <v>271.65092362949309</v>
@@ -11828,7 +11899,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12015,6 +12086,19 @@
         <v>590</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E30" t="s">
+        <v>623</v>
+      </c>
+    </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>496</v>

--- a/gd/任务系统/任务线设计___附带条件需求.xlsx
+++ b/gd/任务系统/任务线设计___附带条件需求.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="701">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2983,6 +2983,18 @@
   </si>
   <si>
     <t>50002（会删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务接取等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3683,228 +3695,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3929,6 +3719,228 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4313,7 +4325,7 @@
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="167" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="93" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0" style="5" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="80" hidden="1" customWidth="1"/>
@@ -4342,7 +4354,7 @@
       <c r="G1" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="93" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -4353,7 +4365,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="109" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="81"/>
@@ -4382,7 +4394,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="81"/>
       <c r="C3" s="73" t="s">
         <v>331</v>
@@ -4399,7 +4411,7 @@
       <c r="G3" t="s">
         <v>571</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="H3" s="93" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="80">
@@ -4422,7 +4434,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="85" t="s">
         <v>538</v>
       </c>
@@ -4441,7 +4453,7 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="93" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="80">
@@ -4458,7 +4470,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="93">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
       <c r="B5" s="85" t="s">
@@ -4479,7 +4491,7 @@
       <c r="G5" t="s">
         <v>335</v>
       </c>
-      <c r="H5" s="167" t="s">
+      <c r="H5" s="93" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="6"/>
@@ -4497,7 +4509,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="85"/>
       <c r="C6" s="91" t="s">
         <v>651</v>
@@ -4515,7 +4527,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="81"/>
       <c r="C7" s="91" t="s">
         <v>652</v>
@@ -4532,7 +4544,7 @@
       <c r="G7" s="73" t="s">
         <v>533</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="H7" s="93" t="s">
         <v>334</v>
       </c>
       <c r="I7" s="6"/>
@@ -4550,7 +4562,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="90"/>
       <c r="C8" s="91" t="s">
         <v>653</v>
@@ -4572,7 +4584,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="81"/>
       <c r="C9" s="91" t="s">
         <v>654</v>
@@ -4586,7 +4598,7 @@
       <c r="G9" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="168" t="s">
+      <c r="H9" s="94" t="s">
         <v>338</v>
       </c>
       <c r="L9" s="80">
@@ -4600,7 +4612,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="81"/>
       <c r="C10" s="91" t="s">
         <v>655</v>
@@ -4617,7 +4629,7 @@
       <c r="G10" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H10" s="168" t="s">
+      <c r="H10" s="94" t="s">
         <v>334</v>
       </c>
       <c r="L10" s="80">
@@ -4631,7 +4643,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="81"/>
       <c r="C11" s="91" t="s">
         <v>656</v>
@@ -4648,7 +4660,7 @@
       <c r="G11" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="H11" s="93" t="s">
         <v>339</v>
       </c>
       <c r="L11" s="80">
@@ -4668,7 +4680,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="81"/>
       <c r="C12" s="91" t="s">
         <v>657</v>
@@ -4685,7 +4697,7 @@
       <c r="G12" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="93" t="s">
         <v>339</v>
       </c>
       <c r="L12" s="80">
@@ -4711,7 +4723,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="81"/>
       <c r="C13" s="91" t="s">
         <v>658</v>
@@ -4728,7 +4740,7 @@
       <c r="G13" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H13" s="167" t="s">
+      <c r="H13" s="93" t="s">
         <v>359</v>
       </c>
       <c r="L13" s="80">
@@ -4751,7 +4763,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="81"/>
       <c r="C14" s="91" t="s">
         <v>659</v>
@@ -4767,7 +4779,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="81"/>
       <c r="C15" s="91" t="s">
         <v>660</v>
@@ -4781,7 +4793,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="81"/>
       <c r="C16" s="91" t="s">
         <v>661</v>
@@ -4798,7 +4810,7 @@
       <c r="G16" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="168" t="s">
+      <c r="H16" s="94" t="s">
         <v>360</v>
       </c>
       <c r="P16">
@@ -4806,7 +4818,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="82"/>
       <c r="C17" s="91" t="s">
         <v>662</v>
@@ -4823,7 +4835,7 @@
       <c r="G17" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="H17" s="94" t="s">
         <v>337</v>
       </c>
       <c r="P17">
@@ -4831,7 +4843,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="81"/>
       <c r="C18" s="91" t="s">
         <v>663</v>
@@ -4848,7 +4860,7 @@
       <c r="G18" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H18" s="168" t="s">
+      <c r="H18" s="94" t="s">
         <v>338</v>
       </c>
       <c r="P18">
@@ -4856,7 +4868,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="81"/>
       <c r="C19" s="91" t="s">
         <v>664</v>
@@ -4873,7 +4885,7 @@
       <c r="G19" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H19" s="168" t="s">
+      <c r="H19" s="94" t="s">
         <v>337</v>
       </c>
       <c r="N19" t="s">
@@ -4887,7 +4899,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="93">
+      <c r="A20" s="109">
         <v>2</v>
       </c>
       <c r="B20" s="82"/>
@@ -4906,7 +4918,7 @@
       <c r="G20" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H20" s="168" t="s">
+      <c r="H20" s="94" t="s">
         <v>337</v>
       </c>
       <c r="P20">
@@ -4914,7 +4926,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="81"/>
       <c r="C21" s="91" t="s">
         <v>666</v>
@@ -4931,7 +4943,7 @@
       <c r="G21" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H21" s="168" t="s">
+      <c r="H21" s="94" t="s">
         <v>420</v>
       </c>
       <c r="N21">
@@ -4945,7 +4957,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="81"/>
       <c r="C22" s="91" t="s">
         <v>667</v>
@@ -4959,13 +4971,13 @@
       <c r="F22" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H22" s="168"/>
+      <c r="H22" s="94"/>
       <c r="P22">
         <v>7800</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="81"/>
       <c r="C23" s="91" t="s">
         <v>668</v>
@@ -4982,7 +4994,7 @@
       <c r="G23" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="168" t="s">
+      <c r="H23" s="94" t="s">
         <v>334</v>
       </c>
       <c r="P23">
@@ -4990,7 +5002,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="82"/>
       <c r="C24" s="91" t="s">
         <v>669</v>
@@ -5007,7 +5019,7 @@
       <c r="G24" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="H24" s="168" t="s">
+      <c r="H24" s="94" t="s">
         <v>471</v>
       </c>
       <c r="P24">
@@ -5015,7 +5027,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="82"/>
       <c r="C25" s="91" t="s">
         <v>670</v>
@@ -5032,7 +5044,7 @@
       <c r="G25" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H25" s="168" t="s">
+      <c r="H25" s="94" t="s">
         <v>471</v>
       </c>
       <c r="P25">
@@ -5040,7 +5052,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="85" t="s">
         <v>537</v>
       </c>
@@ -5059,7 +5071,7 @@
       <c r="G26" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H26" s="168" t="s">
+      <c r="H26" s="94" t="s">
         <v>611</v>
       </c>
       <c r="P26">
@@ -5067,7 +5079,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="81"/>
       <c r="C27" s="91" t="s">
         <v>672</v>
@@ -5082,12 +5094,12 @@
         <v>589</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="168" t="s">
+      <c r="H27" s="94" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="81"/>
       <c r="C28" s="91" t="s">
         <v>673</v>
@@ -5102,7 +5114,7 @@
       <c r="G28" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="H28" s="168" t="s">
+      <c r="H28" s="94" t="s">
         <v>471</v>
       </c>
       <c r="N28" t="s">
@@ -5113,7 +5125,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="93"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="81"/>
       <c r="C29" s="91" t="s">
         <v>674</v>
@@ -5130,12 +5142,12 @@
       <c r="G29" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="H29" s="168" t="s">
+      <c r="H29" s="94" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="93"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="82"/>
       <c r="C30" s="91" t="s">
         <v>675</v>
@@ -5152,12 +5164,12 @@
       <c r="G30" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H30" s="168" t="s">
+      <c r="H30" s="94" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="93"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="85" t="s">
         <v>537</v>
       </c>
@@ -5176,151 +5188,151 @@
       <c r="G31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="H31" s="94" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="93"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="81"/>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="102" t="s">
         <v>677</v>
       </c>
-      <c r="D32" s="177" t="s">
+      <c r="D32" s="103" t="s">
         <v>642</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="G32" s="178" t="s">
+      <c r="G32" s="104" t="s">
         <v>513</v>
       </c>
-      <c r="H32" s="179"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="93">
+      <c r="A33" s="109">
         <v>3</v>
       </c>
       <c r="B33" s="81"/>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="102" t="s">
         <v>678</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="103" t="s">
         <v>643</v>
       </c>
-      <c r="E33" s="178" t="s">
+      <c r="E33" s="104" t="s">
         <v>604</v>
       </c>
-      <c r="F33" s="178" t="s">
+      <c r="F33" s="104" t="s">
         <v>593</v>
       </c>
-      <c r="G33" s="178" t="s">
+      <c r="G33" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="H33" s="179"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="181" t="s">
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="107" t="s">
         <v>514</v>
       </c>
-      <c r="O33" s="181">
+      <c r="O33" s="107">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="102" t="s">
         <v>679</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="103" t="s">
         <v>644</v>
       </c>
-      <c r="E34" s="178" t="s">
+      <c r="E34" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="F34" s="178" t="s">
+      <c r="F34" s="104" t="s">
         <v>594</v>
       </c>
-      <c r="G34" s="178" t="s">
+      <c r="G34" s="104" t="s">
         <v>512</v>
       </c>
-      <c r="H34" s="179"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="81"/>
-      <c r="C35" s="169" t="s">
+      <c r="C35" s="95" t="s">
         <v>677</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="96" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="171" t="s">
+      <c r="E35" s="97" t="s">
         <v>687</v>
       </c>
-      <c r="F35" s="171"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="175" t="s">
+      <c r="F35" s="97"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="93"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="81"/>
-      <c r="C36" s="169" t="s">
+      <c r="C36" s="95" t="s">
         <v>678</v>
       </c>
-      <c r="D36" s="170" t="s">
+      <c r="D36" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="E36" s="171" t="s">
+      <c r="E36" s="97" t="s">
         <v>688</v>
       </c>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="175" t="s">
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="93"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="81"/>
       <c r="C37" s="91" t="s">
         <v>680</v>
@@ -5331,7 +5343,7 @@
       <c r="E37" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H37" s="168" t="s">
+      <c r="H37" s="94" t="s">
         <v>334</v>
       </c>
       <c r="N37" t="s">
@@ -5340,11 +5352,11 @@
       <c r="O37">
         <v>25</v>
       </c>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="93"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="81"/>
       <c r="C38" s="91" t="s">
         <v>681</v>
@@ -5362,11 +5374,11 @@
       <c r="O38">
         <v>10</v>
       </c>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
+      <c r="P38" s="99"/>
+      <c r="Q38" s="99"/>
     </row>
     <row r="39" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="93"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="84" t="s">
         <v>536</v>
       </c>
@@ -5377,7 +5389,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="93"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="85" t="s">
         <v>539</v>
       </c>
@@ -5388,7 +5400,7 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="93"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="81"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5397,7 +5409,7 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="93"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="81"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5517,15 +5529,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
       <c r="S1" t="s">
         <v>392</v>
       </c>
@@ -5554,10 +5566,10 @@
       <c r="I2" t="s">
         <v>438</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="110" t="s">
         <v>329</v>
       </c>
-      <c r="K2" s="94"/>
+      <c r="K2" s="110"/>
       <c r="L2" t="s">
         <v>434</v>
       </c>
@@ -5567,10 +5579,10 @@
       <c r="N2" t="s">
         <v>354</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="O2" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="P2" s="94"/>
+      <c r="P2" s="110"/>
       <c r="S2" t="s">
         <v>363</v>
       </c>
@@ -6548,13 +6560,13 @@
       <c r="F1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
       <c r="L1" s="12" t="s">
         <v>24</v>
       </c>
@@ -6617,13 +6629,13 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="128" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="111" t="s">
@@ -6635,13 +6647,13 @@
       <c r="F2" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="117"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -6664,17 +6676,17 @@
       <c r="AE2" s="15"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="144"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -6697,29 +6709,29 @@
       <c r="AE3" s="15"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="144"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="114" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="159"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="126" t="s">
+      <c r="M4" s="114" t="s">
         <v>56</v>
       </c>
       <c r="N4" s="12"/>
@@ -6742,19 +6754,19 @@
       <c r="AE4" s="15"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="144"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="11"/>
@@ -6775,19 +6787,19 @@
       <c r="AE5" s="15"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="144"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
       <c r="N6" s="12" t="s">
         <v>57</v>
       </c>
@@ -6810,9 +6822,9 @@
       <c r="AE6" s="15"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="144"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="111" t="s">
         <v>58</v>
       </c>
@@ -6822,13 +6834,13 @@
       <c r="F7" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="159"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="111"/>
       <c r="M7" s="111"/>
       <c r="N7" s="111"/>
@@ -6851,22 +6863,22 @@
       <c r="AE7" s="15"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="144"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -6884,29 +6896,29 @@
       <c r="AE8" s="15"/>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="143">
+      <c r="A9" s="124">
         <v>1</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="127">
         <v>1</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="128">
         <v>1</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="131" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="16" t="s">
@@ -6934,19 +6946,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="144"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="155"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17" t="s">
@@ -6974,19 +6986,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="144"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="155"/>
+      <c r="A11" s="125"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="131"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="141"/>
       <c r="L11" s="18" t="s">
         <v>69</v>
       </c>
@@ -6995,7 +7007,7 @@
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="112"/>
+      <c r="Q11" s="113"/>
       <c r="R11" s="11">
         <f>SUM($Q$9:Q11)</f>
         <v>3</v>
@@ -7015,19 +7027,19 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="144"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="155"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="131"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
       <c r="L12" s="17" t="s">
         <v>73</v>
       </c>
@@ -7059,9 +7071,9 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="144"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="107"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="20" t="s">
         <v>76</v>
       </c>
@@ -7071,13 +7083,13 @@
       <c r="F13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="99" t="s">
+      <c r="G13" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
       <c r="L13" s="12" t="s">
         <v>79</v>
       </c>
@@ -7111,10 +7123,10 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="153" t="s">
+      <c r="A14" s="125"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="142" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="11">
@@ -7123,13 +7135,13 @@
       <c r="F14" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="133" t="s">
+      <c r="G14" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -7144,7 +7156,7 @@
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
-      <c r="U14" s="148" t="s">
+      <c r="U14" s="144" t="s">
         <v>85</v>
       </c>
       <c r="V14" s="22"/>
@@ -7157,23 +7169,23 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="144"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="154"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="11">
         <v>3</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
       <c r="L15" s="16" t="s">
         <v>88</v>
       </c>
@@ -7194,7 +7206,7 @@
       <c r="T15" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="U15" s="148"/>
+      <c r="U15" s="144"/>
       <c r="V15" s="22"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
@@ -7225,21 +7237,21 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="144"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="107"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
       <c r="L16" s="31" t="s">
         <v>93</v>
       </c>
@@ -7278,21 +7290,21 @@
       <c r="AE16" s="30"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="144"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="130"/>
       <c r="D17" s="20" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="150" t="s">
+      <c r="G17" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="148"/>
       <c r="L17" s="36" t="s">
         <v>99</v>
       </c>
@@ -7317,9 +7329,9 @@
       <c r="AE17" s="30"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="106">
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128">
         <v>2</v>
       </c>
       <c r="D18" s="20" t="s">
@@ -7329,13 +7341,13 @@
       <c r="F18" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="37" t="s">
@@ -7368,11 +7380,11 @@
       <c r="AE18" s="30"/>
     </row>
     <row r="19" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="95">
+      <c r="A19" s="127">
         <v>2</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="107"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="20" t="s">
         <v>76</v>
       </c>
@@ -7380,13 +7392,13 @@
         <v>63</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
       <c r="L19" s="11"/>
       <c r="M19" s="41"/>
       <c r="N19" s="18" t="s">
@@ -7419,23 +7431,23 @@
       <c r="AE19" s="30"/>
     </row>
     <row r="20" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="153" t="s">
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="142" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="133" t="s">
+      <c r="G20" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="135"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="141"/>
       <c r="L20" s="11"/>
       <c r="M20" s="24" t="s">
         <v>106</v>
@@ -7455,7 +7467,7 @@
       </c>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="99"/>
+      <c r="U20" s="121"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -7471,21 +7483,21 @@
       <c r="AE20" s="30"/>
     </row>
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="154"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="143"/>
       <c r="E21" s="11">
         <v>3</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
       <c r="L21" s="36" t="s">
         <v>109</v>
       </c>
@@ -7504,7 +7516,7 @@
       </c>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="99"/>
+      <c r="U21" s="121"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -7533,9 +7545,9 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="20" t="s">
         <v>58</v>
       </c>
@@ -7543,13 +7555,13 @@
         <v>63</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="99" t="s">
+      <c r="G22" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
@@ -7586,9 +7598,9 @@
       <c r="AE22" s="30"/>
     </row>
     <row r="23" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="106">
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128">
         <v>3</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -7596,13 +7608,13 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -7633,9 +7645,9 @@
       <c r="AE23" s="30"/>
     </row>
     <row r="24" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="107"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="20" t="s">
         <v>51</v>
       </c>
@@ -7643,13 +7655,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="99" t="s">
+      <c r="G24" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
       <c r="L24" s="12"/>
       <c r="M24" s="16" t="s">
         <v>115</v>
@@ -7689,23 +7701,23 @@
       <c r="AE24" s="30"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="143">
+      <c r="A25" s="124">
         <v>3</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="110"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="20" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
       <c r="L25" s="18" t="s">
         <v>120</v>
       </c>
@@ -7743,9 +7755,9 @@
       <c r="AE25" s="30"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="144"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="106">
+      <c r="A26" s="125"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128">
         <v>4</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -7755,13 +7767,13 @@
       <c r="F26" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="99" t="s">
+      <c r="G26" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
       <c r="L26" s="17" t="s">
         <v>125</v>
       </c>
@@ -7809,21 +7821,21 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="144"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="107"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="99" t="s">
+      <c r="G27" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
@@ -7854,21 +7866,21 @@
       <c r="AE27" s="30"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="144"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="107"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="20" t="s">
         <v>128</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="99" t="s">
+      <c r="G28" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
       <c r="L28" s="12" t="s">
         <v>130</v>
       </c>
@@ -7906,21 +7918,21 @@
       <c r="AE28" s="30"/>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="144"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="106" t="s">
+      <c r="A29" s="125"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="128" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="99" t="s">
+      <c r="G29" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -7950,19 +7962,19 @@
       <c r="AE29" s="30"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="144"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="100" t="s">
+      <c r="G30" s="132" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="102"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
       <c r="L30" s="18" t="s">
         <v>137</v>
       </c>
@@ -8005,9 +8017,9 @@
       <c r="AE30" s="30"/>
     </row>
     <row r="31" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="144"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="106">
+      <c r="A31" s="125"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128">
         <v>5</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -8017,13 +8029,13 @@
       <c r="F31" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="99" t="s">
+      <c r="G31" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
       <c r="L31" s="12" t="s">
         <v>144</v>
       </c>
@@ -8060,23 +8072,23 @@
       <c r="AE31" s="30"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="144"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="107"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="20" t="s">
         <v>128</v>
       </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="96" t="s">
+      <c r="F32" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="G32" s="99" t="s">
+      <c r="G32" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
       <c r="L32" s="18" t="s">
         <v>149</v>
       </c>
@@ -8114,21 +8126,21 @@
       <c r="AE32" s="30"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="144"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="106" t="s">
+      <c r="A33" s="125"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="128" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="99" t="s">
+      <c r="F33" s="151"/>
+      <c r="G33" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
       <c r="L33" s="12" t="s">
         <v>151</v>
       </c>
@@ -8161,19 +8173,19 @@
       <c r="AE33" s="30"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="145"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="136" t="s">
+      <c r="F34" s="151"/>
+      <c r="G34" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="138"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="156"/>
       <c r="L34" s="12"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -8196,21 +8208,21 @@
       <c r="AE34" s="30"/>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="106">
+      <c r="A35" s="128">
         <v>4</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="100" t="s">
+      <c r="F35" s="151"/>
+      <c r="G35" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="102"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="134"/>
       <c r="L35" s="18" t="s">
         <v>154</v>
       </c>
@@ -8240,23 +8252,23 @@
       <c r="AE35" s="30"/>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="110"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="142">
+      <c r="A36" s="130"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="149">
         <v>6</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="100" t="s">
+      <c r="F36" s="151"/>
+      <c r="G36" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="102"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="134"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
@@ -8298,23 +8310,23 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="143">
+      <c r="A37" s="124">
         <v>5</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="142"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="46" t="s">
         <v>128</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="99" t="s">
+      <c r="F37" s="151"/>
+      <c r="G37" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
       <c r="L37" s="12"/>
       <c r="M37" s="16" t="s">
         <v>145</v>
@@ -8347,21 +8359,21 @@
       <c r="AE37" s="30"/>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="144"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="142"/>
+      <c r="A38" s="125"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="46" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="99" t="s">
+      <c r="F38" s="151"/>
+      <c r="G38" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12" t="s">
         <v>157</v>
@@ -8396,23 +8408,23 @@
       <c r="AE38" s="30"/>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="144"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="142">
+      <c r="A39" s="125"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="149">
         <v>7</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="99" t="s">
+      <c r="F39" s="151"/>
+      <c r="G39" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -8449,21 +8461,21 @@
       <c r="AE39" s="30"/>
     </row>
     <row r="40" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="144"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="142"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="149"/>
       <c r="D40" s="46" t="s">
         <v>128</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="100" t="s">
+      <c r="F40" s="151"/>
+      <c r="G40" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="102"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="134"/>
       <c r="L40" s="17"/>
       <c r="M40" s="16" t="s">
         <v>160</v>
@@ -8493,21 +8505,21 @@
       <c r="AE40" s="30"/>
     </row>
     <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="144"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="142"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="100" t="s">
+      <c r="F41" s="151"/>
+      <c r="G41" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="102"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="134"/>
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
@@ -8542,9 +8554,9 @@
       <c r="AE41" s="30"/>
     </row>
     <row r="42" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="144"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="142">
+      <c r="A42" s="125"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="149">
         <v>8</v>
       </c>
       <c r="D42" s="20" t="s">
@@ -8552,13 +8564,13 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="99" t="s">
+      <c r="G42" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
       <c r="L42" s="12" t="s">
         <v>163</v>
       </c>
@@ -8594,21 +8606,21 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="145"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="146" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="152" t="s">
         <v>128</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="99" t="s">
+      <c r="G43" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
       <c r="L43" s="12" t="s">
         <v>165</v>
       </c>
@@ -8651,21 +8663,21 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="106">
+      <c r="A44" s="128">
         <v>6</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="147"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="153"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="100" t="s">
+      <c r="G44" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="102"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="134"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
@@ -8687,21 +8699,21 @@
       <c r="AE44" s="30"/>
     </row>
     <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="110"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="142"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="46" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="99" t="s">
+      <c r="G45" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
@@ -8749,13 +8761,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="95">
+      <c r="A46" s="127">
         <v>7</v>
       </c>
-      <c r="B46" s="95">
+      <c r="B46" s="127">
         <v>2</v>
       </c>
-      <c r="C46" s="139" t="s">
+      <c r="C46" s="157" t="s">
         <v>173</v>
       </c>
       <c r="D46" s="46" t="s">
@@ -8763,13 +8775,13 @@
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="99" t="s">
+      <c r="G46" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
@@ -8805,21 +8817,21 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="95"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="139"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="157"/>
       <c r="D47" s="46" t="s">
         <v>123</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="100" t="s">
+      <c r="G47" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="102"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="134"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
@@ -8853,21 +8865,21 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="95"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="139"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="46" t="s">
         <v>128</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="100" t="s">
+      <c r="G48" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="102"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="134"/>
       <c r="L48" s="17" t="s">
         <v>179</v>
       </c>
@@ -8907,21 +8919,21 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="95"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="139"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="157"/>
       <c r="D49" s="46" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="100" t="s">
+      <c r="G49" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="102"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="134"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
@@ -8965,21 +8977,21 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="95"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="139"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="157"/>
       <c r="D50" s="49" t="s">
         <v>123</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="133" t="s">
+      <c r="G50" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="102"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="134"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -9019,11 +9031,11 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="95">
+      <c r="A51" s="127">
         <v>8</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="139" t="s">
+      <c r="B51" s="127"/>
+      <c r="C51" s="157" t="s">
         <v>185</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -9031,13 +9043,13 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="100" t="s">
+      <c r="G51" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="102"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="134"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
@@ -9067,21 +9079,21 @@
       <c r="AD51" s="35"/>
     </row>
     <row r="52" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="95"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="139"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="157"/>
       <c r="D52" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="99" t="s">
+      <c r="G52" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="121"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -9111,21 +9123,21 @@
       <c r="AD52" s="35"/>
     </row>
     <row r="53" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="95"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="139"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="157"/>
       <c r="D53" s="20" t="s">
         <v>128</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="99" t="s">
+      <c r="G53" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="121"/>
       <c r="L53" s="12"/>
       <c r="M53" s="18" t="s">
         <v>180</v>
@@ -9157,21 +9169,21 @@
       <c r="AD53" s="35"/>
     </row>
     <row r="54" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="95"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="139"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="157"/>
       <c r="D54" s="20" t="s">
         <v>189</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-      <c r="G54" s="99" t="s">
+      <c r="G54" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="121"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
@@ -9203,21 +9215,21 @@
       <c r="AD54" s="35"/>
     </row>
     <row r="55" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="95"/>
-      <c r="B55" s="95"/>
-      <c r="C55" s="139"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="157"/>
       <c r="D55" s="20" t="s">
         <v>192</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="99" t="s">
+      <c r="G55" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="99"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="121"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
@@ -9247,19 +9259,19 @@
       <c r="AD55" s="35"/>
     </row>
     <row r="56" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="95"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="139"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="157"/>
       <c r="D56" s="20"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="133" t="s">
+      <c r="G56" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="102"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="134"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
@@ -9291,25 +9303,25 @@
       <c r="AD56" s="40"/>
     </row>
     <row r="57" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="95">
+      <c r="A57" s="127">
         <v>9</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="139" t="s">
+      <c r="B57" s="127"/>
+      <c r="C57" s="157" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="127" t="s">
         <v>196</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="99" t="s">
+      <c r="G57" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="99"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="121"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -9339,19 +9351,19 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="95"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="95"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="127"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="99" t="s">
+      <c r="G58" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="99"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="121"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -9375,19 +9387,19 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="95"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="95"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="100" t="s">
+      <c r="G59" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="H59" s="101"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="102"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="134"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
@@ -9411,21 +9423,21 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="95"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="139"/>
+      <c r="A60" s="127"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="157"/>
       <c r="D60" s="50" t="s">
         <v>202</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="100" t="s">
+      <c r="G60" s="132" t="s">
         <v>203</v>
       </c>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="102"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="134"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
@@ -9451,21 +9463,21 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="95"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="106" t="s">
+      <c r="A61" s="127"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="128" t="s">
         <v>189</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="99" t="s">
+      <c r="G61" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="121"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
@@ -9491,19 +9503,19 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="95"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="107"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="129"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
-      <c r="G62" s="99" t="s">
+      <c r="G62" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="121"/>
       <c r="L62" s="12"/>
       <c r="M62" s="18" t="s">
         <v>206</v>
@@ -9531,19 +9543,19 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="95"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="107"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="129"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="99" t="s">
+      <c r="G63" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="121"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
@@ -9572,19 +9584,19 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="95"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="107"/>
+      <c r="A64" s="127"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="157"/>
+      <c r="D64" s="129"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="136" t="s">
+      <c r="G64" s="154" t="s">
         <v>208</v>
       </c>
-      <c r="H64" s="137"/>
-      <c r="I64" s="137"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="138"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="156"/>
       <c r="L64" s="51"/>
       <c r="M64" s="51"/>
       <c r="N64" s="51"/>
@@ -9608,19 +9620,19 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="95"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="107"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="129"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="99" t="s">
+      <c r="G65" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="121"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -9648,19 +9660,19 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="95"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="110"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="130"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="99" t="s">
+      <c r="G66" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
+      <c r="H66" s="121"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="121"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -9686,23 +9698,23 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="95"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="139" t="s">
+      <c r="A67" s="127"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="124" t="s">
+      <c r="D67" s="159" t="s">
         <v>213</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="99" t="s">
+      <c r="G67" s="121" t="s">
         <v>214</v>
       </c>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="99"/>
+      <c r="H67" s="121"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="121"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
@@ -9728,21 +9740,21 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="106">
+      <c r="A68" s="128">
         <v>10</v>
       </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="140"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="157"/>
+      <c r="D68" s="160"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="99" t="s">
+      <c r="G68" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
-      <c r="K68" s="99"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="121"/>
       <c r="L68" s="17"/>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -9768,19 +9780,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="107"/>
-      <c r="B69" s="95"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="125"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="161"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="100" t="s">
+      <c r="G69" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="H69" s="101"/>
-      <c r="I69" s="101"/>
-      <c r="J69" s="101"/>
-      <c r="K69" s="102"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="134"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
@@ -9806,21 +9818,21 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="107"/>
-      <c r="B70" s="95"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="141" t="s">
+      <c r="A70" s="129"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="158" t="s">
         <v>217</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
-      <c r="G70" s="100" t="s">
+      <c r="G70" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="H70" s="101"/>
-      <c r="I70" s="101"/>
-      <c r="J70" s="101"/>
-      <c r="K70" s="102"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="134"/>
       <c r="L70" s="17"/>
       <c r="M70" s="18" t="s">
         <v>219</v>
@@ -9848,19 +9860,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="107"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="141"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="158"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="100" t="s">
+      <c r="G71" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="H71" s="101"/>
-      <c r="I71" s="101"/>
-      <c r="J71" s="101"/>
-      <c r="K71" s="102"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="134"/>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
@@ -9888,19 +9900,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="107"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="141"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="158"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="100" t="s">
+      <c r="G72" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="H72" s="101"/>
-      <c r="I72" s="101"/>
-      <c r="J72" s="101"/>
-      <c r="K72" s="102"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="134"/>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -9928,27 +9940,27 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="107">
+      <c r="A73" s="129">
         <v>11</v>
       </c>
-      <c r="B73" s="95"/>
-      <c r="C73" s="129" t="s">
+      <c r="B73" s="127"/>
+      <c r="C73" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="D73" s="119" t="s">
+      <c r="D73" s="162" t="s">
         <v>224</v>
       </c>
       <c r="E73" s="11"/>
-      <c r="F73" s="95" t="s">
+      <c r="F73" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="G73" s="100" t="s">
+      <c r="G73" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="H73" s="101"/>
-      <c r="I73" s="101"/>
-      <c r="J73" s="101"/>
-      <c r="K73" s="102"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="133"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="134"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
@@ -9977,19 +9989,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="107"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="120"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="169"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="133" t="s">
+      <c r="F74" s="127"/>
+      <c r="G74" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="H74" s="134"/>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="135"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="141"/>
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
@@ -10015,19 +10027,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="107"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="121"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="163"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="99" t="s">
+      <c r="F75" s="127"/>
+      <c r="G75" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
+      <c r="H75" s="121"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="121"/>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
@@ -10053,23 +10065,23 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="107"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="119" t="s">
+      <c r="A76" s="129"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="165"/>
+      <c r="D76" s="162" t="s">
         <v>230</v>
       </c>
       <c r="E76" s="11"/>
-      <c r="F76" s="96" t="s">
+      <c r="F76" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="G76" s="99" t="s">
+      <c r="G76" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
+      <c r="H76" s="121"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="121"/>
+      <c r="K76" s="121"/>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
@@ -10093,19 +10105,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="107"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="120"/>
+      <c r="A77" s="129"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="169"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="99" t="s">
+      <c r="F77" s="151"/>
+      <c r="G77" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99"/>
-      <c r="K77" s="99"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="121"/>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -10133,19 +10145,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="107"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="121"/>
+      <c r="A78" s="129"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="165"/>
+      <c r="D78" s="163"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="99" t="s">
+      <c r="F78" s="170"/>
+      <c r="G78" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="H78" s="99"/>
-      <c r="I78" s="99"/>
-      <c r="J78" s="99"/>
-      <c r="K78" s="99"/>
+      <c r="H78" s="121"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121"/>
+      <c r="K78" s="121"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
@@ -10171,23 +10183,23 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="107">
+      <c r="A79" s="129">
         <v>12</v>
       </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="119" t="s">
+      <c r="B79" s="127"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="162" t="s">
         <v>236</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="52"/>
-      <c r="G79" s="100" t="s">
+      <c r="G79" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="H79" s="101"/>
-      <c r="I79" s="101"/>
-      <c r="J79" s="101"/>
-      <c r="K79" s="102"/>
+      <c r="H79" s="133"/>
+      <c r="I79" s="133"/>
+      <c r="J79" s="133"/>
+      <c r="K79" s="134"/>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
@@ -10209,17 +10221,17 @@
       <c r="Y79" s="11"/>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="107"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="121"/>
+      <c r="A80" s="129"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="163"/>
       <c r="E80" s="11"/>
       <c r="F80" s="52"/>
-      <c r="G80" s="100"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="101"/>
-      <c r="K80" s="102"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="133"/>
+      <c r="I80" s="133"/>
+      <c r="J80" s="133"/>
+      <c r="K80" s="134"/>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -10241,23 +10253,23 @@
       <c r="Y80" s="11"/>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="107"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="129" t="s">
+      <c r="A81" s="129"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="164" t="s">
         <v>238</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="109" t="s">
+      <c r="F81" s="167" t="s">
         <v>239</v>
       </c>
-      <c r="G81" s="100" t="s">
+      <c r="G81" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="H81" s="101"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="101"/>
-      <c r="K81" s="102"/>
+      <c r="H81" s="133"/>
+      <c r="I81" s="133"/>
+      <c r="J81" s="133"/>
+      <c r="K81" s="134"/>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
@@ -10286,19 +10298,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="107"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="130"/>
+      <c r="A82" s="129"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="165"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="132" t="s">
+      <c r="F82" s="167"/>
+      <c r="G82" s="168" t="s">
         <v>243</v>
       </c>
-      <c r="H82" s="132"/>
-      <c r="I82" s="132"/>
-      <c r="J82" s="132"/>
-      <c r="K82" s="132"/>
+      <c r="H82" s="168"/>
+      <c r="I82" s="168"/>
+      <c r="J82" s="168"/>
+      <c r="K82" s="168"/>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
       <c r="N82" s="37"/>
@@ -10322,23 +10334,23 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="107">
+      <c r="A83" s="129">
         <v>13</v>
       </c>
-      <c r="B83" s="95"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="119" t="s">
+      <c r="B83" s="127"/>
+      <c r="C83" s="165"/>
+      <c r="D83" s="162" t="s">
         <v>244</v>
       </c>
       <c r="E83" s="11"/>
-      <c r="F83" s="109"/>
-      <c r="G83" s="132" t="s">
+      <c r="F83" s="167"/>
+      <c r="G83" s="168" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="132"/>
-      <c r="I83" s="132"/>
-      <c r="J83" s="132"/>
-      <c r="K83" s="132"/>
+      <c r="H83" s="168"/>
+      <c r="I83" s="168"/>
+      <c r="J83" s="168"/>
+      <c r="K83" s="168"/>
       <c r="L83" s="37"/>
       <c r="M83" s="37"/>
       <c r="N83" s="37"/>
@@ -10362,19 +10374,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="107"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="121"/>
+      <c r="A84" s="129"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="163"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="109"/>
-      <c r="G84" s="132" t="s">
+      <c r="F84" s="167"/>
+      <c r="G84" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="H84" s="132"/>
-      <c r="I84" s="132"/>
-      <c r="J84" s="132"/>
-      <c r="K84" s="132"/>
+      <c r="H84" s="168"/>
+      <c r="I84" s="168"/>
+      <c r="J84" s="168"/>
+      <c r="K84" s="168"/>
       <c r="L84" s="37"/>
       <c r="M84" s="37"/>
       <c r="N84" s="37"/>
@@ -10398,19 +10410,19 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="107"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="131"/>
+      <c r="A85" s="129"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="166"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="99" t="s">
+      <c r="F85" s="167"/>
+      <c r="G85" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="H85" s="99"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="99"/>
-      <c r="K85" s="99"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="121"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
@@ -10441,23 +10453,23 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="107"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="11"/>
       <c r="C86" s="53" t="s">
         <v>251</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="126" t="s">
+      <c r="F86" s="114" t="s">
         <v>252</v>
       </c>
-      <c r="G86" s="99" t="s">
+      <c r="G86" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="H86" s="99"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="99"/>
-      <c r="K86" s="99"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="121"/>
+      <c r="K86" s="121"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="12"/>
@@ -10483,21 +10495,21 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="107"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="11"/>
       <c r="C87" s="53" t="s">
         <v>254</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="99" t="s">
+      <c r="F87" s="122"/>
+      <c r="G87" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="H87" s="99"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="99"/>
-      <c r="K87" s="99"/>
+      <c r="H87" s="121"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="121"/>
+      <c r="K87" s="121"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
@@ -10523,7 +10535,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="107">
+      <c r="A88" s="129">
         <v>14</v>
       </c>
       <c r="B88" s="11"/>
@@ -10532,14 +10544,14 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="99" t="s">
+      <c r="F88" s="122"/>
+      <c r="G88" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="H88" s="99"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="121"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
@@ -10567,19 +10579,19 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="107"/>
+      <c r="A89" s="129"/>
       <c r="B89" s="11"/>
       <c r="C89" s="1"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="99" t="s">
+      <c r="F89" s="123"/>
+      <c r="G89" s="121" t="s">
         <v>258</v>
       </c>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="99"/>
+      <c r="H89" s="121"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="121"/>
+      <c r="K89" s="121"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
@@ -10603,19 +10615,19 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="107"/>
+      <c r="A90" s="129"/>
       <c r="B90" s="11"/>
       <c r="C90" s="53"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
-      <c r="G90" s="100" t="s">
+      <c r="G90" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="H90" s="101"/>
-      <c r="I90" s="101"/>
-      <c r="J90" s="101"/>
-      <c r="K90" s="102"/>
+      <c r="H90" s="133"/>
+      <c r="I90" s="133"/>
+      <c r="J90" s="133"/>
+      <c r="K90" s="134"/>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
@@ -10639,19 +10651,19 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="107"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="11"/>
       <c r="C91" s="53"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
-      <c r="G91" s="99" t="s">
+      <c r="G91" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="H91" s="99"/>
-      <c r="I91" s="99"/>
-      <c r="J91" s="99"/>
-      <c r="K91" s="99"/>
+      <c r="H91" s="121"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="121"/>
+      <c r="K91" s="121"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
@@ -10675,19 +10687,19 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="110"/>
+      <c r="A92" s="130"/>
       <c r="B92" s="11"/>
       <c r="C92" s="54"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
-      <c r="G92" s="99" t="s">
+      <c r="G92" s="121" t="s">
         <v>262</v>
       </c>
-      <c r="H92" s="99"/>
-      <c r="I92" s="99"/>
-      <c r="J92" s="99"/>
-      <c r="K92" s="99"/>
+      <c r="H92" s="121"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="121"/>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
@@ -10713,23 +10725,23 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="106">
+      <c r="A93" s="128">
         <v>15</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="54"/>
-      <c r="D93" s="124" t="s">
+      <c r="D93" s="159" t="s">
         <v>263</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
-      <c r="G93" s="99" t="s">
+      <c r="G93" s="121" t="s">
         <v>264</v>
       </c>
-      <c r="H93" s="99"/>
-      <c r="I93" s="99"/>
-      <c r="J93" s="99"/>
-      <c r="K93" s="99"/>
+      <c r="H93" s="121"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="121"/>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
@@ -10755,19 +10767,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="107"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="11"/>
       <c r="C94" s="54"/>
-      <c r="D94" s="125"/>
+      <c r="D94" s="161"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
-      <c r="G94" s="100" t="s">
+      <c r="G94" s="132" t="s">
         <v>265</v>
       </c>
-      <c r="H94" s="101"/>
-      <c r="I94" s="101"/>
-      <c r="J94" s="101"/>
-      <c r="K94" s="102"/>
+      <c r="H94" s="133"/>
+      <c r="I94" s="133"/>
+      <c r="J94" s="133"/>
+      <c r="K94" s="134"/>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
@@ -10792,19 +10804,19 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="107"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="11"/>
       <c r="C95" s="54"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
-      <c r="G95" s="99" t="s">
+      <c r="G95" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="H95" s="99"/>
-      <c r="I95" s="99"/>
-      <c r="J95" s="99"/>
-      <c r="K95" s="99"/>
+      <c r="H95" s="121"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="121"/>
+      <c r="K95" s="121"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
@@ -10828,18 +10840,18 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="107"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="11"/>
       <c r="D96" s="55"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
-      <c r="G96" s="99" t="s">
+      <c r="G96" s="121" t="s">
         <v>268</v>
       </c>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="99"/>
-      <c r="K96" s="99"/>
+      <c r="H96" s="121"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="121"/>
+      <c r="K96" s="121"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
@@ -10863,7 +10875,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="107"/>
+      <c r="A97" s="129"/>
       <c r="B97" s="11"/>
       <c r="C97" s="54" t="s">
         <v>269</v>
@@ -10871,13 +10883,13 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
-      <c r="G97" s="99" t="s">
+      <c r="G97" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="H97" s="99"/>
-      <c r="I97" s="99"/>
-      <c r="J97" s="99"/>
-      <c r="K97" s="99"/>
+      <c r="H97" s="121"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="121"/>
+      <c r="K97" s="121"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
@@ -10903,20 +10915,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="107"/>
+      <c r="A98" s="129"/>
       <c r="B98" s="11"/>
       <c r="C98" s="56" t="s">
         <v>271</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
-      <c r="G98" s="99" t="s">
+      <c r="G98" s="121" t="s">
         <v>272</v>
       </c>
-      <c r="H98" s="99"/>
-      <c r="I98" s="99"/>
-      <c r="J98" s="99"/>
-      <c r="K98" s="99"/>
+      <c r="H98" s="121"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="121"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
@@ -10938,7 +10950,7 @@
       <c r="Y98" s="11"/>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="110"/>
+      <c r="A99" s="130"/>
       <c r="B99" s="11"/>
       <c r="C99" s="54" t="s">
         <v>2</v>
@@ -10946,13 +10958,13 @@
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
-      <c r="G99" s="99" t="s">
+      <c r="G99" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="H99" s="99"/>
-      <c r="I99" s="99"/>
-      <c r="J99" s="99"/>
-      <c r="K99" s="99"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="121"/>
+      <c r="K99" s="121"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
@@ -10982,25 +10994,25 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="95">
+      <c r="A100" s="127">
         <v>16</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="D100" s="119" t="s">
+      <c r="D100" s="162" t="s">
         <v>276</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-      <c r="G100" s="108" t="s">
+      <c r="G100" s="171" t="s">
         <v>277</v>
       </c>
-      <c r="H100" s="99"/>
-      <c r="I100" s="99"/>
-      <c r="J100" s="99"/>
-      <c r="K100" s="99"/>
+      <c r="H100" s="121"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="121"/>
+      <c r="K100" s="121"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
@@ -11026,19 +11038,19 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="95"/>
+      <c r="A101" s="127"/>
       <c r="B101" s="11"/>
       <c r="C101" s="54"/>
-      <c r="D101" s="120"/>
+      <c r="D101" s="169"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
-      <c r="G101" s="99" t="s">
+      <c r="G101" s="121" t="s">
         <v>278</v>
       </c>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99"/>
+      <c r="H101" s="121"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="121"/>
+      <c r="K101" s="121"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
@@ -11062,19 +11074,19 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="95"/>
+      <c r="A102" s="127"/>
       <c r="B102" s="11"/>
       <c r="C102" s="54"/>
-      <c r="D102" s="121"/>
+      <c r="D102" s="163"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
-      <c r="G102" s="99" t="s">
+      <c r="G102" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="H102" s="99"/>
-      <c r="I102" s="99"/>
-      <c r="J102" s="99"/>
-      <c r="K102" s="99"/>
+      <c r="H102" s="121"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121"/>
+      <c r="K102" s="121"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
@@ -11098,7 +11110,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="95"/>
+      <c r="A103" s="127"/>
       <c r="B103" s="11"/>
       <c r="C103" s="54"/>
       <c r="D103" s="57" t="s">
@@ -11106,13 +11118,13 @@
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
-      <c r="G103" s="99" t="s">
+      <c r="G103" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="99"/>
-      <c r="K103" s="99"/>
+      <c r="H103" s="121"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="121"/>
+      <c r="K103" s="121"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
@@ -11136,7 +11148,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="95"/>
+      <c r="A104" s="127"/>
       <c r="B104" s="11"/>
       <c r="C104" s="54"/>
       <c r="D104" s="58" t="s">
@@ -11144,13 +11156,13 @@
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
-      <c r="G104" s="99" t="s">
+      <c r="G104" s="121" t="s">
         <v>283</v>
       </c>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
+      <c r="H104" s="121"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="121"/>
+      <c r="K104" s="121"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
       <c r="N104" s="12"/>
@@ -11174,17 +11186,17 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="95"/>
+      <c r="A105" s="127"/>
       <c r="B105" s="59"/>
       <c r="C105" s="60"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="99"/>
-      <c r="J105" s="99"/>
-      <c r="K105" s="99"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="121"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="121"/>
+      <c r="K105" s="121"/>
       <c r="L105" s="61"/>
       <c r="M105" s="61"/>
       <c r="N105" s="61"/>
@@ -11208,7 +11220,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="106">
+      <c r="A106" s="128">
         <v>17</v>
       </c>
       <c r="B106" s="11"/>
@@ -11218,13 +11230,13 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
-      <c r="G106" s="122" t="s">
+      <c r="G106" s="172" t="s">
         <v>285</v>
       </c>
-      <c r="H106" s="123"/>
-      <c r="I106" s="123"/>
-      <c r="J106" s="123"/>
-      <c r="K106" s="123"/>
+      <c r="H106" s="173"/>
+      <c r="I106" s="173"/>
+      <c r="J106" s="173"/>
+      <c r="K106" s="173"/>
       <c r="L106" s="62"/>
       <c r="M106" s="62"/>
       <c r="N106" s="62"/>
@@ -11250,19 +11262,19 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="107"/>
+      <c r="A107" s="129"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
-      <c r="G107" s="99" t="s">
+      <c r="G107" s="121" t="s">
         <v>286</v>
       </c>
-      <c r="H107" s="99"/>
-      <c r="I107" s="99"/>
-      <c r="J107" s="99"/>
-      <c r="K107" s="99"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="121"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
@@ -11286,19 +11298,19 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="110"/>
+      <c r="A108" s="130"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
-      <c r="G108" s="99" t="s">
+      <c r="G108" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="H108" s="99"/>
-      <c r="I108" s="99"/>
-      <c r="J108" s="99"/>
-      <c r="K108" s="99"/>
+      <c r="H108" s="121"/>
+      <c r="I108" s="121"/>
+      <c r="J108" s="121"/>
+      <c r="K108" s="121"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
       <c r="N108" s="12"/>
@@ -11324,7 +11336,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="95">
+      <c r="A109" s="127">
         <v>18</v>
       </c>
       <c r="B109" s="11"/>
@@ -11332,13 +11344,13 @@
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
-      <c r="G109" s="99" t="s">
+      <c r="G109" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="H109" s="99"/>
-      <c r="I109" s="99"/>
-      <c r="J109" s="99"/>
-      <c r="K109" s="99"/>
+      <c r="H109" s="121"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="121"/>
+      <c r="K109" s="121"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
@@ -11361,19 +11373,19 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="95"/>
+      <c r="A110" s="127"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="63"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
-      <c r="G110" s="99" t="s">
+      <c r="G110" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="H110" s="99"/>
-      <c r="I110" s="99"/>
-      <c r="J110" s="99"/>
-      <c r="K110" s="99"/>
+      <c r="H110" s="121"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="121"/>
+      <c r="K110" s="121"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
@@ -11399,7 +11411,7 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="95"/>
+      <c r="A111" s="127"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
         <v>291</v>
@@ -11407,13 +11419,13 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
-      <c r="G111" s="99" t="s">
+      <c r="G111" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="H111" s="99"/>
-      <c r="I111" s="99"/>
-      <c r="J111" s="99"/>
-      <c r="K111" s="99"/>
+      <c r="H111" s="121"/>
+      <c r="I111" s="121"/>
+      <c r="J111" s="121"/>
+      <c r="K111" s="121"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
@@ -11437,19 +11449,19 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="95"/>
+      <c r="A112" s="127"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
-      <c r="G112" s="100" t="s">
+      <c r="G112" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="H112" s="101"/>
-      <c r="I112" s="101"/>
-      <c r="J112" s="101"/>
-      <c r="K112" s="102"/>
+      <c r="H112" s="133"/>
+      <c r="I112" s="133"/>
+      <c r="J112" s="133"/>
+      <c r="K112" s="134"/>
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
@@ -11473,18 +11485,18 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="95"/>
+      <c r="A113" s="127"/>
       <c r="B113" s="11"/>
       <c r="D113" s="64" t="s">
         <v>294</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
-      <c r="G113" s="100"/>
-      <c r="H113" s="101"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="101"/>
-      <c r="K113" s="102"/>
+      <c r="G113" s="132"/>
+      <c r="H113" s="133"/>
+      <c r="I113" s="133"/>
+      <c r="J113" s="133"/>
+      <c r="K113" s="134"/>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
@@ -11516,23 +11528,23 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="106">
+      <c r="A114" s="128">
         <v>19</v>
       </c>
       <c r="B114" s="111"/>
-      <c r="C114" s="113" t="s">
+      <c r="C114" s="174" t="s">
         <v>297</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
-      <c r="G114" s="99" t="s">
+      <c r="G114" s="121" t="s">
         <v>298</v>
       </c>
-      <c r="H114" s="99"/>
-      <c r="I114" s="99"/>
-      <c r="J114" s="99"/>
-      <c r="K114" s="99"/>
+      <c r="H114" s="121"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="121"/>
+      <c r="K114" s="121"/>
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
@@ -11555,19 +11567,19 @@
       <c r="Y114" s="11"/>
     </row>
     <row r="115" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="107"/>
-      <c r="B115" s="112"/>
-      <c r="C115" s="114"/>
+      <c r="A115" s="129"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="175"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
-      <c r="G115" s="108" t="s">
+      <c r="G115" s="171" t="s">
         <v>299</v>
       </c>
-      <c r="H115" s="99"/>
-      <c r="I115" s="99"/>
-      <c r="J115" s="99"/>
-      <c r="K115" s="99"/>
+      <c r="H115" s="121"/>
+      <c r="I115" s="121"/>
+      <c r="J115" s="121"/>
+      <c r="K115" s="121"/>
       <c r="L115" s="17"/>
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
@@ -11589,19 +11601,19 @@
       <c r="Y115" s="11"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="107"/>
-      <c r="B116" s="109" t="s">
+      <c r="A116" s="129"/>
+      <c r="B116" s="167" t="s">
         <v>300</v>
       </c>
-      <c r="C116" s="114"/>
+      <c r="C116" s="175"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
-      <c r="G116" s="99"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="99"/>
-      <c r="J116" s="99"/>
-      <c r="K116" s="99"/>
+      <c r="G116" s="121"/>
+      <c r="H116" s="121"/>
+      <c r="I116" s="121"/>
+      <c r="J116" s="121"/>
+      <c r="K116" s="121"/>
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
@@ -11625,21 +11637,21 @@
       </c>
     </row>
     <row r="117" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="107"/>
-      <c r="B117" s="109"/>
-      <c r="C117" s="114"/>
+      <c r="A117" s="129"/>
+      <c r="B117" s="167"/>
+      <c r="C117" s="175"/>
       <c r="D117" s="66" t="s">
         <v>301</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
-      <c r="G117" s="115" t="s">
+      <c r="G117" s="176" t="s">
         <v>302</v>
       </c>
-      <c r="H117" s="116"/>
-      <c r="I117" s="116"/>
-      <c r="J117" s="116"/>
-      <c r="K117" s="117"/>
+      <c r="H117" s="177"/>
+      <c r="I117" s="177"/>
+      <c r="J117" s="177"/>
+      <c r="K117" s="178"/>
       <c r="L117" s="67"/>
       <c r="M117" s="67"/>
       <c r="N117" s="67"/>
@@ -11665,19 +11677,19 @@
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="107"/>
-      <c r="B118" s="109"/>
-      <c r="C118" s="114"/>
+      <c r="A118" s="129"/>
+      <c r="B118" s="167"/>
+      <c r="C118" s="175"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
-      <c r="G118" s="118" t="s">
+      <c r="G118" s="179" t="s">
         <v>303</v>
       </c>
-      <c r="H118" s="99"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="99"/>
-      <c r="K118" s="99"/>
+      <c r="H118" s="121"/>
+      <c r="I118" s="121"/>
+      <c r="J118" s="121"/>
+      <c r="K118" s="121"/>
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
@@ -11707,21 +11719,21 @@
       </c>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="107"/>
-      <c r="B119" s="109"/>
-      <c r="C119" s="114"/>
+      <c r="A119" s="129"/>
+      <c r="B119" s="167"/>
+      <c r="C119" s="175"/>
       <c r="D119" s="66" t="s">
         <v>306</v>
       </c>
       <c r="E119" s="59"/>
       <c r="F119" s="11"/>
-      <c r="G119" s="100" t="s">
+      <c r="G119" s="132" t="s">
         <v>307</v>
       </c>
-      <c r="H119" s="101"/>
-      <c r="I119" s="101"/>
-      <c r="J119" s="101"/>
-      <c r="K119" s="102"/>
+      <c r="H119" s="133"/>
+      <c r="I119" s="133"/>
+      <c r="J119" s="133"/>
+      <c r="K119" s="134"/>
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
@@ -11745,17 +11757,17 @@
       </c>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="110"/>
-      <c r="B120" s="96"/>
-      <c r="C120" s="114"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="150"/>
+      <c r="C120" s="175"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="59"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="101"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="101"/>
-      <c r="K120" s="102"/>
+      <c r="G120" s="132"/>
+      <c r="H120" s="133"/>
+      <c r="I120" s="133"/>
+      <c r="J120" s="133"/>
+      <c r="K120" s="134"/>
       <c r="L120" s="68"/>
       <c r="M120" s="68"/>
       <c r="N120" s="68"/>
@@ -11781,24 +11793,24 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="95">
+      <c r="A121" s="127">
         <v>20</v>
       </c>
-      <c r="B121" s="96" t="s">
+      <c r="B121" s="150" t="s">
         <v>308</v>
       </c>
-      <c r="C121" s="97" t="s">
+      <c r="C121" s="151" t="s">
         <v>309</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
-      <c r="G121" s="99" t="s">
+      <c r="G121" s="121" t="s">
         <v>310</v>
       </c>
-      <c r="H121" s="99"/>
-      <c r="I121" s="99"/>
-      <c r="J121" s="99"/>
-      <c r="K121" s="99"/>
+      <c r="H121" s="121"/>
+      <c r="I121" s="121"/>
+      <c r="J121" s="121"/>
+      <c r="K121" s="121"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
@@ -11821,21 +11833,21 @@
       <c r="Z121" s="11"/>
     </row>
     <row r="122" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="95"/>
-      <c r="B122" s="97"/>
-      <c r="C122" s="97"/>
+      <c r="A122" s="127"/>
+      <c r="B122" s="151"/>
+      <c r="C122" s="151"/>
       <c r="D122" s="66" t="s">
         <v>236</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
-      <c r="G122" s="100" t="s">
+      <c r="G122" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="H122" s="101"/>
-      <c r="I122" s="101"/>
-      <c r="J122" s="101"/>
-      <c r="K122" s="102"/>
+      <c r="H122" s="133"/>
+      <c r="I122" s="133"/>
+      <c r="J122" s="133"/>
+      <c r="K122" s="134"/>
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
@@ -11859,19 +11871,19 @@
       <c r="Z122" s="11"/>
     </row>
     <row r="123" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="95"/>
-      <c r="B123" s="98"/>
-      <c r="C123" s="97"/>
+      <c r="A123" s="127"/>
+      <c r="B123" s="170"/>
+      <c r="C123" s="151"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
-      <c r="G123" s="103" t="s">
+      <c r="G123" s="180" t="s">
         <v>313</v>
       </c>
-      <c r="H123" s="104"/>
-      <c r="I123" s="104"/>
-      <c r="J123" s="104"/>
-      <c r="K123" s="105"/>
+      <c r="H123" s="181"/>
+      <c r="I123" s="181"/>
+      <c r="J123" s="181"/>
+      <c r="K123" s="182"/>
       <c r="L123" s="70"/>
       <c r="M123" s="70"/>
       <c r="N123" s="70"/>
@@ -11895,22 +11907,22 @@
       <c r="Z123" s="11"/>
     </row>
     <row r="124" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="106">
+      <c r="A124" s="128">
         <v>21</v>
       </c>
-      <c r="B124" s="108" t="s">
+      <c r="B124" s="171" t="s">
         <v>314</v>
       </c>
-      <c r="C124" s="97"/>
+      <c r="C124" s="151"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
-      <c r="G124" s="99" t="s">
+      <c r="G124" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="H124" s="99"/>
-      <c r="I124" s="99"/>
-      <c r="J124" s="99"/>
-      <c r="K124" s="99"/>
+      <c r="H124" s="121"/>
+      <c r="I124" s="121"/>
+      <c r="J124" s="121"/>
+      <c r="K124" s="121"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="12"/>
@@ -11931,21 +11943,21 @@
       <c r="Z124" s="11"/>
     </row>
     <row r="125" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="107"/>
-      <c r="B125" s="108"/>
-      <c r="C125" s="97"/>
+      <c r="A125" s="129"/>
+      <c r="B125" s="171"/>
+      <c r="C125" s="151"/>
       <c r="D125" s="64" t="s">
         <v>316</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
-      <c r="G125" s="100" t="s">
+      <c r="G125" s="132" t="s">
         <v>317</v>
       </c>
-      <c r="H125" s="101"/>
-      <c r="I125" s="101"/>
-      <c r="J125" s="101"/>
-      <c r="K125" s="102"/>
+      <c r="H125" s="133"/>
+      <c r="I125" s="133"/>
+      <c r="J125" s="133"/>
+      <c r="K125" s="134"/>
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
@@ -11968,19 +11980,19 @@
       <c r="Z125" s="11"/>
     </row>
     <row r="126" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="107"/>
-      <c r="B126" s="108"/>
-      <c r="C126" s="98"/>
+      <c r="A126" s="129"/>
+      <c r="B126" s="171"/>
+      <c r="C126" s="170"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
-      <c r="G126" s="99" t="s">
+      <c r="G126" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="H126" s="99"/>
-      <c r="I126" s="99"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="99"/>
+      <c r="H126" s="121"/>
+      <c r="I126" s="121"/>
+      <c r="J126" s="121"/>
+      <c r="K126" s="121"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
       <c r="N126" s="12"/>
@@ -12001,13 +12013,13 @@
       <c r="Z126" s="11"/>
     </row>
     <row r="127" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="95">
+      <c r="A127" s="127">
         <v>22</v>
       </c>
-      <c r="B127" s="104" t="s">
+      <c r="B127" s="181" t="s">
         <v>319</v>
       </c>
-      <c r="C127" s="109" t="s">
+      <c r="C127" s="167" t="s">
         <v>320</v>
       </c>
       <c r="D127" s="71" t="s">
@@ -12015,13 +12027,13 @@
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
-      <c r="G127" s="99" t="s">
+      <c r="G127" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="H127" s="99"/>
-      <c r="I127" s="99"/>
-      <c r="J127" s="99"/>
-      <c r="K127" s="99"/>
+      <c r="H127" s="121"/>
+      <c r="I127" s="121"/>
+      <c r="J127" s="121"/>
+      <c r="K127" s="121"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
       <c r="N127" s="12"/>
@@ -12044,19 +12056,19 @@
       <c r="Z127" s="11"/>
     </row>
     <row r="128" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="95"/>
-      <c r="B128" s="104"/>
-      <c r="C128" s="109"/>
+      <c r="A128" s="127"/>
+      <c r="B128" s="181"/>
+      <c r="C128" s="167"/>
       <c r="D128" s="71"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
-      <c r="G128" s="108" t="s">
+      <c r="G128" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="H128" s="99"/>
-      <c r="I128" s="99"/>
-      <c r="J128" s="99"/>
-      <c r="K128" s="99"/>
+      <c r="H128" s="121"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="121"/>
+      <c r="K128" s="121"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
       <c r="N128" s="12"/>
@@ -12077,18 +12089,18 @@
       <c r="Z128" s="11"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129" s="95"/>
-      <c r="B129" s="96" t="s">
+      <c r="A129" s="127"/>
+      <c r="B129" s="150" t="s">
         <v>324</v>
       </c>
-      <c r="C129" s="109"/>
-      <c r="G129" s="99" t="s">
+      <c r="C129" s="167"/>
+      <c r="G129" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="H129" s="99"/>
-      <c r="I129" s="99"/>
-      <c r="J129" s="99"/>
-      <c r="K129" s="99"/>
+      <c r="H129" s="121"/>
+      <c r="I129" s="121"/>
+      <c r="J129" s="121"/>
+      <c r="K129" s="121"/>
       <c r="L129" s="72"/>
       <c r="M129" s="72"/>
       <c r="N129" s="72"/>
@@ -12098,110 +12110,110 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130" s="95"/>
-      <c r="B130" s="97"/>
-      <c r="C130" s="109"/>
+      <c r="A130" s="127"/>
+      <c r="B130" s="151"/>
+      <c r="C130" s="167"/>
       <c r="R130" s="11">
         <f>SUM($Q$9:Q130)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131" s="95"/>
-      <c r="B131" s="97"/>
-      <c r="C131" s="109"/>
+      <c r="A131" s="127"/>
+      <c r="B131" s="151"/>
+      <c r="C131" s="167"/>
       <c r="R131" s="11">
         <f>SUM($Q$9:Q131)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A132" s="95"/>
-      <c r="B132" s="97"/>
-      <c r="C132" s="109"/>
+      <c r="A132" s="127"/>
+      <c r="B132" s="151"/>
+      <c r="C132" s="167"/>
       <c r="R132" s="11">
         <f>SUM($Q$9:Q132)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A133" s="95"/>
-      <c r="B133" s="97"/>
-      <c r="C133" s="109"/>
+      <c r="A133" s="127"/>
+      <c r="B133" s="151"/>
+      <c r="C133" s="167"/>
       <c r="R133" s="11">
         <f>SUM($Q$9:Q133)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A134" s="95"/>
-      <c r="B134" s="97"/>
-      <c r="C134" s="109"/>
+      <c r="A134" s="127"/>
+      <c r="B134" s="151"/>
+      <c r="C134" s="167"/>
       <c r="R134" s="11">
         <f>SUM($Q$9:Q134)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A135" s="95">
+      <c r="A135" s="127">
         <v>23</v>
       </c>
-      <c r="B135" s="97"/>
-      <c r="C135" s="109"/>
+      <c r="B135" s="151"/>
+      <c r="C135" s="167"/>
       <c r="R135" s="11">
         <f>SUM($Q$9:Q135)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A136" s="95"/>
-      <c r="B136" s="97"/>
-      <c r="C136" s="109"/>
+      <c r="A136" s="127"/>
+      <c r="B136" s="151"/>
+      <c r="C136" s="167"/>
       <c r="R136" s="11">
         <f>SUM($Q$9:Q136)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A137" s="95"/>
-      <c r="B137" s="97"/>
-      <c r="C137" s="109"/>
+      <c r="A137" s="127"/>
+      <c r="B137" s="151"/>
+      <c r="C137" s="167"/>
       <c r="R137" s="11">
         <f>SUM($Q$9:Q137)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A138" s="95"/>
-      <c r="B138" s="97"/>
-      <c r="C138" s="109"/>
+      <c r="A138" s="127"/>
+      <c r="B138" s="151"/>
+      <c r="C138" s="167"/>
       <c r="R138" s="11">
         <f>SUM($Q$9:Q138)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A139" s="95"/>
-      <c r="B139" s="97"/>
-      <c r="C139" s="109"/>
+      <c r="A139" s="127"/>
+      <c r="B139" s="151"/>
+      <c r="C139" s="167"/>
       <c r="R139" s="11">
         <f>SUM($Q$9:Q139)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A140" s="95"/>
-      <c r="B140" s="97"/>
-      <c r="C140" s="109"/>
+      <c r="A140" s="127"/>
+      <c r="B140" s="151"/>
+      <c r="C140" s="167"/>
       <c r="R140" s="11">
         <f>SUM($Q$9:Q140)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A141" s="95"/>
-      <c r="B141" s="98"/>
-      <c r="C141" s="109"/>
+      <c r="A141" s="127"/>
+      <c r="B141" s="170"/>
+      <c r="C141" s="167"/>
       <c r="R141" s="25">
         <f>SUM($Q$9:Q141)</f>
         <v>271.65092362949309</v>
@@ -12212,21 +12224,183 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="A127:A134"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="B129:B141"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B85"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="F32:F41"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="A9:A18"/>
     <mergeCell ref="B9:B45"/>
     <mergeCell ref="C9:C17"/>
@@ -12251,183 +12425,21 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="G30:K30"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="F32:F41"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B85"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C126"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="A127:A134"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="B129:B141"/>
-    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12738,14 +12750,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12753,20 +12765,21 @@
     <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="167" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="80" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="80" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="93" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="80" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="80" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12777,55 +12790,59 @@
         <v>333</v>
       </c>
       <c r="E1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>606</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="I1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="M1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="109" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
-      <c r="L2" s="80" t="s">
+      <c r="E2" s="91"/>
+      <c r="M2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="N2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>357</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>695</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>696</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="109"/>
       <c r="B3" s="92"/>
       <c r="C3" s="91" t="s">
         <v>331</v>
@@ -12833,39 +12850,42 @@
       <c r="D3" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="91" t="s">
         <v>559</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="G3" s="91" t="s">
         <v>595</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>571</v>
       </c>
-      <c r="H3" s="167" t="s">
+      <c r="I3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="80">
+      <c r="M3" s="80">
         <v>130</v>
       </c>
-      <c r="M3" s="80">
+      <c r="N3" s="80">
         <v>7</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>694</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>300</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="109"/>
       <c r="B4" s="85" t="s">
         <v>538</v>
       </c>
@@ -12875,33 +12895,36 @@
       <c r="D4" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="G4" s="91" t="s">
         <v>572</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="I4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="80">
+      <c r="M4" s="80">
         <v>280</v>
       </c>
-      <c r="M4" s="80">
+      <c r="N4" s="80">
         <v>7</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>600</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="93">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
       <c r="B5" s="85" t="s">
@@ -12913,34 +12936,37 @@
       <c r="D5" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="G5" s="88" t="s">
         <v>574</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>335</v>
       </c>
-      <c r="H5" s="167" t="s">
+      <c r="I5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="L5" s="80">
+      <c r="J5" s="6"/>
+      <c r="M5" s="80">
         <v>350</v>
       </c>
-      <c r="M5" s="80">
+      <c r="N5" s="80">
         <v>9</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="109"/>
       <c r="B6" s="85"/>
       <c r="C6" s="91" t="s">
         <v>651</v>
@@ -12948,17 +12974,20 @@
       <c r="D6" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="88" t="s">
         <v>618</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="I6" s="6"/>
-      <c r="P6">
+      <c r="G6" s="88"/>
+      <c r="J6" s="6"/>
+      <c r="Q6">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="109"/>
       <c r="B7" s="92"/>
       <c r="C7" s="91" t="s">
         <v>652</v>
@@ -12966,34 +12995,37 @@
       <c r="D7" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="G7" s="91" t="s">
         <v>573</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="H7" s="91" t="s">
         <v>533</v>
       </c>
-      <c r="H7" s="167" t="s">
+      <c r="I7" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="L7" s="80">
+      <c r="J7" s="6"/>
+      <c r="M7" s="80">
         <v>400</v>
       </c>
-      <c r="M7" s="80">
+      <c r="N7" s="80">
         <v>9</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2500</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="109"/>
       <c r="B8" s="92"/>
       <c r="C8" s="91" t="s">
         <v>653</v>
@@ -13001,21 +13033,24 @@
       <c r="D8" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="91" t="s">
         <v>616</v>
       </c>
-      <c r="F8" s="91"/>
       <c r="G8" s="91"/>
-      <c r="I8" s="6"/>
-      <c r="N8" t="s">
+      <c r="H8" s="91"/>
+      <c r="J8" s="6"/>
+      <c r="O8" t="s">
         <v>361</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="109"/>
       <c r="B9" s="92"/>
       <c r="C9" s="91" t="s">
         <v>654</v>
@@ -13023,36 +13058,39 @@
       <c r="D9" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="H9" s="168" t="s">
+      <c r="I9" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="L9" s="80">
+      <c r="M9" s="80">
         <v>550</v>
       </c>
-      <c r="M9" s="80">
+      <c r="N9" s="80">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>697</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>300</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>50002</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+    <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="109"/>
       <c r="B10" s="92"/>
       <c r="C10" s="91" t="s">
         <v>655</v>
@@ -13060,33 +13098,36 @@
       <c r="D10" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H10" s="168" t="s">
+      <c r="I10" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="L10" s="80">
+      <c r="M10" s="80">
         <v>700</v>
       </c>
-      <c r="M10" s="80">
+      <c r="N10" s="80">
         <v>12</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2500</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
+    <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="109"/>
       <c r="B11" s="92"/>
       <c r="C11" s="91" t="s">
         <v>656</v>
@@ -13094,33 +13135,36 @@
       <c r="D11" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="83" t="s">
         <v>562</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="G11" s="83" t="s">
         <v>576</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="I11" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="L11" s="80">
+      <c r="M11" s="80">
         <v>850</v>
       </c>
-      <c r="M11" s="80">
+      <c r="N11" s="80">
         <v>18</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2800</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="109"/>
       <c r="B12" s="92"/>
       <c r="C12" s="91" t="s">
         <v>657</v>
@@ -13128,33 +13172,36 @@
       <c r="D12" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H12" s="167" t="s">
+      <c r="I12" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="L12" s="80">
+      <c r="M12" s="80">
         <v>1000</v>
       </c>
-      <c r="M12" s="80">
+      <c r="N12" s="80">
         <v>25</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3300</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="109"/>
       <c r="B13" s="92"/>
       <c r="C13" s="91" t="s">
         <v>658</v>
@@ -13162,36 +13209,39 @@
       <c r="D13" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="167" t="s">
+      <c r="I13" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="L13" s="80">
+      <c r="M13" s="80">
         <v>1150</v>
       </c>
-      <c r="M13" s="80">
+      <c r="N13" s="80">
         <v>35</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3600</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>351</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>70013</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="109"/>
       <c r="B14" s="92"/>
       <c r="C14" s="91" t="s">
         <v>659</v>
@@ -13199,30 +13249,33 @@
       <c r="D14" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="79" t="s">
         <v>684</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>25</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>352</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>70002</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>70020</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="109"/>
       <c r="B15" s="92"/>
       <c r="C15" s="91" t="s">
         <v>660</v>
@@ -13230,28 +13283,31 @@
       <c r="D15" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="N15" t="s">
+      <c r="G15" s="1"/>
+      <c r="O15" t="s">
         <v>697</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>8</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>300</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>50002</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A16" s="109"/>
       <c r="B16" s="92"/>
       <c r="C16" s="91" t="s">
         <v>661</v>
@@ -13259,36 +13315,39 @@
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="168" t="s">
+      <c r="I16" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>4500</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>30</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>353</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>70013</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>70019</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="109"/>
       <c r="B17" s="92"/>
       <c r="C17" s="91" t="s">
         <v>662</v>
@@ -13296,27 +13355,30 @@
       <c r="D17" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H17" s="168" t="s">
+      <c r="I17" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="109"/>
       <c r="B18" s="92"/>
       <c r="C18" s="91" t="s">
         <v>663</v>
@@ -13324,33 +13386,36 @@
       <c r="D18" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H18" s="168" t="s">
+      <c r="I18" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>11001</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>10</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>5500</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="109"/>
       <c r="B19" s="92"/>
       <c r="C19" s="91" t="s">
         <v>664</v>
@@ -13358,27 +13423,30 @@
       <c r="D19" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="83" t="s">
         <v>567</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="G19" s="83" t="s">
         <v>582</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H19" s="168" t="s">
+      <c r="I19" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>6000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="93">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="109">
         <v>2</v>
       </c>
       <c r="B20" s="92"/>
@@ -13388,33 +13456,36 @@
       <c r="D20" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H20" s="168" t="s">
+      <c r="I20" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>10005</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>15</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6600</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="109"/>
       <c r="B21" s="92"/>
       <c r="C21" s="91" t="s">
         <v>666</v>
@@ -13422,27 +13493,30 @@
       <c r="D21" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H21" s="168" t="s">
+      <c r="I21" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>7200</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" s="109"/>
       <c r="B22" s="92"/>
       <c r="C22" s="91" t="s">
         <v>667</v>
@@ -13450,66 +13524,69 @@
       <c r="D22" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="168"/>
-      <c r="N22">
+      <c r="I22" s="94"/>
+      <c r="O22">
         <v>11001</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>7800</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" s="109"/>
       <c r="B23" s="92"/>
-      <c r="C23" s="169" t="s">
+      <c r="C23" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="96" t="s">
         <v>634</v>
       </c>
-      <c r="E23" s="171" t="s">
+      <c r="F23" s="97" t="s">
         <v>432</v>
       </c>
-      <c r="F23" s="171" t="s">
+      <c r="G23" s="97" t="s">
         <v>608</v>
       </c>
-      <c r="G23" s="171" t="s">
+      <c r="H23" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="175" t="s">
+      <c r="I23" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="174"/>
-      <c r="M23" s="174"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23">
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23">
         <v>8400</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24" s="109"/>
       <c r="B24" s="92"/>
       <c r="C24" s="91" t="s">
         <v>669</v>
@@ -13517,27 +13594,36 @@
       <c r="D24" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="83" t="s">
         <v>596</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="G24" s="83" t="s">
         <v>586</v>
       </c>
-      <c r="G24" s="83" t="s">
+      <c r="H24" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="H24" s="168" t="s">
+      <c r="I24" s="94" t="s">
         <v>334</v>
       </c>
+      <c r="O24">
+        <v>10017</v>
+      </c>
       <c r="P24">
+        <v>13</v>
+      </c>
+      <c r="Q24">
         <v>9000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="109"/>
       <c r="B25" s="92"/>
       <c r="C25" s="91" t="s">
         <v>670</v>
@@ -13545,27 +13631,30 @@
       <c r="D25" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H25" s="168" t="s">
+      <c r="I25" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>9700</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="109"/>
       <c r="B26" s="85" t="s">
         <v>537</v>
       </c>
@@ -13575,24 +13664,27 @@
       <c r="D26" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="83" t="s">
         <v>598</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="G26" s="83" t="s">
         <v>588</v>
       </c>
-      <c r="H26" s="168" t="s">
+      <c r="I26" s="94" t="s">
         <v>611</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>10400</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="109"/>
       <c r="B27" s="92"/>
       <c r="C27" s="91" t="s">
         <v>672</v>
@@ -13600,27 +13692,30 @@
       <c r="D27" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+      <c r="F27" s="83" t="s">
         <v>599</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="G27" s="83" t="s">
         <v>589</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H27" s="168" t="s">
+      <c r="I27" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>11100</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" s="109"/>
       <c r="B28" s="92"/>
       <c r="C28" s="91" t="s">
         <v>673</v>
@@ -13628,28 +13723,31 @@
       <c r="D28" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="168" t="s">
+      <c r="G28" s="1"/>
+      <c r="I28" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>470</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>15</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>11800</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A29" s="93"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" s="109"/>
       <c r="B29" s="92"/>
       <c r="C29" s="91" t="s">
         <v>674</v>
@@ -13657,25 +13755,28 @@
       <c r="D29" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="H29" s="168" t="s">
+      <c r="I29" s="94" t="s">
         <v>613</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12500</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A30" s="93"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30" s="109"/>
       <c r="B30" s="92"/>
       <c r="C30" s="91" t="s">
         <v>675</v>
@@ -13683,27 +13784,30 @@
       <c r="D30" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="83" t="s">
         <v>601</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="G30" s="83" t="s">
         <v>591</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H30" s="168" t="s">
+      <c r="I30" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>13200</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="93"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="109"/>
       <c r="B31" s="85" t="s">
         <v>537</v>
       </c>
@@ -13713,200 +13817,218 @@
       <c r="D31" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H31" s="168" t="s">
+      <c r="I31" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>14000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A32" s="93"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="109"/>
       <c r="B32" s="92"/>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="102" t="s">
         <v>677</v>
       </c>
-      <c r="D32" s="177" t="s">
+      <c r="D32" s="103" t="s">
         <v>642</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+      <c r="F32" s="104" t="s">
         <v>603</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="G32" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="G32" s="178" t="s">
+      <c r="H32" s="104" t="s">
         <v>513</v>
       </c>
-      <c r="H32" s="179"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32">
+      <c r="I32" s="105"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32">
         <v>15000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>110</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>10007</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="93">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="109">
         <v>3</v>
       </c>
       <c r="B33" s="92"/>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="102" t="s">
         <v>678</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="103" t="s">
         <v>643</v>
       </c>
-      <c r="E33" s="178" t="s">
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="104" t="s">
         <v>604</v>
       </c>
-      <c r="F33" s="178" t="s">
+      <c r="G33" s="104" t="s">
         <v>593</v>
       </c>
-      <c r="G33" s="178" t="s">
+      <c r="H33" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="H33" s="179"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="181" t="s">
+      <c r="I33" s="105"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="107" t="s">
         <v>514</v>
       </c>
-      <c r="O33" s="181">
+      <c r="P33" s="107">
         <v>1</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>16000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="109"/>
       <c r="B34" s="92"/>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="102" t="s">
         <v>679</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="103" t="s">
         <v>644</v>
       </c>
-      <c r="E34" s="178" t="s">
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="F34" s="178" t="s">
+      <c r="G34" s="104" t="s">
         <v>594</v>
       </c>
-      <c r="G34" s="178" t="s">
+      <c r="H34" s="104" t="s">
         <v>512</v>
       </c>
-      <c r="H34" s="179"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34">
+      <c r="I34" s="105"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34">
         <v>17000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="109"/>
       <c r="B35" s="92"/>
-      <c r="C35" s="169" t="s">
+      <c r="C35" s="95" t="s">
         <v>677</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="96" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="171" t="s">
+      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="F35" s="97" t="s">
         <v>687</v>
       </c>
-      <c r="F35" s="171"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="175" t="s">
+      <c r="G35" s="97"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="174"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35">
+      <c r="J35" s="98"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35">
         <v>17000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="93"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="109"/>
       <c r="B36" s="92"/>
-      <c r="C36" s="169" t="s">
+      <c r="C36" s="95" t="s">
         <v>678</v>
       </c>
-      <c r="D36" s="170" t="s">
+      <c r="D36" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="E36" s="171" t="s">
+      <c r="E36" s="2">
+        <v>20</v>
+      </c>
+      <c r="F36" s="97" t="s">
         <v>688</v>
       </c>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="175" t="s">
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="173"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36">
+      <c r="J36" s="98"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36">
         <v>17000</v>
       </c>
-      <c r="Q36" s="173">
+      <c r="R36" s="99">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="93"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="109"/>
       <c r="B37" s="92"/>
       <c r="C37" s="91" t="s">
         <v>680</v>
@@ -13914,23 +14036,26 @@
       <c r="D37" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="91" t="s">
+        <v>699</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H37" s="168" t="s">
+      <c r="I37" s="94" t="s">
         <v>334</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>689</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>25</v>
       </c>
-      <c r="P37" s="173"/>
-      <c r="Q37" s="173"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="93"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="109"/>
       <c r="B38" s="92"/>
       <c r="C38" s="91" t="s">
         <v>681</v>
@@ -13938,21 +14063,24 @@
       <c r="D38" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="91" t="s">
+        <v>700</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="N38" t="s">
+      <c r="H38" s="1"/>
+      <c r="O38" t="s">
         <v>690</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>10</v>
       </c>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-    </row>
-    <row r="39" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="93"/>
+      <c r="Q38" s="99"/>
+      <c r="R38" s="99"/>
+    </row>
+    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="109"/>
       <c r="B39" s="84" t="s">
         <v>536</v>
       </c>
@@ -13961,9 +14089,10 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="93"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="109"/>
       <c r="B40" s="85" t="s">
         <v>539</v>
       </c>
@@ -13972,91 +14101,103 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="93"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="109"/>
       <c r="B41" s="92"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="93"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="109"/>
       <c r="B42" s="92"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="F52" s="2"/>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/gd/任务系统/任务线设计___附带条件需求.xlsx
+++ b/gd/任务系统/任务线设计___附带条件需求.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="827">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2356,10 +2356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽蛋1次{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通关1-1{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2583,9 +2579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合成宠物(1-1)</t>
-  </si>
-  <si>
     <t>击败小丑</t>
   </si>
   <si>
@@ -2634,9 +2627,6 @@
     <t>通关2-4</t>
   </si>
   <si>
-    <t>挑战1-1(本次打1-1)</t>
-  </si>
-  <si>
     <t>宠物强化</t>
   </si>
   <si>
@@ -2667,10 +2657,6 @@
     <t>支线扫荡2-7</t>
   </si>
   <si>
-    <t>抽蛋一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合成狼人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2679,10 +2665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打普通1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加入公会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2699,14 +2681,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫荡3次 2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡3次 2-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金钱奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2715,10 +2689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50002（会删除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务接取等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3271,10 +3241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花魄20009（临时奖励）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合成狼人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3348,6 +3314,197 @@
   </si>
   <si>
     <t>临时2</t>
+  </si>
+  <si>
+    <t>抽蛋一次(直接完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用经验药1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋1次{0}（直接完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花魄碎片20009（临时奖励）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡2-4</t>
+  </si>
+  <si>
+    <t>再次通关3次 2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 2-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 2-8</t>
+  </si>
+  <si>
+    <t>支线扫荡2-8</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入公户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈福一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建或加入公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日完成普通副本数</t>
+  </si>
+  <si>
+    <t>今日完成精英副本数</t>
+  </si>
+  <si>
+    <t>今日技能升级数</t>
+  </si>
+  <si>
+    <t>今日装备升级数</t>
+  </si>
+  <si>
+    <t>今日购买金币次数</t>
+  </si>
+  <si>
+    <t>今日商店刷新</t>
+  </si>
+  <si>
+    <t>每日剧情副本</t>
+  </si>
+  <si>
+    <t>每日通关挑战副本</t>
+  </si>
+  <si>
+    <t>每日技能升级</t>
+  </si>
+  <si>
+    <t>每日装备升级</t>
+  </si>
+  <si>
+    <t>每日金币购买</t>
+  </si>
+  <si>
+    <t>每日商店刷新</t>
+  </si>
+  <si>
+    <t>完成挑战本1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成挑战本1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡2-3</t>
+  </si>
+  <si>
+    <t>扫荡2-4</t>
+  </si>
+  <si>
+    <t>扫荡2-7</t>
+  </si>
+  <si>
+    <t>扫荡2-8</t>
+  </si>
+  <si>
+    <t>剧情副本10次</t>
+  </si>
+  <si>
+    <t>通关挑战副本3次</t>
+  </si>
+  <si>
+    <t>技能升级3次</t>
+  </si>
+  <si>
+    <t>装备升级1次</t>
+  </si>
+  <si>
+    <t>购买金币1次</t>
+  </si>
+  <si>
+    <t>刷新商店1次</t>
+  </si>
+  <si>
+    <t>5钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小经验药X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验药X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3865,7 +4022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4100,22 +4257,76 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4126,34 +4337,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4174,149 +4472,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4706,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C1" t="s">
         <v>329</v>
@@ -4715,7 +4884,7 @@
         <v>330</v>
       </c>
       <c r="E1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F1" t="s">
         <v>523</v>
@@ -4749,30 +4918,30 @@
         <v>354</v>
       </c>
       <c r="O2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="P2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="Q2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="118">
+      <c r="A3" s="120">
         <v>1</v>
       </c>
       <c r="B3" s="97">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E3" s="108" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
         <v>332</v>
@@ -4795,7 +4964,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="118"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="114">
         <v>1</v>
       </c>
@@ -4805,15 +4974,15 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="118"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="97">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D5" s="83" t="s">
         <v>580</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>581</v>
       </c>
       <c r="E5" s="108"/>
       <c r="H5" s="6"/>
@@ -4822,18 +4991,18 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="118"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="97">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E6" s="108" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>509</v>
@@ -4856,41 +5025,41 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="118"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="97">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D7" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="D7" s="84" t="s">
-        <v>579</v>
-      </c>
       <c r="E7" s="108" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F7" s="84"/>
       <c r="H7" s="6"/>
       <c r="M7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="O7">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="97">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>345</v>
@@ -4909,18 +5078,18 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="97">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>338</v>
@@ -4945,18 +5114,18 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="97">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>340</v>
@@ -4987,18 +5156,18 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="97">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>341</v>
@@ -5026,47 +5195,47 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="97">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="O12">
         <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="114">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="97">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>344</v>
@@ -5079,18 +5248,18 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="118"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="97">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>346</v>
@@ -5103,18 +5272,18 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="118"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="97">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>342</v>
@@ -5123,7 +5292,7 @@
         <v>334</v>
       </c>
       <c r="M16" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -5133,7 +5302,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="118"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="97">
         <v>1</v>
       </c>
@@ -5141,10 +5310,10 @@
         <v>405</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>355</v>
@@ -5157,20 +5326,20 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="118">
+      <c r="A18" s="120">
         <v>2</v>
       </c>
       <c r="B18" s="97">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>403</v>
@@ -5186,18 +5355,18 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="97">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G19" s="86"/>
       <c r="O19">
@@ -5205,7 +5374,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="118"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="97">
         <v>2</v>
       </c>
@@ -5213,10 +5382,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>343</v>
@@ -5229,18 +5398,18 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="97">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>414</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>415</v>
@@ -5256,18 +5425,18 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="118"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="97">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F22" s="78" t="s">
         <v>514</v>
@@ -5286,21 +5455,21 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="118"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="97">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>448</v>
@@ -5310,42 +5479,42 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="118"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="97">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>423</v>
       </c>
       <c r="G24" s="86" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O24">
         <v>10400</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="118"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="97">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E25" s="104" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="86" t="s">
@@ -5356,18 +5525,18 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="118"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="97">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E26" s="104" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>446</v>
@@ -5386,16 +5555,16 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="118"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="98">
         <v>1</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="104" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="93"/>
@@ -5406,42 +5575,42 @@
       <c r="L27" s="96"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="118"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="97">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E28" s="104" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G28" s="86" t="s">
         <v>575</v>
-      </c>
-      <c r="G28" s="86" t="s">
-        <v>576</v>
       </c>
       <c r="O28">
         <v>12500</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="118"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="97">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E29" s="104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>522</v>
@@ -5454,18 +5623,18 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="118"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="97">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E30" s="104" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>450</v>
@@ -5483,11 +5652,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="104" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="93"/>
@@ -5505,11 +5674,11 @@
         <v>1</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="104" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="93"/>
@@ -5527,13 +5696,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="103" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D33" s="92" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F33" s="92" t="s">
         <v>489</v>
@@ -5560,13 +5729,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E34" s="106" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F34" s="92" t="s">
         <v>487</v>
@@ -5589,13 +5758,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D35" s="92" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E35" s="106" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F35" s="92" t="s">
         <v>488</v>
@@ -5612,14 +5781,14 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="118">
+      <c r="A36" s="120">
         <v>3</v>
       </c>
       <c r="B36" s="97">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="104"/>
@@ -5634,18 +5803,18 @@
       <c r="N36" s="95"/>
     </row>
     <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="118"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="97">
         <v>3</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E37" s="105" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
@@ -5660,18 +5829,18 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="118"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="97">
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E38" s="104" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
@@ -5681,16 +5850,16 @@
       <c r="L38" s="96"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="118"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="79">
         <v>1</v>
       </c>
       <c r="C39" s="103" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D39" s="92"/>
       <c r="E39" s="106" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="99"/>
@@ -5703,12 +5872,12 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="118"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="79">
         <v>1</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D40" s="92"/>
       <c r="E40" s="106"/>
@@ -5723,18 +5892,18 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="118"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="80">
         <v>4</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="99" t="s">
@@ -5751,18 +5920,18 @@
       <c r="P41" s="89"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="118"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="97">
         <v>4</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="100"/>
@@ -5777,18 +5946,18 @@
       <c r="P42" s="89"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="118"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="97">
         <v>4</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="93"/>
@@ -5803,12 +5972,12 @@
       <c r="P43" s="89"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="118"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="98">
         <v>1</v>
       </c>
       <c r="C44" s="103" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D44" s="102"/>
       <c r="E44" s="107"/>
@@ -5825,12 +5994,12 @@
       <c r="P44" s="89"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45" s="118"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="98">
         <v>4</v>
       </c>
       <c r="C45" s="103" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="D45" s="102"/>
       <c r="E45" s="107"/>
@@ -5847,15 +6016,15 @@
       <c r="P45" s="89"/>
     </row>
     <row r="46" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="118"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="110">
         <v>1</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="113"/>
@@ -5864,7 +6033,7 @@
       <c r="L46" s="90"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="118"/>
+      <c r="A47" s="120"/>
       <c r="E47" s="92"/>
       <c r="F47" s="92"/>
       <c r="G47" s="93"/>
@@ -5878,7 +6047,7 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48" s="118"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="97"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5886,7 +6055,7 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="118"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="97"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5997,16 +6166,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="121" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
       <c r="T1" t="s">
         <v>385</v>
       </c>
@@ -6030,10 +6199,10 @@
       <c r="I2" t="s">
         <v>419</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="121" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="109"/>
       <c r="M2" t="s">
         <v>416</v>
@@ -6044,10 +6213,10 @@
       <c r="O2" t="s">
         <v>351</v>
       </c>
-      <c r="P2" s="119" t="s">
+      <c r="P2" s="121" t="s">
         <v>352</v>
       </c>
-      <c r="Q2" s="119"/>
+      <c r="Q2" s="121"/>
       <c r="T2" t="s">
         <v>359</v>
       </c>
@@ -6064,7 +6233,7 @@
         <v>383</v>
       </c>
       <c r="AR2" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.15">
@@ -6109,7 +6278,7 @@
         <v>384</v>
       </c>
       <c r="AR3" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
@@ -6129,16 +6298,16 @@
         <v>20001</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="J4" t="s">
         <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="M4" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="N4">
         <v>21001</v>
@@ -6164,19 +6333,19 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="H5">
         <v>20002</v>
       </c>
       <c r="I5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="K5" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="M5" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="N5">
         <v>21002</v>
@@ -6200,7 +6369,7 @@
         <v>425</v>
       </c>
       <c r="AQ5" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="AR5">
         <v>100</v>
@@ -6223,13 +6392,13 @@
         <v>20003</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="K6" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="N6">
         <v>21003</v>
@@ -6289,7 +6458,7 @@
         <v>424</v>
       </c>
       <c r="AQ6" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="AR6">
         <v>150</v>
@@ -6306,19 +6475,19 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="H7">
         <v>20004</v>
       </c>
       <c r="I7" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="K7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="N7">
         <v>21004</v>
@@ -6384,7 +6553,7 @@
         <v>427</v>
       </c>
       <c r="AQ7" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="AR7">
         <v>200</v>
@@ -6398,22 +6567,22 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="H8">
         <v>20005</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="J8" t="s">
         <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="M8" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="N8">
         <v>21005</v>
@@ -6485,7 +6654,7 @@
         <v>428</v>
       </c>
       <c r="AQ8" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="AR8">
         <v>300</v>
@@ -6502,22 +6671,22 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="H9">
         <v>20006</v>
       </c>
       <c r="I9" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="J9" t="s">
         <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="M9" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="N9">
         <v>21006</v>
@@ -6592,7 +6761,7 @@
         <v>429</v>
       </c>
       <c r="AQ9" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="AR9">
         <v>500</v>
@@ -6615,25 +6784,25 @@
         <v>20007</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="J10">
         <v>5000</v>
       </c>
       <c r="K10" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="M10" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="N10">
         <v>21007</v>
       </c>
       <c r="O10" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="P10" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="Q10">
         <v>3000</v>
@@ -6687,7 +6856,7 @@
         <v>430</v>
       </c>
       <c r="AQ10" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="AR10">
         <v>750</v>
@@ -6701,31 +6870,31 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="H11">
         <v>20008</v>
       </c>
       <c r="I11" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="J11">
         <v>5000</v>
       </c>
       <c r="K11" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="M11" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="N11">
         <v>21008</v>
       </c>
       <c r="O11" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P11" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="Q11">
         <v>3000</v>
@@ -6773,7 +6942,7 @@
         <v>431</v>
       </c>
       <c r="AQ11" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="AR11">
         <v>800</v>
@@ -6793,25 +6962,25 @@
         <v>20009</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="J12">
         <v>6600</v>
       </c>
       <c r="K12" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="M12" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="N12">
         <v>21009</v>
       </c>
       <c r="O12" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="P12" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Q12">
         <v>3000</v>
@@ -6843,31 +7012,31 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="H13">
         <v>20010</v>
       </c>
       <c r="I13" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="J13">
         <v>6600</v>
       </c>
       <c r="K13" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="M13" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="N13">
         <v>21010</v>
       </c>
       <c r="O13" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="P13" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Q13">
         <v>3000</v>
@@ -6905,25 +7074,25 @@
         <v>20011</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J14">
         <v>7800</v>
       </c>
       <c r="K14" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="M14" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="N14">
         <v>21009</v>
       </c>
       <c r="O14" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="P14" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="Q14">
         <v>3000</v>
@@ -6937,31 +7106,31 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="H15">
         <v>20012</v>
       </c>
       <c r="I15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="J15">
         <v>7800</v>
       </c>
       <c r="K15" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="M15" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="N15">
         <v>21010</v>
       </c>
       <c r="O15" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="P15" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="Q15">
         <v>3000</v>
@@ -6975,25 +7144,25 @@
         <v>20013</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="J16">
         <v>8100</v>
       </c>
       <c r="K16" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="M16" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="N16">
         <v>21009</v>
       </c>
       <c r="O16" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="P16" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="Q16">
         <v>3000</v>
@@ -7001,31 +7170,31 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H17">
         <v>20014</v>
       </c>
       <c r="I17" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="J17">
         <v>8100</v>
       </c>
       <c r="K17" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="M17" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="N17">
         <v>21010</v>
       </c>
       <c r="O17" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="P17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="Q17">
         <v>3000</v>
@@ -7039,27 +7208,27 @@
         <v>20015</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="J18">
         <v>8100</v>
       </c>
       <c r="K18" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H19">
         <v>20016</v>
       </c>
       <c r="I19" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="K19" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.15">
@@ -7070,24 +7239,24 @@
         <v>20017</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="K20" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H21">
         <v>20018</v>
       </c>
       <c r="I21" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="K21" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.15">
@@ -7098,80 +7267,80 @@
         <v>20019</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="K22" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H23">
         <v>20020</v>
       </c>
       <c r="I23" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="K23" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H24">
         <v>20021</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="K24" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="H25">
         <v>20022</v>
       </c>
       <c r="I25" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="K25" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="H26">
         <v>20023</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="K26" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H27">
         <v>20024</v>
       </c>
       <c r="I27" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="K27" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -7295,7 +7464,7 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C13" s="8">
         <v>30</v>
@@ -7306,7 +7475,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C14" s="8">
         <v>30</v>
@@ -7408,13 +7577,13 @@
       <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
       <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
@@ -7477,31 +7646,31 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="136" t="s">
+      <c r="D2" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="191" t="s">
+      <c r="G2" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="184"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7524,17 +7693,17 @@
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="169"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="190"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7557,29 +7726,29 @@
       <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="169"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="136" t="s">
+      <c r="A4" s="136"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="182" t="s">
+      <c r="G4" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="136" t="s">
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="151" t="s">
+      <c r="M4" s="125" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="11"/>
@@ -7602,19 +7771,19 @@
       <c r="AE4" s="14"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="169"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="10"/>
@@ -7635,19 +7804,19 @@
       <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="169"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="190"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
       <c r="N6" s="11" t="s">
         <v>56</v>
       </c>
@@ -7670,30 +7839,30 @@
       <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="169"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="191" t="s">
+      <c r="G7" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -7711,22 +7880,22 @@
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="169"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -7744,29 +7913,29 @@
       <c r="AE8" s="14"/>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="168">
+      <c r="A9" s="135">
         <v>1</v>
       </c>
-      <c r="B9" s="120">
+      <c r="B9" s="138">
         <v>1</v>
       </c>
-      <c r="C9" s="131">
+      <c r="C9" s="139">
         <v>1</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="142" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="15" t="s">
@@ -7794,19 +7963,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="169"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="180"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="127"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
@@ -7814,7 +7983,7 @@
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="136">
+      <c r="Q10" s="122">
         <v>1</v>
       </c>
       <c r="R10" s="10">
@@ -7834,19 +8003,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="169"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="180"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="142"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="158" t="s">
+      <c r="G11" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
       <c r="L11" s="17" t="s">
         <v>68</v>
       </c>
@@ -7855,7 +8024,7 @@
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="137"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="10">
         <f>SUM($Q$9:Q11)</f>
         <v>3</v>
@@ -7875,19 +8044,19 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="169"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="180"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="142"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="127"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
       <c r="L12" s="16" t="s">
         <v>72</v>
       </c>
@@ -7919,9 +8088,9 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="169"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="140"/>
       <c r="D13" s="19" t="s">
         <v>75</v>
       </c>
@@ -7931,13 +8100,13 @@
       <c r="F13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="124" t="s">
+      <c r="G13" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="11" t="s">
         <v>78</v>
       </c>
@@ -7971,10 +8140,10 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="169"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="178" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="153" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="10">
@@ -7983,13 +8152,13 @@
       <c r="F14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="158" t="s">
+      <c r="G14" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="145"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -8004,7 +8173,7 @@
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="173" t="s">
+      <c r="U14" s="155" t="s">
         <v>84</v>
       </c>
       <c r="V14" s="21"/>
@@ -8017,23 +8186,23 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="169"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="179"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="10">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
       <c r="L15" s="15" t="s">
         <v>87</v>
       </c>
@@ -8054,7 +8223,7 @@
       <c r="T15" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="173"/>
+      <c r="U15" s="155"/>
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
@@ -8085,21 +8254,21 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="169"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="174" t="s">
+      <c r="G16" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
       <c r="L16" s="30" t="s">
         <v>92</v>
       </c>
@@ -8138,21 +8307,21 @@
       <c r="AE16" s="29"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="169"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="135"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="19" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="175" t="s">
+      <c r="G17" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="177"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
       <c r="L17" s="35" t="s">
         <v>98</v>
       </c>
@@ -8177,9 +8346,9 @@
       <c r="AE17" s="29"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="131">
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="139">
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -8189,13 +8358,13 @@
       <c r="F18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="124" t="s">
+      <c r="G18" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="36" t="s">
@@ -8228,11 +8397,11 @@
       <c r="AE18" s="29"/>
     </row>
     <row r="19" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="120">
+      <c r="A19" s="138">
         <v>2</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="132"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="19" t="s">
         <v>75</v>
       </c>
@@ -8240,13 +8409,13 @@
         <v>62</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="127"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="10"/>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
@@ -8279,23 +8448,23 @@
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="120"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="178" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="153" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="158" t="s">
+      <c r="G20" s="150" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="160"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
       <c r="L20" s="10"/>
       <c r="M20" s="23" t="s">
         <v>105</v>
@@ -8315,7 +8484,7 @@
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="124"/>
+      <c r="U20" s="132"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -8331,21 +8500,21 @@
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="120"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="179"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="10">
         <v>3</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="125" t="s">
+      <c r="G21" s="143" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
       <c r="L21" s="35" t="s">
         <v>108</v>
       </c>
@@ -8364,7 +8533,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="124"/>
+      <c r="U21" s="132"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -8393,9 +8562,9 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="120"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="135"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="141"/>
       <c r="D22" s="19" t="s">
         <v>57</v>
       </c>
@@ -8403,13 +8572,13 @@
         <v>62</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="124" t="s">
+      <c r="G22" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -8446,9 +8615,9 @@
       <c r="AE22" s="29"/>
     </row>
     <row r="23" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="131">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139">
         <v>3</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -8456,13 +8625,13 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -8493,9 +8662,9 @@
       <c r="AE23" s="29"/>
     </row>
     <row r="24" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="120"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="132"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="19" t="s">
         <v>50</v>
       </c>
@@ -8503,13 +8672,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="132" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="11"/>
       <c r="M24" s="15" t="s">
         <v>114</v>
@@ -8549,23 +8718,23 @@
       <c r="AE24" s="29"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="168">
+      <c r="A25" s="135">
         <v>3</v>
       </c>
-      <c r="B25" s="120"/>
-      <c r="C25" s="135"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="125" t="s">
+      <c r="G25" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="127"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
       <c r="L25" s="17" t="s">
         <v>119</v>
       </c>
@@ -8603,9 +8772,9 @@
       <c r="AE25" s="29"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="169"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="131">
+      <c r="A26" s="136"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139">
         <v>4</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -8615,13 +8784,13 @@
       <c r="F26" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="124" t="s">
+      <c r="G26" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
       <c r="L26" s="16" t="s">
         <v>124</v>
       </c>
@@ -8669,21 +8838,21 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="169"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="124" t="s">
+      <c r="G27" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -8714,21 +8883,21 @@
       <c r="AE27" s="29"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="169"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="132"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="140"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="124" t="s">
+      <c r="G28" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
       <c r="L28" s="11" t="s">
         <v>129</v>
       </c>
@@ -8766,21 +8935,21 @@
       <c r="AE28" s="29"/>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="169"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="131" t="s">
+      <c r="A29" s="136"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="139" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="124" t="s">
+      <c r="G29" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -8810,19 +8979,19 @@
       <c r="AE29" s="29"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="169"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
       <c r="L30" s="17" t="s">
         <v>136</v>
       </c>
@@ -8865,9 +9034,9 @@
       <c r="AE30" s="29"/>
     </row>
     <row r="31" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="169"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="131">
+      <c r="A31" s="136"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="139">
         <v>5</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -8877,13 +9046,13 @@
       <c r="F31" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="124" t="s">
+      <c r="G31" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
       <c r="L31" s="11" t="s">
         <v>143</v>
       </c>
@@ -8920,23 +9089,23 @@
       <c r="AE31" s="29"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="169"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="132"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="140"/>
       <c r="D32" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="121" t="s">
+      <c r="F32" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="124" t="s">
+      <c r="G32" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
       <c r="L32" s="17" t="s">
         <v>148</v>
       </c>
@@ -8974,21 +9143,21 @@
       <c r="AE32" s="29"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="169"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="131" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="139" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="124" t="s">
+      <c r="F33" s="162"/>
+      <c r="G33" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
       <c r="L33" s="11" t="s">
         <v>150</v>
       </c>
@@ -9021,19 +9190,19 @@
       <c r="AE33" s="29"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="170"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="161" t="s">
+      <c r="F34" s="162"/>
+      <c r="G34" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="163"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
+      <c r="K34" s="167"/>
       <c r="L34" s="11"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -9056,21 +9225,21 @@
       <c r="AE34" s="29"/>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="131">
+      <c r="A35" s="139">
         <v>4</v>
       </c>
-      <c r="B35" s="120"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="125" t="s">
+      <c r="F35" s="162"/>
+      <c r="G35" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="127"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="145"/>
       <c r="L35" s="17" t="s">
         <v>153</v>
       </c>
@@ -9100,23 +9269,23 @@
       <c r="AE35" s="29"/>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="167">
+      <c r="A36" s="141"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="160">
         <v>6</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="125" t="s">
+      <c r="F36" s="162"/>
+      <c r="G36" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="127"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="145"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -9158,23 +9327,23 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="168">
+      <c r="A37" s="135">
         <v>5</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="167"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="124" t="s">
+      <c r="F37" s="162"/>
+      <c r="G37" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
       <c r="L37" s="11"/>
       <c r="M37" s="15" t="s">
         <v>144</v>
@@ -9207,21 +9376,21 @@
       <c r="AE37" s="29"/>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="169"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="167"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="160"/>
       <c r="D38" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="124" t="s">
+      <c r="F38" s="162"/>
+      <c r="G38" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11" t="s">
         <v>156</v>
@@ -9256,23 +9425,23 @@
       <c r="AE38" s="29"/>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="169"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="167">
+      <c r="A39" s="136"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="160">
         <v>7</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="124" t="s">
+      <c r="F39" s="162"/>
+      <c r="G39" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -9309,21 +9478,21 @@
       <c r="AE39" s="29"/>
     </row>
     <row r="40" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="169"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="167"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="160"/>
       <c r="D40" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="125" t="s">
+      <c r="F40" s="162"/>
+      <c r="G40" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
-      <c r="K40" s="127"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="145"/>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
         <v>159</v>
@@ -9353,21 +9522,21 @@
       <c r="AE40" s="29"/>
     </row>
     <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="169"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="167"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="125" t="s">
+      <c r="F41" s="162"/>
+      <c r="G41" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="127"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="145"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
@@ -9402,9 +9571,9 @@
       <c r="AE41" s="29"/>
     </row>
     <row r="42" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="169"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="167">
+      <c r="A42" s="136"/>
+      <c r="B42" s="138"/>
+      <c r="C42" s="160">
         <v>8</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -9412,13 +9581,13 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="124" t="s">
+      <c r="G42" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
       <c r="L42" s="11" t="s">
         <v>162</v>
       </c>
@@ -9454,21 +9623,21 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="170"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="171" t="s">
+      <c r="A43" s="137"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="163" t="s">
         <v>127</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="124" t="s">
+      <c r="G43" s="132" t="s">
         <v>163</v>
       </c>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
       <c r="L43" s="11" t="s">
         <v>164</v>
       </c>
@@ -9511,21 +9680,21 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="131">
+      <c r="A44" s="139">
         <v>6</v>
       </c>
-      <c r="B44" s="120"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="172"/>
+      <c r="B44" s="138"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="125" t="s">
+      <c r="G44" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="127"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="145"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -9547,21 +9716,21 @@
       <c r="AE44" s="29"/>
     </row>
     <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="135"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="167"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="160"/>
       <c r="D45" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="124" t="s">
+      <c r="G45" s="132" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="132"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -9609,13 +9778,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="120">
+      <c r="A46" s="138">
         <v>7</v>
       </c>
-      <c r="B46" s="120">
+      <c r="B46" s="138">
         <v>2</v>
       </c>
-      <c r="C46" s="164" t="s">
+      <c r="C46" s="168" t="s">
         <v>172</v>
       </c>
       <c r="D46" s="45" t="s">
@@ -9623,13 +9792,13 @@
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="124" t="s">
+      <c r="G46" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -9665,21 +9834,21 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="120"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="164"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="168"/>
       <c r="D47" s="45" t="s">
         <v>122</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="125" t="s">
+      <c r="G47" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="127"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="145"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -9713,21 +9882,21 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="120"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="164"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="138"/>
+      <c r="C48" s="168"/>
       <c r="D48" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="125" t="s">
+      <c r="G48" s="143" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="127"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="145"/>
       <c r="L48" s="16" t="s">
         <v>178</v>
       </c>
@@ -9767,21 +9936,21 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="120"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="164"/>
+      <c r="A49" s="138"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="168"/>
       <c r="D49" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="125" t="s">
+      <c r="G49" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="127"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="145"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
@@ -9825,21 +9994,21 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="120"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="164"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="168"/>
       <c r="D50" s="48" t="s">
         <v>122</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="158" t="s">
+      <c r="G50" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="127"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="145"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
@@ -9879,11 +10048,11 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="120">
+      <c r="A51" s="138">
         <v>8</v>
       </c>
-      <c r="B51" s="120"/>
-      <c r="C51" s="164" t="s">
+      <c r="B51" s="138"/>
+      <c r="C51" s="168" t="s">
         <v>184</v>
       </c>
       <c r="D51" s="19" t="s">
@@ -9891,13 +10060,13 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="125" t="s">
+      <c r="G51" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="127"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="145"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
@@ -9927,21 +10096,21 @@
       <c r="AD51" s="34"/>
     </row>
     <row r="52" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="120"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="164"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="168"/>
       <c r="D52" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="124" t="s">
+      <c r="G52" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -9971,21 +10140,21 @@
       <c r="AD52" s="34"/>
     </row>
     <row r="53" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="120"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="164"/>
+      <c r="A53" s="138"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="168"/>
       <c r="D53" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="124" t="s">
+      <c r="G53" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="132"/>
       <c r="L53" s="11"/>
       <c r="M53" s="17" t="s">
         <v>179</v>
@@ -10017,21 +10186,21 @@
       <c r="AD53" s="34"/>
     </row>
     <row r="54" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="120"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="164"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="168"/>
       <c r="D54" s="19" t="s">
         <v>188</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="124" t="s">
+      <c r="G54" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -10063,21 +10232,21 @@
       <c r="AD54" s="34"/>
     </row>
     <row r="55" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="120"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="164"/>
+      <c r="A55" s="138"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="168"/>
       <c r="D55" s="19" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="124" t="s">
+      <c r="G55" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
@@ -10107,19 +10276,19 @@
       <c r="AD55" s="34"/>
     </row>
     <row r="56" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="120"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="164"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="138"/>
+      <c r="C56" s="168"/>
       <c r="D56" s="19"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="158" t="s">
+      <c r="G56" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="127"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="145"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
@@ -10151,25 +10320,25 @@
       <c r="AD56" s="39"/>
     </row>
     <row r="57" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="120">
+      <c r="A57" s="138">
         <v>9</v>
       </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="164" t="s">
+      <c r="B57" s="138"/>
+      <c r="C57" s="168" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="120" t="s">
+      <c r="D57" s="138" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="124" t="s">
+      <c r="G57" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -10199,19 +10368,19 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="120"/>
-      <c r="B58" s="120"/>
-      <c r="C58" s="164"/>
-      <c r="D58" s="120"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="138"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="138"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="124" t="s">
+      <c r="G58" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="124"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -10235,19 +10404,19 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="120"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="164"/>
-      <c r="D59" s="120"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="138"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="125" t="s">
+      <c r="G59" s="143" t="s">
         <v>200</v>
       </c>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="126"/>
-      <c r="K59" s="127"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="145"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -10271,21 +10440,21 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="120"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="164"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="168"/>
       <c r="D60" s="49" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="125" t="s">
+      <c r="G60" s="143" t="s">
         <v>202</v>
       </c>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="127"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="145"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
@@ -10311,21 +10480,21 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="120"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="131" t="s">
+      <c r="A61" s="138"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="139" t="s">
         <v>188</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="124" t="s">
+      <c r="G61" s="132" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -10351,19 +10520,19 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="120"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="132"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="140"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="124" t="s">
+      <c r="G62" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
       <c r="L62" s="11"/>
       <c r="M62" s="17" t="s">
         <v>205</v>
@@ -10391,19 +10560,19 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="120"/>
-      <c r="B63" s="120"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="132"/>
+      <c r="A63" s="138"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="140"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="124" t="s">
+      <c r="G63" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -10432,19 +10601,19 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="120"/>
-      <c r="B64" s="120"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="132"/>
+      <c r="A64" s="138"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="161" t="s">
+      <c r="G64" s="165" t="s">
         <v>207</v>
       </c>
-      <c r="H64" s="162"/>
-      <c r="I64" s="162"/>
-      <c r="J64" s="162"/>
-      <c r="K64" s="163"/>
+      <c r="H64" s="166"/>
+      <c r="I64" s="166"/>
+      <c r="J64" s="166"/>
+      <c r="K64" s="167"/>
       <c r="L64" s="50"/>
       <c r="M64" s="50"/>
       <c r="N64" s="50"/>
@@ -10468,19 +10637,19 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="120"/>
-      <c r="B65" s="120"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="132"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="140"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="124" t="s">
+      <c r="G65" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="124"/>
-      <c r="K65" s="124"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="132"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -10508,19 +10677,19 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="120"/>
-      <c r="B66" s="120"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="135"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="141"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="124" t="s">
+      <c r="G66" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="132"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -10546,23 +10715,23 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="120"/>
-      <c r="B67" s="120"/>
-      <c r="C67" s="164" t="s">
+      <c r="A67" s="138"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="149" t="s">
+      <c r="D67" s="170" t="s">
         <v>212</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="124" t="s">
+      <c r="G67" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
-      <c r="K67" s="124"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="132"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -10588,21 +10757,21 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="131">
+      <c r="A68" s="139">
         <v>10</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="164"/>
-      <c r="D68" s="165"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="171"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="124" t="s">
+      <c r="G68" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="H68" s="124"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="124"/>
-      <c r="K68" s="124"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
@@ -10628,19 +10797,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="132"/>
-      <c r="B69" s="120"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="150"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="138"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="172"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="125" t="s">
+      <c r="G69" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="127"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="145"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
@@ -10666,21 +10835,21 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="132"/>
-      <c r="B70" s="120"/>
-      <c r="C70" s="164"/>
-      <c r="D70" s="166" t="s">
+      <c r="A70" s="140"/>
+      <c r="B70" s="138"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="169" t="s">
         <v>216</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="125" t="s">
+      <c r="G70" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="127"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="145"/>
       <c r="L70" s="16"/>
       <c r="M70" s="17" t="s">
         <v>218</v>
@@ -10708,19 +10877,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="132"/>
-      <c r="B71" s="120"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="166"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="169"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="125" t="s">
+      <c r="G71" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="127"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="145"/>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
@@ -10748,19 +10917,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="132"/>
-      <c r="B72" s="120"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="166"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="168"/>
+      <c r="D72" s="169"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="125" t="s">
+      <c r="G72" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="127"/>
+      <c r="H72" s="144"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
+      <c r="K72" s="145"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -10788,27 +10957,27 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="132">
+      <c r="A73" s="140">
         <v>11</v>
       </c>
-      <c r="B73" s="120"/>
-      <c r="C73" s="154" t="s">
+      <c r="B73" s="138"/>
+      <c r="C73" s="175" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="144" t="s">
+      <c r="D73" s="173" t="s">
         <v>223</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="120" t="s">
+      <c r="F73" s="138" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="125" t="s">
+      <c r="G73" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="127"/>
+      <c r="H73" s="144"/>
+      <c r="I73" s="144"/>
+      <c r="J73" s="144"/>
+      <c r="K73" s="145"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
@@ -10837,19 +11006,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="132"/>
-      <c r="B74" s="120"/>
-      <c r="C74" s="155"/>
-      <c r="D74" s="145"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="138"/>
+      <c r="C74" s="176"/>
+      <c r="D74" s="180"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="158" t="s">
+      <c r="F74" s="138"/>
+      <c r="G74" s="150" t="s">
         <v>227</v>
       </c>
-      <c r="H74" s="159"/>
-      <c r="I74" s="159"/>
-      <c r="J74" s="159"/>
-      <c r="K74" s="160"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="151"/>
+      <c r="K74" s="152"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
@@ -10875,19 +11044,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="132"/>
-      <c r="B75" s="120"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="146"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="176"/>
+      <c r="D75" s="174"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="120"/>
-      <c r="G75" s="124" t="s">
+      <c r="F75" s="138"/>
+      <c r="G75" s="132" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="132"/>
+      <c r="K75" s="132"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -10913,23 +11082,23 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="132"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="155"/>
-      <c r="D76" s="144" t="s">
+      <c r="A76" s="140"/>
+      <c r="B76" s="138"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="173" t="s">
         <v>229</v>
       </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="121" t="s">
+      <c r="F76" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="G76" s="124" t="s">
+      <c r="G76" s="132" t="s">
         <v>231</v>
       </c>
-      <c r="H76" s="124"/>
-      <c r="I76" s="124"/>
-      <c r="J76" s="124"/>
-      <c r="K76" s="124"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="132"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -10953,19 +11122,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="132"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="155"/>
-      <c r="D77" s="145"/>
+      <c r="A77" s="140"/>
+      <c r="B77" s="138"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="180"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="124" t="s">
+      <c r="F77" s="162"/>
+      <c r="G77" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="124"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="124"/>
-      <c r="K77" s="124"/>
+      <c r="H77" s="132"/>
+      <c r="I77" s="132"/>
+      <c r="J77" s="132"/>
+      <c r="K77" s="132"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -10993,19 +11162,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="132"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="155"/>
-      <c r="D78" s="146"/>
+      <c r="A78" s="140"/>
+      <c r="B78" s="138"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="174"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="123"/>
-      <c r="G78" s="124" t="s">
+      <c r="F78" s="181"/>
+      <c r="G78" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="124"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="124"/>
-      <c r="K78" s="124"/>
+      <c r="H78" s="132"/>
+      <c r="I78" s="132"/>
+      <c r="J78" s="132"/>
+      <c r="K78" s="132"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -11031,23 +11200,23 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="132">
+      <c r="A79" s="140">
         <v>12</v>
       </c>
-      <c r="B79" s="120"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="144" t="s">
+      <c r="B79" s="138"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="173" t="s">
         <v>235</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="51"/>
-      <c r="G79" s="125" t="s">
+      <c r="G79" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="126"/>
-      <c r="K79" s="127"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="144"/>
+      <c r="K79" s="145"/>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
@@ -11069,17 +11238,17 @@
       <c r="Y79" s="10"/>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="132"/>
-      <c r="B80" s="120"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="146"/>
+      <c r="A80" s="140"/>
+      <c r="B80" s="138"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="174"/>
       <c r="E80" s="10"/>
       <c r="F80" s="51"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="126"/>
-      <c r="K80" s="127"/>
+      <c r="G80" s="143"/>
+      <c r="H80" s="144"/>
+      <c r="I80" s="144"/>
+      <c r="J80" s="144"/>
+      <c r="K80" s="145"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
@@ -11101,23 +11270,23 @@
       <c r="Y80" s="10"/>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="132"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="154" t="s">
+      <c r="A81" s="140"/>
+      <c r="B81" s="138"/>
+      <c r="C81" s="175" t="s">
         <v>237</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="134" t="s">
+      <c r="F81" s="178" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="125" t="s">
+      <c r="G81" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="H81" s="126"/>
-      <c r="I81" s="126"/>
-      <c r="J81" s="126"/>
-      <c r="K81" s="127"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="145"/>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
@@ -11146,19 +11315,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="132"/>
-      <c r="B82" s="120"/>
-      <c r="C82" s="155"/>
+      <c r="A82" s="140"/>
+      <c r="B82" s="138"/>
+      <c r="C82" s="176"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="134"/>
-      <c r="G82" s="157" t="s">
+      <c r="F82" s="178"/>
+      <c r="G82" s="179" t="s">
         <v>242</v>
       </c>
-      <c r="H82" s="157"/>
-      <c r="I82" s="157"/>
-      <c r="J82" s="157"/>
-      <c r="K82" s="157"/>
+      <c r="H82" s="179"/>
+      <c r="I82" s="179"/>
+      <c r="J82" s="179"/>
+      <c r="K82" s="179"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -11182,23 +11351,23 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="132">
+      <c r="A83" s="140">
         <v>13</v>
       </c>
-      <c r="B83" s="120"/>
-      <c r="C83" s="155"/>
-      <c r="D83" s="144" t="s">
+      <c r="B83" s="138"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="173" t="s">
         <v>243</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="134"/>
-      <c r="G83" s="157" t="s">
+      <c r="F83" s="178"/>
+      <c r="G83" s="179" t="s">
         <v>244</v>
       </c>
-      <c r="H83" s="157"/>
-      <c r="I83" s="157"/>
-      <c r="J83" s="157"/>
-      <c r="K83" s="157"/>
+      <c r="H83" s="179"/>
+      <c r="I83" s="179"/>
+      <c r="J83" s="179"/>
+      <c r="K83" s="179"/>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
@@ -11222,19 +11391,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="132"/>
-      <c r="B84" s="120"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="146"/>
+      <c r="A84" s="140"/>
+      <c r="B84" s="138"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="174"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="134"/>
-      <c r="G84" s="157" t="s">
+      <c r="F84" s="178"/>
+      <c r="G84" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="H84" s="157"/>
-      <c r="I84" s="157"/>
-      <c r="J84" s="157"/>
-      <c r="K84" s="157"/>
+      <c r="H84" s="179"/>
+      <c r="I84" s="179"/>
+      <c r="J84" s="179"/>
+      <c r="K84" s="179"/>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
@@ -11258,19 +11427,19 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="132"/>
-      <c r="B85" s="120"/>
-      <c r="C85" s="156"/>
+      <c r="A85" s="140"/>
+      <c r="B85" s="138"/>
+      <c r="C85" s="177"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="134"/>
-      <c r="G85" s="124" t="s">
+      <c r="F85" s="178"/>
+      <c r="G85" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="124"/>
-      <c r="I85" s="124"/>
-      <c r="J85" s="124"/>
-      <c r="K85" s="124"/>
+      <c r="H85" s="132"/>
+      <c r="I85" s="132"/>
+      <c r="J85" s="132"/>
+      <c r="K85" s="132"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -11301,23 +11470,23 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="132"/>
+      <c r="A86" s="140"/>
       <c r="B86" s="10"/>
       <c r="C86" s="52" t="s">
         <v>250</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="151" t="s">
+      <c r="F86" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="G86" s="124" t="s">
+      <c r="G86" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
-      <c r="J86" s="124"/>
-      <c r="K86" s="124"/>
+      <c r="H86" s="132"/>
+      <c r="I86" s="132"/>
+      <c r="J86" s="132"/>
+      <c r="K86" s="132"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -11343,21 +11512,21 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="132"/>
+      <c r="A87" s="140"/>
       <c r="B87" s="10"/>
       <c r="C87" s="52" t="s">
         <v>253</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="152"/>
-      <c r="G87" s="124" t="s">
+      <c r="F87" s="133"/>
+      <c r="G87" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="124"/>
-      <c r="K87" s="124"/>
+      <c r="H87" s="132"/>
+      <c r="I87" s="132"/>
+      <c r="J87" s="132"/>
+      <c r="K87" s="132"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -11383,7 +11552,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="132">
+      <c r="A88" s="140">
         <v>14</v>
       </c>
       <c r="B88" s="10"/>
@@ -11392,14 +11561,14 @@
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="152"/>
-      <c r="G88" s="124" t="s">
+      <c r="F88" s="133"/>
+      <c r="G88" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="H88" s="124"/>
-      <c r="I88" s="124"/>
-      <c r="J88" s="124"/>
-      <c r="K88" s="124"/>
+      <c r="H88" s="132"/>
+      <c r="I88" s="132"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="132"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -11427,19 +11596,19 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="132"/>
+      <c r="A89" s="140"/>
       <c r="B89" s="10"/>
       <c r="C89" s="1"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="153"/>
-      <c r="G89" s="124" t="s">
+      <c r="F89" s="134"/>
+      <c r="G89" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="H89" s="124"/>
-      <c r="I89" s="124"/>
-      <c r="J89" s="124"/>
-      <c r="K89" s="124"/>
+      <c r="H89" s="132"/>
+      <c r="I89" s="132"/>
+      <c r="J89" s="132"/>
+      <c r="K89" s="132"/>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -11463,19 +11632,19 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="132"/>
+      <c r="A90" s="140"/>
       <c r="B90" s="10"/>
       <c r="C90" s="52"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="125" t="s">
+      <c r="G90" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="H90" s="126"/>
-      <c r="I90" s="126"/>
-      <c r="J90" s="126"/>
-      <c r="K90" s="127"/>
+      <c r="H90" s="144"/>
+      <c r="I90" s="144"/>
+      <c r="J90" s="144"/>
+      <c r="K90" s="145"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
@@ -11499,19 +11668,19 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="132"/>
+      <c r="A91" s="140"/>
       <c r="B91" s="10"/>
       <c r="C91" s="52"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="124" t="s">
+      <c r="G91" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="H91" s="124"/>
-      <c r="I91" s="124"/>
-      <c r="J91" s="124"/>
-      <c r="K91" s="124"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="132"/>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -11535,19 +11704,19 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="135"/>
+      <c r="A92" s="141"/>
       <c r="B92" s="10"/>
       <c r="C92" s="53"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="124" t="s">
+      <c r="G92" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="H92" s="124"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="124"/>
-      <c r="K92" s="124"/>
+      <c r="H92" s="132"/>
+      <c r="I92" s="132"/>
+      <c r="J92" s="132"/>
+      <c r="K92" s="132"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -11573,23 +11742,23 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="131">
+      <c r="A93" s="139">
         <v>15</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="53"/>
-      <c r="D93" s="149" t="s">
+      <c r="D93" s="170" t="s">
         <v>262</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="124" t="s">
+      <c r="G93" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="H93" s="124"/>
-      <c r="I93" s="124"/>
-      <c r="J93" s="124"/>
-      <c r="K93" s="124"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -11615,19 +11784,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="132"/>
+      <c r="A94" s="140"/>
       <c r="B94" s="10"/>
       <c r="C94" s="53"/>
-      <c r="D94" s="150"/>
+      <c r="D94" s="172"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="125" t="s">
+      <c r="G94" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="H94" s="126"/>
-      <c r="I94" s="126"/>
-      <c r="J94" s="126"/>
-      <c r="K94" s="127"/>
+      <c r="H94" s="144"/>
+      <c r="I94" s="144"/>
+      <c r="J94" s="144"/>
+      <c r="K94" s="145"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
@@ -11652,19 +11821,19 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="132"/>
+      <c r="A95" s="140"/>
       <c r="B95" s="10"/>
       <c r="C95" s="53"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="124" t="s">
+      <c r="G95" s="132" t="s">
         <v>266</v>
       </c>
-      <c r="H95" s="124"/>
-      <c r="I95" s="124"/>
-      <c r="J95" s="124"/>
-      <c r="K95" s="124"/>
+      <c r="H95" s="132"/>
+      <c r="I95" s="132"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="132"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -11688,18 +11857,18 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="132"/>
+      <c r="A96" s="140"/>
       <c r="B96" s="10"/>
       <c r="D96" s="54"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="124" t="s">
+      <c r="G96" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="H96" s="124"/>
-      <c r="I96" s="124"/>
-      <c r="J96" s="124"/>
-      <c r="K96" s="124"/>
+      <c r="H96" s="132"/>
+      <c r="I96" s="132"/>
+      <c r="J96" s="132"/>
+      <c r="K96" s="132"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -11723,7 +11892,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="132"/>
+      <c r="A97" s="140"/>
       <c r="B97" s="10"/>
       <c r="C97" s="53" t="s">
         <v>268</v>
@@ -11731,13 +11900,13 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="124" t="s">
+      <c r="G97" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="H97" s="124"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="124"/>
-      <c r="K97" s="124"/>
+      <c r="H97" s="132"/>
+      <c r="I97" s="132"/>
+      <c r="J97" s="132"/>
+      <c r="K97" s="132"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -11763,20 +11932,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="132"/>
+      <c r="A98" s="140"/>
       <c r="B98" s="10"/>
       <c r="C98" s="55" t="s">
         <v>270</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="124" t="s">
+      <c r="G98" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="H98" s="124"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
+      <c r="H98" s="132"/>
+      <c r="I98" s="132"/>
+      <c r="J98" s="132"/>
+      <c r="K98" s="132"/>
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -11798,7 +11967,7 @@
       <c r="Y98" s="10"/>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="135"/>
+      <c r="A99" s="141"/>
       <c r="B99" s="10"/>
       <c r="C99" s="53" t="s">
         <v>2</v>
@@ -11806,13 +11975,13 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="124" t="s">
+      <c r="G99" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="H99" s="124"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="124"/>
-      <c r="K99" s="124"/>
+      <c r="H99" s="132"/>
+      <c r="I99" s="132"/>
+      <c r="J99" s="132"/>
+      <c r="K99" s="132"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -11842,25 +12011,25 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="120">
+      <c r="A100" s="138">
         <v>16</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D100" s="144" t="s">
+      <c r="D100" s="173" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="133" t="s">
+      <c r="G100" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="H100" s="124"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="124"/>
-      <c r="K100" s="124"/>
+      <c r="H100" s="132"/>
+      <c r="I100" s="132"/>
+      <c r="J100" s="132"/>
+      <c r="K100" s="132"/>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -11886,19 +12055,19 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="120"/>
+      <c r="A101" s="138"/>
       <c r="B101" s="10"/>
       <c r="C101" s="53"/>
-      <c r="D101" s="145"/>
+      <c r="D101" s="180"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="124" t="s">
+      <c r="G101" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="H101" s="124"/>
-      <c r="I101" s="124"/>
-      <c r="J101" s="124"/>
-      <c r="K101" s="124"/>
+      <c r="H101" s="132"/>
+      <c r="I101" s="132"/>
+      <c r="J101" s="132"/>
+      <c r="K101" s="132"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -11922,19 +12091,19 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="120"/>
+      <c r="A102" s="138"/>
       <c r="B102" s="10"/>
       <c r="C102" s="53"/>
-      <c r="D102" s="146"/>
+      <c r="D102" s="174"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="124" t="s">
+      <c r="G102" s="132" t="s">
         <v>278</v>
       </c>
-      <c r="H102" s="124"/>
-      <c r="I102" s="124"/>
-      <c r="J102" s="124"/>
-      <c r="K102" s="124"/>
+      <c r="H102" s="132"/>
+      <c r="I102" s="132"/>
+      <c r="J102" s="132"/>
+      <c r="K102" s="132"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -11958,7 +12127,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="120"/>
+      <c r="A103" s="138"/>
       <c r="B103" s="10"/>
       <c r="C103" s="53"/>
       <c r="D103" s="56" t="s">
@@ -11966,13 +12135,13 @@
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="124" t="s">
+      <c r="G103" s="132" t="s">
         <v>280</v>
       </c>
-      <c r="H103" s="124"/>
-      <c r="I103" s="124"/>
-      <c r="J103" s="124"/>
-      <c r="K103" s="124"/>
+      <c r="H103" s="132"/>
+      <c r="I103" s="132"/>
+      <c r="J103" s="132"/>
+      <c r="K103" s="132"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -11996,7 +12165,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="120"/>
+      <c r="A104" s="138"/>
       <c r="B104" s="10"/>
       <c r="C104" s="53"/>
       <c r="D104" s="57" t="s">
@@ -12004,13 +12173,13 @@
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="124" t="s">
+      <c r="G104" s="132" t="s">
         <v>282</v>
       </c>
-      <c r="H104" s="124"/>
-      <c r="I104" s="124"/>
-      <c r="J104" s="124"/>
-      <c r="K104" s="124"/>
+      <c r="H104" s="132"/>
+      <c r="I104" s="132"/>
+      <c r="J104" s="132"/>
+      <c r="K104" s="132"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -12034,17 +12203,17 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="120"/>
+      <c r="A105" s="138"/>
       <c r="B105" s="58"/>
       <c r="C105" s="59"/>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
       <c r="F105" s="58"/>
-      <c r="G105" s="124"/>
-      <c r="H105" s="124"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="124"/>
-      <c r="K105" s="124"/>
+      <c r="G105" s="132"/>
+      <c r="H105" s="132"/>
+      <c r="I105" s="132"/>
+      <c r="J105" s="132"/>
+      <c r="K105" s="132"/>
       <c r="L105" s="60"/>
       <c r="M105" s="60"/>
       <c r="N105" s="60"/>
@@ -12068,7 +12237,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="131">
+      <c r="A106" s="139">
         <v>17</v>
       </c>
       <c r="B106" s="10"/>
@@ -12078,13 +12247,13 @@
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="147" t="s">
+      <c r="G106" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="H106" s="148"/>
-      <c r="I106" s="148"/>
-      <c r="J106" s="148"/>
-      <c r="K106" s="148"/>
+      <c r="H106" s="184"/>
+      <c r="I106" s="184"/>
+      <c r="J106" s="184"/>
+      <c r="K106" s="184"/>
       <c r="L106" s="61"/>
       <c r="M106" s="61"/>
       <c r="N106" s="61"/>
@@ -12110,19 +12279,19 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="132"/>
+      <c r="A107" s="140"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="124" t="s">
+      <c r="G107" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="H107" s="124"/>
-      <c r="I107" s="124"/>
-      <c r="J107" s="124"/>
-      <c r="K107" s="124"/>
+      <c r="H107" s="132"/>
+      <c r="I107" s="132"/>
+      <c r="J107" s="132"/>
+      <c r="K107" s="132"/>
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
@@ -12146,19 +12315,19 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="135"/>
+      <c r="A108" s="141"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="124" t="s">
+      <c r="G108" s="132" t="s">
         <v>286</v>
       </c>
-      <c r="H108" s="124"/>
-      <c r="I108" s="124"/>
-      <c r="J108" s="124"/>
-      <c r="K108" s="124"/>
+      <c r="H108" s="132"/>
+      <c r="I108" s="132"/>
+      <c r="J108" s="132"/>
+      <c r="K108" s="132"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
@@ -12184,7 +12353,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="120">
+      <c r="A109" s="138">
         <v>18</v>
       </c>
       <c r="B109" s="10"/>
@@ -12192,13 +12361,13 @@
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="124" t="s">
+      <c r="G109" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="H109" s="124"/>
-      <c r="I109" s="124"/>
-      <c r="J109" s="124"/>
-      <c r="K109" s="124"/>
+      <c r="H109" s="132"/>
+      <c r="I109" s="132"/>
+      <c r="J109" s="132"/>
+      <c r="K109" s="132"/>
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
@@ -12221,19 +12390,19 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="120"/>
+      <c r="A110" s="138"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="62"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="124" t="s">
+      <c r="G110" s="132" t="s">
         <v>289</v>
       </c>
-      <c r="H110" s="124"/>
-      <c r="I110" s="124"/>
-      <c r="J110" s="124"/>
-      <c r="K110" s="124"/>
+      <c r="H110" s="132"/>
+      <c r="I110" s="132"/>
+      <c r="J110" s="132"/>
+      <c r="K110" s="132"/>
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
@@ -12259,7 +12428,7 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="120"/>
+      <c r="A111" s="138"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10" t="s">
         <v>290</v>
@@ -12267,13 +12436,13 @@
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="124" t="s">
+      <c r="G111" s="132" t="s">
         <v>291</v>
       </c>
-      <c r="H111" s="124"/>
-      <c r="I111" s="124"/>
-      <c r="J111" s="124"/>
-      <c r="K111" s="124"/>
+      <c r="H111" s="132"/>
+      <c r="I111" s="132"/>
+      <c r="J111" s="132"/>
+      <c r="K111" s="132"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
@@ -12297,19 +12466,19 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="120"/>
+      <c r="A112" s="138"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="125" t="s">
+      <c r="G112" s="143" t="s">
         <v>292</v>
       </c>
-      <c r="H112" s="126"/>
-      <c r="I112" s="126"/>
-      <c r="J112" s="126"/>
-      <c r="K112" s="127"/>
+      <c r="H112" s="144"/>
+      <c r="I112" s="144"/>
+      <c r="J112" s="144"/>
+      <c r="K112" s="145"/>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
@@ -12333,18 +12502,18 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="120"/>
+      <c r="A113" s="138"/>
       <c r="B113" s="10"/>
       <c r="D113" s="63" t="s">
         <v>293</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="126"/>
-      <c r="I113" s="126"/>
-      <c r="J113" s="126"/>
-      <c r="K113" s="127"/>
+      <c r="G113" s="143"/>
+      <c r="H113" s="144"/>
+      <c r="I113" s="144"/>
+      <c r="J113" s="144"/>
+      <c r="K113" s="145"/>
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
@@ -12376,23 +12545,23 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="131">
+      <c r="A114" s="139">
         <v>19</v>
       </c>
-      <c r="B114" s="136"/>
-      <c r="C114" s="138" t="s">
+      <c r="B114" s="122"/>
+      <c r="C114" s="185" t="s">
         <v>296</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="124" t="s">
+      <c r="G114" s="132" t="s">
         <v>297</v>
       </c>
-      <c r="H114" s="124"/>
-      <c r="I114" s="124"/>
-      <c r="J114" s="124"/>
-      <c r="K114" s="124"/>
+      <c r="H114" s="132"/>
+      <c r="I114" s="132"/>
+      <c r="J114" s="132"/>
+      <c r="K114" s="132"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
@@ -12415,19 +12584,19 @@
       <c r="Y114" s="10"/>
     </row>
     <row r="115" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="132"/>
-      <c r="B115" s="137"/>
-      <c r="C115" s="139"/>
+      <c r="A115" s="140"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="186"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="133" t="s">
+      <c r="G115" s="182" t="s">
         <v>298</v>
       </c>
-      <c r="H115" s="124"/>
-      <c r="I115" s="124"/>
-      <c r="J115" s="124"/>
-      <c r="K115" s="124"/>
+      <c r="H115" s="132"/>
+      <c r="I115" s="132"/>
+      <c r="J115" s="132"/>
+      <c r="K115" s="132"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
@@ -12449,19 +12618,19 @@
       <c r="Y115" s="10"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="132"/>
-      <c r="B116" s="134" t="s">
+      <c r="A116" s="140"/>
+      <c r="B116" s="178" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="139"/>
+      <c r="C116" s="186"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="124"/>
-      <c r="H116" s="124"/>
-      <c r="I116" s="124"/>
-      <c r="J116" s="124"/>
-      <c r="K116" s="124"/>
+      <c r="G116" s="132"/>
+      <c r="H116" s="132"/>
+      <c r="I116" s="132"/>
+      <c r="J116" s="132"/>
+      <c r="K116" s="132"/>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
@@ -12485,21 +12654,21 @@
       </c>
     </row>
     <row r="117" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="132"/>
-      <c r="B117" s="134"/>
-      <c r="C117" s="139"/>
+      <c r="A117" s="140"/>
+      <c r="B117" s="178"/>
+      <c r="C117" s="186"/>
       <c r="D117" s="65" t="s">
         <v>300</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="140" t="s">
+      <c r="G117" s="187" t="s">
         <v>301</v>
       </c>
-      <c r="H117" s="141"/>
-      <c r="I117" s="141"/>
-      <c r="J117" s="141"/>
-      <c r="K117" s="142"/>
+      <c r="H117" s="188"/>
+      <c r="I117" s="188"/>
+      <c r="J117" s="188"/>
+      <c r="K117" s="189"/>
       <c r="L117" s="66"/>
       <c r="M117" s="66"/>
       <c r="N117" s="66"/>
@@ -12525,19 +12694,19 @@
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="132"/>
-      <c r="B118" s="134"/>
-      <c r="C118" s="139"/>
+      <c r="A118" s="140"/>
+      <c r="B118" s="178"/>
+      <c r="C118" s="186"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="143" t="s">
+      <c r="G118" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="H118" s="124"/>
-      <c r="I118" s="124"/>
-      <c r="J118" s="124"/>
-      <c r="K118" s="124"/>
+      <c r="H118" s="132"/>
+      <c r="I118" s="132"/>
+      <c r="J118" s="132"/>
+      <c r="K118" s="132"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
@@ -12567,21 +12736,21 @@
       </c>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="132"/>
-      <c r="B119" s="134"/>
-      <c r="C119" s="139"/>
+      <c r="A119" s="140"/>
+      <c r="B119" s="178"/>
+      <c r="C119" s="186"/>
       <c r="D119" s="65" t="s">
         <v>305</v>
       </c>
       <c r="E119" s="58"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="125" t="s">
+      <c r="G119" s="143" t="s">
         <v>306</v>
       </c>
-      <c r="H119" s="126"/>
-      <c r="I119" s="126"/>
-      <c r="J119" s="126"/>
-      <c r="K119" s="127"/>
+      <c r="H119" s="144"/>
+      <c r="I119" s="144"/>
+      <c r="J119" s="144"/>
+      <c r="K119" s="145"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
@@ -12605,17 +12774,17 @@
       </c>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="135"/>
-      <c r="B120" s="121"/>
-      <c r="C120" s="139"/>
+      <c r="A120" s="141"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="186"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="58"/>
-      <c r="G120" s="125"/>
-      <c r="H120" s="126"/>
-      <c r="I120" s="126"/>
-      <c r="J120" s="126"/>
-      <c r="K120" s="127"/>
+      <c r="G120" s="143"/>
+      <c r="H120" s="144"/>
+      <c r="I120" s="144"/>
+      <c r="J120" s="144"/>
+      <c r="K120" s="145"/>
       <c r="L120" s="67"/>
       <c r="M120" s="67"/>
       <c r="N120" s="67"/>
@@ -12641,24 +12810,24 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="120">
+      <c r="A121" s="138">
         <v>20</v>
       </c>
-      <c r="B121" s="121" t="s">
+      <c r="B121" s="161" t="s">
         <v>307</v>
       </c>
-      <c r="C121" s="122" t="s">
+      <c r="C121" s="162" t="s">
         <v>308</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="124" t="s">
+      <c r="G121" s="132" t="s">
         <v>309</v>
       </c>
-      <c r="H121" s="124"/>
-      <c r="I121" s="124"/>
-      <c r="J121" s="124"/>
-      <c r="K121" s="124"/>
+      <c r="H121" s="132"/>
+      <c r="I121" s="132"/>
+      <c r="J121" s="132"/>
+      <c r="K121" s="132"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
@@ -12681,21 +12850,21 @@
       <c r="Z121" s="10"/>
     </row>
     <row r="122" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="120"/>
-      <c r="B122" s="122"/>
-      <c r="C122" s="122"/>
+      <c r="A122" s="138"/>
+      <c r="B122" s="162"/>
+      <c r="C122" s="162"/>
       <c r="D122" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="125" t="s">
+      <c r="G122" s="143" t="s">
         <v>311</v>
       </c>
-      <c r="H122" s="126"/>
-      <c r="I122" s="126"/>
-      <c r="J122" s="126"/>
-      <c r="K122" s="127"/>
+      <c r="H122" s="144"/>
+      <c r="I122" s="144"/>
+      <c r="J122" s="144"/>
+      <c r="K122" s="145"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
@@ -12719,19 +12888,19 @@
       <c r="Z122" s="10"/>
     </row>
     <row r="123" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="120"/>
-      <c r="B123" s="123"/>
-      <c r="C123" s="122"/>
+      <c r="A123" s="138"/>
+      <c r="B123" s="181"/>
+      <c r="C123" s="162"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="128" t="s">
+      <c r="G123" s="191" t="s">
         <v>312</v>
       </c>
-      <c r="H123" s="129"/>
-      <c r="I123" s="129"/>
-      <c r="J123" s="129"/>
-      <c r="K123" s="130"/>
+      <c r="H123" s="192"/>
+      <c r="I123" s="192"/>
+      <c r="J123" s="192"/>
+      <c r="K123" s="193"/>
       <c r="L123" s="69"/>
       <c r="M123" s="69"/>
       <c r="N123" s="69"/>
@@ -12755,22 +12924,22 @@
       <c r="Z123" s="10"/>
     </row>
     <row r="124" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="131">
+      <c r="A124" s="139">
         <v>21</v>
       </c>
-      <c r="B124" s="133" t="s">
+      <c r="B124" s="182" t="s">
         <v>313</v>
       </c>
-      <c r="C124" s="122"/>
+      <c r="C124" s="162"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="124" t="s">
+      <c r="G124" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="H124" s="124"/>
-      <c r="I124" s="124"/>
-      <c r="J124" s="124"/>
-      <c r="K124" s="124"/>
+      <c r="H124" s="132"/>
+      <c r="I124" s="132"/>
+      <c r="J124" s="132"/>
+      <c r="K124" s="132"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
@@ -12791,21 +12960,21 @@
       <c r="Z124" s="10"/>
     </row>
     <row r="125" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="132"/>
-      <c r="B125" s="133"/>
-      <c r="C125" s="122"/>
+      <c r="A125" s="140"/>
+      <c r="B125" s="182"/>
+      <c r="C125" s="162"/>
       <c r="D125" s="63" t="s">
         <v>315</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="125" t="s">
+      <c r="G125" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="126"/>
-      <c r="I125" s="126"/>
-      <c r="J125" s="126"/>
-      <c r="K125" s="127"/>
+      <c r="H125" s="144"/>
+      <c r="I125" s="144"/>
+      <c r="J125" s="144"/>
+      <c r="K125" s="145"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
@@ -12828,19 +12997,19 @@
       <c r="Z125" s="10"/>
     </row>
     <row r="126" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="132"/>
-      <c r="B126" s="133"/>
-      <c r="C126" s="123"/>
+      <c r="A126" s="140"/>
+      <c r="B126" s="182"/>
+      <c r="C126" s="181"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="124" t="s">
+      <c r="G126" s="132" t="s">
         <v>317</v>
       </c>
-      <c r="H126" s="124"/>
-      <c r="I126" s="124"/>
-      <c r="J126" s="124"/>
-      <c r="K126" s="124"/>
+      <c r="H126" s="132"/>
+      <c r="I126" s="132"/>
+      <c r="J126" s="132"/>
+      <c r="K126" s="132"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
@@ -12861,13 +13030,13 @@
       <c r="Z126" s="10"/>
     </row>
     <row r="127" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="120">
+      <c r="A127" s="138">
         <v>22</v>
       </c>
-      <c r="B127" s="129" t="s">
+      <c r="B127" s="192" t="s">
         <v>318</v>
       </c>
-      <c r="C127" s="134" t="s">
+      <c r="C127" s="178" t="s">
         <v>319</v>
       </c>
       <c r="D127" s="70" t="s">
@@ -12875,13 +13044,13 @@
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="124" t="s">
+      <c r="G127" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="H127" s="124"/>
-      <c r="I127" s="124"/>
-      <c r="J127" s="124"/>
-      <c r="K127" s="124"/>
+      <c r="H127" s="132"/>
+      <c r="I127" s="132"/>
+      <c r="J127" s="132"/>
+      <c r="K127" s="132"/>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
@@ -12904,19 +13073,19 @@
       <c r="Z127" s="10"/>
     </row>
     <row r="128" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="120"/>
-      <c r="B128" s="129"/>
-      <c r="C128" s="134"/>
+      <c r="A128" s="138"/>
+      <c r="B128" s="192"/>
+      <c r="C128" s="178"/>
       <c r="D128" s="70"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="133" t="s">
+      <c r="G128" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="H128" s="124"/>
-      <c r="I128" s="124"/>
-      <c r="J128" s="124"/>
-      <c r="K128" s="124"/>
+      <c r="H128" s="132"/>
+      <c r="I128" s="132"/>
+      <c r="J128" s="132"/>
+      <c r="K128" s="132"/>
       <c r="L128" s="11"/>
       <c r="M128" s="11"/>
       <c r="N128" s="11"/>
@@ -12937,18 +13106,18 @@
       <c r="Z128" s="10"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129" s="120"/>
-      <c r="B129" s="121" t="s">
+      <c r="A129" s="138"/>
+      <c r="B129" s="161" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="134"/>
-      <c r="G129" s="124" t="s">
+      <c r="C129" s="178"/>
+      <c r="G129" s="132" t="s">
         <v>324</v>
       </c>
-      <c r="H129" s="124"/>
-      <c r="I129" s="124"/>
-      <c r="J129" s="124"/>
-      <c r="K129" s="124"/>
+      <c r="H129" s="132"/>
+      <c r="I129" s="132"/>
+      <c r="J129" s="132"/>
+      <c r="K129" s="132"/>
       <c r="L129" s="71"/>
       <c r="M129" s="71"/>
       <c r="N129" s="71"/>
@@ -12958,110 +13127,110 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130" s="120"/>
-      <c r="B130" s="122"/>
-      <c r="C130" s="134"/>
+      <c r="A130" s="138"/>
+      <c r="B130" s="162"/>
+      <c r="C130" s="178"/>
       <c r="R130" s="10">
         <f>SUM($Q$9:Q130)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131" s="120"/>
-      <c r="B131" s="122"/>
-      <c r="C131" s="134"/>
+      <c r="A131" s="138"/>
+      <c r="B131" s="162"/>
+      <c r="C131" s="178"/>
       <c r="R131" s="10">
         <f>SUM($Q$9:Q131)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A132" s="120"/>
-      <c r="B132" s="122"/>
-      <c r="C132" s="134"/>
+      <c r="A132" s="138"/>
+      <c r="B132" s="162"/>
+      <c r="C132" s="178"/>
       <c r="R132" s="10">
         <f>SUM($Q$9:Q132)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A133" s="120"/>
-      <c r="B133" s="122"/>
-      <c r="C133" s="134"/>
+      <c r="A133" s="138"/>
+      <c r="B133" s="162"/>
+      <c r="C133" s="178"/>
       <c r="R133" s="10">
         <f>SUM($Q$9:Q133)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A134" s="120"/>
-      <c r="B134" s="122"/>
-      <c r="C134" s="134"/>
+      <c r="A134" s="138"/>
+      <c r="B134" s="162"/>
+      <c r="C134" s="178"/>
       <c r="R134" s="10">
         <f>SUM($Q$9:Q134)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A135" s="120">
+      <c r="A135" s="138">
         <v>23</v>
       </c>
-      <c r="B135" s="122"/>
-      <c r="C135" s="134"/>
+      <c r="B135" s="162"/>
+      <c r="C135" s="178"/>
       <c r="R135" s="10">
         <f>SUM($Q$9:Q135)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A136" s="120"/>
-      <c r="B136" s="122"/>
-      <c r="C136" s="134"/>
+      <c r="A136" s="138"/>
+      <c r="B136" s="162"/>
+      <c r="C136" s="178"/>
       <c r="R136" s="10">
         <f>SUM($Q$9:Q136)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A137" s="120"/>
-      <c r="B137" s="122"/>
-      <c r="C137" s="134"/>
+      <c r="A137" s="138"/>
+      <c r="B137" s="162"/>
+      <c r="C137" s="178"/>
       <c r="R137" s="10">
         <f>SUM($Q$9:Q137)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A138" s="120"/>
-      <c r="B138" s="122"/>
-      <c r="C138" s="134"/>
+      <c r="A138" s="138"/>
+      <c r="B138" s="162"/>
+      <c r="C138" s="178"/>
       <c r="R138" s="10">
         <f>SUM($Q$9:Q138)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A139" s="120"/>
-      <c r="B139" s="122"/>
-      <c r="C139" s="134"/>
+      <c r="A139" s="138"/>
+      <c r="B139" s="162"/>
+      <c r="C139" s="178"/>
       <c r="R139" s="10">
         <f>SUM($Q$9:Q139)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A140" s="120"/>
-      <c r="B140" s="122"/>
-      <c r="C140" s="134"/>
+      <c r="A140" s="138"/>
+      <c r="B140" s="162"/>
+      <c r="C140" s="178"/>
       <c r="R140" s="10">
         <f>SUM($Q$9:Q140)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A141" s="120"/>
-      <c r="B141" s="123"/>
-      <c r="C141" s="134"/>
+      <c r="A141" s="138"/>
+      <c r="B141" s="181"/>
+      <c r="C141" s="178"/>
       <c r="R141" s="24">
         <f>SUM($Q$9:Q141)</f>
         <v>271.65092362949309</v>
@@ -13072,21 +13241,183 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="A127:A134"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="B129:B141"/>
+    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="F81:F85"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B85"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="F32:F41"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="A9:A18"/>
     <mergeCell ref="B9:B45"/>
     <mergeCell ref="C9:C17"/>
@@ -13111,183 +13442,21 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="G29:K29"/>
     <mergeCell ref="G30:K30"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="F32:F41"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B85"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G78:K78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="G79:K79"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="F81:F85"/>
-    <mergeCell ref="G81:K81"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="G83:K83"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C126"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="A127:A134"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="B129:B141"/>
-    <mergeCell ref="G129:K129"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13598,14 +13767,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
+      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13630,19 +13799,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>798</v>
       </c>
       <c r="D1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E1" t="s">
         <v>329</v>
       </c>
       <c r="F1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G1" t="s">
         <v>523</v>
@@ -13658,7 +13827,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="120" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="114"/>
@@ -13677,34 +13846,34 @@
         <v>354</v>
       </c>
       <c r="P2" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q2" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="R2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="118"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="114">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>610</v>
+        <v>773</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>524</v>
+        <v>780</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H3" s="85" t="s">
         <v>4</v>
@@ -13716,7 +13885,7 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="O3">
         <v>30</v>
@@ -13732,21 +13901,21 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="118"/>
+      <c r="A4" s="120"/>
       <c r="B4" s="114">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -13771,23 +13940,23 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="118">
+      <c r="A5" s="120">
         <v>1</v>
       </c>
       <c r="B5" s="114">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G5" t="s">
         <v>332</v>
@@ -13813,21 +13982,21 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="118"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="114">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="I6" s="6"/>
       <c r="P6">
@@ -13838,21 +14007,21 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="118"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="114">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>584</v>
+        <v>775</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G7" s="84" t="s">
         <v>509</v>
@@ -13878,26 +14047,26 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="114">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="G8" s="84"/>
       <c r="I8" s="6"/>
       <c r="N8" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="P8">
         <v>5000</v>
@@ -13907,21 +14076,21 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="114">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>585</v>
+        <v>779</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>337</v>
@@ -13946,21 +14115,21 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="114">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F10" s="78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>345</v>
@@ -13975,7 +14144,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="P10">
         <v>2800</v>
@@ -13988,21 +14157,21 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="114">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>340</v>
@@ -14026,7 +14195,7 @@
         <v>3600</v>
       </c>
       <c r="R11" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="S11">
         <v>70013</v>
@@ -14039,21 +14208,21 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="114">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>338</v>
@@ -14078,24 +14247,24 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="114">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="N13" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="P13">
         <v>4000</v>
@@ -14117,24 +14286,24 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="114">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="N14" t="s">
-        <v>622</v>
+        <v>761</v>
+      </c>
+      <c r="N14">
+        <v>50002</v>
       </c>
       <c r="O14">
         <v>8</v>
@@ -14143,28 +14312,28 @@
         <v>300</v>
       </c>
       <c r="U14" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="118"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="114">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="N15" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="O15">
         <v>8</v>
@@ -14173,468 +14342,489 @@
         <v>300</v>
       </c>
       <c r="U15" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="118"/>
-      <c r="B16" s="114">
-        <v>2</v>
+      <c r="A16" s="120"/>
+      <c r="B16" s="118">
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="N16">
+        <v>50002</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>300</v>
+      </c>
+      <c r="U16" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="120"/>
+      <c r="B17" s="114">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="P17">
+        <v>4500</v>
+      </c>
+      <c r="Q17">
+        <v>30</v>
+      </c>
+      <c r="R17" t="s">
+        <v>770</v>
+      </c>
+      <c r="S17">
+        <v>70003</v>
+      </c>
+      <c r="T17">
+        <v>70019</v>
+      </c>
+      <c r="U17">
+        <v>50012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="120"/>
+      <c r="B18" s="114">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="P16">
-        <v>4500</v>
-      </c>
-      <c r="Q16">
-        <v>30</v>
-      </c>
-      <c r="R16" t="s">
-        <v>779</v>
-      </c>
-      <c r="S16">
-        <v>70003</v>
-      </c>
-      <c r="T16">
-        <v>70019</v>
-      </c>
-      <c r="U16">
-        <v>50012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="118"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="P18">
+        <v>5000</v>
+      </c>
+      <c r="Q18">
+        <v>35</v>
+      </c>
+      <c r="U18">
+        <v>50013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="120"/>
+      <c r="B19" s="114">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="N19">
+        <v>11001</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>5500</v>
+      </c>
+      <c r="Q19">
+        <v>40</v>
+      </c>
+      <c r="U19">
+        <v>50014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="120"/>
+      <c r="B20" s="114">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H17" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="P17">
-        <v>5000</v>
-      </c>
-      <c r="Q17">
-        <v>35</v>
-      </c>
-      <c r="U17">
-        <v>50013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="118"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="N18">
-        <v>11001</v>
-      </c>
-      <c r="O18">
-        <v>10</v>
-      </c>
-      <c r="P18">
-        <v>5500</v>
-      </c>
-      <c r="Q18">
-        <v>40</v>
-      </c>
-      <c r="U18">
-        <v>50014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>532</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>547</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="P19">
-        <v>6000</v>
-      </c>
-      <c r="Q19">
-        <v>45</v>
-      </c>
-      <c r="U19">
-        <v>50015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="118">
-        <v>2</v>
-      </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>548</v>
+      <c r="E20" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>546</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H20" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="N20">
+      <c r="P20">
+        <v>6000</v>
+      </c>
+      <c r="Q20">
+        <v>45</v>
+      </c>
+      <c r="U20">
+        <v>50015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="120">
+        <v>2</v>
+      </c>
+      <c r="B21" s="114">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="N21">
         <v>10005</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>15</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>6600</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>50</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>50016</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="118"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="P21">
-        <v>7200</v>
-      </c>
-      <c r="Q21">
-        <v>55</v>
-      </c>
-      <c r="U21">
-        <v>50017</v>
-      </c>
-    </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="118"/>
-      <c r="B22" s="114"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="114">
+        <v>2</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D22" s="2">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="P22">
+        <v>7200</v>
+      </c>
+      <c r="Q22">
+        <v>55</v>
+      </c>
+      <c r="U22">
+        <v>50017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="120"/>
+      <c r="B23" s="114">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" s="86"/>
+      <c r="N23">
+        <v>11001</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>7800</v>
+      </c>
+      <c r="Q23">
+        <v>60</v>
+      </c>
+      <c r="U23">
+        <v>50018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="120"/>
+      <c r="B24" s="114">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>560</v>
+      </c>
+      <c r="F24" s="78" t="s">
         <v>550</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H22" s="86"/>
-      <c r="N22">
-        <v>11001</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>7800</v>
-      </c>
-      <c r="Q22">
-        <v>60</v>
-      </c>
-      <c r="U22">
-        <v>50018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="118"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>561</v>
-      </c>
-      <c r="F23" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="G23" s="78" t="s">
+      <c r="G24" s="78" t="s">
         <v>514</v>
-      </c>
-      <c r="H23" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="N23">
-        <v>10017</v>
-      </c>
-      <c r="O23">
-        <v>13</v>
-      </c>
-      <c r="P23">
-        <v>9000</v>
-      </c>
-      <c r="Q23">
-        <v>70</v>
-      </c>
-      <c r="U23">
-        <v>50019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="118"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="H24" s="86" t="s">
         <v>331</v>
       </c>
+      <c r="N24">
+        <v>10017</v>
+      </c>
+      <c r="O24">
+        <v>13</v>
+      </c>
       <c r="P24">
-        <v>9700</v>
+        <v>9000</v>
       </c>
       <c r="Q24">
         <v>70</v>
       </c>
       <c r="U24">
+        <v>50019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="120"/>
+      <c r="B25" s="114">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25">
+        <v>9700</v>
+      </c>
+      <c r="Q25">
+        <v>70</v>
+      </c>
+      <c r="U25">
         <v>50020</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="118"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D25" s="2">
-        <v>7</v>
-      </c>
-      <c r="E25" s="78" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="120"/>
+      <c r="B26" s="114">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D26" s="2">
+        <v>9</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>562</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>552</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>573</v>
+      </c>
+      <c r="P26">
+        <v>10400</v>
+      </c>
+      <c r="Q26">
+        <v>75</v>
+      </c>
+      <c r="U26">
+        <v>50021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="120"/>
+      <c r="B27" s="114">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D27" s="2">
+        <v>9</v>
+      </c>
+      <c r="E27" s="78" t="s">
         <v>563</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F27" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="H25" s="86" t="s">
-        <v>574</v>
-      </c>
-      <c r="P25">
-        <v>10400</v>
-      </c>
-      <c r="Q25">
-        <v>75</v>
-      </c>
-      <c r="U25">
-        <v>50021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="118"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7</v>
-      </c>
-      <c r="E26" s="78" t="s">
-        <v>564</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>554</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="H26" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="P26">
-        <v>11100</v>
-      </c>
-      <c r="Q26">
-        <v>80</v>
-      </c>
-      <c r="U26">
-        <v>50022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="118"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="H27" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="N27" t="s">
-        <v>626</v>
-      </c>
-      <c r="O27">
-        <v>15</v>
-      </c>
       <c r="P27">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="Q27">
         <v>80</v>
       </c>
       <c r="U27">
+        <v>50022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="120"/>
+      <c r="B28" s="114">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D28" s="2">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="N28" t="s">
+        <v>618</v>
+      </c>
+      <c r="O28">
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>11800</v>
+      </c>
+      <c r="Q28">
+        <v>80</v>
+      </c>
+      <c r="U28">
         <v>50023</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="118"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D28" s="2">
-        <v>8</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>628</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>627</v>
-      </c>
-      <c r="H28" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="P28">
-        <v>12500</v>
-      </c>
-      <c r="Q28">
-        <v>90</v>
-      </c>
-      <c r="U28">
-        <v>50024</v>
-      </c>
-    </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="118"/>
-      <c r="B29" s="114"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="114">
+        <v>1</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>601</v>
+        <v>782</v>
       </c>
       <c r="D29" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>566</v>
+        <v>811</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>556</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H29" s="86" t="s">
-        <v>331</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="H29" s="86"/>
       <c r="P29">
         <v>13200</v>
       </c>
@@ -14646,19 +14836,21 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="118"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="119">
+        <v>2</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D30" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>450</v>
@@ -14677,106 +14869,87 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="118"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="91" t="s">
-        <v>603</v>
+      <c r="A31" s="120"/>
+      <c r="B31" s="114">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="D31" s="2">
-        <v>12</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>568</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>557</v>
-      </c>
-      <c r="G31" s="92" t="s">
-        <v>489</v>
-      </c>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
+        <v>8</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="F31" s="78" t="s">
+        <v>619</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>575</v>
+      </c>
       <c r="P31">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="Q31">
-        <v>110</v>
-      </c>
-      <c r="R31">
-        <v>10007</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="U31">
-        <v>50027</v>
+        <v>50024</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="118">
-        <v>3</v>
-      </c>
-      <c r="B32" s="114"/>
-      <c r="C32" s="91" t="s">
-        <v>604</v>
+      <c r="A32" s="120"/>
+      <c r="B32" s="114">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="D32" s="2">
-        <v>12</v>
-      </c>
-      <c r="E32" s="92" t="s">
-        <v>569</v>
-      </c>
-      <c r="F32" s="92" t="s">
-        <v>558</v>
-      </c>
-      <c r="G32" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="O32" s="95">
+        <v>10</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>555</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H32" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="P32">
+        <v>13200</v>
+      </c>
+      <c r="Q32">
+        <v>95</v>
+      </c>
+      <c r="U32">
+        <v>50025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="120"/>
+      <c r="B33" s="114">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>16000</v>
-      </c>
-      <c r="Q32">
-        <v>130</v>
-      </c>
-      <c r="U32">
-        <v>50028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="118"/>
-      <c r="B33" s="114"/>
       <c r="C33" s="91" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D33" s="2">
         <v>12</v>
       </c>
       <c r="E33" s="92" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G33" s="92" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H33" s="93"/>
       <c r="I33" s="94"/>
@@ -14787,180 +14960,466 @@
       <c r="N33" s="95"/>
       <c r="O33" s="95"/>
       <c r="P33">
+        <v>15000</v>
+      </c>
+      <c r="Q33">
+        <v>110</v>
+      </c>
+      <c r="R33">
+        <v>10007</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>50027</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="120">
+        <v>3</v>
+      </c>
+      <c r="B34" s="114">
+        <v>1</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="D34" s="2">
+        <v>12</v>
+      </c>
+      <c r="E34" s="92" t="s">
+        <v>568</v>
+      </c>
+      <c r="F34" s="92" t="s">
+        <v>557</v>
+      </c>
+      <c r="G34" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="O34" s="95">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>16000</v>
+      </c>
+      <c r="Q34">
+        <v>130</v>
+      </c>
+      <c r="U34">
+        <v>50028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="120"/>
+      <c r="B35" s="114">
+        <v>1</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>602</v>
+      </c>
+      <c r="D35" s="2">
+        <v>12</v>
+      </c>
+      <c r="E35" s="92" t="s">
+        <v>569</v>
+      </c>
+      <c r="F35" s="92" t="s">
+        <v>558</v>
+      </c>
+      <c r="G35" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="H35" s="93"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35">
         <v>17000</v>
       </c>
-      <c r="Q33">
+      <c r="Q35">
         <v>135</v>
       </c>
-      <c r="U33">
+      <c r="U35">
         <v>50029</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="118"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>624</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H34" s="86" t="s">
+    <row r="36" spans="1:21" s="89" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="120"/>
+      <c r="B36" s="110">
+        <v>3</v>
+      </c>
+      <c r="C36" s="194" t="s">
+        <v>791</v>
+      </c>
+      <c r="D36" s="195">
+        <v>20</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>793</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>795</v>
+      </c>
+      <c r="G36" s="87"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="88"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="U36" s="89">
+        <v>50030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="89" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="120"/>
+      <c r="B37" s="110">
+        <v>3</v>
+      </c>
+      <c r="C37" s="194" t="s">
+        <v>792</v>
+      </c>
+      <c r="D37" s="195">
+        <v>20</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>792</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>794</v>
+      </c>
+      <c r="H37" s="113"/>
+      <c r="I37" s="88"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="U37" s="89">
+        <v>50027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="120"/>
+      <c r="B38" s="114">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="H38" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="N34" t="s">
-        <v>616</v>
-      </c>
-      <c r="O34">
+      <c r="N38" t="s">
+        <v>611</v>
+      </c>
+      <c r="O38">
         <v>25</v>
       </c>
-      <c r="P34">
+      <c r="P38">
         <v>400</v>
       </c>
-      <c r="Q34" s="89"/>
-      <c r="U34">
+      <c r="Q38" s="89"/>
+      <c r="U38">
         <v>53001</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="118"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>625</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="N35" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="120"/>
+      <c r="B39" s="114">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="N39" t="s">
+        <v>611</v>
+      </c>
+      <c r="O39">
+        <v>25</v>
+      </c>
+      <c r="P39">
+        <v>400</v>
+      </c>
+      <c r="U39">
+        <v>53001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="120"/>
+      <c r="B40" s="114">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="O35">
+      <c r="E40" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="N40" t="s">
+        <v>612</v>
+      </c>
+      <c r="O40">
         <v>10</v>
       </c>
-      <c r="P35">
+      <c r="P40">
         <v>500</v>
       </c>
-      <c r="Q35" s="89"/>
-      <c r="U35">
+      <c r="Q40" s="89"/>
+      <c r="U40">
         <v>53002</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="118"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="118"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="118"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="118"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="114">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>817</v>
+      </c>
       <c r="G41" s="1"/>
+      <c r="N41" t="s">
+        <v>612</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>500</v>
+      </c>
+      <c r="U41">
+        <v>53002</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="114" t="s">
+        <v>796</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="G42" s="1"/>
+      <c r="N42" t="s">
+        <v>825</v>
+      </c>
+      <c r="O42">
+        <v>5000</v>
+      </c>
+      <c r="Q42">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B43" s="119" t="s">
+        <v>797</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D43" s="2">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>806</v>
+      </c>
       <c r="G43" s="1"/>
+      <c r="N43" t="s">
+        <v>826</v>
+      </c>
+      <c r="O43">
+        <v>8000</v>
+      </c>
+      <c r="Q43">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="B44" s="119" t="s">
+        <v>796</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>807</v>
+      </c>
       <c r="G44" s="1"/>
+      <c r="O44">
+        <v>2500</v>
+      </c>
+      <c r="Q44">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="119" t="s">
+        <v>797</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>808</v>
+      </c>
       <c r="G45" s="1"/>
+      <c r="O45">
+        <v>2500</v>
+      </c>
+      <c r="Q45">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="B46" s="119" t="s">
+        <v>796</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>809</v>
+      </c>
       <c r="G46" s="1"/>
+      <c r="O46">
+        <v>2500</v>
+      </c>
+      <c r="Q46">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="B47" s="119" t="s">
+        <v>797</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>810</v>
+      </c>
       <c r="G47" s="1"/>
+      <c r="N47" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q47">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E49" s="2"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B49" s="119"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="119"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E51" s="2"/>
+      <c r="G51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A34:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/任务系统/任务线设计___附带条件需求.xlsx
+++ b/gd/任务系统/任务线设计___附带条件需求.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="825">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2693,14 +2693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物强化石10017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3381,10 +3373,6 @@
     <t>支线扫荡2-8</t>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加入公会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3504,6 +3492,10 @@
   </si>
   <si>
     <t>中经验药X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用经验药1次{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4022,7 +4014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4259,6 +4251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4480,12 +4475,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4875,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C1" t="s">
         <v>329</v>
@@ -4928,7 +4917,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="120">
+      <c r="A3" s="121">
         <v>1</v>
       </c>
       <c r="B3" s="97">
@@ -4964,7 +4953,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="120"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="114">
         <v>1</v>
       </c>
@@ -4974,7 +4963,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="120"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="97">
         <v>1</v>
       </c>
@@ -4991,7 +4980,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="120"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="97">
         <v>1</v>
       </c>
@@ -5025,7 +5014,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="120"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="97">
         <v>1</v>
       </c>
@@ -5036,19 +5025,19 @@
         <v>578</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F7" s="84"/>
       <c r="H7" s="6"/>
       <c r="M7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="O7">
         <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="120"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="97">
         <v>1</v>
       </c>
@@ -5078,7 +5067,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="120"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="97">
         <v>1</v>
       </c>
@@ -5114,7 +5103,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="120"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="97">
         <v>1</v>
       </c>
@@ -5156,7 +5145,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="120"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="97">
         <v>1</v>
       </c>
@@ -5195,7 +5184,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="120"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="97">
         <v>1</v>
       </c>
@@ -5206,25 +5195,25 @@
         <v>608</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O12">
         <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="120"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="114">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="120"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="97">
         <v>1</v>
       </c>
@@ -5248,7 +5237,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="120"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="97">
         <v>1</v>
       </c>
@@ -5256,7 +5245,7 @@
         <v>589</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E15" s="104" t="s">
         <v>545</v>
@@ -5272,7 +5261,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="120"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="97">
         <v>1</v>
       </c>
@@ -5292,7 +5281,7 @@
         <v>334</v>
       </c>
       <c r="M16" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -5302,7 +5291,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="120"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="97">
         <v>1</v>
       </c>
@@ -5326,14 +5315,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="120">
+      <c r="A18" s="121">
         <v>2</v>
       </c>
       <c r="B18" s="97">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>533</v>
@@ -5355,7 +5344,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="120"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="97">
         <v>1</v>
       </c>
@@ -5374,7 +5363,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="120"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="97">
         <v>2</v>
       </c>
@@ -5398,7 +5387,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="120"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="97">
         <v>1</v>
       </c>
@@ -5425,7 +5414,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="120"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="97">
         <v>1</v>
       </c>
@@ -5455,7 +5444,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="120"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="97">
         <v>1</v>
       </c>
@@ -5463,13 +5452,13 @@
         <v>588</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E23" s="104" t="s">
         <v>551</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>448</v>
@@ -5479,7 +5468,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="120"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="97">
         <v>1</v>
       </c>
@@ -5503,7 +5492,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="120"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="97">
         <v>1</v>
       </c>
@@ -5525,12 +5514,12 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="120"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="97">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>566</v>
@@ -5555,16 +5544,16 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="120"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="98">
         <v>1</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="104" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="93"/>
@@ -5575,7 +5564,7 @@
       <c r="L27" s="96"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="120"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="97">
         <v>2</v>
       </c>
@@ -5583,10 +5572,10 @@
         <v>597</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E28" s="104" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>574</v>
@@ -5599,7 +5588,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="120"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="97">
         <v>2</v>
       </c>
@@ -5623,7 +5612,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="120"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="97">
         <v>1</v>
       </c>
@@ -5652,11 +5641,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="93"/>
@@ -5674,11 +5663,11 @@
         <v>1</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="104" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="93"/>
@@ -5729,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D34" s="92" t="s">
         <v>568</v>
@@ -5781,14 +5770,14 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="120">
+      <c r="A36" s="121">
         <v>3</v>
       </c>
       <c r="B36" s="97">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="104"/>
@@ -5803,18 +5792,18 @@
       <c r="N36" s="95"/>
     </row>
     <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="120"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="97">
         <v>3</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E37" s="105" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
@@ -5829,18 +5818,18 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="120"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="97">
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E38" s="104" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
@@ -5850,16 +5839,16 @@
       <c r="L38" s="96"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="120"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="79">
         <v>1</v>
       </c>
       <c r="C39" s="103" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D39" s="92"/>
       <c r="E39" s="106" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="99"/>
@@ -5872,12 +5861,12 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="120"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="79">
         <v>1</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D40" s="92"/>
       <c r="E40" s="106"/>
@@ -5892,7 +5881,7 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="120"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="80">
         <v>4</v>
       </c>
@@ -5903,7 +5892,7 @@
         <v>609</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="99" t="s">
@@ -5920,7 +5909,7 @@
       <c r="P41" s="89"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="120"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="97">
         <v>4</v>
       </c>
@@ -5931,7 +5920,7 @@
         <v>610</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="100"/>
@@ -5946,18 +5935,18 @@
       <c r="P42" s="89"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="120"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="97">
         <v>4</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="93"/>
@@ -5972,12 +5961,12 @@
       <c r="P43" s="89"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="120"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="98">
         <v>1</v>
       </c>
       <c r="C44" s="103" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D44" s="102"/>
       <c r="E44" s="107"/>
@@ -5994,12 +5983,12 @@
       <c r="P44" s="89"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45" s="120"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="98">
         <v>4</v>
       </c>
       <c r="C45" s="103" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D45" s="102"/>
       <c r="E45" s="107"/>
@@ -6016,15 +6005,15 @@
       <c r="P45" s="89"/>
     </row>
     <row r="46" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="120"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="110">
         <v>1</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="113"/>
@@ -6033,7 +6022,7 @@
       <c r="L46" s="90"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="120"/>
+      <c r="A47" s="121"/>
       <c r="E47" s="92"/>
       <c r="F47" s="92"/>
       <c r="G47" s="93"/>
@@ -6047,7 +6036,7 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48" s="120"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="97"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6055,7 +6044,7 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="120"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="97"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6166,16 +6155,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="122" t="s">
         <v>339</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
       <c r="T1" t="s">
         <v>385</v>
       </c>
@@ -6199,10 +6188,10 @@
       <c r="I2" t="s">
         <v>419</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="121"/>
+      <c r="K2" s="122"/>
       <c r="L2" s="109"/>
       <c r="M2" t="s">
         <v>416</v>
@@ -6213,10 +6202,10 @@
       <c r="O2" t="s">
         <v>351</v>
       </c>
-      <c r="P2" s="121" t="s">
+      <c r="P2" s="122" t="s">
         <v>352</v>
       </c>
-      <c r="Q2" s="121"/>
+      <c r="Q2" s="122"/>
       <c r="T2" t="s">
         <v>359</v>
       </c>
@@ -6233,7 +6222,7 @@
         <v>383</v>
       </c>
       <c r="AR2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.15">
@@ -6278,7 +6267,7 @@
         <v>384</v>
       </c>
       <c r="AR3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
@@ -6298,16 +6287,16 @@
         <v>20001</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J4" t="s">
         <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N4">
         <v>21001</v>
@@ -6333,19 +6322,19 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H5">
         <v>20002</v>
       </c>
       <c r="I5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="N5">
         <v>21002</v>
@@ -6369,7 +6358,7 @@
         <v>425</v>
       </c>
       <c r="AQ5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AR5">
         <v>100</v>
@@ -6392,13 +6381,13 @@
         <v>20003</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="N6">
         <v>21003</v>
@@ -6458,7 +6447,7 @@
         <v>424</v>
       </c>
       <c r="AQ6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AR6">
         <v>150</v>
@@ -6475,19 +6464,19 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H7">
         <v>20004</v>
       </c>
       <c r="I7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N7">
         <v>21004</v>
@@ -6553,7 +6542,7 @@
         <v>427</v>
       </c>
       <c r="AQ7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AR7">
         <v>200</v>
@@ -6567,22 +6556,22 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H8">
         <v>20005</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J8" t="s">
         <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M8" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="N8">
         <v>21005</v>
@@ -6654,7 +6643,7 @@
         <v>428</v>
       </c>
       <c r="AQ8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AR8">
         <v>300</v>
@@ -6671,22 +6660,22 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H9">
         <v>20006</v>
       </c>
       <c r="I9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J9" t="s">
         <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="N9">
         <v>21006</v>
@@ -6761,7 +6750,7 @@
         <v>429</v>
       </c>
       <c r="AQ9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AR9">
         <v>500</v>
@@ -6784,25 +6773,25 @@
         <v>20007</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J10">
         <v>5000</v>
       </c>
       <c r="K10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="N10">
         <v>21007</v>
       </c>
       <c r="O10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Q10">
         <v>3000</v>
@@ -6856,7 +6845,7 @@
         <v>430</v>
       </c>
       <c r="AQ10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AR10">
         <v>750</v>
@@ -6870,31 +6859,31 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H11">
         <v>20008</v>
       </c>
       <c r="I11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J11">
         <v>5000</v>
       </c>
       <c r="K11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="N11">
         <v>21008</v>
       </c>
       <c r="O11" t="s">
+        <v>713</v>
+      </c>
+      <c r="P11" t="s">
         <v>715</v>
-      </c>
-      <c r="P11" t="s">
-        <v>717</v>
       </c>
       <c r="Q11">
         <v>3000</v>
@@ -6942,7 +6931,7 @@
         <v>431</v>
       </c>
       <c r="AQ11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AR11">
         <v>800</v>
@@ -6962,25 +6951,25 @@
         <v>20009</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="J12">
         <v>6600</v>
       </c>
       <c r="K12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N12">
         <v>21009</v>
       </c>
       <c r="O12" t="s">
+        <v>714</v>
+      </c>
+      <c r="P12" t="s">
         <v>716</v>
-      </c>
-      <c r="P12" t="s">
-        <v>718</v>
       </c>
       <c r="Q12">
         <v>3000</v>
@@ -7012,31 +7001,31 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H13">
         <v>20010</v>
       </c>
       <c r="I13" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="J13">
         <v>6600</v>
       </c>
       <c r="K13" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N13">
         <v>21010</v>
       </c>
       <c r="O13" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="P13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="Q13">
         <v>3000</v>
@@ -7074,25 +7063,25 @@
         <v>20011</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J14">
         <v>7800</v>
       </c>
       <c r="K14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="N14">
         <v>21009</v>
       </c>
       <c r="O14" t="s">
+        <v>730</v>
+      </c>
+      <c r="P14" t="s">
         <v>732</v>
-      </c>
-      <c r="P14" t="s">
-        <v>734</v>
       </c>
       <c r="Q14">
         <v>3000</v>
@@ -7106,31 +7095,31 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H15">
         <v>20012</v>
       </c>
       <c r="I15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="J15">
         <v>7800</v>
       </c>
       <c r="K15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N15">
         <v>21010</v>
       </c>
       <c r="O15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P15" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="Q15">
         <v>3000</v>
@@ -7144,25 +7133,25 @@
         <v>20013</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J16">
         <v>8100</v>
       </c>
       <c r="K16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M16" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="N16">
         <v>21009</v>
       </c>
       <c r="O16" t="s">
+        <v>735</v>
+      </c>
+      <c r="P16" t="s">
         <v>737</v>
-      </c>
-      <c r="P16" t="s">
-        <v>739</v>
       </c>
       <c r="Q16">
         <v>3000</v>
@@ -7170,31 +7159,31 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H17">
         <v>20014</v>
       </c>
       <c r="I17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J17">
         <v>8100</v>
       </c>
       <c r="K17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M17" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N17">
         <v>21010</v>
       </c>
       <c r="O17" t="s">
+        <v>736</v>
+      </c>
+      <c r="P17" t="s">
         <v>738</v>
-      </c>
-      <c r="P17" t="s">
-        <v>740</v>
       </c>
       <c r="Q17">
         <v>3000</v>
@@ -7208,27 +7197,27 @@
         <v>20015</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J18">
         <v>8100</v>
       </c>
       <c r="K18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H19">
         <v>20016</v>
       </c>
       <c r="I19" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.15">
@@ -7239,24 +7228,24 @@
         <v>20017</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H21">
         <v>20018</v>
       </c>
       <c r="I21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.15">
@@ -7267,80 +7256,80 @@
         <v>20019</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K22" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H23">
         <v>20020</v>
       </c>
       <c r="I23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H24">
         <v>20021</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K24" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H25">
         <v>20022</v>
       </c>
       <c r="I25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H26">
         <v>20023</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K26" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H27">
         <v>20024</v>
       </c>
       <c r="I27" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K27" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -7464,7 +7453,7 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C13" s="8">
         <v>30</v>
@@ -7475,7 +7464,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C14" s="8">
         <v>30</v>
@@ -7577,13 +7566,13 @@
       <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
       <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
@@ -7646,31 +7635,31 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="126" t="s">
+      <c r="G2" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="129"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7693,17 +7682,17 @@
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="136"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="132"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7726,29 +7715,29 @@
       <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="122" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E4" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="122" t="s">
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="125" t="s">
+      <c r="M4" s="126" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="11"/>
@@ -7771,19 +7760,19 @@
       <c r="AE4" s="14"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="136"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="10"/>
@@ -7804,19 +7793,19 @@
       <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="136"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="11" t="s">
         <v>56</v>
       </c>
@@ -7839,30 +7828,30 @@
       <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="136"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="122" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G7" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -7880,22 +7869,22 @@
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="136"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -7913,29 +7902,29 @@
       <c r="AE8" s="14"/>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="135">
+      <c r="A9" s="136">
         <v>1</v>
       </c>
-      <c r="B9" s="138">
+      <c r="B9" s="139">
         <v>1</v>
       </c>
-      <c r="C9" s="139">
+      <c r="C9" s="140">
         <v>1</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="143" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="132" t="s">
+      <c r="G9" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="15" t="s">
@@ -7963,19 +7952,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="136"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="142"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="146"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
@@ -7983,7 +7972,7 @@
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="122">
+      <c r="Q10" s="123">
         <v>1</v>
       </c>
       <c r="R10" s="10">
@@ -8003,19 +7992,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="136"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="142"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="150" t="s">
+      <c r="G11" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
       <c r="L11" s="17" t="s">
         <v>68</v>
       </c>
@@ -8024,7 +8013,7 @@
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="124"/>
+      <c r="Q11" s="125"/>
       <c r="R11" s="10">
         <f>SUM($Q$9:Q11)</f>
         <v>3</v>
@@ -8044,19 +8033,19 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="136"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="142"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="143"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
       <c r="L12" s="16" t="s">
         <v>72</v>
       </c>
@@ -8088,9 +8077,9 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="136"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="140"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="19" t="s">
         <v>75</v>
       </c>
@@ -8100,13 +8089,13 @@
       <c r="F13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="11" t="s">
         <v>78</v>
       </c>
@@ -8140,10 +8129,10 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="153" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="154" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="10">
@@ -8152,13 +8141,13 @@
       <c r="F14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="150" t="s">
+      <c r="G14" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="146"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -8173,7 +8162,7 @@
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="155" t="s">
+      <c r="U14" s="156" t="s">
         <v>84</v>
       </c>
       <c r="V14" s="21"/>
@@ -8186,23 +8175,23 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="136"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="154"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="10">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="132" t="s">
+      <c r="G15" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="15" t="s">
         <v>87</v>
       </c>
@@ -8223,7 +8212,7 @@
       <c r="T15" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="155"/>
+      <c r="U15" s="156"/>
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
@@ -8254,21 +8243,21 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="136"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="140"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="141"/>
       <c r="D16" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
       <c r="L16" s="30" t="s">
         <v>92</v>
       </c>
@@ -8307,21 +8296,21 @@
       <c r="AE16" s="29"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="136"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="141"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="19" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="157" t="s">
+      <c r="G17" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="160"/>
       <c r="L17" s="35" t="s">
         <v>98</v>
       </c>
@@ -8346,9 +8335,9 @@
       <c r="AE17" s="29"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139">
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140">
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -8358,13 +8347,13 @@
       <c r="F18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="132" t="s">
+      <c r="G18" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="36" t="s">
@@ -8397,11 +8386,11 @@
       <c r="AE18" s="29"/>
     </row>
     <row r="19" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="138">
+      <c r="A19" s="139">
         <v>2</v>
       </c>
-      <c r="B19" s="138"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="19" t="s">
         <v>75</v>
       </c>
@@ -8409,13 +8398,13 @@
         <v>62</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="143" t="s">
+      <c r="G19" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="146"/>
       <c r="L19" s="10"/>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
@@ -8448,23 +8437,23 @@
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="153" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="154" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="150" t="s">
+      <c r="G20" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
       <c r="L20" s="10"/>
       <c r="M20" s="23" t="s">
         <v>105</v>
@@ -8484,7 +8473,7 @@
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="132"/>
+      <c r="U20" s="133"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -8500,21 +8489,21 @@
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="138"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="154"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="155"/>
       <c r="E21" s="10">
         <v>3</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="143" t="s">
+      <c r="G21" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="146"/>
       <c r="L21" s="35" t="s">
         <v>108</v>
       </c>
@@ -8533,7 +8522,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="132"/>
+      <c r="U21" s="133"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -8562,9 +8551,9 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="138"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="141"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="19" t="s">
         <v>57</v>
       </c>
@@ -8572,13 +8561,13 @@
         <v>62</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="132" t="s">
+      <c r="G22" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -8615,9 +8604,9 @@
       <c r="AE22" s="29"/>
     </row>
     <row r="23" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139">
+      <c r="A23" s="139"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="140">
         <v>3</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -8625,13 +8614,13 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="132" t="s">
+      <c r="G23" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -8662,9 +8651,9 @@
       <c r="AE23" s="29"/>
     </row>
     <row r="24" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="140"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="19" t="s">
         <v>50</v>
       </c>
@@ -8672,13 +8661,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="132" t="s">
+      <c r="G24" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
       <c r="L24" s="11"/>
       <c r="M24" s="15" t="s">
         <v>114</v>
@@ -8718,23 +8707,23 @@
       <c r="AE24" s="29"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="135">
+      <c r="A25" s="136">
         <v>3</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="141"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="142"/>
       <c r="D25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="143" t="s">
+      <c r="G25" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="146"/>
       <c r="L25" s="17" t="s">
         <v>119</v>
       </c>
@@ -8772,9 +8761,9 @@
       <c r="AE25" s="29"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="136"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139">
+      <c r="A26" s="137"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140">
         <v>4</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -8784,13 +8773,13 @@
       <c r="F26" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
       <c r="L26" s="16" t="s">
         <v>124</v>
       </c>
@@ -8838,21 +8827,21 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="136"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="140"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="141"/>
       <c r="D27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="132" t="s">
+      <c r="G27" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -8883,21 +8872,21 @@
       <c r="AE27" s="29"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="136"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="140"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="132" t="s">
+      <c r="G28" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
       <c r="L28" s="11" t="s">
         <v>129</v>
       </c>
@@ -8935,21 +8924,21 @@
       <c r="AE28" s="29"/>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="136"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="139" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="140" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="132" t="s">
+      <c r="G29" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -8979,19 +8968,19 @@
       <c r="AE29" s="29"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="136"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="143" t="s">
+      <c r="G30" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="146"/>
       <c r="L30" s="17" t="s">
         <v>136</v>
       </c>
@@ -9034,9 +9023,9 @@
       <c r="AE30" s="29"/>
     </row>
     <row r="31" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="136"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="139">
+      <c r="A31" s="137"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="140">
         <v>5</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -9046,13 +9035,13 @@
       <c r="F31" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="132" t="s">
+      <c r="G31" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
       <c r="L31" s="11" t="s">
         <v>143</v>
       </c>
@@ -9089,23 +9078,23 @@
       <c r="AE31" s="29"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="136"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="140"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="141"/>
       <c r="D32" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="161" t="s">
+      <c r="F32" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="132" t="s">
+      <c r="G32" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
       <c r="L32" s="17" t="s">
         <v>148</v>
       </c>
@@ -9143,21 +9132,21 @@
       <c r="AE32" s="29"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="136"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="139" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="140" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="132" t="s">
+      <c r="F33" s="163"/>
+      <c r="G33" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
       <c r="L33" s="11" t="s">
         <v>150</v>
       </c>
@@ -9190,19 +9179,19 @@
       <c r="AE33" s="29"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="137"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
+      <c r="A34" s="138"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="165" t="s">
+      <c r="F34" s="163"/>
+      <c r="G34" s="166" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="168"/>
       <c r="L34" s="11"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -9225,21 +9214,21 @@
       <c r="AE34" s="29"/>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="139">
+      <c r="A35" s="140">
         <v>4</v>
       </c>
-      <c r="B35" s="138"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="143" t="s">
+      <c r="F35" s="163"/>
+      <c r="G35" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="146"/>
       <c r="L35" s="17" t="s">
         <v>153</v>
       </c>
@@ -9269,23 +9258,23 @@
       <c r="AE35" s="29"/>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="141"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="160">
+      <c r="A36" s="142"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="161">
         <v>6</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="143" t="s">
+      <c r="F36" s="163"/>
+      <c r="G36" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="146"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -9327,23 +9316,23 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="135">
+      <c r="A37" s="136">
         <v>5</v>
       </c>
-      <c r="B37" s="138"/>
-      <c r="C37" s="160"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="162"/>
-      <c r="G37" s="132" t="s">
+      <c r="F37" s="163"/>
+      <c r="G37" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
       <c r="L37" s="11"/>
       <c r="M37" s="15" t="s">
         <v>144</v>
@@ -9376,21 +9365,21 @@
       <c r="AE37" s="29"/>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="136"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="160"/>
+      <c r="A38" s="137"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="132" t="s">
+      <c r="F38" s="163"/>
+      <c r="G38" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11" t="s">
         <v>156</v>
@@ -9425,23 +9414,23 @@
       <c r="AE38" s="29"/>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="136"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="160">
+      <c r="A39" s="137"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="161">
         <v>7</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="132" t="s">
+      <c r="F39" s="163"/>
+      <c r="G39" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="132"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -9478,21 +9467,21 @@
       <c r="AE39" s="29"/>
     </row>
     <row r="40" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="136"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="160"/>
+      <c r="A40" s="137"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="161"/>
       <c r="D40" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="143" t="s">
+      <c r="F40" s="163"/>
+      <c r="G40" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="146"/>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
         <v>159</v>
@@ -9522,21 +9511,21 @@
       <c r="AE40" s="29"/>
     </row>
     <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="136"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="160"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="143" t="s">
+      <c r="F41" s="163"/>
+      <c r="G41" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="146"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
@@ -9571,9 +9560,9 @@
       <c r="AE41" s="29"/>
     </row>
     <row r="42" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="136"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="160">
+      <c r="A42" s="137"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="161">
         <v>8</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -9581,13 +9570,13 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="132" t="s">
+      <c r="G42" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
       <c r="L42" s="11" t="s">
         <v>162</v>
       </c>
@@ -9623,21 +9612,21 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="137"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="163" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="164" t="s">
         <v>127</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="132" t="s">
+      <c r="G43" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
       <c r="L43" s="11" t="s">
         <v>164</v>
       </c>
@@ -9680,21 +9669,21 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="139">
+      <c r="A44" s="140">
         <v>6</v>
       </c>
-      <c r="B44" s="138"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="164"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="143" t="s">
+      <c r="G44" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="146"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -9716,21 +9705,21 @@
       <c r="AE44" s="29"/>
     </row>
     <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="141"/>
-      <c r="B45" s="138"/>
-      <c r="C45" s="160"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="161"/>
       <c r="D45" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="132" t="s">
+      <c r="G45" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="132"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -9778,13 +9767,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="138">
+      <c r="A46" s="139">
         <v>7</v>
       </c>
-      <c r="B46" s="138">
+      <c r="B46" s="139">
         <v>2</v>
       </c>
-      <c r="C46" s="168" t="s">
+      <c r="C46" s="169" t="s">
         <v>172</v>
       </c>
       <c r="D46" s="45" t="s">
@@ -9792,13 +9781,13 @@
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="132" t="s">
+      <c r="G46" s="133" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -9834,21 +9823,21 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="138"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="168"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="169"/>
       <c r="D47" s="45" t="s">
         <v>122</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="143" t="s">
+      <c r="G47" s="144" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="146"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -9882,21 +9871,21 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="138"/>
-      <c r="B48" s="138"/>
-      <c r="C48" s="168"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="169"/>
       <c r="D48" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="143" t="s">
+      <c r="G48" s="144" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="146"/>
       <c r="L48" s="16" t="s">
         <v>178</v>
       </c>
@@ -9936,21 +9925,21 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="138"/>
-      <c r="B49" s="138"/>
-      <c r="C49" s="168"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="169"/>
       <c r="D49" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="143" t="s">
+      <c r="G49" s="144" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="146"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
@@ -9994,21 +9983,21 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="138"/>
-      <c r="B50" s="138"/>
-      <c r="C50" s="168"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="169"/>
       <c r="D50" s="48" t="s">
         <v>122</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="150" t="s">
+      <c r="G50" s="151" t="s">
         <v>183</v>
       </c>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="146"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
@@ -10048,11 +10037,11 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="138">
+      <c r="A51" s="139">
         <v>8</v>
       </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="168" t="s">
+      <c r="B51" s="139"/>
+      <c r="C51" s="169" t="s">
         <v>184</v>
       </c>
       <c r="D51" s="19" t="s">
@@ -10060,13 +10049,13 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="143" t="s">
+      <c r="G51" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="146"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
@@ -10096,21 +10085,21 @@
       <c r="AD51" s="34"/>
     </row>
     <row r="52" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="138"/>
-      <c r="B52" s="138"/>
-      <c r="C52" s="168"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="132" t="s">
+      <c r="G52" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -10140,21 +10129,21 @@
       <c r="AD52" s="34"/>
     </row>
     <row r="53" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="138"/>
-      <c r="B53" s="138"/>
-      <c r="C53" s="168"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="169"/>
       <c r="D53" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="132" t="s">
+      <c r="G53" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="132"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
       <c r="L53" s="11"/>
       <c r="M53" s="17" t="s">
         <v>179</v>
@@ -10186,21 +10175,21 @@
       <c r="AD53" s="34"/>
     </row>
     <row r="54" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
-      <c r="C54" s="168"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="169"/>
       <c r="D54" s="19" t="s">
         <v>188</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="132" t="s">
+      <c r="G54" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -10232,21 +10221,21 @@
       <c r="AD54" s="34"/>
     </row>
     <row r="55" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="138"/>
-      <c r="B55" s="138"/>
-      <c r="C55" s="168"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="139"/>
+      <c r="C55" s="169"/>
       <c r="D55" s="19" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="132" t="s">
+      <c r="G55" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
@@ -10276,19 +10265,19 @@
       <c r="AD55" s="34"/>
     </row>
     <row r="56" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="138"/>
-      <c r="B56" s="138"/>
-      <c r="C56" s="168"/>
+      <c r="A56" s="139"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="169"/>
       <c r="D56" s="19"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="150" t="s">
+      <c r="G56" s="151" t="s">
         <v>193</v>
       </c>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="146"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
@@ -10320,25 +10309,25 @@
       <c r="AD56" s="39"/>
     </row>
     <row r="57" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="138">
+      <c r="A57" s="139">
         <v>9</v>
       </c>
-      <c r="B57" s="138"/>
-      <c r="C57" s="168" t="s">
+      <c r="B57" s="139"/>
+      <c r="C57" s="169" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="138" t="s">
+      <c r="D57" s="139" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="132" t="s">
+      <c r="G57" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -10368,19 +10357,19 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="138"/>
-      <c r="B58" s="138"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="138"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="169"/>
+      <c r="D58" s="139"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="132" t="s">
+      <c r="G58" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -10404,19 +10393,19 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="138"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="138"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="169"/>
+      <c r="D59" s="139"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="143" t="s">
+      <c r="G59" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="144"/>
-      <c r="K59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="146"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -10440,21 +10429,21 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="138"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="168"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="169"/>
       <c r="D60" s="49" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="143" t="s">
+      <c r="G60" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="146"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
@@ -10480,21 +10469,21 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="138"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="139" t="s">
+      <c r="A61" s="139"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="169"/>
+      <c r="D61" s="140" t="s">
         <v>188</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="132" t="s">
+      <c r="G61" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="133"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -10520,19 +10509,19 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="140"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="141"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="132" t="s">
+      <c r="G62" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
       <c r="L62" s="11"/>
       <c r="M62" s="17" t="s">
         <v>205</v>
@@ -10560,19 +10549,19 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="138"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="140"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="141"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="132" t="s">
+      <c r="G63" s="133" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -10601,19 +10590,19 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="138"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="140"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="139"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="141"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="165" t="s">
+      <c r="G64" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="H64" s="166"/>
-      <c r="I64" s="166"/>
-      <c r="J64" s="166"/>
-      <c r="K64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="168"/>
       <c r="L64" s="50"/>
       <c r="M64" s="50"/>
       <c r="N64" s="50"/>
@@ -10637,19 +10626,19 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="138"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="140"/>
+      <c r="A65" s="139"/>
+      <c r="B65" s="139"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="141"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="132" t="s">
+      <c r="G65" s="133" t="s">
         <v>208</v>
       </c>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="133"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -10677,19 +10666,19 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="138"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="141"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="139"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="142"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="132" t="s">
+      <c r="G66" s="133" t="s">
         <v>210</v>
       </c>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="133"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -10715,23 +10704,23 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="138"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="168" t="s">
+      <c r="A67" s="139"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="170" t="s">
+      <c r="D67" s="171" t="s">
         <v>212</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="132" t="s">
+      <c r="G67" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -10757,21 +10746,21 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="139">
+      <c r="A68" s="140">
         <v>10</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="171"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="172"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="132" t="s">
+      <c r="G68" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
@@ -10797,19 +10786,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="140"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="172"/>
+      <c r="A69" s="141"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="169"/>
+      <c r="D69" s="173"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="143" t="s">
+      <c r="G69" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="145"/>
+      <c r="H69" s="145"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="145"/>
+      <c r="K69" s="146"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
@@ -10835,21 +10824,21 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="140"/>
-      <c r="B70" s="138"/>
-      <c r="C70" s="168"/>
-      <c r="D70" s="169" t="s">
+      <c r="A70" s="141"/>
+      <c r="B70" s="139"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="170" t="s">
         <v>216</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="143" t="s">
+      <c r="G70" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="146"/>
       <c r="L70" s="16"/>
       <c r="M70" s="17" t="s">
         <v>218</v>
@@ -10877,19 +10866,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="140"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="168"/>
-      <c r="D71" s="169"/>
+      <c r="A71" s="141"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="170"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="143" t="s">
+      <c r="G71" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="145"/>
+      <c r="H71" s="145"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="145"/>
+      <c r="K71" s="146"/>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
@@ -10917,19 +10906,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="140"/>
-      <c r="B72" s="138"/>
-      <c r="C72" s="168"/>
-      <c r="D72" s="169"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="169"/>
+      <c r="D72" s="170"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="143" t="s">
+      <c r="G72" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="144"/>
-      <c r="I72" s="144"/>
-      <c r="J72" s="144"/>
-      <c r="K72" s="145"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="145"/>
+      <c r="J72" s="145"/>
+      <c r="K72" s="146"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -10957,27 +10946,27 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="140">
+      <c r="A73" s="141">
         <v>11</v>
       </c>
-      <c r="B73" s="138"/>
-      <c r="C73" s="175" t="s">
+      <c r="B73" s="139"/>
+      <c r="C73" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="173" t="s">
+      <c r="D73" s="174" t="s">
         <v>223</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="138" t="s">
+      <c r="F73" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="143" t="s">
+      <c r="G73" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="H73" s="144"/>
-      <c r="I73" s="144"/>
-      <c r="J73" s="144"/>
-      <c r="K73" s="145"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="145"/>
+      <c r="J73" s="145"/>
+      <c r="K73" s="146"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
@@ -11006,19 +10995,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="140"/>
-      <c r="B74" s="138"/>
-      <c r="C74" s="176"/>
-      <c r="D74" s="180"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="181"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="138"/>
-      <c r="G74" s="150" t="s">
+      <c r="F74" s="139"/>
+      <c r="G74" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="H74" s="151"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="151"/>
-      <c r="K74" s="152"/>
+      <c r="H74" s="152"/>
+      <c r="I74" s="152"/>
+      <c r="J74" s="152"/>
+      <c r="K74" s="153"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
@@ -11044,19 +11033,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="140"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="176"/>
-      <c r="D75" s="174"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="175"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="138"/>
-      <c r="G75" s="132" t="s">
+      <c r="F75" s="139"/>
+      <c r="G75" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="132"/>
-      <c r="I75" s="132"/>
-      <c r="J75" s="132"/>
-      <c r="K75" s="132"/>
+      <c r="H75" s="133"/>
+      <c r="I75" s="133"/>
+      <c r="J75" s="133"/>
+      <c r="K75" s="133"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -11082,23 +11071,23 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="140"/>
-      <c r="B76" s="138"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="173" t="s">
+      <c r="A76" s="141"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="177"/>
+      <c r="D76" s="174" t="s">
         <v>229</v>
       </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="161" t="s">
+      <c r="F76" s="162" t="s">
         <v>230</v>
       </c>
-      <c r="G76" s="132" t="s">
+      <c r="G76" s="133" t="s">
         <v>231</v>
       </c>
-      <c r="H76" s="132"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="132"/>
-      <c r="K76" s="132"/>
+      <c r="H76" s="133"/>
+      <c r="I76" s="133"/>
+      <c r="J76" s="133"/>
+      <c r="K76" s="133"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -11122,19 +11111,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="140"/>
-      <c r="B77" s="138"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="180"/>
+      <c r="A77" s="141"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="177"/>
+      <c r="D77" s="181"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="162"/>
-      <c r="G77" s="132" t="s">
+      <c r="F77" s="163"/>
+      <c r="G77" s="133" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="132"/>
-      <c r="I77" s="132"/>
-      <c r="J77" s="132"/>
-      <c r="K77" s="132"/>
+      <c r="H77" s="133"/>
+      <c r="I77" s="133"/>
+      <c r="J77" s="133"/>
+      <c r="K77" s="133"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -11162,19 +11151,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="140"/>
-      <c r="B78" s="138"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="174"/>
+      <c r="A78" s="141"/>
+      <c r="B78" s="139"/>
+      <c r="C78" s="177"/>
+      <c r="D78" s="175"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="181"/>
-      <c r="G78" s="132" t="s">
+      <c r="F78" s="182"/>
+      <c r="G78" s="133" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="132"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="132"/>
-      <c r="K78" s="132"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="133"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -11200,23 +11189,23 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="140">
+      <c r="A79" s="141">
         <v>12</v>
       </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="173" t="s">
+      <c r="B79" s="139"/>
+      <c r="C79" s="177"/>
+      <c r="D79" s="174" t="s">
         <v>235</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="51"/>
-      <c r="G79" s="143" t="s">
+      <c r="G79" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="144"/>
-      <c r="I79" s="144"/>
-      <c r="J79" s="144"/>
-      <c r="K79" s="145"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="146"/>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
@@ -11238,17 +11227,17 @@
       <c r="Y79" s="10"/>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="140"/>
-      <c r="B80" s="138"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="174"/>
+      <c r="A80" s="141"/>
+      <c r="B80" s="139"/>
+      <c r="C80" s="178"/>
+      <c r="D80" s="175"/>
       <c r="E80" s="10"/>
       <c r="F80" s="51"/>
-      <c r="G80" s="143"/>
-      <c r="H80" s="144"/>
-      <c r="I80" s="144"/>
-      <c r="J80" s="144"/>
-      <c r="K80" s="145"/>
+      <c r="G80" s="144"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="145"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="146"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
@@ -11270,23 +11259,23 @@
       <c r="Y80" s="10"/>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="140"/>
-      <c r="B81" s="138"/>
-      <c r="C81" s="175" t="s">
+      <c r="A81" s="141"/>
+      <c r="B81" s="139"/>
+      <c r="C81" s="176" t="s">
         <v>237</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="178" t="s">
+      <c r="F81" s="179" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="143" t="s">
+      <c r="G81" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="H81" s="144"/>
-      <c r="I81" s="144"/>
-      <c r="J81" s="144"/>
-      <c r="K81" s="145"/>
+      <c r="H81" s="145"/>
+      <c r="I81" s="145"/>
+      <c r="J81" s="145"/>
+      <c r="K81" s="146"/>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
@@ -11315,19 +11304,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="140"/>
-      <c r="B82" s="138"/>
-      <c r="C82" s="176"/>
+      <c r="A82" s="141"/>
+      <c r="B82" s="139"/>
+      <c r="C82" s="177"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="178"/>
-      <c r="G82" s="179" t="s">
+      <c r="F82" s="179"/>
+      <c r="G82" s="180" t="s">
         <v>242</v>
       </c>
-      <c r="H82" s="179"/>
-      <c r="I82" s="179"/>
-      <c r="J82" s="179"/>
-      <c r="K82" s="179"/>
+      <c r="H82" s="180"/>
+      <c r="I82" s="180"/>
+      <c r="J82" s="180"/>
+      <c r="K82" s="180"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -11351,23 +11340,23 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="140">
+      <c r="A83" s="141">
         <v>13</v>
       </c>
-      <c r="B83" s="138"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="173" t="s">
+      <c r="B83" s="139"/>
+      <c r="C83" s="177"/>
+      <c r="D83" s="174" t="s">
         <v>243</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="178"/>
-      <c r="G83" s="179" t="s">
+      <c r="F83" s="179"/>
+      <c r="G83" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="H83" s="179"/>
-      <c r="I83" s="179"/>
-      <c r="J83" s="179"/>
-      <c r="K83" s="179"/>
+      <c r="H83" s="180"/>
+      <c r="I83" s="180"/>
+      <c r="J83" s="180"/>
+      <c r="K83" s="180"/>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
@@ -11391,19 +11380,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="140"/>
-      <c r="B84" s="138"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="174"/>
+      <c r="A84" s="141"/>
+      <c r="B84" s="139"/>
+      <c r="C84" s="177"/>
+      <c r="D84" s="175"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="178"/>
-      <c r="G84" s="179" t="s">
+      <c r="F84" s="179"/>
+      <c r="G84" s="180" t="s">
         <v>245</v>
       </c>
-      <c r="H84" s="179"/>
-      <c r="I84" s="179"/>
-      <c r="J84" s="179"/>
-      <c r="K84" s="179"/>
+      <c r="H84" s="180"/>
+      <c r="I84" s="180"/>
+      <c r="J84" s="180"/>
+      <c r="K84" s="180"/>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
@@ -11427,19 +11416,19 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="140"/>
-      <c r="B85" s="138"/>
-      <c r="C85" s="177"/>
+      <c r="A85" s="141"/>
+      <c r="B85" s="139"/>
+      <c r="C85" s="178"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="178"/>
-      <c r="G85" s="132" t="s">
+      <c r="F85" s="179"/>
+      <c r="G85" s="133" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="132"/>
-      <c r="I85" s="132"/>
-      <c r="J85" s="132"/>
-      <c r="K85" s="132"/>
+      <c r="H85" s="133"/>
+      <c r="I85" s="133"/>
+      <c r="J85" s="133"/>
+      <c r="K85" s="133"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -11470,23 +11459,23 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="140"/>
+      <c r="A86" s="141"/>
       <c r="B86" s="10"/>
       <c r="C86" s="52" t="s">
         <v>250</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="125" t="s">
+      <c r="F86" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="G86" s="132" t="s">
+      <c r="G86" s="133" t="s">
         <v>252</v>
       </c>
-      <c r="H86" s="132"/>
-      <c r="I86" s="132"/>
-      <c r="J86" s="132"/>
-      <c r="K86" s="132"/>
+      <c r="H86" s="133"/>
+      <c r="I86" s="133"/>
+      <c r="J86" s="133"/>
+      <c r="K86" s="133"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -11512,21 +11501,21 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="140"/>
+      <c r="A87" s="141"/>
       <c r="B87" s="10"/>
       <c r="C87" s="52" t="s">
         <v>253</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="133"/>
-      <c r="G87" s="132" t="s">
+      <c r="F87" s="134"/>
+      <c r="G87" s="133" t="s">
         <v>254</v>
       </c>
-      <c r="H87" s="132"/>
-      <c r="I87" s="132"/>
-      <c r="J87" s="132"/>
-      <c r="K87" s="132"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="133"/>
+      <c r="K87" s="133"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -11552,7 +11541,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="140">
+      <c r="A88" s="141">
         <v>14</v>
       </c>
       <c r="B88" s="10"/>
@@ -11561,14 +11550,14 @@
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="133"/>
-      <c r="G88" s="132" t="s">
+      <c r="F88" s="134"/>
+      <c r="G88" s="133" t="s">
         <v>256</v>
       </c>
-      <c r="H88" s="132"/>
-      <c r="I88" s="132"/>
-      <c r="J88" s="132"/>
-      <c r="K88" s="132"/>
+      <c r="H88" s="133"/>
+      <c r="I88" s="133"/>
+      <c r="J88" s="133"/>
+      <c r="K88" s="133"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -11596,19 +11585,19 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="140"/>
+      <c r="A89" s="141"/>
       <c r="B89" s="10"/>
       <c r="C89" s="1"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="134"/>
-      <c r="G89" s="132" t="s">
+      <c r="F89" s="135"/>
+      <c r="G89" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="H89" s="132"/>
-      <c r="I89" s="132"/>
-      <c r="J89" s="132"/>
-      <c r="K89" s="132"/>
+      <c r="H89" s="133"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="133"/>
+      <c r="K89" s="133"/>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -11632,19 +11621,19 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="140"/>
+      <c r="A90" s="141"/>
       <c r="B90" s="10"/>
       <c r="C90" s="52"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="143" t="s">
+      <c r="G90" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="H90" s="144"/>
-      <c r="I90" s="144"/>
-      <c r="J90" s="144"/>
-      <c r="K90" s="145"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="145"/>
+      <c r="J90" s="145"/>
+      <c r="K90" s="146"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
@@ -11668,19 +11657,19 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="140"/>
+      <c r="A91" s="141"/>
       <c r="B91" s="10"/>
       <c r="C91" s="52"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="132" t="s">
+      <c r="G91" s="133" t="s">
         <v>260</v>
       </c>
-      <c r="H91" s="132"/>
-      <c r="I91" s="132"/>
-      <c r="J91" s="132"/>
-      <c r="K91" s="132"/>
+      <c r="H91" s="133"/>
+      <c r="I91" s="133"/>
+      <c r="J91" s="133"/>
+      <c r="K91" s="133"/>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -11704,19 +11693,19 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="141"/>
+      <c r="A92" s="142"/>
       <c r="B92" s="10"/>
       <c r="C92" s="53"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="132" t="s">
+      <c r="G92" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="H92" s="132"/>
-      <c r="I92" s="132"/>
-      <c r="J92" s="132"/>
-      <c r="K92" s="132"/>
+      <c r="H92" s="133"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="133"/>
+      <c r="K92" s="133"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -11742,23 +11731,23 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="139">
+      <c r="A93" s="140">
         <v>15</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="53"/>
-      <c r="D93" s="170" t="s">
+      <c r="D93" s="171" t="s">
         <v>262</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="132" t="s">
+      <c r="G93" s="133" t="s">
         <v>263</v>
       </c>
-      <c r="H93" s="132"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="132"/>
-      <c r="K93" s="132"/>
+      <c r="H93" s="133"/>
+      <c r="I93" s="133"/>
+      <c r="J93" s="133"/>
+      <c r="K93" s="133"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -11784,19 +11773,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="140"/>
+      <c r="A94" s="141"/>
       <c r="B94" s="10"/>
       <c r="C94" s="53"/>
-      <c r="D94" s="172"/>
+      <c r="D94" s="173"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="143" t="s">
+      <c r="G94" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="H94" s="144"/>
-      <c r="I94" s="144"/>
-      <c r="J94" s="144"/>
-      <c r="K94" s="145"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="145"/>
+      <c r="J94" s="145"/>
+      <c r="K94" s="146"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
@@ -11821,19 +11810,19 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="140"/>
+      <c r="A95" s="141"/>
       <c r="B95" s="10"/>
       <c r="C95" s="53"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="132" t="s">
+      <c r="G95" s="133" t="s">
         <v>266</v>
       </c>
-      <c r="H95" s="132"/>
-      <c r="I95" s="132"/>
-      <c r="J95" s="132"/>
-      <c r="K95" s="132"/>
+      <c r="H95" s="133"/>
+      <c r="I95" s="133"/>
+      <c r="J95" s="133"/>
+      <c r="K95" s="133"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -11857,18 +11846,18 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="140"/>
+      <c r="A96" s="141"/>
       <c r="B96" s="10"/>
       <c r="D96" s="54"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="132" t="s">
+      <c r="G96" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="132"/>
+      <c r="H96" s="133"/>
+      <c r="I96" s="133"/>
+      <c r="J96" s="133"/>
+      <c r="K96" s="133"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -11892,7 +11881,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="140"/>
+      <c r="A97" s="141"/>
       <c r="B97" s="10"/>
       <c r="C97" s="53" t="s">
         <v>268</v>
@@ -11900,13 +11889,13 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="132" t="s">
+      <c r="G97" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="H97" s="132"/>
-      <c r="I97" s="132"/>
-      <c r="J97" s="132"/>
-      <c r="K97" s="132"/>
+      <c r="H97" s="133"/>
+      <c r="I97" s="133"/>
+      <c r="J97" s="133"/>
+      <c r="K97" s="133"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -11932,20 +11921,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="140"/>
+      <c r="A98" s="141"/>
       <c r="B98" s="10"/>
       <c r="C98" s="55" t="s">
         <v>270</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="132" t="s">
+      <c r="G98" s="133" t="s">
         <v>271</v>
       </c>
-      <c r="H98" s="132"/>
-      <c r="I98" s="132"/>
-      <c r="J98" s="132"/>
-      <c r="K98" s="132"/>
+      <c r="H98" s="133"/>
+      <c r="I98" s="133"/>
+      <c r="J98" s="133"/>
+      <c r="K98" s="133"/>
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -11967,7 +11956,7 @@
       <c r="Y98" s="10"/>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="141"/>
+      <c r="A99" s="142"/>
       <c r="B99" s="10"/>
       <c r="C99" s="53" t="s">
         <v>2</v>
@@ -11975,13 +11964,13 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="132" t="s">
+      <c r="G99" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="H99" s="132"/>
-      <c r="I99" s="132"/>
-      <c r="J99" s="132"/>
-      <c r="K99" s="132"/>
+      <c r="H99" s="133"/>
+      <c r="I99" s="133"/>
+      <c r="J99" s="133"/>
+      <c r="K99" s="133"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -12011,25 +12000,25 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="138">
+      <c r="A100" s="139">
         <v>16</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D100" s="173" t="s">
+      <c r="D100" s="174" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="182" t="s">
+      <c r="G100" s="183" t="s">
         <v>276</v>
       </c>
-      <c r="H100" s="132"/>
-      <c r="I100" s="132"/>
-      <c r="J100" s="132"/>
-      <c r="K100" s="132"/>
+      <c r="H100" s="133"/>
+      <c r="I100" s="133"/>
+      <c r="J100" s="133"/>
+      <c r="K100" s="133"/>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -12055,19 +12044,19 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="138"/>
+      <c r="A101" s="139"/>
       <c r="B101" s="10"/>
       <c r="C101" s="53"/>
-      <c r="D101" s="180"/>
+      <c r="D101" s="181"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="132" t="s">
+      <c r="G101" s="133" t="s">
         <v>277</v>
       </c>
-      <c r="H101" s="132"/>
-      <c r="I101" s="132"/>
-      <c r="J101" s="132"/>
-      <c r="K101" s="132"/>
+      <c r="H101" s="133"/>
+      <c r="I101" s="133"/>
+      <c r="J101" s="133"/>
+      <c r="K101" s="133"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -12091,19 +12080,19 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="138"/>
+      <c r="A102" s="139"/>
       <c r="B102" s="10"/>
       <c r="C102" s="53"/>
-      <c r="D102" s="174"/>
+      <c r="D102" s="175"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="132" t="s">
+      <c r="G102" s="133" t="s">
         <v>278</v>
       </c>
-      <c r="H102" s="132"/>
-      <c r="I102" s="132"/>
-      <c r="J102" s="132"/>
-      <c r="K102" s="132"/>
+      <c r="H102" s="133"/>
+      <c r="I102" s="133"/>
+      <c r="J102" s="133"/>
+      <c r="K102" s="133"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -12127,7 +12116,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="138"/>
+      <c r="A103" s="139"/>
       <c r="B103" s="10"/>
       <c r="C103" s="53"/>
       <c r="D103" s="56" t="s">
@@ -12135,13 +12124,13 @@
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="132" t="s">
+      <c r="G103" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="H103" s="132"/>
-      <c r="I103" s="132"/>
-      <c r="J103" s="132"/>
-      <c r="K103" s="132"/>
+      <c r="H103" s="133"/>
+      <c r="I103" s="133"/>
+      <c r="J103" s="133"/>
+      <c r="K103" s="133"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -12165,7 +12154,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="138"/>
+      <c r="A104" s="139"/>
       <c r="B104" s="10"/>
       <c r="C104" s="53"/>
       <c r="D104" s="57" t="s">
@@ -12173,13 +12162,13 @@
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="132" t="s">
+      <c r="G104" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="H104" s="132"/>
-      <c r="I104" s="132"/>
-      <c r="J104" s="132"/>
-      <c r="K104" s="132"/>
+      <c r="H104" s="133"/>
+      <c r="I104" s="133"/>
+      <c r="J104" s="133"/>
+      <c r="K104" s="133"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -12203,17 +12192,17 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="138"/>
+      <c r="A105" s="139"/>
       <c r="B105" s="58"/>
       <c r="C105" s="59"/>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
       <c r="F105" s="58"/>
-      <c r="G105" s="132"/>
-      <c r="H105" s="132"/>
-      <c r="I105" s="132"/>
-      <c r="J105" s="132"/>
-      <c r="K105" s="132"/>
+      <c r="G105" s="133"/>
+      <c r="H105" s="133"/>
+      <c r="I105" s="133"/>
+      <c r="J105" s="133"/>
+      <c r="K105" s="133"/>
       <c r="L105" s="60"/>
       <c r="M105" s="60"/>
       <c r="N105" s="60"/>
@@ -12237,7 +12226,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="139">
+      <c r="A106" s="140">
         <v>17</v>
       </c>
       <c r="B106" s="10"/>
@@ -12247,13 +12236,13 @@
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="183" t="s">
+      <c r="G106" s="184" t="s">
         <v>284</v>
       </c>
-      <c r="H106" s="184"/>
-      <c r="I106" s="184"/>
-      <c r="J106" s="184"/>
-      <c r="K106" s="184"/>
+      <c r="H106" s="185"/>
+      <c r="I106" s="185"/>
+      <c r="J106" s="185"/>
+      <c r="K106" s="185"/>
       <c r="L106" s="61"/>
       <c r="M106" s="61"/>
       <c r="N106" s="61"/>
@@ -12279,19 +12268,19 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="140"/>
+      <c r="A107" s="141"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="132" t="s">
+      <c r="G107" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="H107" s="132"/>
-      <c r="I107" s="132"/>
-      <c r="J107" s="132"/>
-      <c r="K107" s="132"/>
+      <c r="H107" s="133"/>
+      <c r="I107" s="133"/>
+      <c r="J107" s="133"/>
+      <c r="K107" s="133"/>
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
@@ -12315,19 +12304,19 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="141"/>
+      <c r="A108" s="142"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="132" t="s">
+      <c r="G108" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="H108" s="132"/>
-      <c r="I108" s="132"/>
-      <c r="J108" s="132"/>
-      <c r="K108" s="132"/>
+      <c r="H108" s="133"/>
+      <c r="I108" s="133"/>
+      <c r="J108" s="133"/>
+      <c r="K108" s="133"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
@@ -12353,7 +12342,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="138">
+      <c r="A109" s="139">
         <v>18</v>
       </c>
       <c r="B109" s="10"/>
@@ -12361,13 +12350,13 @@
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="132" t="s">
+      <c r="G109" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="H109" s="132"/>
-      <c r="I109" s="132"/>
-      <c r="J109" s="132"/>
-      <c r="K109" s="132"/>
+      <c r="H109" s="133"/>
+      <c r="I109" s="133"/>
+      <c r="J109" s="133"/>
+      <c r="K109" s="133"/>
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
@@ -12390,19 +12379,19 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="138"/>
+      <c r="A110" s="139"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="62"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="132" t="s">
+      <c r="G110" s="133" t="s">
         <v>289</v>
       </c>
-      <c r="H110" s="132"/>
-      <c r="I110" s="132"/>
-      <c r="J110" s="132"/>
-      <c r="K110" s="132"/>
+      <c r="H110" s="133"/>
+      <c r="I110" s="133"/>
+      <c r="J110" s="133"/>
+      <c r="K110" s="133"/>
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
@@ -12428,7 +12417,7 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="138"/>
+      <c r="A111" s="139"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10" t="s">
         <v>290</v>
@@ -12436,13 +12425,13 @@
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="132" t="s">
+      <c r="G111" s="133" t="s">
         <v>291</v>
       </c>
-      <c r="H111" s="132"/>
-      <c r="I111" s="132"/>
-      <c r="J111" s="132"/>
-      <c r="K111" s="132"/>
+      <c r="H111" s="133"/>
+      <c r="I111" s="133"/>
+      <c r="J111" s="133"/>
+      <c r="K111" s="133"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
@@ -12466,19 +12455,19 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="138"/>
+      <c r="A112" s="139"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="143" t="s">
+      <c r="G112" s="144" t="s">
         <v>292</v>
       </c>
-      <c r="H112" s="144"/>
-      <c r="I112" s="144"/>
-      <c r="J112" s="144"/>
-      <c r="K112" s="145"/>
+      <c r="H112" s="145"/>
+      <c r="I112" s="145"/>
+      <c r="J112" s="145"/>
+      <c r="K112" s="146"/>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
@@ -12502,18 +12491,18 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="138"/>
+      <c r="A113" s="139"/>
       <c r="B113" s="10"/>
       <c r="D113" s="63" t="s">
         <v>293</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="143"/>
-      <c r="H113" s="144"/>
-      <c r="I113" s="144"/>
-      <c r="J113" s="144"/>
-      <c r="K113" s="145"/>
+      <c r="G113" s="144"/>
+      <c r="H113" s="145"/>
+      <c r="I113" s="145"/>
+      <c r="J113" s="145"/>
+      <c r="K113" s="146"/>
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
@@ -12545,23 +12534,23 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="139">
+      <c r="A114" s="140">
         <v>19</v>
       </c>
-      <c r="B114" s="122"/>
-      <c r="C114" s="185" t="s">
+      <c r="B114" s="123"/>
+      <c r="C114" s="186" t="s">
         <v>296</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="132" t="s">
+      <c r="G114" s="133" t="s">
         <v>297</v>
       </c>
-      <c r="H114" s="132"/>
-      <c r="I114" s="132"/>
-      <c r="J114" s="132"/>
-      <c r="K114" s="132"/>
+      <c r="H114" s="133"/>
+      <c r="I114" s="133"/>
+      <c r="J114" s="133"/>
+      <c r="K114" s="133"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
@@ -12584,19 +12573,19 @@
       <c r="Y114" s="10"/>
     </row>
     <row r="115" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="140"/>
-      <c r="B115" s="124"/>
-      <c r="C115" s="186"/>
+      <c r="A115" s="141"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="187"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="182" t="s">
+      <c r="G115" s="183" t="s">
         <v>298</v>
       </c>
-      <c r="H115" s="132"/>
-      <c r="I115" s="132"/>
-      <c r="J115" s="132"/>
-      <c r="K115" s="132"/>
+      <c r="H115" s="133"/>
+      <c r="I115" s="133"/>
+      <c r="J115" s="133"/>
+      <c r="K115" s="133"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
@@ -12618,19 +12607,19 @@
       <c r="Y115" s="10"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="140"/>
-      <c r="B116" s="178" t="s">
+      <c r="A116" s="141"/>
+      <c r="B116" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="186"/>
+      <c r="C116" s="187"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="132"/>
-      <c r="H116" s="132"/>
-      <c r="I116" s="132"/>
-      <c r="J116" s="132"/>
-      <c r="K116" s="132"/>
+      <c r="G116" s="133"/>
+      <c r="H116" s="133"/>
+      <c r="I116" s="133"/>
+      <c r="J116" s="133"/>
+      <c r="K116" s="133"/>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
@@ -12654,21 +12643,21 @@
       </c>
     </row>
     <row r="117" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="140"/>
-      <c r="B117" s="178"/>
-      <c r="C117" s="186"/>
+      <c r="A117" s="141"/>
+      <c r="B117" s="179"/>
+      <c r="C117" s="187"/>
       <c r="D117" s="65" t="s">
         <v>300</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="187" t="s">
+      <c r="G117" s="188" t="s">
         <v>301</v>
       </c>
-      <c r="H117" s="188"/>
-      <c r="I117" s="188"/>
-      <c r="J117" s="188"/>
-      <c r="K117" s="189"/>
+      <c r="H117" s="189"/>
+      <c r="I117" s="189"/>
+      <c r="J117" s="189"/>
+      <c r="K117" s="190"/>
       <c r="L117" s="66"/>
       <c r="M117" s="66"/>
       <c r="N117" s="66"/>
@@ -12694,19 +12683,19 @@
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="140"/>
-      <c r="B118" s="178"/>
-      <c r="C118" s="186"/>
+      <c r="A118" s="141"/>
+      <c r="B118" s="179"/>
+      <c r="C118" s="187"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="190" t="s">
+      <c r="G118" s="191" t="s">
         <v>302</v>
       </c>
-      <c r="H118" s="132"/>
-      <c r="I118" s="132"/>
-      <c r="J118" s="132"/>
-      <c r="K118" s="132"/>
+      <c r="H118" s="133"/>
+      <c r="I118" s="133"/>
+      <c r="J118" s="133"/>
+      <c r="K118" s="133"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
@@ -12736,21 +12725,21 @@
       </c>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="140"/>
-      <c r="B119" s="178"/>
-      <c r="C119" s="186"/>
+      <c r="A119" s="141"/>
+      <c r="B119" s="179"/>
+      <c r="C119" s="187"/>
       <c r="D119" s="65" t="s">
         <v>305</v>
       </c>
       <c r="E119" s="58"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="143" t="s">
+      <c r="G119" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="H119" s="144"/>
-      <c r="I119" s="144"/>
-      <c r="J119" s="144"/>
-      <c r="K119" s="145"/>
+      <c r="H119" s="145"/>
+      <c r="I119" s="145"/>
+      <c r="J119" s="145"/>
+      <c r="K119" s="146"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
@@ -12774,17 +12763,17 @@
       </c>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="141"/>
-      <c r="B120" s="161"/>
-      <c r="C120" s="186"/>
+      <c r="A120" s="142"/>
+      <c r="B120" s="162"/>
+      <c r="C120" s="187"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="58"/>
-      <c r="G120" s="143"/>
-      <c r="H120" s="144"/>
-      <c r="I120" s="144"/>
-      <c r="J120" s="144"/>
-      <c r="K120" s="145"/>
+      <c r="G120" s="144"/>
+      <c r="H120" s="145"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
       <c r="L120" s="67"/>
       <c r="M120" s="67"/>
       <c r="N120" s="67"/>
@@ -12810,24 +12799,24 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="138">
+      <c r="A121" s="139">
         <v>20</v>
       </c>
-      <c r="B121" s="161" t="s">
+      <c r="B121" s="162" t="s">
         <v>307</v>
       </c>
-      <c r="C121" s="162" t="s">
+      <c r="C121" s="163" t="s">
         <v>308</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="132" t="s">
+      <c r="G121" s="133" t="s">
         <v>309</v>
       </c>
-      <c r="H121" s="132"/>
-      <c r="I121" s="132"/>
-      <c r="J121" s="132"/>
-      <c r="K121" s="132"/>
+      <c r="H121" s="133"/>
+      <c r="I121" s="133"/>
+      <c r="J121" s="133"/>
+      <c r="K121" s="133"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
@@ -12850,21 +12839,21 @@
       <c r="Z121" s="10"/>
     </row>
     <row r="122" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="138"/>
-      <c r="B122" s="162"/>
-      <c r="C122" s="162"/>
+      <c r="A122" s="139"/>
+      <c r="B122" s="163"/>
+      <c r="C122" s="163"/>
       <c r="D122" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="143" t="s">
+      <c r="G122" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="H122" s="144"/>
-      <c r="I122" s="144"/>
-      <c r="J122" s="144"/>
-      <c r="K122" s="145"/>
+      <c r="H122" s="145"/>
+      <c r="I122" s="145"/>
+      <c r="J122" s="145"/>
+      <c r="K122" s="146"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
@@ -12888,19 +12877,19 @@
       <c r="Z122" s="10"/>
     </row>
     <row r="123" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="138"/>
-      <c r="B123" s="181"/>
-      <c r="C123" s="162"/>
+      <c r="A123" s="139"/>
+      <c r="B123" s="182"/>
+      <c r="C123" s="163"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="191" t="s">
+      <c r="G123" s="192" t="s">
         <v>312</v>
       </c>
-      <c r="H123" s="192"/>
-      <c r="I123" s="192"/>
-      <c r="J123" s="192"/>
-      <c r="K123" s="193"/>
+      <c r="H123" s="193"/>
+      <c r="I123" s="193"/>
+      <c r="J123" s="193"/>
+      <c r="K123" s="194"/>
       <c r="L123" s="69"/>
       <c r="M123" s="69"/>
       <c r="N123" s="69"/>
@@ -12924,22 +12913,22 @@
       <c r="Z123" s="10"/>
     </row>
     <row r="124" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="139">
+      <c r="A124" s="140">
         <v>21</v>
       </c>
-      <c r="B124" s="182" t="s">
+      <c r="B124" s="183" t="s">
         <v>313</v>
       </c>
-      <c r="C124" s="162"/>
+      <c r="C124" s="163"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="132" t="s">
+      <c r="G124" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="H124" s="132"/>
-      <c r="I124" s="132"/>
-      <c r="J124" s="132"/>
-      <c r="K124" s="132"/>
+      <c r="H124" s="133"/>
+      <c r="I124" s="133"/>
+      <c r="J124" s="133"/>
+      <c r="K124" s="133"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
@@ -12960,21 +12949,21 @@
       <c r="Z124" s="10"/>
     </row>
     <row r="125" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="140"/>
-      <c r="B125" s="182"/>
-      <c r="C125" s="162"/>
+      <c r="A125" s="141"/>
+      <c r="B125" s="183"/>
+      <c r="C125" s="163"/>
       <c r="D125" s="63" t="s">
         <v>315</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="143" t="s">
+      <c r="G125" s="144" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="144"/>
-      <c r="I125" s="144"/>
-      <c r="J125" s="144"/>
-      <c r="K125" s="145"/>
+      <c r="H125" s="145"/>
+      <c r="I125" s="145"/>
+      <c r="J125" s="145"/>
+      <c r="K125" s="146"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
@@ -12997,19 +12986,19 @@
       <c r="Z125" s="10"/>
     </row>
     <row r="126" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="140"/>
-      <c r="B126" s="182"/>
-      <c r="C126" s="181"/>
+      <c r="A126" s="141"/>
+      <c r="B126" s="183"/>
+      <c r="C126" s="182"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="132" t="s">
+      <c r="G126" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="H126" s="132"/>
-      <c r="I126" s="132"/>
-      <c r="J126" s="132"/>
-      <c r="K126" s="132"/>
+      <c r="H126" s="133"/>
+      <c r="I126" s="133"/>
+      <c r="J126" s="133"/>
+      <c r="K126" s="133"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
@@ -13030,13 +13019,13 @@
       <c r="Z126" s="10"/>
     </row>
     <row r="127" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="138">
+      <c r="A127" s="139">
         <v>22</v>
       </c>
-      <c r="B127" s="192" t="s">
+      <c r="B127" s="193" t="s">
         <v>318</v>
       </c>
-      <c r="C127" s="178" t="s">
+      <c r="C127" s="179" t="s">
         <v>319</v>
       </c>
       <c r="D127" s="70" t="s">
@@ -13044,13 +13033,13 @@
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="132" t="s">
+      <c r="G127" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="H127" s="132"/>
-      <c r="I127" s="132"/>
-      <c r="J127" s="132"/>
-      <c r="K127" s="132"/>
+      <c r="H127" s="133"/>
+      <c r="I127" s="133"/>
+      <c r="J127" s="133"/>
+      <c r="K127" s="133"/>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
@@ -13073,19 +13062,19 @@
       <c r="Z127" s="10"/>
     </row>
     <row r="128" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="138"/>
-      <c r="B128" s="192"/>
-      <c r="C128" s="178"/>
+      <c r="A128" s="139"/>
+      <c r="B128" s="193"/>
+      <c r="C128" s="179"/>
       <c r="D128" s="70"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="182" t="s">
+      <c r="G128" s="183" t="s">
         <v>322</v>
       </c>
-      <c r="H128" s="132"/>
-      <c r="I128" s="132"/>
-      <c r="J128" s="132"/>
-      <c r="K128" s="132"/>
+      <c r="H128" s="133"/>
+      <c r="I128" s="133"/>
+      <c r="J128" s="133"/>
+      <c r="K128" s="133"/>
       <c r="L128" s="11"/>
       <c r="M128" s="11"/>
       <c r="N128" s="11"/>
@@ -13106,18 +13095,18 @@
       <c r="Z128" s="10"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129" s="138"/>
-      <c r="B129" s="161" t="s">
+      <c r="A129" s="139"/>
+      <c r="B129" s="162" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="178"/>
-      <c r="G129" s="132" t="s">
+      <c r="C129" s="179"/>
+      <c r="G129" s="133" t="s">
         <v>324</v>
       </c>
-      <c r="H129" s="132"/>
-      <c r="I129" s="132"/>
-      <c r="J129" s="132"/>
-      <c r="K129" s="132"/>
+      <c r="H129" s="133"/>
+      <c r="I129" s="133"/>
+      <c r="J129" s="133"/>
+      <c r="K129" s="133"/>
       <c r="L129" s="71"/>
       <c r="M129" s="71"/>
       <c r="N129" s="71"/>
@@ -13127,110 +13116,110 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130" s="138"/>
-      <c r="B130" s="162"/>
-      <c r="C130" s="178"/>
+      <c r="A130" s="139"/>
+      <c r="B130" s="163"/>
+      <c r="C130" s="179"/>
       <c r="R130" s="10">
         <f>SUM($Q$9:Q130)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131" s="138"/>
-      <c r="B131" s="162"/>
-      <c r="C131" s="178"/>
+      <c r="A131" s="139"/>
+      <c r="B131" s="163"/>
+      <c r="C131" s="179"/>
       <c r="R131" s="10">
         <f>SUM($Q$9:Q131)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A132" s="138"/>
-      <c r="B132" s="162"/>
-      <c r="C132" s="178"/>
+      <c r="A132" s="139"/>
+      <c r="B132" s="163"/>
+      <c r="C132" s="179"/>
       <c r="R132" s="10">
         <f>SUM($Q$9:Q132)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A133" s="138"/>
-      <c r="B133" s="162"/>
-      <c r="C133" s="178"/>
+      <c r="A133" s="139"/>
+      <c r="B133" s="163"/>
+      <c r="C133" s="179"/>
       <c r="R133" s="10">
         <f>SUM($Q$9:Q133)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A134" s="138"/>
-      <c r="B134" s="162"/>
-      <c r="C134" s="178"/>
+      <c r="A134" s="139"/>
+      <c r="B134" s="163"/>
+      <c r="C134" s="179"/>
       <c r="R134" s="10">
         <f>SUM($Q$9:Q134)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A135" s="138">
+      <c r="A135" s="139">
         <v>23</v>
       </c>
-      <c r="B135" s="162"/>
-      <c r="C135" s="178"/>
+      <c r="B135" s="163"/>
+      <c r="C135" s="179"/>
       <c r="R135" s="10">
         <f>SUM($Q$9:Q135)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A136" s="138"/>
-      <c r="B136" s="162"/>
-      <c r="C136" s="178"/>
+      <c r="A136" s="139"/>
+      <c r="B136" s="163"/>
+      <c r="C136" s="179"/>
       <c r="R136" s="10">
         <f>SUM($Q$9:Q136)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A137" s="138"/>
-      <c r="B137" s="162"/>
-      <c r="C137" s="178"/>
+      <c r="A137" s="139"/>
+      <c r="B137" s="163"/>
+      <c r="C137" s="179"/>
       <c r="R137" s="10">
         <f>SUM($Q$9:Q137)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A138" s="138"/>
-      <c r="B138" s="162"/>
-      <c r="C138" s="178"/>
+      <c r="A138" s="139"/>
+      <c r="B138" s="163"/>
+      <c r="C138" s="179"/>
       <c r="R138" s="10">
         <f>SUM($Q$9:Q138)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A139" s="138"/>
-      <c r="B139" s="162"/>
-      <c r="C139" s="178"/>
+      <c r="A139" s="139"/>
+      <c r="B139" s="163"/>
+      <c r="C139" s="179"/>
       <c r="R139" s="10">
         <f>SUM($Q$9:Q139)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A140" s="138"/>
-      <c r="B140" s="162"/>
-      <c r="C140" s="178"/>
+      <c r="A140" s="139"/>
+      <c r="B140" s="163"/>
+      <c r="C140" s="179"/>
       <c r="R140" s="10">
         <f>SUM($Q$9:Q140)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A141" s="138"/>
-      <c r="B141" s="181"/>
-      <c r="C141" s="178"/>
+      <c r="A141" s="139"/>
+      <c r="B141" s="182"/>
+      <c r="C141" s="179"/>
       <c r="R141" s="24">
         <f>SUM($Q$9:Q141)</f>
         <v>271.65092362949309</v>
@@ -13770,11 +13759,11 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13799,10 +13788,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D1" t="s">
         <v>615</v>
@@ -13827,7 +13816,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="114"/>
@@ -13856,18 +13845,18 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="120"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="114">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F3" s="84" t="s">
         <v>559</v>
@@ -13885,7 +13874,7 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="O3">
         <v>30</v>
@@ -13901,18 +13890,18 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="120"/>
+      <c r="A4" s="121"/>
       <c r="B4" s="114">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>536</v>
@@ -13940,7 +13929,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="120">
+      <c r="A5" s="121">
         <v>1</v>
       </c>
       <c r="B5" s="114">
@@ -13982,7 +13971,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="120"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="114">
         <v>1</v>
       </c>
@@ -13996,7 +13985,7 @@
         <v>580</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I6" s="6"/>
       <c r="P6">
@@ -14007,12 +13996,12 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="120"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="114">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -14047,7 +14036,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="120"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="114">
         <v>1</v>
       </c>
@@ -14061,12 +14050,12 @@
         <v>578</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G8" s="84"/>
       <c r="I8" s="6"/>
       <c r="N8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="P8">
         <v>5000</v>
@@ -14076,18 +14065,18 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="120"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="114">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>525</v>
+        <v>824</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>539</v>
@@ -14115,7 +14104,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="120"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="114">
         <v>1</v>
       </c>
@@ -14144,7 +14133,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P10">
         <v>2800</v>
@@ -14157,7 +14146,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="120"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="114">
         <v>1</v>
       </c>
@@ -14195,7 +14184,7 @@
         <v>3600</v>
       </c>
       <c r="R11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="S11">
         <v>70013</v>
@@ -14208,7 +14197,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="120"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="114">
         <v>1</v>
       </c>
@@ -14247,7 +14236,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="120"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="114">
         <v>1</v>
       </c>
@@ -14261,10 +14250,10 @@
         <v>608</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N13" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="P13">
         <v>4000</v>
@@ -14286,12 +14275,12 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="120"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="114">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -14300,7 +14289,7 @@
         <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N14">
         <v>50002</v>
@@ -14312,28 +14301,28 @@
         <v>300</v>
       </c>
       <c r="U14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="120"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="114">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="N15" t="s">
         <v>766</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="N15" t="s">
-        <v>768</v>
       </c>
       <c r="O15">
         <v>8</v>
@@ -14342,25 +14331,25 @@
         <v>300</v>
       </c>
       <c r="U15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="120"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="118">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="N16">
         <v>50002</v>
@@ -14372,11 +14361,11 @@
         <v>300</v>
       </c>
       <c r="U16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="120"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="114">
         <v>1</v>
       </c>
@@ -14405,7 +14394,7 @@
         <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="S17">
         <v>70003</v>
@@ -14418,7 +14407,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="120"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="114">
         <v>1</v>
       </c>
@@ -14451,7 +14440,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="120"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="114">
         <v>1</v>
       </c>
@@ -14462,7 +14451,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>545</v>
@@ -14490,7 +14479,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="120"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="114">
         <v>1</v>
       </c>
@@ -14523,7 +14512,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="120">
+      <c r="A21" s="121">
         <v>2</v>
       </c>
       <c r="B21" s="114">
@@ -14564,7 +14553,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="120"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="114">
         <v>2</v>
       </c>
@@ -14597,7 +14586,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="120"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="114">
         <v>2</v>
       </c>
@@ -14634,7 +14623,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="120"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="114">
         <v>2</v>
       </c>
@@ -14642,7 +14631,7 @@
         <v>594</v>
       </c>
       <c r="D24" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" s="78" t="s">
         <v>560</v>
@@ -14673,7 +14662,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="120"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="114">
         <v>1</v>
       </c>
@@ -14681,7 +14670,7 @@
         <v>588</v>
       </c>
       <c r="D25" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>561</v>
@@ -14706,7 +14695,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="120"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="114">
         <v>1</v>
       </c>
@@ -14714,7 +14703,7 @@
         <v>595</v>
       </c>
       <c r="D26" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="78" t="s">
         <v>562</v>
@@ -14736,7 +14725,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="120"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="114">
         <v>1</v>
       </c>
@@ -14744,7 +14733,7 @@
         <v>596</v>
       </c>
       <c r="D27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="78" t="s">
         <v>563</v>
@@ -14769,18 +14758,18 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="120"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D28" s="2">
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>571</v>
@@ -14792,7 +14781,7 @@
         <v>331</v>
       </c>
       <c r="N28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O28">
         <v>15</v>
@@ -14808,21 +14797,21 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="120"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D29" s="2">
         <v>11</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H29" s="86"/>
       <c r="P29">
@@ -14836,9 +14825,9 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="120"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>599</v>
@@ -14869,7 +14858,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="120"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="114">
         <v>1</v>
       </c>
@@ -14877,13 +14866,13 @@
         <v>597</v>
       </c>
       <c r="D31" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H31" s="86" t="s">
         <v>575</v>
@@ -14899,7 +14888,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="120"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="114">
         <v>1</v>
       </c>
@@ -14907,7 +14896,7 @@
         <v>598</v>
       </c>
       <c r="D32" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="78" t="s">
         <v>565</v>
@@ -14932,7 +14921,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="120"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="114">
         <v>1</v>
       </c>
@@ -14940,7 +14929,7 @@
         <v>600</v>
       </c>
       <c r="D33" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" s="92" t="s">
         <v>567</v>
@@ -14976,7 +14965,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="120">
+      <c r="A34" s="121">
         <v>3</v>
       </c>
       <c r="B34" s="114">
@@ -14986,7 +14975,7 @@
         <v>601</v>
       </c>
       <c r="D34" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E34" s="92" t="s">
         <v>568</v>
@@ -15020,7 +15009,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="120"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="114">
         <v>1</v>
       </c>
@@ -15028,7 +15017,7 @@
         <v>602</v>
       </c>
       <c r="D35" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E35" s="92" t="s">
         <v>569</v>
@@ -15058,21 +15047,21 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="89" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="120"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="110">
         <v>3</v>
       </c>
-      <c r="C36" s="194" t="s">
-        <v>791</v>
-      </c>
-      <c r="D36" s="195">
-        <v>20</v>
+      <c r="C36" s="120" t="s">
+        <v>788</v>
+      </c>
+      <c r="D36" s="2">
+        <v>22</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G36" s="87"/>
       <c r="H36" s="113"/>
@@ -15084,21 +15073,21 @@
       </c>
     </row>
     <row r="37" spans="1:21" s="89" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="120"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="110">
         <v>3</v>
       </c>
-      <c r="C37" s="194" t="s">
-        <v>792</v>
-      </c>
-      <c r="D37" s="195">
-        <v>20</v>
+      <c r="C37" s="120" t="s">
+        <v>789</v>
+      </c>
+      <c r="D37" s="2">
+        <v>22</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H37" s="113"/>
       <c r="I37" s="88"/>
@@ -15109,21 +15098,21 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="120"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="114">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>616</v>
+      <c r="D38" s="2">
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="H38" s="86" t="s">
         <v>331</v>
@@ -15143,21 +15132,21 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="120"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="114">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D39" s="2">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="D39" s="2">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="N39" t="s">
         <v>611</v>
@@ -15173,21 +15162,21 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A40" s="120"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="114">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>617</v>
+      <c r="D40" s="2">
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G40" s="1"/>
       <c r="N40" t="s">
@@ -15205,21 +15194,21 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="120"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="114">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
+      </c>
+      <c r="D41" s="2">
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G41" s="1"/>
       <c r="N41" t="s">
@@ -15236,25 +15225,25 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A42" s="120"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="114" t="s">
+        <v>793</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="D42" s="2">
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G42" s="1"/>
       <c r="N42" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="O42">
         <v>5000</v>
@@ -15265,23 +15254,23 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B43" s="119" t="s">
+        <v>794</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="D43" s="2">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G43" s="1"/>
       <c r="N43" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="O43">
         <v>8000</v>
@@ -15292,19 +15281,19 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B44" s="119" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D44" s="2">
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G44" s="1"/>
       <c r="O44">
@@ -15316,19 +15305,19 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B45" s="119" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D45" s="2">
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G45" s="1"/>
       <c r="O45">
@@ -15340,19 +15329,19 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B46" s="119" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D46" s="2">
         <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G46" s="1"/>
       <c r="O46">
@@ -15364,23 +15353,23 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B47" s="119" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D47" s="2">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G47" s="1"/>
       <c r="N47" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="Q47">
         <v>30</v>

--- a/gd/任务系统/任务线设计___附带条件需求.xlsx
+++ b/gd/任务系统/任务线设计___附带条件需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28755" yWindow="-90" windowWidth="27795" windowHeight="11445" activeTab="5"/>
+    <workbookView minimized="1" xWindow="21915" yWindow="2130" windowWidth="27795" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="主线剧情任务" sheetId="1" r:id="rId1"/>
@@ -2757,14 +2757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招募到8个宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有8个以上的宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备开孔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2773,10 +2765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进攻通天塔一次（不伦成功失败）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五行秘境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3496,6 +3484,18 @@
   </si>
   <si>
     <t>使用经验药1次{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻通天塔一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有10个以上的宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募到10个宠物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4260,68 +4260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4332,121 +4284,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4467,14 +4332,149 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4834,12 +4834,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:M1048576"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5030,7 +5030,7 @@
       <c r="F7" s="84"/>
       <c r="H7" s="6"/>
       <c r="M7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="O7">
         <v>5000</v>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="104"/>
@@ -5245,7 +5245,7 @@
         <v>589</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E15" s="104" t="s">
         <v>545</v>
@@ -5549,11 +5549,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="104" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F27" s="92"/>
       <c r="G27" s="93"/>
@@ -5641,11 +5641,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>636</v>
+        <v>822</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="104" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="93"/>
@@ -5663,11 +5663,11 @@
         <v>1</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="104" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F32" s="92"/>
       <c r="G32" s="93"/>
@@ -5718,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="103" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D34" s="92" t="s">
         <v>568</v>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="104"/>
@@ -5797,13 +5797,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>632</v>
+        <v>824</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>633</v>
+        <v>823</v>
       </c>
       <c r="E37" s="105" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
@@ -5829,7 +5829,7 @@
         <v>629</v>
       </c>
       <c r="E38" s="104" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
@@ -5844,11 +5844,11 @@
         <v>1</v>
       </c>
       <c r="C39" s="103" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D39" s="92"/>
       <c r="E39" s="106" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="99"/>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D40" s="92"/>
       <c r="E40" s="106"/>
@@ -5892,7 +5892,7 @@
         <v>609</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="99" t="s">
@@ -5920,7 +5920,7 @@
         <v>610</v>
       </c>
       <c r="E42" s="107" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="100"/>
@@ -5940,13 +5940,13 @@
         <v>4</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D43" s="117" t="s">
         <v>628</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="93"/>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="103" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D44" s="102"/>
       <c r="E44" s="107"/>
@@ -5988,7 +5988,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="103" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D45" s="102"/>
       <c r="E45" s="107"/>
@@ -6010,10 +6010,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="113"/>
@@ -6222,7 +6222,7 @@
         <v>383</v>
       </c>
       <c r="AR2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.15">
@@ -6267,7 +6267,7 @@
         <v>384</v>
       </c>
       <c r="AR3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
@@ -6287,16 +6287,16 @@
         <v>20001</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J4" t="s">
         <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="N4">
         <v>21001</v>
@@ -6322,19 +6322,19 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="H5">
         <v>20002</v>
       </c>
       <c r="I5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="N5">
         <v>21002</v>
@@ -6358,7 +6358,7 @@
         <v>425</v>
       </c>
       <c r="AQ5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="AR5">
         <v>100</v>
@@ -6381,13 +6381,13 @@
         <v>20003</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="N6">
         <v>21003</v>
@@ -6447,7 +6447,7 @@
         <v>424</v>
       </c>
       <c r="AQ6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AR6">
         <v>150</v>
@@ -6464,19 +6464,19 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H7">
         <v>20004</v>
       </c>
       <c r="I7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N7">
         <v>21004</v>
@@ -6542,7 +6542,7 @@
         <v>427</v>
       </c>
       <c r="AQ7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AR7">
         <v>200</v>
@@ -6556,22 +6556,22 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H8">
         <v>20005</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J8" t="s">
         <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N8">
         <v>21005</v>
@@ -6643,7 +6643,7 @@
         <v>428</v>
       </c>
       <c r="AQ8" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AR8">
         <v>300</v>
@@ -6660,22 +6660,22 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H9">
         <v>20006</v>
       </c>
       <c r="I9" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="J9" t="s">
         <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="M9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="N9">
         <v>21006</v>
@@ -6750,7 +6750,7 @@
         <v>429</v>
       </c>
       <c r="AQ9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AR9">
         <v>500</v>
@@ -6773,25 +6773,25 @@
         <v>20007</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="J10">
         <v>5000</v>
       </c>
       <c r="K10" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="M10" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="N10">
         <v>21007</v>
       </c>
       <c r="O10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="P10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="Q10">
         <v>3000</v>
@@ -6845,7 +6845,7 @@
         <v>430</v>
       </c>
       <c r="AQ10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AR10">
         <v>750</v>
@@ -6859,31 +6859,31 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H11">
         <v>20008</v>
       </c>
       <c r="I11" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J11">
         <v>5000</v>
       </c>
       <c r="K11" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="M11" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N11">
         <v>21008</v>
       </c>
       <c r="O11" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="P11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="Q11">
         <v>3000</v>
@@ -6931,7 +6931,7 @@
         <v>431</v>
       </c>
       <c r="AQ11" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AR11">
         <v>800</v>
@@ -6951,25 +6951,25 @@
         <v>20009</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J12">
         <v>6600</v>
       </c>
       <c r="K12" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="M12" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="N12">
         <v>21009</v>
       </c>
       <c r="O12" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="P12" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Q12">
         <v>3000</v>
@@ -7001,31 +7001,31 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H13">
         <v>20010</v>
       </c>
       <c r="I13" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="J13">
         <v>6600</v>
       </c>
       <c r="K13" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M13" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N13">
         <v>21010</v>
       </c>
       <c r="O13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="P13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="Q13">
         <v>3000</v>
@@ -7063,25 +7063,25 @@
         <v>20011</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J14">
         <v>7800</v>
       </c>
       <c r="K14" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M14" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="N14">
         <v>21009</v>
       </c>
       <c r="O14" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="P14" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Q14">
         <v>3000</v>
@@ -7095,31 +7095,31 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H15">
         <v>20012</v>
       </c>
       <c r="I15" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J15">
         <v>7800</v>
       </c>
       <c r="K15" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M15" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="N15">
         <v>21010</v>
       </c>
       <c r="O15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="P15" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Q15">
         <v>3000</v>
@@ -7133,25 +7133,25 @@
         <v>20013</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J16">
         <v>8100</v>
       </c>
       <c r="K16" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="M16" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="N16">
         <v>21009</v>
       </c>
       <c r="O16" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="P16" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="Q16">
         <v>3000</v>
@@ -7159,31 +7159,31 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H17">
         <v>20014</v>
       </c>
       <c r="I17" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J17">
         <v>8100</v>
       </c>
       <c r="K17" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="M17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N17">
         <v>21010</v>
       </c>
       <c r="O17" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="P17" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="Q17">
         <v>3000</v>
@@ -7197,27 +7197,27 @@
         <v>20015</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J18">
         <v>8100</v>
       </c>
       <c r="K18" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H19">
         <v>20016</v>
       </c>
       <c r="I19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="K19" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.15">
@@ -7228,24 +7228,24 @@
         <v>20017</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="K20" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H21">
         <v>20018</v>
       </c>
       <c r="I21" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.15">
@@ -7256,80 +7256,80 @@
         <v>20019</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K22" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H23">
         <v>20020</v>
       </c>
       <c r="I23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="H24">
         <v>20021</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K24" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H25">
         <v>20022</v>
       </c>
       <c r="I25" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H26">
         <v>20023</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="K26" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H27">
         <v>20024</v>
       </c>
       <c r="I27" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K27" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -7354,7 +7354,7 @@
   <dimension ref="A5:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C13" s="8">
         <v>30</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C14" s="8">
         <v>30</v>
@@ -7566,13 +7566,13 @@
       <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
       <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
@@ -7635,31 +7635,31 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -7682,17 +7682,17 @@
       <c r="AE2" s="14"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A3" s="137"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="193"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -7715,29 +7715,29 @@
       <c r="AE3" s="14"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A4" s="137"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="123" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="123" t="s">
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="126" t="s">
+      <c r="M4" s="154" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="11"/>
@@ -7760,19 +7760,19 @@
       <c r="AE4" s="14"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A5" s="137"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="10"/>
@@ -7793,19 +7793,19 @@
       <c r="AE5" s="14"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A6" s="137"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
       <c r="N6" s="11" t="s">
         <v>56</v>
       </c>
@@ -7828,30 +7828,30 @@
       <c r="AE6" s="14"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A7" s="137"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="123" t="s">
+      <c r="A7" s="172"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -7869,22 +7869,22 @@
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A8" s="137"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -7902,29 +7902,29 @@
       <c r="AE8" s="14"/>
     </row>
     <row r="9" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="136">
+      <c r="A9" s="171">
         <v>1</v>
       </c>
-      <c r="B9" s="139">
+      <c r="B9" s="123">
         <v>1</v>
       </c>
-      <c r="C9" s="140">
+      <c r="C9" s="134">
         <v>1</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="183" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="133" t="s">
+      <c r="G9" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="15" t="s">
@@ -7952,19 +7952,19 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="137"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="143"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="183"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="146"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16" t="s">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="123">
+      <c r="Q10" s="139">
         <v>1</v>
       </c>
       <c r="R10" s="10">
@@ -7992,19 +7992,19 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="137"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="143"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="183"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="163"/>
       <c r="L11" s="17" t="s">
         <v>68</v>
       </c>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="125"/>
+      <c r="Q11" s="140"/>
       <c r="R11" s="10">
         <f>SUM($Q$9:Q11)</f>
         <v>3</v>
@@ -8033,19 +8033,19 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="137"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="143"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="183"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
       <c r="L12" s="16" t="s">
         <v>72</v>
       </c>
@@ -8077,9 +8077,9 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="137"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="141"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="19" t="s">
         <v>75</v>
       </c>
@@ -8089,13 +8089,13 @@
       <c r="F13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="133" t="s">
+      <c r="G13" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="11" t="s">
         <v>78</v>
       </c>
@@ -8129,10 +8129,10 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="137"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="154" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="181" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="10">
@@ -8141,13 +8141,13 @@
       <c r="F14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="151" t="s">
+      <c r="G14" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="156" t="s">
+      <c r="U14" s="176" t="s">
         <v>84</v>
       </c>
       <c r="V14" s="21"/>
@@ -8175,23 +8175,23 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="137"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="155"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="10">
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="15" t="s">
         <v>87</v>
       </c>
@@ -8212,7 +8212,7 @@
       <c r="T15" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="156"/>
+      <c r="U15" s="176"/>
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
@@ -8243,21 +8243,21 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="137"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="141"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="157" t="s">
+      <c r="G16" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
       <c r="L16" s="30" t="s">
         <v>92</v>
       </c>
@@ -8296,21 +8296,21 @@
       <c r="AE16" s="29"/>
     </row>
     <row r="17" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="137"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="142"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="19" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="158" t="s">
+      <c r="G17" s="178" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="180"/>
       <c r="L17" s="35" t="s">
         <v>98</v>
       </c>
@@ -8335,9 +8335,9 @@
       <c r="AE17" s="29"/>
     </row>
     <row r="18" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="138"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="140">
+      <c r="A18" s="173"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="134">
         <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -8347,13 +8347,13 @@
       <c r="F18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="36" t="s">
@@ -8386,11 +8386,11 @@
       <c r="AE18" s="29"/>
     </row>
     <row r="19" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="139">
+      <c r="A19" s="123">
         <v>2</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="141"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="19" t="s">
         <v>75</v>
       </c>
@@ -8398,13 +8398,13 @@
         <v>62</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="144" t="s">
+      <c r="G19" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="146"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
       <c r="L19" s="10"/>
       <c r="M19" s="40"/>
       <c r="N19" s="17" t="s">
@@ -8437,23 +8437,23 @@
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="139"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="154" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="181" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="151" t="s">
+      <c r="G20" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="163"/>
       <c r="L20" s="10"/>
       <c r="M20" s="23" t="s">
         <v>105</v>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
-      <c r="U20" s="133"/>
+      <c r="U20" s="127"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -8489,21 +8489,21 @@
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="139"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="155"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="182"/>
       <c r="E21" s="10">
         <v>3</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="144" t="s">
+      <c r="G21" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="146"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="35" t="s">
         <v>108</v>
       </c>
@@ -8522,7 +8522,7 @@
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
-      <c r="U21" s="133"/>
+      <c r="U21" s="127"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -8551,9 +8551,9 @@
       </c>
     </row>
     <row r="22" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="139"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="142"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="19" t="s">
         <v>57</v>
       </c>
@@ -8561,13 +8561,13 @@
         <v>62</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="133" t="s">
+      <c r="G22" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -8604,9 +8604,9 @@
       <c r="AE22" s="29"/>
     </row>
     <row r="23" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="139"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="140">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="134">
         <v>3</v>
       </c>
       <c r="D23" s="19" t="s">
@@ -8614,13 +8614,13 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="133" t="s">
+      <c r="G23" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="133"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -8651,9 +8651,9 @@
       <c r="AE23" s="29"/>
     </row>
     <row r="24" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="139"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="141"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="19" t="s">
         <v>50</v>
       </c>
@@ -8661,13 +8661,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="133" t="s">
+      <c r="G24" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
       <c r="L24" s="11"/>
       <c r="M24" s="15" t="s">
         <v>114</v>
@@ -8707,23 +8707,23 @@
       <c r="AE24" s="29"/>
     </row>
     <row r="25" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="136">
+      <c r="A25" s="171">
         <v>3</v>
       </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="142"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="19" t="s">
         <v>90</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="144" t="s">
+      <c r="G25" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="146"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="17" t="s">
         <v>119</v>
       </c>
@@ -8761,9 +8761,9 @@
       <c r="AE25" s="29"/>
     </row>
     <row r="26" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="137"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="140">
+      <c r="A26" s="172"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="134">
         <v>4</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -8773,13 +8773,13 @@
       <c r="F26" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="133" t="s">
+      <c r="G26" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="16" t="s">
         <v>124</v>
       </c>
@@ -8827,21 +8827,21 @@
       </c>
     </row>
     <row r="27" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="137"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="141"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="133" t="s">
+      <c r="G27" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -8872,21 +8872,21 @@
       <c r="AE27" s="29"/>
     </row>
     <row r="28" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="137"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="141"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="133" t="s">
+      <c r="G28" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
       <c r="L28" s="11" t="s">
         <v>129</v>
       </c>
@@ -8924,21 +8924,21 @@
       <c r="AE28" s="29"/>
     </row>
     <row r="29" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="137"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="140" t="s">
+      <c r="A29" s="172"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="134" t="s">
         <v>90</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="133" t="s">
+      <c r="G29" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -8968,19 +8968,19 @@
       <c r="AE29" s="29"/>
     </row>
     <row r="30" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="137"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="144" t="s">
+      <c r="G30" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
       <c r="L30" s="17" t="s">
         <v>136</v>
       </c>
@@ -9023,9 +9023,9 @@
       <c r="AE30" s="29"/>
     </row>
     <row r="31" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="137"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140">
+      <c r="A31" s="172"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="134">
         <v>5</v>
       </c>
       <c r="D31" s="19" t="s">
@@ -9035,13 +9035,13 @@
       <c r="F31" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="133" t="s">
+      <c r="G31" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
       <c r="L31" s="11" t="s">
         <v>143</v>
       </c>
@@ -9078,23 +9078,23 @@
       <c r="AE31" s="29"/>
     </row>
     <row r="32" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="137"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="141"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="162" t="s">
+      <c r="F32" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="133" t="s">
+      <c r="G32" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
       <c r="L32" s="17" t="s">
         <v>148</v>
       </c>
@@ -9132,21 +9132,21 @@
       <c r="AE32" s="29"/>
     </row>
     <row r="33" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="137"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="140" t="s">
+      <c r="A33" s="172"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="134" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="133" t="s">
+      <c r="F33" s="125"/>
+      <c r="G33" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
       <c r="L33" s="11" t="s">
         <v>150</v>
       </c>
@@ -9179,19 +9179,19 @@
       <c r="AE33" s="29"/>
     </row>
     <row r="34" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="138"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
+      <c r="A34" s="173"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="166" t="s">
+      <c r="F34" s="125"/>
+      <c r="G34" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="168"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166"/>
       <c r="L34" s="11"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -9214,21 +9214,21 @@
       <c r="AE34" s="29"/>
     </row>
     <row r="35" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="140">
+      <c r="A35" s="134">
         <v>4</v>
       </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="144" t="s">
+      <c r="F35" s="125"/>
+      <c r="G35" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="130"/>
       <c r="L35" s="17" t="s">
         <v>153</v>
       </c>
@@ -9258,23 +9258,23 @@
       <c r="AE35" s="29"/>
     </row>
     <row r="36" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="142"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="161">
+      <c r="A36" s="138"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="170">
         <v>6</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="144" t="s">
+      <c r="F36" s="125"/>
+      <c r="G36" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="130"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -9316,23 +9316,23 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="136">
+      <c r="A37" s="171">
         <v>5</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="161"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="170"/>
       <c r="D37" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="133" t="s">
+      <c r="F37" s="125"/>
+      <c r="G37" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
       <c r="L37" s="11"/>
       <c r="M37" s="15" t="s">
         <v>144</v>
@@ -9365,21 +9365,21 @@
       <c r="AE37" s="29"/>
     </row>
     <row r="38" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="137"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="161"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="133" t="s">
+      <c r="F38" s="125"/>
+      <c r="G38" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11" t="s">
         <v>156</v>
@@ -9414,23 +9414,23 @@
       <c r="AE38" s="29"/>
     </row>
     <row r="39" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="137"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="161">
+      <c r="A39" s="172"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="170">
         <v>7</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="133" t="s">
+      <c r="F39" s="125"/>
+      <c r="G39" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -9467,21 +9467,21 @@
       <c r="AE39" s="29"/>
     </row>
     <row r="40" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="137"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="161"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="144" t="s">
+      <c r="F40" s="125"/>
+      <c r="G40" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="146"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="129"/>
+      <c r="J40" s="129"/>
+      <c r="K40" s="130"/>
       <c r="L40" s="16"/>
       <c r="M40" s="15" t="s">
         <v>159</v>
@@ -9511,21 +9511,21 @@
       <c r="AE40" s="29"/>
     </row>
     <row r="41" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="137"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="161"/>
+      <c r="A41" s="172"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="144" t="s">
+      <c r="F41" s="125"/>
+      <c r="G41" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="146"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="130"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
@@ -9560,9 +9560,9 @@
       <c r="AE41" s="29"/>
     </row>
     <row r="42" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="137"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="161">
+      <c r="A42" s="172"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="170">
         <v>8</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -9570,13 +9570,13 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="133" t="s">
+      <c r="G42" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
       <c r="L42" s="11" t="s">
         <v>162</v>
       </c>
@@ -9612,21 +9612,21 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="138"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="164" t="s">
+      <c r="A43" s="173"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="174" t="s">
         <v>127</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="133" t="s">
+      <c r="G43" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="127"/>
       <c r="L43" s="11" t="s">
         <v>164</v>
       </c>
@@ -9669,21 +9669,21 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="140">
+      <c r="A44" s="134">
         <v>6</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="165"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
-      <c r="G44" s="144" t="s">
+      <c r="G44" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="146"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="130"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -9705,21 +9705,21 @@
       <c r="AE44" s="29"/>
     </row>
     <row r="45" spans="1:32" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="142"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="161"/>
+      <c r="A45" s="138"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="170"/>
       <c r="D45" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="133" t="s">
+      <c r="G45" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -9767,13 +9767,13 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="139">
+      <c r="A46" s="123">
         <v>7</v>
       </c>
-      <c r="B46" s="139">
+      <c r="B46" s="123">
         <v>2</v>
       </c>
-      <c r="C46" s="169" t="s">
+      <c r="C46" s="167" t="s">
         <v>172</v>
       </c>
       <c r="D46" s="45" t="s">
@@ -9781,13 +9781,13 @@
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="133" t="s">
+      <c r="G46" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -9823,21 +9823,21 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="139"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="169"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="167"/>
       <c r="D47" s="45" t="s">
         <v>122</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="144" t="s">
+      <c r="G47" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="146"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="130"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
@@ -9871,21 +9871,21 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="139"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="169"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="167"/>
       <c r="D48" s="45" t="s">
         <v>127</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="144" t="s">
+      <c r="G48" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="146"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="130"/>
       <c r="L48" s="16" t="s">
         <v>178</v>
       </c>
@@ -9925,21 +9925,21 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="139"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="169"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="167"/>
       <c r="D49" s="45" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="144" t="s">
+      <c r="G49" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="146"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="130"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
@@ -9983,21 +9983,21 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="139"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="169"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="167"/>
       <c r="D50" s="48" t="s">
         <v>122</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="151" t="s">
+      <c r="G50" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="146"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="130"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
@@ -10037,11 +10037,11 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="139">
+      <c r="A51" s="123">
         <v>8</v>
       </c>
-      <c r="B51" s="139"/>
-      <c r="C51" s="169" t="s">
+      <c r="B51" s="123"/>
+      <c r="C51" s="167" t="s">
         <v>184</v>
       </c>
       <c r="D51" s="19" t="s">
@@ -10049,13 +10049,13 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="144" t="s">
+      <c r="G51" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="146"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="130"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
@@ -10085,21 +10085,21 @@
       <c r="AD51" s="34"/>
     </row>
     <row r="52" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="139"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="169"/>
+      <c r="A52" s="123"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="167"/>
       <c r="D52" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="133" t="s">
+      <c r="G52" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="127"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -10129,21 +10129,21 @@
       <c r="AD52" s="34"/>
     </row>
     <row r="53" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="139"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="169"/>
+      <c r="A53" s="123"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="167"/>
       <c r="D53" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="133" t="s">
+      <c r="G53" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
       <c r="L53" s="11"/>
       <c r="M53" s="17" t="s">
         <v>179</v>
@@ -10175,21 +10175,21 @@
       <c r="AD53" s="34"/>
     </row>
     <row r="54" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="139"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="169"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="167"/>
       <c r="D54" s="19" t="s">
         <v>188</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="133" t="s">
+      <c r="G54" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -10221,21 +10221,21 @@
       <c r="AD54" s="34"/>
     </row>
     <row r="55" spans="1:32" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="139"/>
-      <c r="B55" s="139"/>
-      <c r="C55" s="169"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="167"/>
       <c r="D55" s="19" t="s">
         <v>191</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="133" t="s">
+      <c r="G55" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
@@ -10265,19 +10265,19 @@
       <c r="AD55" s="34"/>
     </row>
     <row r="56" spans="1:32" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="139"/>
-      <c r="B56" s="139"/>
-      <c r="C56" s="169"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="167"/>
       <c r="D56" s="19"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="151" t="s">
+      <c r="G56" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="146"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="130"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
@@ -10309,25 +10309,25 @@
       <c r="AD56" s="39"/>
     </row>
     <row r="57" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="139">
+      <c r="A57" s="123">
         <v>9</v>
       </c>
-      <c r="B57" s="139"/>
-      <c r="C57" s="169" t="s">
+      <c r="B57" s="123"/>
+      <c r="C57" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="139" t="s">
+      <c r="D57" s="123" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="133" t="s">
+      <c r="G57" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -10357,19 +10357,19 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="139"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="139"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="123"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="133" t="s">
+      <c r="G58" s="127" t="s">
         <v>199</v>
       </c>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -10393,19 +10393,19 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="139"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="139"/>
+      <c r="A59" s="123"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="123"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="144" t="s">
+      <c r="G59" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="H59" s="145"/>
-      <c r="I59" s="145"/>
-      <c r="J59" s="145"/>
-      <c r="K59" s="146"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="130"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
@@ -10429,21 +10429,21 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="139"/>
-      <c r="B60" s="139"/>
-      <c r="C60" s="169"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="167"/>
       <c r="D60" s="49" t="s">
         <v>201</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="144" t="s">
+      <c r="G60" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="146"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="130"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
@@ -10469,21 +10469,21 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="139"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="140" t="s">
+      <c r="A61" s="123"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="134" t="s">
         <v>188</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="133" t="s">
+      <c r="G61" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="127"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -10509,19 +10509,19 @@
       </c>
     </row>
     <row r="62" spans="1:32" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="139"/>
-      <c r="B62" s="139"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="141"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="135"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="133" t="s">
+      <c r="G62" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
       <c r="L62" s="11"/>
       <c r="M62" s="17" t="s">
         <v>205</v>
@@ -10549,19 +10549,19 @@
       </c>
     </row>
     <row r="63" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="139"/>
-      <c r="B63" s="139"/>
-      <c r="C63" s="169"/>
-      <c r="D63" s="141"/>
+      <c r="A63" s="123"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="135"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="133" t="s">
+      <c r="G63" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="127"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
@@ -10590,19 +10590,19 @@
       </c>
     </row>
     <row r="64" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="139"/>
-      <c r="B64" s="139"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="141"/>
+      <c r="A64" s="123"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="135"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="166" t="s">
+      <c r="G64" s="164" t="s">
         <v>207</v>
       </c>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
-      <c r="J64" s="167"/>
-      <c r="K64" s="168"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="166"/>
       <c r="L64" s="50"/>
       <c r="M64" s="50"/>
       <c r="N64" s="50"/>
@@ -10626,19 +10626,19 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="139"/>
-      <c r="B65" s="139"/>
-      <c r="C65" s="169"/>
-      <c r="D65" s="141"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="135"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="133" t="s">
+      <c r="G65" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="127"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -10666,19 +10666,19 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="139"/>
-      <c r="B66" s="139"/>
-      <c r="C66" s="169"/>
-      <c r="D66" s="142"/>
+      <c r="A66" s="123"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="138"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="133" t="s">
+      <c r="G66" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="127"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -10704,23 +10704,23 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="139"/>
-      <c r="B67" s="139"/>
-      <c r="C67" s="169" t="s">
+      <c r="A67" s="123"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="D67" s="171" t="s">
+      <c r="D67" s="152" t="s">
         <v>212</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="133" t="s">
+      <c r="G67" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -10746,21 +10746,21 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="140">
+      <c r="A68" s="134">
         <v>10</v>
       </c>
-      <c r="B68" s="139"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="172"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="168"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="133" t="s">
+      <c r="G68" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="127"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
@@ -10786,19 +10786,19 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="141"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="169"/>
-      <c r="D69" s="173"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="153"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="144" t="s">
+      <c r="G69" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="H69" s="145"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="145"/>
-      <c r="K69" s="146"/>
+      <c r="H69" s="129"/>
+      <c r="I69" s="129"/>
+      <c r="J69" s="129"/>
+      <c r="K69" s="130"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
@@ -10824,21 +10824,21 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="54" x14ac:dyDescent="0.15">
-      <c r="A70" s="141"/>
-      <c r="B70" s="139"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="170" t="s">
+      <c r="A70" s="135"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="169" t="s">
         <v>216</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="144" t="s">
+      <c r="G70" s="128" t="s">
         <v>217</v>
       </c>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="146"/>
+      <c r="H70" s="129"/>
+      <c r="I70" s="129"/>
+      <c r="J70" s="129"/>
+      <c r="K70" s="130"/>
       <c r="L70" s="16"/>
       <c r="M70" s="17" t="s">
         <v>218</v>
@@ -10866,19 +10866,19 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="141"/>
-      <c r="B71" s="139"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="170"/>
+      <c r="A71" s="135"/>
+      <c r="B71" s="123"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="169"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="144" t="s">
+      <c r="G71" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="H71" s="145"/>
-      <c r="I71" s="145"/>
-      <c r="J71" s="145"/>
-      <c r="K71" s="146"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="129"/>
+      <c r="J71" s="129"/>
+      <c r="K71" s="130"/>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
@@ -10906,19 +10906,19 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="141"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="169"/>
-      <c r="D72" s="170"/>
+      <c r="A72" s="135"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="169"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="144" t="s">
+      <c r="G72" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="H72" s="145"/>
-      <c r="I72" s="145"/>
-      <c r="J72" s="145"/>
-      <c r="K72" s="146"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="129"/>
+      <c r="K72" s="130"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
@@ -10946,27 +10946,27 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="141">
+      <c r="A73" s="135">
         <v>11</v>
       </c>
-      <c r="B73" s="139"/>
-      <c r="C73" s="176" t="s">
+      <c r="B73" s="123"/>
+      <c r="C73" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="D73" s="174" t="s">
+      <c r="D73" s="147" t="s">
         <v>223</v>
       </c>
       <c r="E73" s="10"/>
-      <c r="F73" s="139" t="s">
+      <c r="F73" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G73" s="144" t="s">
+      <c r="G73" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="H73" s="145"/>
-      <c r="I73" s="145"/>
-      <c r="J73" s="145"/>
-      <c r="K73" s="146"/>
+      <c r="H73" s="129"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="130"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
@@ -10995,19 +10995,19 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="141"/>
-      <c r="B74" s="139"/>
-      <c r="C74" s="177"/>
-      <c r="D74" s="181"/>
+      <c r="A74" s="135"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="148"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="139"/>
-      <c r="G74" s="151" t="s">
+      <c r="F74" s="123"/>
+      <c r="G74" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="H74" s="152"/>
-      <c r="I74" s="152"/>
-      <c r="J74" s="152"/>
-      <c r="K74" s="153"/>
+      <c r="H74" s="162"/>
+      <c r="I74" s="162"/>
+      <c r="J74" s="162"/>
+      <c r="K74" s="163"/>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
@@ -11033,19 +11033,19 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="141"/>
-      <c r="B75" s="139"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="175"/>
+      <c r="A75" s="135"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="149"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="139"/>
-      <c r="G75" s="133" t="s">
+      <c r="F75" s="123"/>
+      <c r="G75" s="127" t="s">
         <v>228</v>
       </c>
-      <c r="H75" s="133"/>
-      <c r="I75" s="133"/>
-      <c r="J75" s="133"/>
-      <c r="K75" s="133"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -11071,23 +11071,23 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="141"/>
-      <c r="B76" s="139"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="174" t="s">
+      <c r="A76" s="135"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="147" t="s">
         <v>229</v>
       </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="162" t="s">
+      <c r="F76" s="124" t="s">
         <v>230</v>
       </c>
-      <c r="G76" s="133" t="s">
+      <c r="G76" s="127" t="s">
         <v>231</v>
       </c>
-      <c r="H76" s="133"/>
-      <c r="I76" s="133"/>
-      <c r="J76" s="133"/>
-      <c r="K76" s="133"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="127"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -11111,19 +11111,19 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="141"/>
-      <c r="B77" s="139"/>
-      <c r="C77" s="177"/>
-      <c r="D77" s="181"/>
+      <c r="A77" s="135"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="148"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="133" t="s">
+      <c r="F77" s="125"/>
+      <c r="G77" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="H77" s="133"/>
-      <c r="I77" s="133"/>
-      <c r="J77" s="133"/>
-      <c r="K77" s="133"/>
+      <c r="H77" s="127"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="127"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -11151,19 +11151,19 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="141"/>
-      <c r="B78" s="139"/>
-      <c r="C78" s="177"/>
-      <c r="D78" s="175"/>
+      <c r="A78" s="135"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="158"/>
+      <c r="D78" s="149"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="182"/>
-      <c r="G78" s="133" t="s">
+      <c r="F78" s="126"/>
+      <c r="G78" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="H78" s="133"/>
-      <c r="I78" s="133"/>
-      <c r="J78" s="133"/>
-      <c r="K78" s="133"/>
+      <c r="H78" s="127"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="127"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -11189,23 +11189,23 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="141">
+      <c r="A79" s="135">
         <v>12</v>
       </c>
-      <c r="B79" s="139"/>
-      <c r="C79" s="177"/>
-      <c r="D79" s="174" t="s">
+      <c r="B79" s="123"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="147" t="s">
         <v>235</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="51"/>
-      <c r="G79" s="144" t="s">
+      <c r="G79" s="128" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="145"/>
-      <c r="I79" s="145"/>
-      <c r="J79" s="145"/>
-      <c r="K79" s="146"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="129"/>
+      <c r="J79" s="129"/>
+      <c r="K79" s="130"/>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
@@ -11227,17 +11227,17 @@
       <c r="Y79" s="10"/>
     </row>
     <row r="80" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="141"/>
-      <c r="B80" s="139"/>
-      <c r="C80" s="178"/>
-      <c r="D80" s="175"/>
+      <c r="A80" s="135"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="159"/>
+      <c r="D80" s="149"/>
       <c r="E80" s="10"/>
       <c r="F80" s="51"/>
-      <c r="G80" s="144"/>
-      <c r="H80" s="145"/>
-      <c r="I80" s="145"/>
-      <c r="J80" s="145"/>
-      <c r="K80" s="146"/>
+      <c r="G80" s="128"/>
+      <c r="H80" s="129"/>
+      <c r="I80" s="129"/>
+      <c r="J80" s="129"/>
+      <c r="K80" s="130"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
@@ -11259,23 +11259,23 @@
       <c r="Y80" s="10"/>
     </row>
     <row r="81" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="141"/>
-      <c r="B81" s="139"/>
-      <c r="C81" s="176" t="s">
+      <c r="A81" s="135"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="157" t="s">
         <v>237</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="179" t="s">
+      <c r="F81" s="137" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="144" t="s">
+      <c r="G81" s="128" t="s">
         <v>239</v>
       </c>
-      <c r="H81" s="145"/>
-      <c r="I81" s="145"/>
-      <c r="J81" s="145"/>
-      <c r="K81" s="146"/>
+      <c r="H81" s="129"/>
+      <c r="I81" s="129"/>
+      <c r="J81" s="129"/>
+      <c r="K81" s="130"/>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
@@ -11304,19 +11304,19 @@
       </c>
     </row>
     <row r="82" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="141"/>
-      <c r="B82" s="139"/>
-      <c r="C82" s="177"/>
+      <c r="A82" s="135"/>
+      <c r="B82" s="123"/>
+      <c r="C82" s="158"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="180" t="s">
+      <c r="F82" s="137"/>
+      <c r="G82" s="160" t="s">
         <v>242</v>
       </c>
-      <c r="H82" s="180"/>
-      <c r="I82" s="180"/>
-      <c r="J82" s="180"/>
-      <c r="K82" s="180"/>
+      <c r="H82" s="160"/>
+      <c r="I82" s="160"/>
+      <c r="J82" s="160"/>
+      <c r="K82" s="160"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -11340,23 +11340,23 @@
       </c>
     </row>
     <row r="83" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="141">
+      <c r="A83" s="135">
         <v>13</v>
       </c>
-      <c r="B83" s="139"/>
-      <c r="C83" s="177"/>
-      <c r="D83" s="174" t="s">
+      <c r="B83" s="123"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="147" t="s">
         <v>243</v>
       </c>
       <c r="E83" s="10"/>
-      <c r="F83" s="179"/>
-      <c r="G83" s="180" t="s">
+      <c r="F83" s="137"/>
+      <c r="G83" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="H83" s="180"/>
-      <c r="I83" s="180"/>
-      <c r="J83" s="180"/>
-      <c r="K83" s="180"/>
+      <c r="H83" s="160"/>
+      <c r="I83" s="160"/>
+      <c r="J83" s="160"/>
+      <c r="K83" s="160"/>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
@@ -11380,19 +11380,19 @@
       </c>
     </row>
     <row r="84" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="141"/>
-      <c r="B84" s="139"/>
-      <c r="C84" s="177"/>
-      <c r="D84" s="175"/>
+      <c r="A84" s="135"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="179"/>
-      <c r="G84" s="180" t="s">
+      <c r="F84" s="137"/>
+      <c r="G84" s="160" t="s">
         <v>245</v>
       </c>
-      <c r="H84" s="180"/>
-      <c r="I84" s="180"/>
-      <c r="J84" s="180"/>
-      <c r="K84" s="180"/>
+      <c r="H84" s="160"/>
+      <c r="I84" s="160"/>
+      <c r="J84" s="160"/>
+      <c r="K84" s="160"/>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
@@ -11416,19 +11416,19 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="141"/>
-      <c r="B85" s="139"/>
-      <c r="C85" s="178"/>
+      <c r="A85" s="135"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="159"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="133" t="s">
+      <c r="F85" s="137"/>
+      <c r="G85" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="H85" s="133"/>
-      <c r="I85" s="133"/>
-      <c r="J85" s="133"/>
-      <c r="K85" s="133"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="127"/>
+      <c r="J85" s="127"/>
+      <c r="K85" s="127"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -11459,23 +11459,23 @@
       </c>
     </row>
     <row r="86" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="141"/>
+      <c r="A86" s="135"/>
       <c r="B86" s="10"/>
       <c r="C86" s="52" t="s">
         <v>250</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="126" t="s">
+      <c r="F86" s="154" t="s">
         <v>251</v>
       </c>
-      <c r="G86" s="133" t="s">
+      <c r="G86" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="H86" s="133"/>
-      <c r="I86" s="133"/>
-      <c r="J86" s="133"/>
-      <c r="K86" s="133"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="127"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -11501,21 +11501,21 @@
       </c>
     </row>
     <row r="87" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="141"/>
+      <c r="A87" s="135"/>
       <c r="B87" s="10"/>
       <c r="C87" s="52" t="s">
         <v>253</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="134"/>
-      <c r="G87" s="133" t="s">
+      <c r="F87" s="155"/>
+      <c r="G87" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="H87" s="133"/>
-      <c r="I87" s="133"/>
-      <c r="J87" s="133"/>
-      <c r="K87" s="133"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="127"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -11541,7 +11541,7 @@
       </c>
     </row>
     <row r="88" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="141">
+      <c r="A88" s="135">
         <v>14</v>
       </c>
       <c r="B88" s="10"/>
@@ -11550,14 +11550,14 @@
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="134"/>
-      <c r="G88" s="133" t="s">
+      <c r="F88" s="155"/>
+      <c r="G88" s="127" t="s">
         <v>256</v>
       </c>
-      <c r="H88" s="133"/>
-      <c r="I88" s="133"/>
-      <c r="J88" s="133"/>
-      <c r="K88" s="133"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="127"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -11585,19 +11585,19 @@
       </c>
     </row>
     <row r="89" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="141"/>
+      <c r="A89" s="135"/>
       <c r="B89" s="10"/>
       <c r="C89" s="1"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="133" t="s">
+      <c r="F89" s="156"/>
+      <c r="G89" s="127" t="s">
         <v>257</v>
       </c>
-      <c r="H89" s="133"/>
-      <c r="I89" s="133"/>
-      <c r="J89" s="133"/>
-      <c r="K89" s="133"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="127"/>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -11621,19 +11621,19 @@
       </c>
     </row>
     <row r="90" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="141"/>
+      <c r="A90" s="135"/>
       <c r="B90" s="10"/>
       <c r="C90" s="52"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="144" t="s">
+      <c r="G90" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="H90" s="145"/>
-      <c r="I90" s="145"/>
-      <c r="J90" s="145"/>
-      <c r="K90" s="146"/>
+      <c r="H90" s="129"/>
+      <c r="I90" s="129"/>
+      <c r="J90" s="129"/>
+      <c r="K90" s="130"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
@@ -11657,19 +11657,19 @@
       </c>
     </row>
     <row r="91" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="141"/>
+      <c r="A91" s="135"/>
       <c r="B91" s="10"/>
       <c r="C91" s="52"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="133" t="s">
+      <c r="G91" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="H91" s="133"/>
-      <c r="I91" s="133"/>
-      <c r="J91" s="133"/>
-      <c r="K91" s="133"/>
+      <c r="H91" s="127"/>
+      <c r="I91" s="127"/>
+      <c r="J91" s="127"/>
+      <c r="K91" s="127"/>
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
@@ -11693,19 +11693,19 @@
       </c>
     </row>
     <row r="92" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="142"/>
+      <c r="A92" s="138"/>
       <c r="B92" s="10"/>
       <c r="C92" s="53"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="133" t="s">
+      <c r="G92" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="H92" s="133"/>
-      <c r="I92" s="133"/>
-      <c r="J92" s="133"/>
-      <c r="K92" s="133"/>
+      <c r="H92" s="127"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="127"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -11731,23 +11731,23 @@
       </c>
     </row>
     <row r="93" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="140">
+      <c r="A93" s="134">
         <v>15</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="53"/>
-      <c r="D93" s="171" t="s">
+      <c r="D93" s="152" t="s">
         <v>262</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="133" t="s">
+      <c r="G93" s="127" t="s">
         <v>263</v>
       </c>
-      <c r="H93" s="133"/>
-      <c r="I93" s="133"/>
-      <c r="J93" s="133"/>
-      <c r="K93" s="133"/>
+      <c r="H93" s="127"/>
+      <c r="I93" s="127"/>
+      <c r="J93" s="127"/>
+      <c r="K93" s="127"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -11773,19 +11773,19 @@
       </c>
     </row>
     <row r="94" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="141"/>
+      <c r="A94" s="135"/>
       <c r="B94" s="10"/>
       <c r="C94" s="53"/>
-      <c r="D94" s="173"/>
+      <c r="D94" s="153"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="144" t="s">
+      <c r="G94" s="128" t="s">
         <v>264</v>
       </c>
-      <c r="H94" s="145"/>
-      <c r="I94" s="145"/>
-      <c r="J94" s="145"/>
-      <c r="K94" s="146"/>
+      <c r="H94" s="129"/>
+      <c r="I94" s="129"/>
+      <c r="J94" s="129"/>
+      <c r="K94" s="130"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
@@ -11810,19 +11810,19 @@
       </c>
     </row>
     <row r="95" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="141"/>
+      <c r="A95" s="135"/>
       <c r="B95" s="10"/>
       <c r="C95" s="53"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="133" t="s">
+      <c r="G95" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="H95" s="133"/>
-      <c r="I95" s="133"/>
-      <c r="J95" s="133"/>
-      <c r="K95" s="133"/>
+      <c r="H95" s="127"/>
+      <c r="I95" s="127"/>
+      <c r="J95" s="127"/>
+      <c r="K95" s="127"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -11846,18 +11846,18 @@
       </c>
     </row>
     <row r="96" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="141"/>
+      <c r="A96" s="135"/>
       <c r="B96" s="10"/>
       <c r="D96" s="54"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="133" t="s">
+      <c r="G96" s="127" t="s">
         <v>267</v>
       </c>
-      <c r="H96" s="133"/>
-      <c r="I96" s="133"/>
-      <c r="J96" s="133"/>
-      <c r="K96" s="133"/>
+      <c r="H96" s="127"/>
+      <c r="I96" s="127"/>
+      <c r="J96" s="127"/>
+      <c r="K96" s="127"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -11881,7 +11881,7 @@
       </c>
     </row>
     <row r="97" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="141"/>
+      <c r="A97" s="135"/>
       <c r="B97" s="10"/>
       <c r="C97" s="53" t="s">
         <v>268</v>
@@ -11889,13 +11889,13 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="133" t="s">
+      <c r="G97" s="127" t="s">
         <v>269</v>
       </c>
-      <c r="H97" s="133"/>
-      <c r="I97" s="133"/>
-      <c r="J97" s="133"/>
-      <c r="K97" s="133"/>
+      <c r="H97" s="127"/>
+      <c r="I97" s="127"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="127"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -11921,20 +11921,20 @@
       </c>
     </row>
     <row r="98" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="141"/>
+      <c r="A98" s="135"/>
       <c r="B98" s="10"/>
       <c r="C98" s="55" t="s">
         <v>270</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="133" t="s">
+      <c r="G98" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="H98" s="133"/>
-      <c r="I98" s="133"/>
-      <c r="J98" s="133"/>
-      <c r="K98" s="133"/>
+      <c r="H98" s="127"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="127"/>
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -11956,7 +11956,7 @@
       <c r="Y98" s="10"/>
     </row>
     <row r="99" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="142"/>
+      <c r="A99" s="138"/>
       <c r="B99" s="10"/>
       <c r="C99" s="53" t="s">
         <v>2</v>
@@ -11964,13 +11964,13 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="133" t="s">
+      <c r="G99" s="127" t="s">
         <v>272</v>
       </c>
-      <c r="H99" s="133"/>
-      <c r="I99" s="133"/>
-      <c r="J99" s="133"/>
-      <c r="K99" s="133"/>
+      <c r="H99" s="127"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="127"/>
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -12000,25 +12000,25 @@
       </c>
     </row>
     <row r="100" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="139">
+      <c r="A100" s="123">
         <v>16</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="D100" s="174" t="s">
+      <c r="D100" s="147" t="s">
         <v>275</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="183" t="s">
+      <c r="G100" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="H100" s="133"/>
-      <c r="I100" s="133"/>
-      <c r="J100" s="133"/>
-      <c r="K100" s="133"/>
+      <c r="H100" s="127"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="127"/>
+      <c r="K100" s="127"/>
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
       <c r="N100" s="11"/>
@@ -12044,19 +12044,19 @@
       </c>
     </row>
     <row r="101" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="139"/>
+      <c r="A101" s="123"/>
       <c r="B101" s="10"/>
       <c r="C101" s="53"/>
-      <c r="D101" s="181"/>
+      <c r="D101" s="148"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="133" t="s">
+      <c r="G101" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="H101" s="133"/>
-      <c r="I101" s="133"/>
-      <c r="J101" s="133"/>
-      <c r="K101" s="133"/>
+      <c r="H101" s="127"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="127"/>
+      <c r="K101" s="127"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -12080,19 +12080,19 @@
       </c>
     </row>
     <row r="102" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="139"/>
+      <c r="A102" s="123"/>
       <c r="B102" s="10"/>
       <c r="C102" s="53"/>
-      <c r="D102" s="175"/>
+      <c r="D102" s="149"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="133" t="s">
+      <c r="G102" s="127" t="s">
         <v>278</v>
       </c>
-      <c r="H102" s="133"/>
-      <c r="I102" s="133"/>
-      <c r="J102" s="133"/>
-      <c r="K102" s="133"/>
+      <c r="H102" s="127"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="127"/>
+      <c r="K102" s="127"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -12116,7 +12116,7 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="139"/>
+      <c r="A103" s="123"/>
       <c r="B103" s="10"/>
       <c r="C103" s="53"/>
       <c r="D103" s="56" t="s">
@@ -12124,13 +12124,13 @@
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="133" t="s">
+      <c r="G103" s="127" t="s">
         <v>280</v>
       </c>
-      <c r="H103" s="133"/>
-      <c r="I103" s="133"/>
-      <c r="J103" s="133"/>
-      <c r="K103" s="133"/>
+      <c r="H103" s="127"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="127"/>
+      <c r="K103" s="127"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -12154,7 +12154,7 @@
       </c>
     </row>
     <row r="104" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="139"/>
+      <c r="A104" s="123"/>
       <c r="B104" s="10"/>
       <c r="C104" s="53"/>
       <c r="D104" s="57" t="s">
@@ -12162,13 +12162,13 @@
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="133" t="s">
+      <c r="G104" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="H104" s="133"/>
-      <c r="I104" s="133"/>
-      <c r="J104" s="133"/>
-      <c r="K104" s="133"/>
+      <c r="H104" s="127"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="127"/>
+      <c r="K104" s="127"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -12192,17 +12192,17 @@
       </c>
     </row>
     <row r="105" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="139"/>
+      <c r="A105" s="123"/>
       <c r="B105" s="58"/>
       <c r="C105" s="59"/>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
       <c r="F105" s="58"/>
-      <c r="G105" s="133"/>
-      <c r="H105" s="133"/>
-      <c r="I105" s="133"/>
-      <c r="J105" s="133"/>
-      <c r="K105" s="133"/>
+      <c r="G105" s="127"/>
+      <c r="H105" s="127"/>
+      <c r="I105" s="127"/>
+      <c r="J105" s="127"/>
+      <c r="K105" s="127"/>
       <c r="L105" s="60"/>
       <c r="M105" s="60"/>
       <c r="N105" s="60"/>
@@ -12226,7 +12226,7 @@
       </c>
     </row>
     <row r="106" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="140">
+      <c r="A106" s="134">
         <v>17</v>
       </c>
       <c r="B106" s="10"/>
@@ -12236,13 +12236,13 @@
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="184" t="s">
+      <c r="G106" s="150" t="s">
         <v>284</v>
       </c>
-      <c r="H106" s="185"/>
-      <c r="I106" s="185"/>
-      <c r="J106" s="185"/>
-      <c r="K106" s="185"/>
+      <c r="H106" s="151"/>
+      <c r="I106" s="151"/>
+      <c r="J106" s="151"/>
+      <c r="K106" s="151"/>
       <c r="L106" s="61"/>
       <c r="M106" s="61"/>
       <c r="N106" s="61"/>
@@ -12268,19 +12268,19 @@
       </c>
     </row>
     <row r="107" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="141"/>
+      <c r="A107" s="135"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="133" t="s">
+      <c r="G107" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="H107" s="133"/>
-      <c r="I107" s="133"/>
-      <c r="J107" s="133"/>
-      <c r="K107" s="133"/>
+      <c r="H107" s="127"/>
+      <c r="I107" s="127"/>
+      <c r="J107" s="127"/>
+      <c r="K107" s="127"/>
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
@@ -12304,19 +12304,19 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="142"/>
+      <c r="A108" s="138"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="133" t="s">
+      <c r="G108" s="127" t="s">
         <v>286</v>
       </c>
-      <c r="H108" s="133"/>
-      <c r="I108" s="133"/>
-      <c r="J108" s="133"/>
-      <c r="K108" s="133"/>
+      <c r="H108" s="127"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="127"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
@@ -12342,7 +12342,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="139">
+      <c r="A109" s="123">
         <v>18</v>
       </c>
       <c r="B109" s="10"/>
@@ -12350,13 +12350,13 @@
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="133" t="s">
+      <c r="G109" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="H109" s="133"/>
-      <c r="I109" s="133"/>
-      <c r="J109" s="133"/>
-      <c r="K109" s="133"/>
+      <c r="H109" s="127"/>
+      <c r="I109" s="127"/>
+      <c r="J109" s="127"/>
+      <c r="K109" s="127"/>
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
       <c r="N109" s="11"/>
@@ -12379,19 +12379,19 @@
       </c>
     </row>
     <row r="110" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="139"/>
+      <c r="A110" s="123"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="62"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="133" t="s">
+      <c r="G110" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="H110" s="133"/>
-      <c r="I110" s="133"/>
-      <c r="J110" s="133"/>
-      <c r="K110" s="133"/>
+      <c r="H110" s="127"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="127"/>
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
       <c r="N110" s="11"/>
@@ -12417,7 +12417,7 @@
       </c>
     </row>
     <row r="111" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="139"/>
+      <c r="A111" s="123"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10" t="s">
         <v>290</v>
@@ -12425,13 +12425,13 @@
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="133" t="s">
+      <c r="G111" s="127" t="s">
         <v>291</v>
       </c>
-      <c r="H111" s="133"/>
-      <c r="I111" s="133"/>
-      <c r="J111" s="133"/>
-      <c r="K111" s="133"/>
+      <c r="H111" s="127"/>
+      <c r="I111" s="127"/>
+      <c r="J111" s="127"/>
+      <c r="K111" s="127"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
@@ -12455,19 +12455,19 @@
       </c>
     </row>
     <row r="112" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="139"/>
+      <c r="A112" s="123"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="144" t="s">
+      <c r="G112" s="128" t="s">
         <v>292</v>
       </c>
-      <c r="H112" s="145"/>
-      <c r="I112" s="145"/>
-      <c r="J112" s="145"/>
-      <c r="K112" s="146"/>
+      <c r="H112" s="129"/>
+      <c r="I112" s="129"/>
+      <c r="J112" s="129"/>
+      <c r="K112" s="130"/>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
@@ -12491,18 +12491,18 @@
       </c>
     </row>
     <row r="113" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="139"/>
+      <c r="A113" s="123"/>
       <c r="B113" s="10"/>
       <c r="D113" s="63" t="s">
         <v>293</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="144"/>
-      <c r="H113" s="145"/>
-      <c r="I113" s="145"/>
-      <c r="J113" s="145"/>
-      <c r="K113" s="146"/>
+      <c r="G113" s="128"/>
+      <c r="H113" s="129"/>
+      <c r="I113" s="129"/>
+      <c r="J113" s="129"/>
+      <c r="K113" s="130"/>
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
@@ -12534,23 +12534,23 @@
       </c>
     </row>
     <row r="114" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="140">
+      <c r="A114" s="134">
         <v>19</v>
       </c>
-      <c r="B114" s="123"/>
-      <c r="C114" s="186" t="s">
+      <c r="B114" s="139"/>
+      <c r="C114" s="141" t="s">
         <v>296</v>
       </c>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="133" t="s">
+      <c r="G114" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="H114" s="133"/>
-      <c r="I114" s="133"/>
-      <c r="J114" s="133"/>
-      <c r="K114" s="133"/>
+      <c r="H114" s="127"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
+      <c r="K114" s="127"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
@@ -12573,19 +12573,19 @@
       <c r="Y114" s="10"/>
     </row>
     <row r="115" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="141"/>
-      <c r="B115" s="125"/>
-      <c r="C115" s="187"/>
+      <c r="A115" s="135"/>
+      <c r="B115" s="140"/>
+      <c r="C115" s="142"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="183" t="s">
+      <c r="G115" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="H115" s="133"/>
-      <c r="I115" s="133"/>
-      <c r="J115" s="133"/>
-      <c r="K115" s="133"/>
+      <c r="H115" s="127"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="127"/>
+      <c r="K115" s="127"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
@@ -12607,19 +12607,19 @@
       <c r="Y115" s="10"/>
     </row>
     <row r="116" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="141"/>
-      <c r="B116" s="179" t="s">
+      <c r="A116" s="135"/>
+      <c r="B116" s="137" t="s">
         <v>299</v>
       </c>
-      <c r="C116" s="187"/>
+      <c r="C116" s="142"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="133"/>
-      <c r="H116" s="133"/>
-      <c r="I116" s="133"/>
-      <c r="J116" s="133"/>
-      <c r="K116" s="133"/>
+      <c r="G116" s="127"/>
+      <c r="H116" s="127"/>
+      <c r="I116" s="127"/>
+      <c r="J116" s="127"/>
+      <c r="K116" s="127"/>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
@@ -12643,21 +12643,21 @@
       </c>
     </row>
     <row r="117" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="141"/>
-      <c r="B117" s="179"/>
-      <c r="C117" s="187"/>
+      <c r="A117" s="135"/>
+      <c r="B117" s="137"/>
+      <c r="C117" s="142"/>
       <c r="D117" s="65" t="s">
         <v>300</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="188" t="s">
+      <c r="G117" s="143" t="s">
         <v>301</v>
       </c>
-      <c r="H117" s="189"/>
-      <c r="I117" s="189"/>
-      <c r="J117" s="189"/>
-      <c r="K117" s="190"/>
+      <c r="H117" s="144"/>
+      <c r="I117" s="144"/>
+      <c r="J117" s="144"/>
+      <c r="K117" s="145"/>
       <c r="L117" s="66"/>
       <c r="M117" s="66"/>
       <c r="N117" s="66"/>
@@ -12683,19 +12683,19 @@
       </c>
     </row>
     <row r="118" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="141"/>
-      <c r="B118" s="179"/>
-      <c r="C118" s="187"/>
+      <c r="A118" s="135"/>
+      <c r="B118" s="137"/>
+      <c r="C118" s="142"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="191" t="s">
+      <c r="G118" s="146" t="s">
         <v>302</v>
       </c>
-      <c r="H118" s="133"/>
-      <c r="I118" s="133"/>
-      <c r="J118" s="133"/>
-      <c r="K118" s="133"/>
+      <c r="H118" s="127"/>
+      <c r="I118" s="127"/>
+      <c r="J118" s="127"/>
+      <c r="K118" s="127"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
@@ -12725,21 +12725,21 @@
       </c>
     </row>
     <row r="119" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="141"/>
-      <c r="B119" s="179"/>
-      <c r="C119" s="187"/>
+      <c r="A119" s="135"/>
+      <c r="B119" s="137"/>
+      <c r="C119" s="142"/>
       <c r="D119" s="65" t="s">
         <v>305</v>
       </c>
       <c r="E119" s="58"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="144" t="s">
+      <c r="G119" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="H119" s="145"/>
-      <c r="I119" s="145"/>
-      <c r="J119" s="145"/>
-      <c r="K119" s="146"/>
+      <c r="H119" s="129"/>
+      <c r="I119" s="129"/>
+      <c r="J119" s="129"/>
+      <c r="K119" s="130"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
@@ -12763,17 +12763,17 @@
       </c>
     </row>
     <row r="120" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="142"/>
-      <c r="B120" s="162"/>
-      <c r="C120" s="187"/>
+      <c r="A120" s="138"/>
+      <c r="B120" s="124"/>
+      <c r="C120" s="142"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="58"/>
-      <c r="G120" s="144"/>
-      <c r="H120" s="145"/>
-      <c r="I120" s="145"/>
-      <c r="J120" s="145"/>
-      <c r="K120" s="146"/>
+      <c r="G120" s="128"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="129"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="130"/>
       <c r="L120" s="67"/>
       <c r="M120" s="67"/>
       <c r="N120" s="67"/>
@@ -12799,24 +12799,24 @@
       </c>
     </row>
     <row r="121" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="139">
+      <c r="A121" s="123">
         <v>20</v>
       </c>
-      <c r="B121" s="162" t="s">
+      <c r="B121" s="124" t="s">
         <v>307</v>
       </c>
-      <c r="C121" s="163" t="s">
+      <c r="C121" s="125" t="s">
         <v>308</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="133" t="s">
+      <c r="G121" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="H121" s="133"/>
-      <c r="I121" s="133"/>
-      <c r="J121" s="133"/>
-      <c r="K121" s="133"/>
+      <c r="H121" s="127"/>
+      <c r="I121" s="127"/>
+      <c r="J121" s="127"/>
+      <c r="K121" s="127"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
@@ -12839,21 +12839,21 @@
       <c r="Z121" s="10"/>
     </row>
     <row r="122" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="139"/>
-      <c r="B122" s="163"/>
-      <c r="C122" s="163"/>
+      <c r="A122" s="123"/>
+      <c r="B122" s="125"/>
+      <c r="C122" s="125"/>
       <c r="D122" s="65" t="s">
         <v>235</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="144" t="s">
+      <c r="G122" s="128" t="s">
         <v>311</v>
       </c>
-      <c r="H122" s="145"/>
-      <c r="I122" s="145"/>
-      <c r="J122" s="145"/>
-      <c r="K122" s="146"/>
+      <c r="H122" s="129"/>
+      <c r="I122" s="129"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="130"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
@@ -12877,19 +12877,19 @@
       <c r="Z122" s="10"/>
     </row>
     <row r="123" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="139"/>
-      <c r="B123" s="182"/>
-      <c r="C123" s="163"/>
+      <c r="A123" s="123"/>
+      <c r="B123" s="126"/>
+      <c r="C123" s="125"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="192" t="s">
+      <c r="G123" s="131" t="s">
         <v>312</v>
       </c>
-      <c r="H123" s="193"/>
-      <c r="I123" s="193"/>
-      <c r="J123" s="193"/>
-      <c r="K123" s="194"/>
+      <c r="H123" s="132"/>
+      <c r="I123" s="132"/>
+      <c r="J123" s="132"/>
+      <c r="K123" s="133"/>
       <c r="L123" s="69"/>
       <c r="M123" s="69"/>
       <c r="N123" s="69"/>
@@ -12913,22 +12913,22 @@
       <c r="Z123" s="10"/>
     </row>
     <row r="124" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="140">
+      <c r="A124" s="134">
         <v>21</v>
       </c>
-      <c r="B124" s="183" t="s">
+      <c r="B124" s="136" t="s">
         <v>313</v>
       </c>
-      <c r="C124" s="163"/>
+      <c r="C124" s="125"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="133" t="s">
+      <c r="G124" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="H124" s="133"/>
-      <c r="I124" s="133"/>
-      <c r="J124" s="133"/>
-      <c r="K124" s="133"/>
+      <c r="H124" s="127"/>
+      <c r="I124" s="127"/>
+      <c r="J124" s="127"/>
+      <c r="K124" s="127"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
@@ -12949,21 +12949,21 @@
       <c r="Z124" s="10"/>
     </row>
     <row r="125" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="141"/>
-      <c r="B125" s="183"/>
-      <c r="C125" s="163"/>
+      <c r="A125" s="135"/>
+      <c r="B125" s="136"/>
+      <c r="C125" s="125"/>
       <c r="D125" s="63" t="s">
         <v>315</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="144" t="s">
+      <c r="G125" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="145"/>
-      <c r="I125" s="145"/>
-      <c r="J125" s="145"/>
-      <c r="K125" s="146"/>
+      <c r="H125" s="129"/>
+      <c r="I125" s="129"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="130"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
@@ -12986,19 +12986,19 @@
       <c r="Z125" s="10"/>
     </row>
     <row r="126" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="141"/>
-      <c r="B126" s="183"/>
-      <c r="C126" s="182"/>
+      <c r="A126" s="135"/>
+      <c r="B126" s="136"/>
+      <c r="C126" s="126"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="133" t="s">
+      <c r="G126" s="127" t="s">
         <v>317</v>
       </c>
-      <c r="H126" s="133"/>
-      <c r="I126" s="133"/>
-      <c r="J126" s="133"/>
-      <c r="K126" s="133"/>
+      <c r="H126" s="127"/>
+      <c r="I126" s="127"/>
+      <c r="J126" s="127"/>
+      <c r="K126" s="127"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
@@ -13019,13 +13019,13 @@
       <c r="Z126" s="10"/>
     </row>
     <row r="127" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="139">
+      <c r="A127" s="123">
         <v>22</v>
       </c>
-      <c r="B127" s="193" t="s">
+      <c r="B127" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="C127" s="179" t="s">
+      <c r="C127" s="137" t="s">
         <v>319</v>
       </c>
       <c r="D127" s="70" t="s">
@@ -13033,13 +13033,13 @@
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="133" t="s">
+      <c r="G127" s="127" t="s">
         <v>321</v>
       </c>
-      <c r="H127" s="133"/>
-      <c r="I127" s="133"/>
-      <c r="J127" s="133"/>
-      <c r="K127" s="133"/>
+      <c r="H127" s="127"/>
+      <c r="I127" s="127"/>
+      <c r="J127" s="127"/>
+      <c r="K127" s="127"/>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
@@ -13062,19 +13062,19 @@
       <c r="Z127" s="10"/>
     </row>
     <row r="128" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="139"/>
-      <c r="B128" s="193"/>
-      <c r="C128" s="179"/>
+      <c r="A128" s="123"/>
+      <c r="B128" s="132"/>
+      <c r="C128" s="137"/>
       <c r="D128" s="70"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="183" t="s">
+      <c r="G128" s="136" t="s">
         <v>322</v>
       </c>
-      <c r="H128" s="133"/>
-      <c r="I128" s="133"/>
-      <c r="J128" s="133"/>
-      <c r="K128" s="133"/>
+      <c r="H128" s="127"/>
+      <c r="I128" s="127"/>
+      <c r="J128" s="127"/>
+      <c r="K128" s="127"/>
       <c r="L128" s="11"/>
       <c r="M128" s="11"/>
       <c r="N128" s="11"/>
@@ -13095,18 +13095,18 @@
       <c r="Z128" s="10"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A129" s="139"/>
-      <c r="B129" s="162" t="s">
+      <c r="A129" s="123"/>
+      <c r="B129" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="179"/>
-      <c r="G129" s="133" t="s">
+      <c r="C129" s="137"/>
+      <c r="G129" s="127" t="s">
         <v>324</v>
       </c>
-      <c r="H129" s="133"/>
-      <c r="I129" s="133"/>
-      <c r="J129" s="133"/>
-      <c r="K129" s="133"/>
+      <c r="H129" s="127"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="127"/>
+      <c r="K129" s="127"/>
       <c r="L129" s="71"/>
       <c r="M129" s="71"/>
       <c r="N129" s="71"/>
@@ -13116,110 +13116,110 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A130" s="139"/>
-      <c r="B130" s="163"/>
-      <c r="C130" s="179"/>
+      <c r="A130" s="123"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="137"/>
       <c r="R130" s="10">
         <f>SUM($Q$9:Q130)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A131" s="139"/>
-      <c r="B131" s="163"/>
-      <c r="C131" s="179"/>
+      <c r="A131" s="123"/>
+      <c r="B131" s="125"/>
+      <c r="C131" s="137"/>
       <c r="R131" s="10">
         <f>SUM($Q$9:Q131)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A132" s="139"/>
-      <c r="B132" s="163"/>
-      <c r="C132" s="179"/>
+      <c r="A132" s="123"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="137"/>
       <c r="R132" s="10">
         <f>SUM($Q$9:Q132)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A133" s="139"/>
-      <c r="B133" s="163"/>
-      <c r="C133" s="179"/>
+      <c r="A133" s="123"/>
+      <c r="B133" s="125"/>
+      <c r="C133" s="137"/>
       <c r="R133" s="10">
         <f>SUM($Q$9:Q133)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A134" s="139"/>
-      <c r="B134" s="163"/>
-      <c r="C134" s="179"/>
+      <c r="A134" s="123"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="137"/>
       <c r="R134" s="10">
         <f>SUM($Q$9:Q134)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A135" s="139">
+      <c r="A135" s="123">
         <v>23</v>
       </c>
-      <c r="B135" s="163"/>
-      <c r="C135" s="179"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="137"/>
       <c r="R135" s="10">
         <f>SUM($Q$9:Q135)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A136" s="139"/>
-      <c r="B136" s="163"/>
-      <c r="C136" s="179"/>
+      <c r="A136" s="123"/>
+      <c r="B136" s="125"/>
+      <c r="C136" s="137"/>
       <c r="R136" s="10">
         <f>SUM($Q$9:Q136)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A137" s="139"/>
-      <c r="B137" s="163"/>
-      <c r="C137" s="179"/>
+      <c r="A137" s="123"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="137"/>
       <c r="R137" s="10">
         <f>SUM($Q$9:Q137)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A138" s="139"/>
-      <c r="B138" s="163"/>
-      <c r="C138" s="179"/>
+      <c r="A138" s="123"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="137"/>
       <c r="R138" s="10">
         <f>SUM($Q$9:Q138)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A139" s="139"/>
-      <c r="B139" s="163"/>
-      <c r="C139" s="179"/>
+      <c r="A139" s="123"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="137"/>
       <c r="R139" s="10">
         <f>SUM($Q$9:Q139)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A140" s="139"/>
-      <c r="B140" s="163"/>
-      <c r="C140" s="179"/>
+      <c r="A140" s="123"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="137"/>
       <c r="R140" s="10">
         <f>SUM($Q$9:Q140)</f>
         <v>271.65092362949309</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A141" s="139"/>
-      <c r="B141" s="182"/>
-      <c r="C141" s="179"/>
+      <c r="A141" s="123"/>
+      <c r="B141" s="126"/>
+      <c r="C141" s="137"/>
       <c r="R141" s="24">
         <f>SUM($Q$9:Q141)</f>
         <v>271.65092362949309</v>
@@ -13230,73 +13230,131 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C126"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="G122:K122"/>
-    <mergeCell ref="G123:K123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="G124:K124"/>
-    <mergeCell ref="G125:K125"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="A127:A134"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="G127:K127"/>
-    <mergeCell ref="G128:K128"/>
-    <mergeCell ref="B129:B141"/>
-    <mergeCell ref="G129:K129"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="G110:K110"/>
-    <mergeCell ref="G111:K111"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G113:K113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="G101:K101"/>
-    <mergeCell ref="G102:K102"/>
-    <mergeCell ref="G103:K103"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="G105:K105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G108:K108"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="G93:K93"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="G95:K95"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G97:K97"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:K99"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:K86"/>
-    <mergeCell ref="G87:K87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="G88:K88"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B9:B45"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:K6"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="F32:F41"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="G43:K43"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B85"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="G51:K51"/>
+    <mergeCell ref="G52:K52"/>
+    <mergeCell ref="G53:K53"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="G62:K62"/>
     <mergeCell ref="G77:K77"/>
     <mergeCell ref="G78:K78"/>
     <mergeCell ref="A79:A82"/>
@@ -13321,131 +13379,73 @@
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="G83:K83"/>
     <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="C57:C66"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="G57:K57"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B85"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="G52:K52"/>
-    <mergeCell ref="G53:K53"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="G68:K68"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="F32:F41"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="G43:K43"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B45"/>
-    <mergeCell ref="C9:C17"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:K6"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="G88:K88"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="G95:K95"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G97:K97"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="G101:K101"/>
+    <mergeCell ref="G102:K102"/>
+    <mergeCell ref="G103:K103"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="G105:K105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="G108:K108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C126"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="A127:A134"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="G127:K127"/>
+    <mergeCell ref="G128:K128"/>
+    <mergeCell ref="B129:B141"/>
+    <mergeCell ref="G129:K129"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13758,7 +13758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -13788,10 +13788,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D1" t="s">
         <v>615</v>
@@ -13850,13 +13850,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F3" s="84" t="s">
         <v>559</v>
@@ -13874,7 +13874,7 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="O3">
         <v>30</v>
@@ -13895,13 +13895,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F4" s="84" t="s">
         <v>536</v>
@@ -13985,7 +13985,7 @@
         <v>580</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I6" s="6"/>
       <c r="P6">
@@ -14001,7 +14001,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -14050,12 +14050,12 @@
         <v>578</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G8" s="84"/>
       <c r="I8" s="6"/>
       <c r="N8" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P8">
         <v>5000</v>
@@ -14070,13 +14070,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>539</v>
@@ -14133,7 +14133,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P10">
         <v>2800</v>
@@ -14184,7 +14184,7 @@
         <v>3600</v>
       </c>
       <c r="R11" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="S11">
         <v>70013</v>
@@ -14250,10 +14250,10 @@
         <v>608</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="N13" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="P13">
         <v>4000</v>
@@ -14280,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -14289,7 +14289,7 @@
         <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="N14">
         <v>50002</v>
@@ -14301,7 +14301,7 @@
         <v>300</v>
       </c>
       <c r="U14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
@@ -14310,19 +14310,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="N15" t="s">
         <v>763</v>
-      </c>
-      <c r="N15" t="s">
-        <v>766</v>
       </c>
       <c r="O15">
         <v>8</v>
@@ -14331,7 +14331,7 @@
         <v>300</v>
       </c>
       <c r="U15" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
@@ -14340,16 +14340,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="N16">
         <v>50002</v>
@@ -14361,7 +14361,7 @@
         <v>300</v>
       </c>
       <c r="U16" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
@@ -14394,7 +14394,7 @@
         <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="S17">
         <v>70003</v>
@@ -14451,7 +14451,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>545</v>
@@ -14763,13 +14763,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D28" s="2">
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>571</v>
@@ -14802,16 +14802,16 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D29" s="2">
         <v>11</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="H29" s="86"/>
       <c r="P29">
@@ -15052,16 +15052,16 @@
         <v>3</v>
       </c>
       <c r="C36" s="120" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D36" s="2">
         <v>22</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G36" s="87"/>
       <c r="H36" s="113"/>
@@ -15078,16 +15078,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="120" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D37" s="2">
         <v>22</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H37" s="113"/>
       <c r="I37" s="88"/>
@@ -15109,10 +15109,10 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="H38" s="86" t="s">
         <v>331</v>
@@ -15137,16 +15137,16 @@
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D39" s="2">
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="N39" t="s">
         <v>611</v>
@@ -15173,10 +15173,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G40" s="1"/>
       <c r="N40" t="s">
@@ -15199,16 +15199,16 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D41" s="2">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G41" s="1"/>
       <c r="N41" t="s">
@@ -15227,23 +15227,23 @@
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="121"/>
       <c r="B42" s="114" t="s">
+        <v>790</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="D42" s="2">
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G42" s="1"/>
       <c r="N42" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="O42">
         <v>5000</v>
@@ -15254,23 +15254,23 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B43" s="119" t="s">
+        <v>791</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="D43" s="2">
         <v>11</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G43" s="1"/>
       <c r="N43" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="O43">
         <v>8000</v>
@@ -15281,19 +15281,19 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B44" s="119" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D44" s="2">
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G44" s="1"/>
       <c r="O44">
@@ -15305,19 +15305,19 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B45" s="119" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D45" s="2">
         <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G45" s="1"/>
       <c r="O45">
@@ -15329,19 +15329,19 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B46" s="119" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D46" s="2">
         <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G46" s="1"/>
       <c r="O46">
@@ -15353,23 +15353,23 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B47" s="119" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D47" s="2">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G47" s="1"/>
       <c r="N47" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="Q47">
         <v>30</v>

--- a/gd/任务系统/任务线设计___附带条件需求.xlsx
+++ b/gd/任务系统/任务线设计___附带条件需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="21915" yWindow="2130" windowWidth="27795" windowHeight="11445"/>
+    <workbookView xWindow="28500" yWindow="1575" windowWidth="29550" windowHeight="10530" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="主线剧情任务" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="862">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2324,14 +2324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公会类任务奖励现在不能发公会币(帅帅说可以)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔类任务奖励也不能发通天塔币(帅帅说可以)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验药2000是啥意思？是经验还是经验药？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2665,111 +2657,781 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进行公会祈祷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物经验奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务接取等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶1宠物至绿+1{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流浪狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花小仙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升阶到绿+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级宠物至10级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1只宠物升到10级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取章节1奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(装备升阶石)11001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一次大冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备开孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈祷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱试炼一次（通关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将冰雪女王装备穿戴至少2件{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异界伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的线索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物15级三只</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒的磨练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物升级到15级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-8通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-8通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关2-3 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关2-4 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关2-7 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关2-8 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-3 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-4 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-7 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-8 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-3 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-4 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-7 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关4-8 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关5-3 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关5-4 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关5-7 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关5-8 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关6-3 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关6-4 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关6-7 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关6-8 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关7-3 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关7-4 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关7-7 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关7-8 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-8通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-3通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-4通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-7通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3大10中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3大10中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4大10中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7大</t>
+  </si>
+  <si>
+    <t>8大</t>
+  </si>
+  <si>
+    <t>9大</t>
+  </si>
+  <si>
+    <t>12大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻40</t>
+  </si>
+  <si>
+    <t>击败挑战4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战5-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战5-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑2-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑5-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑6-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战6-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战6-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战7-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成花魄{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10经验药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝瞳小丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘胜追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈狼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集齐碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某只宠物穿戴至少2件{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时2</t>
+  </si>
+  <si>
+    <t>合成宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用经验药1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡2-4</t>
+  </si>
+  <si>
+    <t>再次通关3次 2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 2-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 2-8</t>
+  </si>
+  <si>
+    <t>支线扫荡2-8</t>
+  </si>
+  <si>
     <t>加入公会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行公会祈祷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物经验奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务接取等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物强化石10017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶1宠物至绿+1{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流浪狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花小仙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升阶到绿+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级宠物至10级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1只宠物升到10级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取章节1奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(装备升阶石)11001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开公会任务切页查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成一次大冒险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备开孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五行秘境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五行秘境界面查看。。</t>
+    <t>公会祈福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入公户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会祈福一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建或加入公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日完成普通副本数</t>
+  </si>
+  <si>
+    <t>今日完成精英副本数</t>
+  </si>
+  <si>
+    <t>今日技能升级数</t>
+  </si>
+  <si>
+    <t>今日装备升级数</t>
+  </si>
+  <si>
+    <t>今日购买金币次数</t>
+  </si>
+  <si>
+    <t>今日商店刷新</t>
+  </si>
+  <si>
+    <t>每日剧情副本</t>
+  </si>
+  <si>
+    <t>每日通关挑战副本</t>
+  </si>
+  <si>
+    <t>每日技能升级</t>
+  </si>
+  <si>
+    <t>每日装备升级</t>
+  </si>
+  <si>
+    <t>每日金币购买</t>
+  </si>
+  <si>
+    <t>每日商店刷新</t>
+  </si>
+  <si>
+    <t>完成挑战本1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成挑战本1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡2-3</t>
+  </si>
+  <si>
+    <t>扫荡2-4</t>
+  </si>
+  <si>
+    <t>扫荡2-7</t>
+  </si>
+  <si>
+    <t>扫荡2-8</t>
+  </si>
+  <si>
+    <t>剧情副本10次</t>
+  </si>
+  <si>
+    <t>通关挑战副本3次</t>
+  </si>
+  <si>
+    <t>技能升级3次</t>
+  </si>
+  <si>
+    <t>装备升级1次</t>
+  </si>
+  <si>
+    <t>购买金币1次</t>
+  </si>
+  <si>
+    <t>刷新商店1次</t>
+  </si>
+  <si>
+    <t>5钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小经验药X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验药X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用经验药1次{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻通天塔一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有10个以上的宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募到10个宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一个公会任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2777,725 +3439,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公会祈祷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱试炼一次（通关）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将冰雪女王装备穿戴至少2件{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异界伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的线索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼高塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱试炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团结之力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物15级三只</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永恒的磨练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物升级到15级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-4通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-8通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-8通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-8通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-4通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-8通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关2-3 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关2-4 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关2-7 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关2-8 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-3 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-4 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-7 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关3-8 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-3 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-4 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-7 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关4-8 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关5-3 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关5-4 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关5-7 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关5-8 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关6-3 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关6-4 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关6-7 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关6-8 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关7-3 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关7-4 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关7-7 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关7-8 3次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-4通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-8通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-3通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-4通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-7通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8通关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3大10中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3大10中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4大10中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7大</t>
-  </si>
-  <si>
-    <t>8大</t>
-  </si>
-  <si>
-    <t>9大</t>
-  </si>
-  <si>
-    <t>12大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻40</t>
-  </si>
-  <si>
-    <t>击败挑战4-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战4-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战5-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战5-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑1-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑1-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑2-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑3-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑4-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑4-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑5-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑5-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑6-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑6-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战6-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战6-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑7-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战7-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击败挑战7-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣誉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼2次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成花魄{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王碎片20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王碎片20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王碎片20,20018 30个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10经验药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝瞳小丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘胜追击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不屈狼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集齐碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关1-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某只宠物穿戴至少2件{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王碎片，50002 8个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法D,1号物理D,1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御头盔,H1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时2</t>
-  </si>
-  <si>
-    <t>抽蛋一次(直接完成)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成冰雪女王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成冰雪女王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪女王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用经验药1次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽蛋1次{0}（直接完成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花魄碎片20009（临时奖励）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线扫荡2-4</t>
-  </si>
-  <si>
-    <t>再次通关3次 2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次通关3次 2-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次通关3次 2-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次通关3次 2-8</t>
-  </si>
-  <si>
-    <t>支线扫荡2-8</t>
-  </si>
-  <si>
-    <t>加入公会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会祈福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入公户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会祈福一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建或加入公会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日完成普通副本数</t>
-  </si>
-  <si>
-    <t>今日完成精英副本数</t>
-  </si>
-  <si>
-    <t>今日技能升级数</t>
-  </si>
-  <si>
-    <t>今日装备升级数</t>
-  </si>
-  <si>
-    <t>今日购买金币次数</t>
-  </si>
-  <si>
-    <t>今日商店刷新</t>
-  </si>
-  <si>
-    <t>每日剧情副本</t>
-  </si>
-  <si>
-    <t>每日通关挑战副本</t>
-  </si>
-  <si>
-    <t>每日技能升级</t>
-  </si>
-  <si>
-    <t>每日装备升级</t>
-  </si>
-  <si>
-    <t>每日金币购买</t>
-  </si>
-  <si>
-    <t>每日商店刷新</t>
-  </si>
-  <si>
-    <t>完成挑战本1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成挑战本1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡2-3</t>
-  </si>
-  <si>
-    <t>扫荡2-4</t>
-  </si>
-  <si>
-    <t>扫荡2-7</t>
-  </si>
-  <si>
-    <t>扫荡2-8</t>
-  </si>
-  <si>
-    <t>剧情副本10次</t>
-  </si>
-  <si>
-    <t>通关挑战副本3次</t>
-  </si>
-  <si>
-    <t>技能升级3次</t>
-  </si>
-  <si>
-    <t>装备升级1次</t>
-  </si>
-  <si>
-    <t>购买金币1次</t>
-  </si>
-  <si>
-    <t>刷新商店1次</t>
-  </si>
-  <si>
-    <t>5钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小经验药X3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中经验药X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用经验药1次{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻通天塔一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有10个以上的宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募到10个宠物</t>
+    <t>创建或加入一个公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑石监狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱进发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关香巴拉试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次通天塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力进化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1只20级宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小有成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色进阶前置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有2只绿+1品阶宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成花魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次抽蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强引导至钻石抽蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赐神宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花魄碎片20009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线扫荡4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次通关3次 4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡3-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋1次{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法D,1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御头盔,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法2号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3503,7 +3651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3704,14 +3852,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4232,10 +4372,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4253,6 +4389,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4832,14 +4974,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4864,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C1" t="s">
         <v>329</v>
@@ -4873,10 +5015,10 @@
         <v>330</v>
       </c>
       <c r="E1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G1" s="85" t="s">
         <v>3</v>
@@ -4889,7 +5031,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="112" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="97"/>
@@ -4907,76 +5049,79 @@
         <v>354</v>
       </c>
       <c r="O2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="Q2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="121">
+      <c r="A3" s="120"/>
+      <c r="B3" s="120">
         <v>1</v>
       </c>
-      <c r="B3" s="97">
+      <c r="C3" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E3" t="s">
+        <v>826</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="121">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D3" s="83" t="s">
-        <v>524</v>
-      </c>
-      <c r="E3" s="108" t="s">
-        <v>538</v>
-      </c>
-      <c r="F3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="K3" s="77">
-        <v>350</v>
-      </c>
-      <c r="L3" s="77">
-        <v>9</v>
-      </c>
-      <c r="O3">
-        <v>1000</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="121"/>
-      <c r="B4" s="114">
+      <c r="B4" s="97">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" t="s">
+        <v>823</v>
+      </c>
       <c r="D4" s="83"/>
       <c r="E4" s="108"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="121"/>
-      <c r="B5" s="97">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>579</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>580</v>
-      </c>
-      <c r="E5" s="108"/>
+        <v>522</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>4</v>
+      </c>
       <c r="H5" s="6"/>
+      <c r="K5" s="77">
+        <v>350</v>
+      </c>
+      <c r="L5" s="77">
+        <v>9</v>
+      </c>
       <c r="O5">
-        <v>1500</v>
+        <v>1000</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
@@ -4985,32 +5130,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>576</v>
-      </c>
-      <c r="E6" s="108" t="s">
-        <v>537</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>509</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>331</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>578</v>
+      </c>
+      <c r="E6" s="108"/>
       <c r="H6" s="6"/>
-      <c r="K6" s="77">
-        <v>400</v>
-      </c>
-      <c r="L6" s="77">
-        <v>9</v>
-      </c>
       <c r="O6">
-        <v>2500</v>
-      </c>
-      <c r="P6">
-        <v>9</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
@@ -5019,87 +5147,85 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>578</v>
+        <v>580</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>574</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>619</v>
-      </c>
-      <c r="F7" s="84"/>
+        <v>535</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>509</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>331</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="M7" t="s">
-        <v>755</v>
+      <c r="K7" s="77">
+        <v>400</v>
+      </c>
+      <c r="L7" s="77">
+        <v>9</v>
       </c>
       <c r="O7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
+        <v>2500</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="121"/>
       <c r="B8" s="97">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>539</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="K8" s="77">
-        <v>700</v>
-      </c>
-      <c r="L8" s="77">
-        <v>12</v>
+        <v>575</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>576</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>614</v>
+      </c>
+      <c r="F8" s="84"/>
+      <c r="H8" s="6"/>
+      <c r="M8" t="s">
+        <v>742</v>
       </c>
       <c r="O8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="121"/>
       <c r="B9" s="97">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>526</v>
+        <v>581</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>540</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="85" t="s">
-        <v>336</v>
+        <v>537</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>331</v>
       </c>
       <c r="K9" s="77">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L9" s="77">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O9">
-        <v>2800</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>348</v>
-      </c>
-      <c r="R9">
-        <v>70013</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -5108,40 +5234,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>528</v>
+        <v>582</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>524</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>336</v>
       </c>
       <c r="K10" s="77">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L10" s="77">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O10">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="Q10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R10">
-        <v>70002</v>
-      </c>
-      <c r="S10">
-        <v>70020</v>
-      </c>
-      <c r="T10" t="s">
-        <v>505</v>
+        <v>70013</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -5150,37 +5270,40 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G11" s="85" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="K11" s="77">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O11">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="Q11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R11">
-        <v>70013</v>
+        <v>70002</v>
       </c>
       <c r="S11">
-        <v>70019</v>
+        <v>70020</v>
+      </c>
+      <c r="T11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -5189,52 +5312,67 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>608</v>
+        <v>584</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>620</v>
+        <v>540</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="K12" s="77">
+        <v>1150</v>
+      </c>
+      <c r="L12" s="77">
+        <v>35</v>
       </c>
       <c r="O12">
-        <v>4000</v>
+        <v>3600</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>350</v>
+      </c>
+      <c r="R12">
+        <v>70013</v>
+      </c>
+      <c r="S12">
+        <v>70019</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="121"/>
-      <c r="B13" s="114">
+      <c r="B13" s="97">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="104"/>
+        <v>585</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>615</v>
+      </c>
+      <c r="O13">
+        <v>4000</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="121"/>
-      <c r="B14" s="97">
+      <c r="B14" s="112">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>544</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="O14">
-        <v>5000</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="121"/>
@@ -5242,22 +5380,22 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>641</v>
+        <v>528</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G15" s="86" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O15">
-        <v>5500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
@@ -5266,28 +5404,22 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>531</v>
+        <v>587</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>632</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>334</v>
-      </c>
-      <c r="M16" t="s">
-        <v>627</v>
-      </c>
-      <c r="N16">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c r="O16">
-        <v>6000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -5296,121 +5428,124 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>532</v>
+        <v>588</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>529</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G17" s="86" t="s">
         <v>334</v>
       </c>
+      <c r="M17" t="s">
+        <v>622</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
       <c r="O17">
-        <v>6600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="121">
-        <v>2</v>
-      </c>
+      <c r="A18" s="121"/>
       <c r="B18" s="97">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>626</v>
+        <v>405</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="N18">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="O18">
-        <v>7200</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="121"/>
+      <c r="A19" s="121">
+        <v>2</v>
+      </c>
       <c r="B19" s="97">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>549</v>
-      </c>
-      <c r="G19" s="86"/>
+        <v>546</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>404</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
       <c r="O19">
-        <v>7800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="121"/>
       <c r="B20" s="97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>590</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>543</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>357</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="G20" s="86"/>
       <c r="O20">
-        <v>4500</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="121"/>
       <c r="B21" s="97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>593</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>414</v>
+        <v>527</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>331</v>
-      </c>
-      <c r="M21">
-        <v>10005</v>
+        <v>357</v>
       </c>
       <c r="O21">
-        <v>8400</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
@@ -5419,28 +5554,25 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>560</v>
+        <v>591</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>550</v>
-      </c>
-      <c r="F22" s="78" t="s">
-        <v>514</v>
+        <v>570</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="M22">
-        <v>50003</v>
-      </c>
-      <c r="N22">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="O22">
-        <v>9000</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -5449,22 +5581,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>624</v>
+        <v>592</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>558</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>551</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>625</v>
+        <v>548</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>514</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>448</v>
       </c>
+      <c r="M23">
+        <v>50003</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
       <c r="O23">
-        <v>9700</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
@@ -5473,22 +5611,22 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>562</v>
+        <v>586</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>423</v>
+        <v>620</v>
       </c>
       <c r="G24" s="86" t="s">
-        <v>573</v>
+        <v>448</v>
       </c>
       <c r="O24">
-        <v>10400</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
@@ -5497,20 +5635,22 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E25" s="104" t="s">
-        <v>553</v>
-      </c>
-      <c r="F25" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="G25" s="86" t="s">
-        <v>448</v>
+        <v>571</v>
       </c>
       <c r="O25">
-        <v>11100</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -5519,73 +5659,71 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>566</v>
+        <v>594</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>561</v>
       </c>
       <c r="E26" s="104" t="s">
-        <v>571</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>446</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="86" t="s">
         <v>448</v>
       </c>
-      <c r="M26" t="s">
-        <v>447</v>
-      </c>
-      <c r="N26">
-        <v>15</v>
-      </c>
       <c r="O26">
-        <v>11800</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="121"/>
-      <c r="B27" s="98">
+      <c r="B27" s="97">
         <v>1</v>
       </c>
-      <c r="C27" s="103" t="s">
-        <v>650</v>
-      </c>
-      <c r="D27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="E27" s="104" t="s">
-        <v>651</v>
-      </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
+        <v>569</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="M27" t="s">
+        <v>447</v>
+      </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <v>11800</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="121"/>
-      <c r="B28" s="97">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="B28" s="98">
+        <v>1</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>640</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="104" t="s">
-        <v>623</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G28" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="O28">
-        <v>12500</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="121"/>
@@ -5593,142 +5731,128 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>565</v>
+        <v>595</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="E29" s="104" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="G29" s="86" t="s">
-        <v>331</v>
+        <v>573</v>
       </c>
       <c r="O29">
-        <v>13200</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="121"/>
       <c r="B30" s="97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>564</v>
+        <v>596</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>563</v>
       </c>
       <c r="E30" s="104" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="G30" s="86" t="s">
         <v>331</v>
       </c>
       <c r="O30">
-        <v>13900</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="97"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="97">
         <v>1</v>
       </c>
-      <c r="C31" s="115" t="s">
-        <v>822</v>
-      </c>
-      <c r="D31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>562</v>
+      </c>
       <c r="E31" s="104" t="s">
-        <v>644</v>
-      </c>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
+        <v>552</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G31" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="O31">
+        <v>13900</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97">
+      <c r="A32" s="119"/>
+      <c r="B32" s="119">
         <v>1</v>
       </c>
-      <c r="C32" s="115" t="s">
-        <v>640</v>
-      </c>
-      <c r="D32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>812</v>
+      </c>
       <c r="E32" s="104" t="s">
-        <v>645</v>
-      </c>
-      <c r="F32" s="92"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
+        <v>813</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="86"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="97"/>
       <c r="B33" s="97">
-        <v>2</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>600</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>567</v>
-      </c>
-      <c r="E33" s="106" t="s">
-        <v>556</v>
-      </c>
-      <c r="F33" s="92" t="s">
-        <v>489</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C33" s="113" t="s">
+        <v>803</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E33" s="104" t="s">
+        <v>814</v>
+      </c>
+      <c r="F33" s="92"/>
       <c r="G33" s="93"/>
       <c r="H33" s="94"/>
       <c r="I33" s="95"/>
       <c r="J33" s="95"/>
       <c r="K33" s="96"/>
       <c r="L33" s="96"/>
-      <c r="M33" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="N33" s="95">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>15300</v>
-      </c>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="97"/>
       <c r="B34" s="97">
-        <v>2</v>
-      </c>
-      <c r="C34" s="103" t="s">
-        <v>632</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>568</v>
-      </c>
-      <c r="E34" s="106" t="s">
-        <v>557</v>
-      </c>
-      <c r="F34" s="92" t="s">
-        <v>487</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C34" s="113" t="s">
+        <v>631</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>635</v>
+      </c>
+      <c r="F34" s="92"/>
       <c r="G34" s="93"/>
       <c r="H34" s="94"/>
       <c r="I34" s="95"/>
@@ -5737,47 +5861,36 @@
       <c r="L34" s="96"/>
       <c r="M34" s="95"/>
       <c r="N34" s="95"/>
-      <c r="O34" s="3">
-        <v>17000</v>
-      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="98"/>
-      <c r="B35" s="79">
-        <v>2</v>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119">
+        <v>1</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>602</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>569</v>
-      </c>
-      <c r="E35" s="106" t="s">
-        <v>558</v>
-      </c>
-      <c r="F35" s="92" t="s">
-        <v>488</v>
-      </c>
-      <c r="G35" s="99" t="s">
-        <v>331</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E35" s="104"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="94"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
       <c r="K35" s="96"/>
       <c r="L35" s="96"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="121">
-        <v>3</v>
-      </c>
+      <c r="A36" s="97"/>
       <c r="B36" s="97">
-        <v>1</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>638</v>
+        <v>2</v>
+      </c>
+      <c r="C36" s="113" t="s">
+        <v>821</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="104"/>
@@ -5791,20 +5904,15 @@
       <c r="M36" s="95"/>
       <c r="N36" s="95"/>
     </row>
-    <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="121"/>
-      <c r="B37" s="97">
-        <v>3</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>824</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="E37" s="105" t="s">
-        <v>642</v>
-      </c>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="103" t="s">
+        <v>629</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="92"/>
       <c r="G37" s="93"/>
       <c r="H37" s="94"/>
       <c r="I37" s="95"/>
@@ -5813,23 +5921,23 @@
       <c r="L37" s="96"/>
       <c r="M37" s="95"/>
       <c r="N37" s="95"/>
-      <c r="O37">
-        <v>14600</v>
-      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="121"/>
+      <c r="A38" s="97"/>
       <c r="B38" s="97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>630</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>643</v>
+        <v>807</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="F38" s="92" t="s">
+        <v>489</v>
       </c>
       <c r="G38" s="93"/>
       <c r="H38" s="94"/>
@@ -5837,66 +5945,73 @@
       <c r="J38" s="95"/>
       <c r="K38" s="96"/>
       <c r="L38" s="96"/>
+      <c r="M38" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="N38" s="95">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>15300</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="121"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="103" t="s">
-        <v>648</v>
-      </c>
-      <c r="D39" s="92"/>
+        <v>598</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>566</v>
+      </c>
       <c r="E39" s="106" t="s">
-        <v>649</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="99"/>
+        <v>555</v>
+      </c>
+      <c r="F39" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="G39" s="93"/>
       <c r="H39" s="94"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
       <c r="K39" s="96"/>
       <c r="L39" s="96"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="3">
+        <v>17000</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="121"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="79">
         <v>1</v>
       </c>
       <c r="C40" s="103" t="s">
-        <v>639</v>
+        <v>818</v>
       </c>
       <c r="D40" s="92"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="99"/>
+      <c r="E40" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="F40" s="92" t="s">
+        <v>820</v>
+      </c>
+      <c r="G40" s="93"/>
       <c r="H40" s="94"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
       <c r="K40" s="96"/>
       <c r="L40" s="96"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="121"/>
-      <c r="B41" s="80">
-        <v>4</v>
-      </c>
-      <c r="C41" s="115" t="s">
-        <v>603</v>
-      </c>
-      <c r="D41" s="116" t="s">
-        <v>609</v>
-      </c>
-      <c r="E41" s="107" t="s">
-        <v>646</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="99" t="s">
-        <v>334</v>
+      <c r="A41" s="121">
+        <v>3</v>
       </c>
       <c r="H41" s="94"/>
       <c r="I41" s="3"/>
@@ -5905,25 +6020,27 @@
       <c r="L41" s="96"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="89"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="121"/>
       <c r="B42" s="97">
-        <v>4</v>
-      </c>
-      <c r="C42" s="115" t="s">
-        <v>604</v>
-      </c>
-      <c r="D42" s="116" t="s">
-        <v>610</v>
-      </c>
-      <c r="E42" s="107" t="s">
-        <v>637</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="100"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>567</v>
+      </c>
+      <c r="E42" s="106" t="s">
+        <v>556</v>
+      </c>
+      <c r="F42" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="G42" s="99" t="s">
+        <v>331</v>
+      </c>
       <c r="H42" s="94"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5931,69 +6048,68 @@
       <c r="L42" s="96"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="89"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="121"/>
       <c r="B43" s="97">
-        <v>4</v>
-      </c>
-      <c r="C43" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>600</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E43" s="105" t="s">
         <v>633</v>
       </c>
-      <c r="D43" s="117" t="s">
-        <v>628</v>
-      </c>
-      <c r="E43" s="107" t="s">
-        <v>636</v>
-      </c>
-      <c r="F43" s="92"/>
       <c r="G43" s="93"/>
       <c r="H43" s="94"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
       <c r="K43" s="96"/>
       <c r="L43" s="96"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="89"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43">
+        <v>14600</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="121"/>
-      <c r="B44" s="98">
-        <v>1</v>
-      </c>
-      <c r="C44" s="103" t="s">
-        <v>647</v>
-      </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="92"/>
+      <c r="B44" s="97">
+        <v>3</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>805</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>634</v>
+      </c>
       <c r="G44" s="93"/>
       <c r="H44" s="94"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
       <c r="K44" s="96"/>
       <c r="L44" s="96"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="89"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="121"/>
-      <c r="B45" s="98">
-        <v>4</v>
+      <c r="B45" s="79">
+        <v>1</v>
       </c>
       <c r="C45" s="103" t="s">
-        <v>652</v>
-      </c>
-      <c r="D45" s="102"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="93"/>
+        <v>624</v>
+      </c>
+      <c r="D45" s="92"/>
+      <c r="E45" s="106" t="s">
+        <v>639</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="99"/>
       <c r="H45" s="94"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -6001,31 +6117,45 @@
       <c r="L45" s="96"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="89"/>
-    </row>
-    <row r="46" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="121"/>
-      <c r="B46" s="110">
+      <c r="B46" s="79">
         <v>1</v>
       </c>
-      <c r="C46" s="111" t="s">
-        <v>635</v>
-      </c>
-      <c r="E46" s="112" t="s">
-        <v>634</v>
-      </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="88"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
+      <c r="C46" s="103" t="s">
+        <v>630</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="121"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="93"/>
+      <c r="B47" s="80">
+        <v>4</v>
+      </c>
+      <c r="C47" s="113" t="s">
+        <v>601</v>
+      </c>
+      <c r="D47" s="114" t="s">
+        <v>810</v>
+      </c>
+      <c r="E47" s="107" t="s">
+        <v>636</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="99" t="s">
+        <v>334</v>
+      </c>
       <c r="H47" s="94"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -6034,89 +6164,200 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
+      <c r="P47" s="89"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="121"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B48" s="97">
+        <v>4</v>
+      </c>
+      <c r="C48" s="113" t="s">
+        <v>602</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>607</v>
+      </c>
+      <c r="E48" s="107" t="s">
+        <v>628</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="89"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="121"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B49" s="97">
+        <v>4</v>
+      </c>
+      <c r="C49" s="113" t="s">
+        <v>808</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>809</v>
+      </c>
+      <c r="E49" s="107" t="s">
+        <v>627</v>
+      </c>
+      <c r="F49" s="92"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="89"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="121"/>
+      <c r="B50" s="98">
+        <v>1</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>637</v>
+      </c>
+      <c r="D50" s="102"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="89"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="121"/>
+      <c r="B51" s="98">
+        <v>4</v>
+      </c>
+      <c r="C51" s="103" t="s">
+        <v>642</v>
+      </c>
+      <c r="D51" s="102"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="89"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="121"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A53" s="121"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" s="121"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C58" s="2"/>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D59" s="2"/>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D64" s="2"/>
+      <c r="F64" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A36:A49"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A30"/>
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B48:B1048576 B1:B46">
+  <conditionalFormatting sqref="B53:B1048576 B1:B40 B42:B51">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
@@ -6130,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6197,7 +6438,7 @@
         <v>416</v>
       </c>
       <c r="N2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O2" t="s">
         <v>351</v>
@@ -6222,7 +6463,7 @@
         <v>383</v>
       </c>
       <c r="AR2" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.15">
@@ -6267,12 +6508,12 @@
         <v>384</v>
       </c>
       <c r="AR3" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A4" s="82" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -6287,16 +6528,16 @@
         <v>20001</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="J4" t="s">
         <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>692</v>
+        <v>811</v>
       </c>
       <c r="M4" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="N4">
         <v>21001</v>
@@ -6313,7 +6554,7 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -6322,19 +6563,19 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="H5">
         <v>20002</v>
       </c>
       <c r="I5" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="K5" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="M5" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="N5">
         <v>21002</v>
@@ -6358,7 +6599,7 @@
         <v>425</v>
       </c>
       <c r="AQ5" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="AR5">
         <v>100</v>
@@ -6366,7 +6607,7 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -6381,13 +6622,13 @@
         <v>20003</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K6" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M6" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="N6">
         <v>21003</v>
@@ -6447,7 +6688,7 @@
         <v>424</v>
       </c>
       <c r="AQ6" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="AR6">
         <v>150</v>
@@ -6464,19 +6705,19 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="H7">
         <v>20004</v>
       </c>
       <c r="I7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="K7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M7" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="N7">
         <v>21004</v>
@@ -6542,7 +6783,7 @@
         <v>427</v>
       </c>
       <c r="AQ7" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="AR7">
         <v>200</v>
@@ -6556,22 +6797,22 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="H8">
         <v>20005</v>
       </c>
       <c r="I8" s="74" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="J8" t="s">
         <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M8" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="N8">
         <v>21005</v>
@@ -6643,16 +6884,14 @@
         <v>428</v>
       </c>
       <c r="AQ8" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="AR8">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A9" s="81" t="s">
-        <v>516</v>
-      </c>
+      <c r="A9" s="81"/>
       <c r="C9">
         <v>35</v>
       </c>
@@ -6660,22 +6899,22 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="H9">
         <v>20006</v>
       </c>
       <c r="I9" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="J9" t="s">
         <v>401</v>
       </c>
       <c r="K9" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="M9" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="N9">
         <v>21006</v>
@@ -6750,16 +6989,14 @@
         <v>429</v>
       </c>
       <c r="AQ9" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="AR9">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.15">
-      <c r="A10" s="81" t="s">
-        <v>517</v>
-      </c>
+      <c r="A10" s="81"/>
       <c r="C10">
         <v>40</v>
       </c>
@@ -6773,25 +7010,25 @@
         <v>20007</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="J10">
         <v>5000</v>
       </c>
       <c r="K10" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="M10" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="N10">
         <v>21007</v>
       </c>
       <c r="O10" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="P10" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="Q10">
         <v>3000</v>
@@ -6845,7 +7082,7 @@
         <v>430</v>
       </c>
       <c r="AQ10" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="AR10">
         <v>750</v>
@@ -6859,31 +7096,31 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="H11">
         <v>20008</v>
       </c>
       <c r="I11" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="J11">
         <v>5000</v>
       </c>
       <c r="K11" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="M11" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="N11">
         <v>21008</v>
       </c>
       <c r="O11" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="P11" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="Q11">
         <v>3000</v>
@@ -6931,7 +7168,7 @@
         <v>431</v>
       </c>
       <c r="AQ11" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="AR11">
         <v>800</v>
@@ -6951,25 +7188,25 @@
         <v>20009</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="J12">
         <v>6600</v>
       </c>
       <c r="K12" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="M12" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="N12">
         <v>21009</v>
       </c>
       <c r="O12" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="P12" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="Q12">
         <v>3000</v>
@@ -7001,31 +7238,31 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="H13">
         <v>20010</v>
       </c>
       <c r="I13" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J13">
         <v>6600</v>
       </c>
       <c r="K13" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="M13" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="N13">
         <v>21010</v>
       </c>
       <c r="O13" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="P13" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="Q13">
         <v>3000</v>
@@ -7063,25 +7300,25 @@
         <v>20011</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="J14">
         <v>7800</v>
       </c>
       <c r="K14" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="M14" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="N14">
         <v>21009</v>
       </c>
       <c r="O14" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="P14" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="Q14">
         <v>3000</v>
@@ -7095,31 +7332,31 @@
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="H15">
         <v>20012</v>
       </c>
       <c r="I15" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="J15">
         <v>7800</v>
       </c>
       <c r="K15" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="M15" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="N15">
         <v>21010</v>
       </c>
       <c r="O15" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="P15" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="Q15">
         <v>3000</v>
@@ -7133,25 +7370,25 @@
         <v>20013</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="J16">
         <v>8100</v>
       </c>
       <c r="K16" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="M16" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="N16">
         <v>21009</v>
       </c>
       <c r="O16" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="P16" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="Q16">
         <v>3000</v>
@@ -7159,31 +7396,31 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="H17">
         <v>20014</v>
       </c>
       <c r="I17" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="J17">
         <v>8100</v>
       </c>
       <c r="K17" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="M17" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="N17">
         <v>21010</v>
       </c>
       <c r="O17" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="P17" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="Q17">
         <v>3000</v>
@@ -7197,27 +7434,27 @@
         <v>20015</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="J18">
         <v>8100</v>
       </c>
       <c r="K18" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="H19">
         <v>20016</v>
       </c>
       <c r="I19" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="K19" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.15">
@@ -7228,24 +7465,24 @@
         <v>20017</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="K20" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="H21">
         <v>20018</v>
       </c>
       <c r="I21" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="K21" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.15">
@@ -7256,80 +7493,80 @@
         <v>20019</v>
       </c>
       <c r="I22" s="74" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="K22" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G23" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="H23">
         <v>20020</v>
       </c>
       <c r="I23" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="K23" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H24">
         <v>20021</v>
       </c>
       <c r="I24" s="74" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="K24" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G25" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="H25">
         <v>20022</v>
       </c>
       <c r="I25" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K25" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G26" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="H26">
         <v>20023</v>
       </c>
       <c r="I26" s="74" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="K26" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.15">
       <c r="G27" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H27">
         <v>20024</v>
       </c>
       <c r="I27" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="K27" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -7453,7 +7690,7 @@
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C13" s="8">
         <v>30</v>
@@ -7464,7 +7701,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C14" s="8">
         <v>30</v>
@@ -13756,14 +13993,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13774,12 +14011,13 @@
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="40.125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="85" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="9" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="77" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="77" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="77" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13788,22 +14026,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C1" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="D1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E1" t="s">
         <v>329</v>
       </c>
       <c r="F1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>3</v>
@@ -13819,7 +14057,7 @@
       <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
       <c r="L2" s="77" t="s">
@@ -13835,10 +14073,10 @@
         <v>354</v>
       </c>
       <c r="P2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="R2" t="s">
         <v>347</v>
@@ -13846,23 +14084,23 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="121"/>
-      <c r="B3" s="114">
+      <c r="B3" s="112">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>768</v>
+        <v>827</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>775</v>
+        <v>852</v>
       </c>
       <c r="F3" s="84" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H3" s="85" t="s">
         <v>4</v>
@@ -13874,10 +14112,10 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>776</v>
+        <v>828</v>
       </c>
       <c r="O3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P3">
         <v>300</v>
@@ -13891,20 +14129,20 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="121"/>
-      <c r="B4" s="114">
+      <c r="B4" s="112">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -13932,20 +14170,20 @@
       <c r="A5" s="121">
         <v>1</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="112">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G5" t="s">
         <v>332</v>
@@ -13972,20 +14210,20 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="121"/>
-      <c r="B6" s="114">
+      <c r="B6" s="112">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="I6" s="6"/>
       <c r="P6">
@@ -13997,20 +14235,20 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="121"/>
-      <c r="B7" s="114">
+      <c r="B7" s="112">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G7" s="84" t="s">
         <v>509</v>
@@ -14037,26 +14275,23 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="121"/>
-      <c r="B8" s="114">
+      <c r="B8" s="112">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="G8" s="84"/>
       <c r="I8" s="6"/>
-      <c r="N8" t="s">
-        <v>752</v>
-      </c>
       <c r="P8">
         <v>5000</v>
       </c>
@@ -14066,20 +14301,20 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="121"/>
-      <c r="B9" s="114">
+      <c r="B9" s="112">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>337</v>
@@ -14105,7 +14340,7 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="121"/>
-      <c r="B10" s="114">
+      <c r="B10" s="112">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -14114,11 +14349,11 @@
       <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="78" t="s">
-        <v>526</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>540</v>
+      <c r="E10" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>345</v>
@@ -14132,9 +14367,6 @@
       <c r="M10" s="77">
         <v>18</v>
       </c>
-      <c r="N10" t="s">
-        <v>751</v>
-      </c>
       <c r="P10">
         <v>2800</v>
       </c>
@@ -14147,50 +14379,47 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="121"/>
-      <c r="B11" s="114">
+      <c r="B11" s="112">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>541</v>
+      <c r="E11" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>538</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H11" s="85" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="L11" s="77">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="77">
-        <v>35</v>
-      </c>
-      <c r="N11">
-        <v>11001</v>
-      </c>
-      <c r="O11">
         <v>25</v>
       </c>
       <c r="P11">
-        <v>3600</v>
+        <v>3300</v>
+      </c>
+      <c r="Q11">
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>764</v>
-      </c>
-      <c r="S11">
-        <v>70013</v>
-      </c>
-      <c r="T11">
-        <v>70007</v>
+        <v>857</v>
+      </c>
+      <c r="S11" t="s">
+        <v>860</v>
+      </c>
+      <c r="T11" t="s">
+        <v>859</v>
       </c>
       <c r="U11">
         <v>50009</v>
@@ -14198,38 +14427,38 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="121"/>
-      <c r="B12" s="114">
+      <c r="B12" s="112">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H12" s="85" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="L12" s="77">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="M12" s="77">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P12">
-        <v>3300</v>
-      </c>
-      <c r="Q12">
-        <v>18</v>
+        <v>3600</v>
+      </c>
+      <c r="S12" t="s">
+        <v>861</v>
       </c>
       <c r="U12">
         <v>50010</v>
@@ -14237,23 +14466,26 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="121"/>
-      <c r="B13" s="114">
+      <c r="B13" s="112">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="N13" t="s">
-        <v>753</v>
+        <v>746</v>
+      </c>
+      <c r="N13">
+        <v>20018</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
       </c>
       <c r="P13">
         <v>4000</v>
@@ -14261,112 +14493,106 @@
       <c r="Q13">
         <v>25</v>
       </c>
-      <c r="R13" t="s">
-        <v>349</v>
-      </c>
-      <c r="S13">
-        <v>70002</v>
-      </c>
-      <c r="T13">
-        <v>70020</v>
-      </c>
       <c r="U13">
         <v>50011</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="121"/>
-      <c r="B14" s="114">
+      <c r="B14" s="112">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="N14">
         <v>50002</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>300</v>
       </c>
       <c r="U14" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="121"/>
-      <c r="B15" s="114">
+      <c r="B15" s="112">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="N15" t="s">
-        <v>763</v>
+        <v>747</v>
+      </c>
+      <c r="N15">
+        <v>50002</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P15">
         <v>300</v>
       </c>
       <c r="U15" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="121"/>
-      <c r="B16" s="118">
+      <c r="B16" s="116">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="N16">
         <v>50002</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>300</v>
       </c>
+      <c r="S16">
+        <v>70003</v>
+      </c>
       <c r="U16" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="121"/>
-      <c r="B17" s="114">
+      <c r="B17" s="112">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -14376,10 +14602,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>341</v>
@@ -14394,10 +14620,7 @@
         <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>765</v>
-      </c>
-      <c r="S17">
-        <v>70003</v>
+        <v>858</v>
       </c>
       <c r="T17">
         <v>70019</v>
@@ -14408,20 +14631,20 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="121"/>
-      <c r="B18" s="114">
+      <c r="B18" s="112">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>343</v>
@@ -14441,20 +14664,20 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="121"/>
-      <c r="B19" s="114">
+      <c r="B19" s="112">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>344</v>
@@ -14462,12 +14685,6 @@
       <c r="H19" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="N19">
-        <v>11001</v>
-      </c>
-      <c r="O19">
-        <v>10</v>
-      </c>
       <c r="P19">
         <v>5500</v>
       </c>
@@ -14480,26 +14697,32 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="121"/>
-      <c r="B20" s="114">
+      <c r="B20" s="112">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>346</v>
       </c>
       <c r="H20" s="86" t="s">
         <v>334</v>
+      </c>
+      <c r="N20">
+        <v>11001</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
       </c>
       <c r="P20">
         <v>6000</v>
@@ -14515,7 +14738,7 @@
       <c r="A21" s="121">
         <v>2</v>
       </c>
-      <c r="B21" s="114">
+      <c r="B21" s="112">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -14525,10 +14748,10 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>342</v>
@@ -14536,12 +14759,6 @@
       <c r="H21" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="N21">
-        <v>10005</v>
-      </c>
-      <c r="O21">
-        <v>15</v>
-      </c>
       <c r="P21">
         <v>6600</v>
       </c>
@@ -14554,20 +14771,20 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="121"/>
-      <c r="B22" s="114">
+      <c r="B22" s="112">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D22" s="2">
         <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>355</v>
@@ -14575,6 +14792,12 @@
       <c r="H22" s="86" t="s">
         <v>357</v>
       </c>
+      <c r="N22">
+        <v>11001</v>
+      </c>
+      <c r="O22">
+        <v>35</v>
+      </c>
       <c r="P22">
         <v>7200</v>
       </c>
@@ -14587,30 +14810,30 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="121"/>
-      <c r="B23" s="114">
+      <c r="B23" s="112">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D23" s="2">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>403</v>
       </c>
       <c r="H23" s="86"/>
       <c r="N23">
-        <v>11001</v>
+        <v>10005</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P23">
         <v>7800</v>
@@ -14624,20 +14847,20 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="121"/>
-      <c r="B24" s="114">
+      <c r="B24" s="112">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D24" s="2">
         <v>10</v>
       </c>
       <c r="E24" s="78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G24" s="78" t="s">
         <v>514</v>
@@ -14663,20 +14886,20 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="121"/>
-      <c r="B25" s="114">
+      <c r="B25" s="112">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D25" s="2">
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>449</v>
@@ -14696,23 +14919,23 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="121"/>
-      <c r="B26" s="114">
+      <c r="B26" s="112">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D26" s="2">
         <v>10</v>
       </c>
       <c r="E26" s="78" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H26" s="86" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P26">
         <v>10400</v>
@@ -14726,20 +14949,20 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="121"/>
-      <c r="B27" s="114">
+      <c r="B27" s="112">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D27" s="2">
         <v>10</v>
       </c>
       <c r="E27" s="78" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>423</v>
@@ -14759,20 +14982,20 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="121"/>
-      <c r="B28" s="114">
+      <c r="B28" s="112">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="D28" s="2">
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>446</v>
@@ -14780,8 +15003,8 @@
       <c r="H28" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="N28" t="s">
-        <v>616</v>
+      <c r="N28">
+        <v>10017</v>
       </c>
       <c r="O28">
         <v>15</v>
@@ -14798,20 +15021,20 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="121"/>
-      <c r="B29" s="114">
+      <c r="B29" s="112">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="D29" s="2">
         <v>11</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="H29" s="86"/>
       <c r="P29">
@@ -14826,20 +15049,20 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="121"/>
-      <c r="B30" s="119">
+      <c r="B30" s="117">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D30" s="2">
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>450</v>
@@ -14859,23 +15082,23 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="121"/>
-      <c r="B31" s="114">
+      <c r="B31" s="112">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D31" s="2">
         <v>13</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H31" s="86" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P31">
         <v>12500</v>
@@ -14889,23 +15112,23 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="121"/>
-      <c r="B32" s="114">
+      <c r="B32" s="112">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D32" s="2">
         <v>13</v>
       </c>
       <c r="E32" s="78" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H32" s="86" t="s">
         <v>331</v>
@@ -14922,20 +15145,20 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33" s="121"/>
-      <c r="B33" s="114">
+      <c r="B33" s="112">
         <v>1</v>
       </c>
       <c r="C33" s="91" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D33" s="2">
         <v>14</v>
       </c>
       <c r="E33" s="92" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F33" s="92" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G33" s="92" t="s">
         <v>489</v>
@@ -14946,19 +15169,17 @@
       <c r="K33" s="95"/>
       <c r="L33" s="96"/>
       <c r="M33" s="96"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
+      <c r="N33" s="95">
+        <v>10007</v>
+      </c>
+      <c r="O33" s="95">
+        <v>5</v>
+      </c>
       <c r="P33">
         <v>15000</v>
       </c>
       <c r="Q33">
         <v>110</v>
-      </c>
-      <c r="R33">
-        <v>10007</v>
-      </c>
-      <c r="S33">
-        <v>2</v>
       </c>
       <c r="U33">
         <v>50027</v>
@@ -14968,20 +15189,20 @@
       <c r="A34" s="121">
         <v>3</v>
       </c>
-      <c r="B34" s="114">
+      <c r="B34" s="112">
         <v>1</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D34" s="2">
         <v>20</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F34" s="92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G34" s="92" t="s">
         <v>487</v>
@@ -14992,11 +15213,11 @@
       <c r="K34" s="95"/>
       <c r="L34" s="96"/>
       <c r="M34" s="96"/>
-      <c r="N34" s="95" t="s">
-        <v>490</v>
+      <c r="N34" s="95">
+        <v>30001</v>
       </c>
       <c r="O34" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>16000</v>
@@ -15010,20 +15231,20 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35" s="121"/>
-      <c r="B35" s="114">
+      <c r="B35" s="112">
         <v>1</v>
       </c>
       <c r="C35" s="91" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D35" s="2">
         <v>20</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F35" s="92" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G35" s="92" t="s">
         <v>488</v>
@@ -15051,20 +15272,20 @@
       <c r="B36" s="110">
         <v>3</v>
       </c>
-      <c r="C36" s="120" t="s">
-        <v>785</v>
+      <c r="C36" s="118" t="s">
+        <v>766</v>
       </c>
       <c r="D36" s="2">
         <v>22</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="G36" s="87"/>
-      <c r="H36" s="113"/>
+      <c r="H36" s="111"/>
       <c r="I36" s="88"/>
       <c r="L36" s="90"/>
       <c r="M36" s="90"/>
@@ -15077,19 +15298,19 @@
       <c r="B37" s="110">
         <v>3</v>
       </c>
-      <c r="C37" s="120" t="s">
-        <v>786</v>
+      <c r="C37" s="118" t="s">
+        <v>767</v>
       </c>
       <c r="D37" s="2">
         <v>22</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>788</v>
-      </c>
-      <c r="H37" s="113"/>
+        <v>769</v>
+      </c>
+      <c r="H37" s="111"/>
       <c r="I37" s="88"/>
       <c r="L37" s="90"/>
       <c r="M37" s="90"/>
@@ -15099,26 +15320,26 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38" s="121"/>
-      <c r="B38" s="114">
+      <c r="B38" s="112">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D38" s="2">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="H38" s="86" t="s">
         <v>331</v>
       </c>
       <c r="N38" t="s">
-        <v>611</v>
+        <v>850</v>
       </c>
       <c r="O38">
         <v>25</v>
@@ -15133,23 +15354,23 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="121"/>
-      <c r="B39" s="114">
+      <c r="B39" s="112">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="D39" s="2">
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="N39" t="s">
-        <v>611</v>
+        <v>850</v>
       </c>
       <c r="O39">
         <v>25</v>
@@ -15163,24 +15384,24 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="121"/>
-      <c r="B40" s="114">
+      <c r="B40" s="112">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D40" s="2">
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="G40" s="1"/>
       <c r="N40" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="O40">
         <v>10</v>
@@ -15195,24 +15416,24 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="121"/>
-      <c r="B41" s="114">
+      <c r="B41" s="112">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="D41" s="2">
         <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="G41" s="1"/>
       <c r="N41" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="O41">
         <v>10</v>
@@ -15226,182 +15447,395 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="121"/>
-      <c r="B42" s="114" t="s">
-        <v>790</v>
+      <c r="B42" s="120">
+        <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="D42" s="2">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>812</v>
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>845</v>
+      </c>
+      <c r="H42" s="86" t="s">
+        <v>331</v>
+      </c>
       <c r="N42" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="O42">
-        <v>5000</v>
-      </c>
-      <c r="Q42">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>550</v>
+      </c>
+      <c r="Q42" s="89"/>
+      <c r="U42">
+        <v>53003</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B43" s="119" t="s">
-        <v>791</v>
+      <c r="B43" s="120">
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="D43" s="2">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>813</v>
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>838</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>846</v>
+      </c>
       <c r="N43" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="O43">
-        <v>8000</v>
-      </c>
-      <c r="Q43">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>590</v>
+      </c>
+      <c r="U43">
+        <v>53003</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B44" s="119" t="s">
-        <v>790</v>
+      <c r="B44" s="120">
+        <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="D44" s="2">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>814</v>
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="G44" s="1"/>
+      <c r="N44" t="s">
+        <v>608</v>
+      </c>
       <c r="O44">
-        <v>2500</v>
-      </c>
-      <c r="Q44">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="P44">
+        <v>630</v>
+      </c>
+      <c r="Q44" s="89"/>
+      <c r="U44">
+        <v>53004</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B45" s="119" t="s">
-        <v>791</v>
+      <c r="B45" s="120">
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="D45" s="2">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>815</v>
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>802</v>
+        <v>848</v>
       </c>
       <c r="G45" s="1"/>
+      <c r="N45" t="s">
+        <v>608</v>
+      </c>
       <c r="O45">
-        <v>2500</v>
-      </c>
-      <c r="Q45">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="P45">
+        <v>670</v>
+      </c>
+      <c r="U45">
+        <v>53004</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B46" s="119" t="s">
-        <v>790</v>
+      <c r="B46" s="120">
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
       <c r="D46" s="2">
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>816</v>
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>853</v>
+      </c>
+      <c r="N46" t="s">
+        <v>851</v>
+      </c>
       <c r="O46">
-        <v>2500</v>
-      </c>
-      <c r="Q46">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="U46">
+        <v>53005</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B47" s="119" t="s">
-        <v>791</v>
+      <c r="B47" s="120">
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="D47" s="2">
-        <v>8</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>817</v>
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>854</v>
+      </c>
       <c r="N47" t="s">
-        <v>818</v>
-      </c>
-      <c r="Q47">
-        <v>30</v>
+        <v>849</v>
+      </c>
+      <c r="O47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>53005</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B48" s="119"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="B48" s="120">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D48" s="2">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>855</v>
+      </c>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B49" s="119"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="N48" t="s">
+        <v>608</v>
+      </c>
+      <c r="O48">
+        <v>15</v>
+      </c>
+      <c r="U48">
+        <v>53006</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B49" s="120">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D49" s="2">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>856</v>
+      </c>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B50" s="119"/>
+      <c r="N49" t="s">
+        <v>608</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
+      <c r="U49">
+        <v>53006</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B50" s="117"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
       <c r="E51" s="2"/>
       <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B52" s="112" t="s">
+        <v>771</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="N52" t="s">
+        <v>800</v>
+      </c>
+      <c r="O52">
+        <v>5000</v>
+      </c>
+      <c r="Q52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B53" s="117" t="s">
+        <v>772</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="N53" t="s">
+        <v>801</v>
+      </c>
+      <c r="O53">
+        <v>8000</v>
+      </c>
+      <c r="Q53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B54" s="117" t="s">
+        <v>771</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D54" s="2">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="O54">
+        <v>2500</v>
+      </c>
+      <c r="Q54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B55" s="117" t="s">
+        <v>772</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="O55">
+        <v>2500</v>
+      </c>
+      <c r="Q55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B56" s="117" t="s">
+        <v>771</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D56" s="2">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="O56">
+        <v>2500</v>
+      </c>
+      <c r="Q56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B57" s="117" t="s">
+        <v>772</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D57" s="2">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="N57" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q57">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
